--- a/atique.xlsx
+++ b/atique.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ur_sensei\Desktop\backup2 1\backup2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Desktop\New folder\excel_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF7F59C-AF9B-4792-ABD9-EFDFE0D932F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A745D98D-D829-4595-83DC-659120852811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" firstSheet="1" activeTab="1" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
-    <sheet name="IncomeInfo" sheetId="3" r:id="rId2"/>
+    <sheet name="Income" sheetId="3" r:id="rId2"/>
     <sheet name="AssetInfo" sheetId="4" r:id="rId3"/>
     <sheet name="FamilyInfo" sheetId="5" r:id="rId4"/>
     <sheet name="EducationInfo" sheetId="6" r:id="rId5"/>
     <sheet name="Medical&amp;Accessibility " sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IncomeInfo!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Income!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Questions - Idea Log'!$A$1:$L$95</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -14649,9 +14649,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -14664,7 +14664,7 @@
     <col min="6" max="6" width="59.140625" style="60" customWidth="1"/>
     <col min="7" max="7" width="48.28515625" style="60" customWidth="1"/>
     <col min="8" max="8" width="65.7109375" style="60" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="60" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="60" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="60" customWidth="1"/>
     <col min="11" max="11" width="37" style="60" customWidth="1"/>
     <col min="12" max="12" width="25.5703125" style="60" customWidth="1"/>
@@ -14672,7 +14672,7 @@
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="59" customFormat="1">
+    <row r="1" spans="1:13" s="59" customFormat="1" ht="15.75">
       <c r="A1" s="59" t="s">
         <v>813</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" ht="46.5">
+    <row r="2" spans="1:13" customFormat="1" ht="45">
       <c r="A2" s="184" t="s">
         <v>824</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" customFormat="1" ht="15">
       <c r="A3" s="185"/>
       <c r="B3" s="121"/>
       <c r="C3" s="122"/>
@@ -14773,7 +14773,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" customFormat="1" ht="15">
       <c r="A4" s="185"/>
       <c r="B4" s="121"/>
       <c r="C4" s="122"/>
@@ -14794,7 +14794,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" customFormat="1" ht="15">
       <c r="A5" s="185"/>
       <c r="B5" s="121"/>
       <c r="C5" s="122"/>
@@ -14815,7 +14815,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" customFormat="1" ht="15">
       <c r="A6" s="185"/>
       <c r="B6" s="121"/>
       <c r="C6" s="122"/>
@@ -14836,7 +14836,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" customFormat="1" ht="15">
       <c r="A7" s="185"/>
       <c r="B7" s="121"/>
       <c r="C7" s="122"/>
@@ -14857,7 +14857,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" customFormat="1" ht="15">
       <c r="A8" s="185"/>
       <c r="B8" s="121"/>
       <c r="C8" s="122"/>
@@ -14878,7 +14878,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="49.5">
+    <row r="9" spans="1:13" customFormat="1" ht="45">
       <c r="A9" s="185"/>
       <c r="B9" s="123" t="s">
         <v>270</v>
@@ -15125,7 +15125,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="20" spans="1:13" customFormat="1" ht="46.5">
+    <row r="20" spans="1:13" customFormat="1" ht="45">
       <c r="A20" s="185"/>
       <c r="B20" s="121" t="s">
         <v>280</v>
@@ -15162,7 +15162,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="21" spans="1:13" customFormat="1" ht="17.25">
+    <row r="21" spans="1:13" customFormat="1" ht="15.75">
       <c r="A21" s="185"/>
       <c r="B21" s="121"/>
       <c r="C21" s="122"/>
@@ -15183,7 +15183,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="22" spans="1:13" customFormat="1" ht="17.25">
+    <row r="22" spans="1:13" customFormat="1" ht="15.75">
       <c r="A22" s="185"/>
       <c r="B22" s="121"/>
       <c r="C22" s="122"/>
@@ -15204,7 +15204,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="23" spans="1:13" customFormat="1" ht="17.25">
+    <row r="23" spans="1:13" customFormat="1" ht="15.75">
       <c r="A23" s="185"/>
       <c r="B23" s="121"/>
       <c r="C23" s="122"/>
@@ -15225,7 +15225,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="24" spans="1:13" customFormat="1" ht="17.25">
+    <row r="24" spans="1:13" customFormat="1" ht="15.75">
       <c r="A24" s="185"/>
       <c r="B24" s="121"/>
       <c r="C24" s="122"/>
@@ -15246,7 +15246,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:13" customFormat="1" ht="17.25">
+    <row r="25" spans="1:13" customFormat="1" ht="15.75">
       <c r="A25" s="185"/>
       <c r="B25" s="121"/>
       <c r="C25" s="122"/>
@@ -15267,7 +15267,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="26" spans="1:13" customFormat="1" ht="17.25">
+    <row r="26" spans="1:13" customFormat="1" ht="15.75">
       <c r="A26" s="185"/>
       <c r="B26" s="121"/>
       <c r="C26" s="122"/>
@@ -15288,7 +15288,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="27" spans="1:13" customFormat="1" ht="17.25">
+    <row r="27" spans="1:13" customFormat="1" ht="15.75">
       <c r="A27" s="185"/>
       <c r="B27" s="121"/>
       <c r="C27" s="122"/>
@@ -15309,7 +15309,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="28" spans="1:13" customFormat="1" ht="17.25">
+    <row r="28" spans="1:13" customFormat="1" ht="15.75">
       <c r="A28" s="185"/>
       <c r="B28" s="121"/>
       <c r="C28" s="122"/>
@@ -15330,7 +15330,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="29" spans="1:13" customFormat="1" ht="17.25">
+    <row r="29" spans="1:13" customFormat="1" ht="15.75">
       <c r="A29" s="185"/>
       <c r="B29" s="121"/>
       <c r="C29" s="122"/>
@@ -15351,7 +15351,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="30" spans="1:13" customFormat="1" ht="17.25">
+    <row r="30" spans="1:13" customFormat="1" ht="15.75">
       <c r="A30" s="185"/>
       <c r="B30" s="121"/>
       <c r="C30" s="122"/>
@@ -15372,7 +15372,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="31" spans="1:13" customFormat="1" ht="17.25">
+    <row r="31" spans="1:13" customFormat="1" ht="15.75">
       <c r="A31" s="185"/>
       <c r="B31" s="121"/>
       <c r="C31" s="122"/>
@@ -15393,7 +15393,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="32" spans="1:13" customFormat="1" ht="17.25">
+    <row r="32" spans="1:13" customFormat="1" ht="15.75">
       <c r="A32" s="185"/>
       <c r="B32" s="121"/>
       <c r="C32" s="122"/>
@@ -15414,7 +15414,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="33" spans="1:13" customFormat="1" ht="17.25">
+    <row r="33" spans="1:13" customFormat="1" ht="15.75">
       <c r="A33" s="185"/>
       <c r="B33" s="121"/>
       <c r="C33" s="122"/>
@@ -15435,7 +15435,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="34" spans="1:13" customFormat="1" ht="17.25">
+    <row r="34" spans="1:13" customFormat="1" ht="15.75">
       <c r="A34" s="185"/>
       <c r="B34" s="121"/>
       <c r="C34" s="122"/>
@@ -15456,7 +15456,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="35" spans="1:13" customFormat="1" ht="17.25">
+    <row r="35" spans="1:13" customFormat="1" ht="15.75">
       <c r="A35" s="185"/>
       <c r="B35" s="121"/>
       <c r="C35" s="122"/>
@@ -15477,7 +15477,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="36" spans="1:13" customFormat="1" ht="17.25">
+    <row r="36" spans="1:13" customFormat="1" ht="15.75">
       <c r="A36" s="185"/>
       <c r="B36" s="121"/>
       <c r="C36" s="122"/>
@@ -15498,7 +15498,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="37" spans="1:13" customFormat="1" ht="17.25">
+    <row r="37" spans="1:13" customFormat="1" ht="15.75">
       <c r="A37" s="185"/>
       <c r="B37" s="121"/>
       <c r="C37" s="122"/>
@@ -15519,7 +15519,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="38" spans="1:13" customFormat="1" ht="17.25">
+    <row r="38" spans="1:13" customFormat="1" ht="15.75">
       <c r="A38" s="186"/>
       <c r="B38" s="121"/>
       <c r="C38" s="122"/>
@@ -15600,7 +15600,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="41" spans="1:13" customFormat="1" ht="30">
+    <row r="41" spans="1:13" customFormat="1" ht="45.75">
       <c r="A41" s="185"/>
       <c r="B41" s="121" t="s">
         <v>296</v>
@@ -16114,7 +16114,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="78">
+    <row r="63" spans="1:13" ht="61.5">
       <c r="A63" s="185"/>
       <c r="B63" s="128" t="s">
         <v>524</v>
@@ -16151,7 +16151,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" ht="18">
       <c r="A64" s="185"/>
       <c r="B64" s="128"/>
       <c r="C64" s="121"/>
@@ -16172,7 +16172,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="18">
       <c r="A65" s="185"/>
       <c r="B65" s="128"/>
       <c r="C65" s="121"/>
@@ -16193,7 +16193,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="37.5">
+    <row r="66" spans="1:13" ht="36">
       <c r="A66" s="185"/>
       <c r="B66" s="128"/>
       <c r="C66" s="121"/>
@@ -16214,7 +16214,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="18">
       <c r="A67" s="185"/>
       <c r="B67" s="128"/>
       <c r="C67" s="121"/>
@@ -16235,7 +16235,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="37.5">
+    <row r="68" spans="1:13" ht="36">
       <c r="A68" s="185"/>
       <c r="B68" s="128"/>
       <c r="C68" s="121"/>
@@ -16256,7 +16256,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" ht="18">
       <c r="A69" s="185"/>
       <c r="B69" s="128"/>
       <c r="C69" s="121"/>
@@ -16277,7 +16277,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="37.5">
+    <row r="70" spans="1:13" ht="36">
       <c r="A70" s="185"/>
       <c r="B70" s="128"/>
       <c r="C70" s="121"/>
@@ -16298,7 +16298,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="55.5">
+    <row r="71" spans="1:13" ht="54">
       <c r="A71" s="185"/>
       <c r="B71" s="128"/>
       <c r="C71" s="121"/>
@@ -16319,7 +16319,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="32.25">
+    <row r="72" spans="1:13" ht="30.75">
       <c r="A72" s="185"/>
       <c r="B72" s="128"/>
       <c r="C72" s="121"/>
@@ -16340,7 +16340,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="55.5">
+    <row r="73" spans="1:13" ht="54">
       <c r="A73" s="185"/>
       <c r="B73" s="128"/>
       <c r="C73" s="121"/>
@@ -16361,7 +16361,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="55.5">
+    <row r="74" spans="1:13" ht="54">
       <c r="A74" s="185"/>
       <c r="B74" s="128"/>
       <c r="C74" s="121"/>
@@ -16382,7 +16382,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="32.25">
+    <row r="75" spans="1:13" ht="30.75">
       <c r="A75" s="185"/>
       <c r="B75" s="128"/>
       <c r="C75" s="121"/>
@@ -16401,7 +16401,7 @@
       </c>
       <c r="M75" s="65"/>
     </row>
-    <row r="76" spans="1:13" ht="212.25">
+    <row r="76" spans="1:13" ht="210">
       <c r="A76" s="185"/>
       <c r="B76" s="128" t="s">
         <v>542</v>
@@ -16461,7 +16461,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="31.5">
+    <row r="78" spans="1:13" ht="30">
       <c r="A78" s="185"/>
       <c r="B78" s="121" t="s">
         <v>713</v>
@@ -16486,7 +16486,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5">
+    <row r="79" spans="1:13" ht="15">
       <c r="A79" s="185"/>
       <c r="B79" s="121"/>
       <c r="C79" s="121"/>
@@ -16507,7 +16507,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16.5">
+    <row r="80" spans="1:13" ht="15">
       <c r="A80" s="185"/>
       <c r="B80" s="121"/>
       <c r="C80" s="121"/>
@@ -16528,7 +16528,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="16.5">
+    <row r="81" spans="1:16" ht="15">
       <c r="A81" s="185"/>
       <c r="B81" s="121"/>
       <c r="C81" s="121"/>
@@ -16549,7 +16549,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="16.5">
+    <row r="82" spans="1:16" ht="15">
       <c r="A82" s="185"/>
       <c r="B82" s="121"/>
       <c r="C82" s="121"/>
@@ -16570,7 +16570,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="212.25">
+    <row r="83" spans="1:16" ht="210">
       <c r="A83" s="185"/>
       <c r="B83" s="128" t="s">
         <v>552</v>
@@ -16603,7 +16603,7 @@
       <c r="L83" s="121"/>
       <c r="M83" s="121"/>
     </row>
-    <row r="84" spans="1:16" ht="212.25">
+    <row r="84" spans="1:16" ht="210">
       <c r="A84" s="186"/>
       <c r="B84" s="128" t="s">
         <v>561</v>
@@ -16636,7 +16636,7 @@
       <c r="L84" s="121"/>
       <c r="M84" s="121"/>
     </row>
-    <row r="85" spans="1:16" ht="152.25">
+    <row r="85" spans="1:16" ht="150">
       <c r="A85" s="183" t="s">
         <v>1076</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="183"/>
       <c r="B86" s="128"/>
       <c r="C86" s="121"/>
@@ -16698,7 +16698,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="47.25">
+    <row r="87" spans="1:16" ht="45">
       <c r="A87" s="183"/>
       <c r="B87" s="128"/>
       <c r="C87" s="121" t="s">
@@ -16729,7 +16729,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="64" customFormat="1" ht="78" hidden="1">
+    <row r="88" spans="1:16" s="64" customFormat="1" ht="60.75" hidden="1">
       <c r="A88" s="180" t="s">
         <v>1086</v>
       </c>
@@ -16771,7 +16771,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="1:16" s="64" customFormat="1" ht="47.25" hidden="1">
+    <row r="89" spans="1:16" s="64" customFormat="1" ht="45" hidden="1">
       <c r="A89" s="181"/>
       <c r="B89" s="72" t="s">
         <v>1091</v>
@@ -16793,7 +16793,7 @@
       <c r="O89" s="65"/>
       <c r="P89" s="65"/>
     </row>
-    <row r="90" spans="1:16" s="64" customFormat="1" ht="47.25" hidden="1">
+    <row r="90" spans="1:16" s="64" customFormat="1" ht="45" hidden="1">
       <c r="A90" s="182"/>
       <c r="B90" s="114" t="s">
         <v>713</v>
@@ -16827,7 +16827,7 @@
       <c r="O90" s="115"/>
       <c r="P90" s="115"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="168"/>
       <c r="B91" s="169"/>
       <c r="C91" s="168"/>
@@ -16874,7 +16874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A77" sqref="A77:XFD77"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16894,7 +16894,7 @@
     <col min="13" max="13" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="84" t="s">
         <v>813</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="49.5">
+    <row r="6" spans="1:13" ht="42.75">
       <c r="A6" s="192"/>
       <c r="B6" s="86" t="s">
         <v>440</v>
@@ -17070,7 +17070,7 @@
       <c r="L6" s="68"/>
       <c r="M6" s="149"/>
     </row>
-    <row r="7" spans="1:13" ht="49.5">
+    <row r="7" spans="1:13" ht="38.25">
       <c r="A7" s="192"/>
       <c r="B7" s="86" t="s">
         <v>449</v>
@@ -17107,7 +17107,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="192"/>
       <c r="B8" s="86"/>
       <c r="C8" s="134"/>
@@ -17128,7 +17128,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="192"/>
       <c r="B9" s="86"/>
       <c r="C9" s="134"/>
@@ -17149,7 +17149,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="192"/>
       <c r="B10" s="86"/>
       <c r="C10" s="134"/>
@@ -17170,7 +17170,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="192"/>
       <c r="B11" s="86"/>
       <c r="C11" s="134"/>
@@ -17191,7 +17191,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="192"/>
       <c r="B12" s="86"/>
       <c r="C12" s="134"/>
@@ -17212,7 +17212,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="192"/>
       <c r="B13" s="86"/>
       <c r="C13" s="134"/>
@@ -17233,7 +17233,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="66">
+    <row r="14" spans="1:13" ht="51.75">
       <c r="A14" s="192"/>
       <c r="B14" s="86" t="s">
         <v>457</v>
@@ -17314,7 +17314,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="33">
+    <row r="17" spans="1:13" ht="25.5">
       <c r="A17" s="192"/>
       <c r="B17" s="86" t="s">
         <v>465</v>
@@ -17337,7 +17337,7 @@
       <c r="L17" s="68"/>
       <c r="M17" s="149"/>
     </row>
-    <row r="18" spans="1:13" ht="66">
+    <row r="18" spans="1:13" ht="51">
       <c r="A18" s="194" t="s">
         <v>1156</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="66">
+    <row r="20" spans="1:13" ht="58.5">
       <c r="A20" s="194"/>
       <c r="B20" s="86" t="s">
         <v>482</v>
@@ -17438,7 +17438,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5">
+    <row r="21" spans="1:13" ht="19.5">
       <c r="A21" s="194"/>
       <c r="B21" s="86"/>
       <c r="C21" s="134"/>
@@ -17459,7 +17459,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5">
+    <row r="22" spans="1:13" ht="19.5">
       <c r="A22" s="194"/>
       <c r="B22" s="86"/>
       <c r="C22" s="134"/>
@@ -17480,7 +17480,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
+    <row r="23" spans="1:13" ht="19.5">
       <c r="A23" s="194"/>
       <c r="B23" s="86"/>
       <c r="C23" s="134"/>
@@ -17501,7 +17501,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5">
+    <row r="24" spans="1:13" ht="19.5">
       <c r="A24" s="194"/>
       <c r="B24" s="86"/>
       <c r="C24" s="134"/>
@@ -17522,7 +17522,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5">
+    <row r="25" spans="1:13" ht="19.5">
       <c r="A25" s="194"/>
       <c r="B25" s="86"/>
       <c r="C25" s="134"/>
@@ -17543,7 +17543,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="99">
+    <row r="26" spans="1:13" ht="76.5">
       <c r="A26" s="194"/>
       <c r="B26" s="86"/>
       <c r="C26" s="134"/>
@@ -17568,7 +17568,7 @@
       <c r="L26" s="68"/>
       <c r="M26" s="149"/>
     </row>
-    <row r="27" spans="1:13" ht="115.5">
+    <row r="27" spans="1:13" ht="89.25">
       <c r="A27" s="194" t="s">
         <v>1192</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="132">
+    <row r="29" spans="1:13" ht="102">
       <c r="A29" s="194"/>
       <c r="B29" s="86" t="s">
         <v>499</v>
@@ -17667,7 +17667,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5">
+    <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="194"/>
       <c r="B30" s="86"/>
       <c r="C30" s="134"/>
@@ -17688,7 +17688,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5">
+    <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="194"/>
       <c r="B31" s="86"/>
       <c r="C31" s="134"/>
@@ -17709,7 +17709,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5">
+    <row r="32" spans="1:13" ht="15.75">
       <c r="A32" s="194"/>
       <c r="B32" s="86"/>
       <c r="C32" s="134"/>
@@ -17774,7 +17774,7 @@
       <c r="L34" s="131"/>
       <c r="M34" s="152"/>
     </row>
-    <row r="35" spans="1:13" ht="66">
+    <row r="35" spans="1:13" ht="57">
       <c r="A35" s="189" t="s">
         <v>1223</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="66">
+    <row r="37" spans="1:13" ht="51">
       <c r="A37" s="190"/>
       <c r="B37" s="86" t="s">
         <v>516</v>
@@ -17875,7 +17875,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5">
+    <row r="38" spans="1:13" ht="15.75">
       <c r="A38" s="190"/>
       <c r="B38" s="86"/>
       <c r="C38" s="134"/>
@@ -17896,7 +17896,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5">
+    <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="190"/>
       <c r="B39" s="86"/>
       <c r="C39" s="134"/>
@@ -17917,7 +17917,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5">
+    <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="190"/>
       <c r="B40" s="86"/>
       <c r="C40" s="134"/>
@@ -17938,7 +17938,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5">
+    <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="190"/>
       <c r="B41" s="86"/>
       <c r="C41" s="134"/>
@@ -17959,7 +17959,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5">
+    <row r="42" spans="1:13" ht="15.75">
       <c r="A42" s="191"/>
       <c r="B42" s="86"/>
       <c r="C42" s="134"/>
@@ -17980,7 +17980,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="49.5">
+    <row r="43" spans="1:13" ht="56.25">
       <c r="A43" s="193" t="s">
         <v>1249</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5">
+    <row r="44" spans="1:13" ht="15.75">
       <c r="A44" s="193"/>
       <c r="B44" s="86"/>
       <c r="C44" s="134"/>
@@ -18040,7 +18040,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5">
+    <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="193"/>
       <c r="B45" s="86"/>
       <c r="C45" s="134"/>
@@ -18061,7 +18061,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5">
+    <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="193"/>
       <c r="B46" s="86"/>
       <c r="C46" s="134"/>
@@ -18082,7 +18082,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="193"/>
       <c r="B47" s="86"/>
       <c r="C47" s="134"/>
@@ -18103,7 +18103,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5">
+    <row r="48" spans="1:13" ht="15.75">
       <c r="A48" s="193"/>
       <c r="B48" s="86"/>
       <c r="C48" s="134"/>
@@ -18124,7 +18124,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5">
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="193"/>
       <c r="B49" s="86"/>
       <c r="C49" s="134"/>
@@ -18145,7 +18145,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="193"/>
       <c r="B50" s="86"/>
       <c r="C50" s="134"/>
@@ -18166,7 +18166,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="193"/>
       <c r="B51" s="86"/>
       <c r="C51" s="134"/>
@@ -18187,7 +18187,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5">
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="193"/>
       <c r="B52" s="86"/>
       <c r="C52" s="134"/>
@@ -18245,7 +18245,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5">
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="193"/>
       <c r="B54" s="86"/>
       <c r="C54" s="134"/>
@@ -18266,7 +18266,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5">
+    <row r="55" spans="1:13" ht="15.75">
       <c r="A55" s="193"/>
       <c r="B55" s="86"/>
       <c r="C55" s="134"/>
@@ -18287,7 +18287,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.5">
+    <row r="56" spans="1:13" ht="15.75">
       <c r="A56" s="193"/>
       <c r="B56" s="86"/>
       <c r="C56" s="134"/>
@@ -18308,7 +18308,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5">
+    <row r="57" spans="1:13" ht="15.75">
       <c r="A57" s="193"/>
       <c r="B57" s="86"/>
       <c r="C57" s="134"/>
@@ -18329,7 +18329,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5">
+    <row r="58" spans="1:13" ht="15.75">
       <c r="A58" s="193"/>
       <c r="B58" s="86"/>
       <c r="C58" s="134"/>
@@ -18350,7 +18350,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.5">
+    <row r="59" spans="1:13" ht="15.75">
       <c r="A59" s="193"/>
       <c r="B59" s="86"/>
       <c r="C59" s="134"/>
@@ -18396,7 +18396,7 @@
       <c r="L60" s="66"/>
       <c r="M60" s="150"/>
     </row>
-    <row r="61" spans="1:13" ht="66">
+    <row r="61" spans="1:13" ht="51">
       <c r="A61" s="193"/>
       <c r="B61" s="86" t="s">
         <v>588</v>
@@ -18433,7 +18433,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16.5">
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" s="193"/>
       <c r="B62" s="86"/>
       <c r="C62" s="134"/>
@@ -18454,7 +18454,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5">
+    <row r="63" spans="1:13" ht="15.75">
       <c r="A63" s="193"/>
       <c r="B63" s="86"/>
       <c r="C63" s="134"/>
@@ -18475,7 +18475,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.5">
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" s="193"/>
       <c r="B64" s="86"/>
       <c r="C64" s="134"/>
@@ -18496,7 +18496,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5">
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="193"/>
       <c r="B65" s="86"/>
       <c r="C65" s="134"/>
@@ -18517,7 +18517,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5">
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="193"/>
       <c r="B66" s="86"/>
       <c r="C66" s="134"/>
@@ -18538,7 +18538,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5">
+    <row r="67" spans="1:13" ht="15.75">
       <c r="A67" s="193"/>
       <c r="B67" s="86"/>
       <c r="C67" s="134"/>
@@ -18619,7 +18619,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5">
+    <row r="70" spans="1:13" ht="15.75">
       <c r="A70" s="193"/>
       <c r="B70" s="86"/>
       <c r="C70" s="134"/>
@@ -18640,7 +18640,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16.5">
+    <row r="71" spans="1:13" ht="15.75">
       <c r="A71" s="193"/>
       <c r="B71" s="86"/>
       <c r="C71" s="134"/>
@@ -18661,7 +18661,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5">
+    <row r="72" spans="1:13" ht="15.75">
       <c r="A72" s="193"/>
       <c r="B72" s="86"/>
       <c r="C72" s="134"/>
@@ -18682,7 +18682,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5">
+    <row r="73" spans="1:13" ht="15.75">
       <c r="A73" s="193"/>
       <c r="B73" s="86"/>
       <c r="C73" s="134"/>
@@ -18703,7 +18703,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16.5">
+    <row r="74" spans="1:13" ht="15.75">
       <c r="A74" s="193"/>
       <c r="B74" s="86"/>
       <c r="C74" s="134"/>
@@ -18724,7 +18724,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.5">
+    <row r="75" spans="1:13" ht="15.75">
       <c r="A75" s="193"/>
       <c r="B75" s="86"/>
       <c r="C75" s="134"/>
@@ -18745,7 +18745,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5">
+    <row r="76" spans="1:13" ht="15.75">
       <c r="A76" s="193"/>
       <c r="B76" s="86"/>
       <c r="C76" s="134"/>
@@ -18766,7 +18766,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="33">
+    <row r="77" spans="1:13" ht="30">
       <c r="A77" s="193"/>
       <c r="B77" s="86" t="s">
         <v>606</v>
@@ -18803,7 +18803,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5">
+    <row r="78" spans="1:13" ht="15.75">
       <c r="A78" s="193"/>
       <c r="B78" s="86"/>
       <c r="C78" s="134"/>
@@ -18863,7 +18863,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16.5">
+    <row r="80" spans="1:13">
       <c r="A80" s="193"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
@@ -18958,7 +18958,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16.5">
+    <row r="83" spans="1:13" ht="15.75">
       <c r="A83" s="193"/>
       <c r="B83" s="86"/>
       <c r="C83" s="134"/>
@@ -18979,7 +18979,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.5">
+    <row r="84" spans="1:13" ht="15.75">
       <c r="A84" s="193"/>
       <c r="B84" s="86"/>
       <c r="C84" s="134"/>
@@ -19000,7 +19000,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5">
+    <row r="85" spans="1:13" ht="15.75">
       <c r="A85" s="193"/>
       <c r="B85" s="86"/>
       <c r="C85" s="134"/>
@@ -19021,7 +19021,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16.5">
+    <row r="86" spans="1:13" ht="15.75">
       <c r="A86" s="193"/>
       <c r="B86" s="86"/>
       <c r="C86" s="134"/>
@@ -19042,7 +19042,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5">
+    <row r="87" spans="1:13" ht="15.75">
       <c r="A87" s="193"/>
       <c r="B87" s="86"/>
       <c r="C87" s="134"/>
@@ -19063,7 +19063,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5">
+    <row r="88" spans="1:13" ht="15.75">
       <c r="A88" s="193"/>
       <c r="B88" s="86"/>
       <c r="C88" s="134"/>
@@ -19084,7 +19084,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16.5">
+    <row r="89" spans="1:13" ht="15.75">
       <c r="A89" s="193"/>
       <c r="B89" s="86"/>
       <c r="C89" s="134"/>
@@ -19105,7 +19105,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5">
+    <row r="90" spans="1:13" ht="15.75">
       <c r="A90" s="193"/>
       <c r="B90" s="86"/>
       <c r="C90" s="134"/>
@@ -19126,7 +19126,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5">
+    <row r="91" spans="1:13" ht="15.75">
       <c r="A91" s="193"/>
       <c r="B91" s="86"/>
       <c r="C91" s="134"/>
@@ -19147,7 +19147,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16.5">
+    <row r="92" spans="1:13" ht="15.75">
       <c r="A92" s="193"/>
       <c r="B92" s="86"/>
       <c r="C92" s="134"/>
@@ -19265,7 +19265,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16.5">
+    <row r="96" spans="1:13" ht="15.75">
       <c r="A96" s="193"/>
       <c r="B96" s="86"/>
       <c r="C96" s="134"/>
@@ -19286,7 +19286,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16.5">
+    <row r="97" spans="1:13" ht="15.75">
       <c r="A97" s="193"/>
       <c r="B97" s="86"/>
       <c r="C97" s="134"/>
@@ -19307,7 +19307,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="16.5">
+    <row r="98" spans="1:13" ht="15.75">
       <c r="A98" s="193"/>
       <c r="B98" s="86"/>
       <c r="C98" s="134"/>
@@ -19328,7 +19328,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5">
+    <row r="99" spans="1:13" ht="15.75">
       <c r="A99" s="193"/>
       <c r="B99" s="86"/>
       <c r="C99" s="134"/>
@@ -19349,7 +19349,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.5">
+    <row r="100" spans="1:13" ht="15.75">
       <c r="A100" s="193"/>
       <c r="B100" s="86"/>
       <c r="C100" s="134"/>
@@ -19407,7 +19407,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.5">
+    <row r="102" spans="1:13" ht="15.75">
       <c r="A102" s="193"/>
       <c r="B102" s="86"/>
       <c r="C102" s="134"/>
@@ -19428,7 +19428,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16.5">
+    <row r="103" spans="1:13" ht="15.75">
       <c r="A103" s="193"/>
       <c r="B103" s="86"/>
       <c r="C103" s="134"/>
@@ -19449,7 +19449,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="16.5">
+    <row r="104" spans="1:13" ht="15.75">
       <c r="A104" s="193"/>
       <c r="B104" s="86"/>
       <c r="C104" s="134"/>
@@ -19470,7 +19470,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16.5">
+    <row r="105" spans="1:13" ht="15.75">
       <c r="A105" s="193"/>
       <c r="B105" s="86"/>
       <c r="C105" s="134"/>
@@ -19491,7 +19491,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.5">
+    <row r="106" spans="1:13" ht="15.75">
       <c r="A106" s="193"/>
       <c r="B106" s="86"/>
       <c r="C106" s="134"/>
@@ -19512,7 +19512,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16.5">
+    <row r="107" spans="1:13" ht="15.75">
       <c r="A107" s="193"/>
       <c r="B107" s="86"/>
       <c r="C107" s="134"/>
@@ -19533,7 +19533,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16.5">
+    <row r="108" spans="1:13" ht="15.75">
       <c r="A108" s="193"/>
       <c r="B108" s="86"/>
       <c r="C108" s="134"/>
@@ -19554,7 +19554,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16.5">
+    <row r="109" spans="1:13" ht="15.75">
       <c r="A109" s="193"/>
       <c r="B109" s="86"/>
       <c r="C109" s="134"/>
@@ -19575,7 +19575,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.5">
+    <row r="110" spans="1:13" ht="15.75">
       <c r="A110" s="193"/>
       <c r="B110" s="86"/>
       <c r="C110" s="134"/>
@@ -19596,7 +19596,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16.5">
+    <row r="111" spans="1:13" ht="15.75">
       <c r="A111" s="193"/>
       <c r="B111" s="86"/>
       <c r="C111" s="134"/>
@@ -19617,7 +19617,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16.5">
+    <row r="112" spans="1:13" ht="15.75">
       <c r="A112" s="193"/>
       <c r="B112" s="86"/>
       <c r="C112" s="134"/>
@@ -19638,7 +19638,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.5">
+    <row r="113" spans="1:13" ht="15.75">
       <c r="A113" s="193"/>
       <c r="B113" s="86"/>
       <c r="C113" s="134"/>
@@ -19696,7 +19696,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16.5">
+    <row r="115" spans="1:13" ht="15.75">
       <c r="A115" s="193"/>
       <c r="B115" s="86"/>
       <c r="C115" s="134"/>
@@ -19717,7 +19717,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16.5">
+    <row r="116" spans="1:13" ht="15.75">
       <c r="A116" s="193"/>
       <c r="B116" s="86"/>
       <c r="C116" s="134"/>
@@ -19738,7 +19738,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="16.5">
+    <row r="117" spans="1:13" ht="15.75">
       <c r="A117" s="193"/>
       <c r="B117" s="86"/>
       <c r="C117" s="134"/>
@@ -19759,7 +19759,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16.5">
+    <row r="118" spans="1:13" ht="15.75">
       <c r="A118" s="193"/>
       <c r="B118" s="86"/>
       <c r="C118" s="134"/>
@@ -19817,7 +19817,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16.5">
+    <row r="120" spans="1:13" ht="15.75">
       <c r="A120" s="193"/>
       <c r="B120" s="86"/>
       <c r="C120" s="134"/>
@@ -19838,7 +19838,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16.5">
+    <row r="121" spans="1:13" ht="15.75">
       <c r="A121" s="193"/>
       <c r="B121" s="86"/>
       <c r="C121" s="134"/>
@@ -19859,7 +19859,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16.5">
+    <row r="122" spans="1:13" ht="15.75">
       <c r="A122" s="193"/>
       <c r="B122" s="86"/>
       <c r="C122" s="134"/>
@@ -19880,7 +19880,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="16.5">
+    <row r="123" spans="1:13" ht="15.75">
       <c r="A123" s="193"/>
       <c r="B123" s="86"/>
       <c r="C123" s="134"/>
@@ -19901,7 +19901,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16.5">
+    <row r="124" spans="1:13" ht="15.75">
       <c r="A124" s="193"/>
       <c r="B124" s="86"/>
       <c r="C124" s="134"/>
@@ -19922,7 +19922,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16.5">
+    <row r="125" spans="1:13" ht="15.75">
       <c r="A125" s="193"/>
       <c r="B125" s="86"/>
       <c r="C125" s="134"/>
@@ -19943,7 +19943,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="16.5">
+    <row r="126" spans="1:13" ht="15.75">
       <c r="A126" s="193"/>
       <c r="B126" s="86"/>
       <c r="C126" s="134"/>
@@ -20001,7 +20001,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16.5">
+    <row r="128" spans="1:13" ht="15.75">
       <c r="A128" s="193"/>
       <c r="B128" s="86"/>
       <c r="C128" s="134"/>
@@ -20022,7 +20022,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="16.5">
+    <row r="129" spans="1:13" ht="15.75">
       <c r="A129" s="193"/>
       <c r="B129" s="86"/>
       <c r="C129" s="134"/>
@@ -20043,7 +20043,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16.5">
+    <row r="130" spans="1:13" ht="15.75">
       <c r="A130" s="193"/>
       <c r="B130" s="86"/>
       <c r="C130" s="134"/>
@@ -20064,7 +20064,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16.5">
+    <row r="131" spans="1:13" ht="15.75">
       <c r="A131" s="193"/>
       <c r="B131" s="86"/>
       <c r="C131" s="134"/>
@@ -20085,7 +20085,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="16.5">
+    <row r="132" spans="1:13" ht="15.75">
       <c r="A132" s="193"/>
       <c r="B132" s="86"/>
       <c r="C132" s="134"/>
@@ -20106,7 +20106,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16.5">
+    <row r="133" spans="1:13" ht="15.75">
       <c r="A133" s="193"/>
       <c r="B133" s="86"/>
       <c r="C133" s="134"/>
@@ -20127,7 +20127,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16.5">
+    <row r="134" spans="1:13" ht="15.75">
       <c r="A134" s="193"/>
       <c r="B134" s="86"/>
       <c r="C134" s="134"/>
@@ -20148,7 +20148,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="16.5">
+    <row r="135" spans="1:13" ht="15.75">
       <c r="A135" s="193"/>
       <c r="B135" s="86"/>
       <c r="C135" s="134"/>
@@ -20169,7 +20169,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16.5">
+    <row r="136" spans="1:13" ht="15.75">
       <c r="A136" s="193"/>
       <c r="B136" s="86"/>
       <c r="C136" s="134"/>
@@ -20190,7 +20190,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16.5">
+    <row r="137" spans="1:13" ht="15.75">
       <c r="A137" s="193"/>
       <c r="B137" s="86"/>
       <c r="C137" s="134"/>
@@ -20211,7 +20211,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="16.5">
+    <row r="138" spans="1:13" ht="15.75">
       <c r="A138" s="193"/>
       <c r="B138" s="86"/>
       <c r="C138" s="134"/>
@@ -20263,7 +20263,7 @@
       <c r="L139" s="68"/>
       <c r="M139" s="149"/>
     </row>
-    <row r="140" spans="1:13" ht="33">
+    <row r="140" spans="1:13" ht="25.5">
       <c r="A140" s="193"/>
       <c r="B140" s="86" t="s">
         <v>741</v>
@@ -20346,7 +20346,7 @@
       <c r="L142" s="66"/>
       <c r="M142" s="150"/>
     </row>
-    <row r="143" spans="1:13" ht="16.5">
+    <row r="143" spans="1:13" ht="15.75">
       <c r="A143" s="188"/>
       <c r="B143" s="93" t="s">
         <v>1583</v>
@@ -20371,7 +20371,7 @@
       <c r="L143" s="68"/>
       <c r="M143" s="149"/>
     </row>
-    <row r="144" spans="1:13" ht="16.5">
+    <row r="144" spans="1:13" ht="15.75">
       <c r="A144" s="188"/>
       <c r="B144" s="93" t="s">
         <v>1587</v>
@@ -20396,7 +20396,7 @@
       <c r="L144" s="68"/>
       <c r="M144" s="149"/>
     </row>
-    <row r="145" spans="1:13" ht="16.5">
+    <row r="145" spans="1:13" ht="15.75">
       <c r="A145" s="188"/>
       <c r="B145" s="93" t="s">
         <v>1591</v>
@@ -20427,7 +20427,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16.5">
+    <row r="146" spans="1:13" ht="15.75">
       <c r="A146" s="188"/>
       <c r="B146" s="93"/>
       <c r="C146" s="134"/>
@@ -20448,7 +20448,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="16.5">
+    <row r="147" spans="1:13" ht="15.75">
       <c r="A147" s="188"/>
       <c r="B147" s="93"/>
       <c r="C147" s="134"/>
@@ -20469,7 +20469,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16.5">
+    <row r="148" spans="1:13" ht="15.75">
       <c r="A148" s="188"/>
       <c r="B148" s="93"/>
       <c r="C148" s="134"/>
@@ -20490,7 +20490,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16.5">
+    <row r="149" spans="1:13" ht="15.75">
       <c r="A149" s="188"/>
       <c r="B149" s="93"/>
       <c r="C149" s="134"/>
@@ -20511,7 +20511,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="16.5">
+    <row r="150" spans="1:13" ht="15.75">
       <c r="A150" s="188"/>
       <c r="B150" s="93"/>
       <c r="C150" s="134"/>
@@ -20532,7 +20532,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16.5">
+    <row r="151" spans="1:13" ht="15.75">
       <c r="A151" s="188"/>
       <c r="B151" s="93"/>
       <c r="C151" s="134"/>
@@ -20553,7 +20553,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16.5">
+    <row r="152" spans="1:13" ht="15.75">
       <c r="A152" s="188"/>
       <c r="B152" s="93"/>
       <c r="C152" s="134"/>
@@ -20574,7 +20574,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="16.5">
+    <row r="153" spans="1:13" ht="15.75">
       <c r="A153" s="188"/>
       <c r="B153" s="93"/>
       <c r="C153" s="134"/>
@@ -20595,7 +20595,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="16.5">
+    <row r="154" spans="1:13" ht="15.75">
       <c r="A154" s="188"/>
       <c r="B154" s="93"/>
       <c r="C154" s="134"/>
@@ -20616,7 +20616,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16.5">
+    <row r="155" spans="1:13" ht="15.75">
       <c r="A155" s="188"/>
       <c r="B155" s="93"/>
       <c r="C155" s="134"/>
@@ -20721,7 +20721,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="16.5">
+    <row r="160" spans="1:13" ht="15.75">
       <c r="A160" s="188"/>
       <c r="B160" s="93" t="s">
         <v>1639</v>
@@ -20746,7 +20746,7 @@
       <c r="L160" s="68"/>
       <c r="M160" s="149"/>
     </row>
-    <row r="161" spans="1:13" ht="16.5">
+    <row r="161" spans="1:13" ht="15.75">
       <c r="A161" s="188"/>
       <c r="B161" s="156" t="s">
         <v>1643</v>
@@ -20803,7 +20803,7 @@
     <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="72">
+    <row r="1" spans="1:13" ht="57.75">
       <c r="A1" s="81" t="s">
         <v>813</v>
       </c>
@@ -21593,7 +21593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203E6863-51D1-4E9C-B940-511F1401EDBF}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -21609,7 +21609,7 @@
     <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
@@ -22080,7 +22080,7 @@
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="178" t="s">
         <v>813</v>
       </c>

--- a/atique.xlsx
+++ b/atique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Desktop\New folder\excel_mapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ur_sensei\Desktop\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A745D98D-D829-4595-83DC-659120852811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424812FE-38FC-441E-8982-9C635C7D996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" firstSheet="1" activeTab="1" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1915">
   <si>
     <t>#</t>
   </si>
@@ -9930,6 +9930,9 @@
   </si>
   <si>
     <t>பின்னர்  முன்னோக்கி என்ற பட்டனை Click செய்யவும்</t>
+  </si>
+  <si>
+    <t>multicheck</t>
   </si>
 </sst>
 </file>
@@ -14649,16 +14652,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41:K52"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="60" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="19" style="60" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="60" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="62" customWidth="1"/>
     <col min="5" max="5" width="27.140625" style="60" customWidth="1"/>
     <col min="6" max="6" width="59.140625" style="60" customWidth="1"/>
@@ -14672,7 +14675,7 @@
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="59" customFormat="1" ht="15.75">
+    <row r="1" spans="1:13" s="59" customFormat="1">
       <c r="A1" s="59" t="s">
         <v>813</v>
       </c>
@@ -14713,7 +14716,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" ht="45">
+    <row r="2" spans="1:13" customFormat="1" ht="46.5">
       <c r="A2" s="184" t="s">
         <v>824</v>
       </c>
@@ -14752,7 +14755,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" ht="15">
+    <row r="3" spans="1:13" customFormat="1" ht="16.5">
       <c r="A3" s="185"/>
       <c r="B3" s="121"/>
       <c r="C3" s="122"/>
@@ -14773,7 +14776,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="15">
+    <row r="4" spans="1:13" customFormat="1" ht="16.5">
       <c r="A4" s="185"/>
       <c r="B4" s="121"/>
       <c r="C4" s="122"/>
@@ -14794,7 +14797,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" ht="15">
+    <row r="5" spans="1:13" customFormat="1" ht="16.5">
       <c r="A5" s="185"/>
       <c r="B5" s="121"/>
       <c r="C5" s="122"/>
@@ -14815,7 +14818,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" ht="15">
+    <row r="6" spans="1:13" customFormat="1" ht="16.5">
       <c r="A6" s="185"/>
       <c r="B6" s="121"/>
       <c r="C6" s="122"/>
@@ -14836,7 +14839,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="15">
+    <row r="7" spans="1:13" customFormat="1" ht="16.5">
       <c r="A7" s="185"/>
       <c r="B7" s="121"/>
       <c r="C7" s="122"/>
@@ -14857,7 +14860,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" ht="15">
+    <row r="8" spans="1:13" customFormat="1" ht="16.5">
       <c r="A8" s="185"/>
       <c r="B8" s="121"/>
       <c r="C8" s="122"/>
@@ -14878,7 +14881,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="45">
+    <row r="9" spans="1:13" customFormat="1" ht="49.5">
       <c r="A9" s="185"/>
       <c r="B9" s="123" t="s">
         <v>270</v>
@@ -15125,7 +15128,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="20" spans="1:13" customFormat="1" ht="45">
+    <row r="20" spans="1:13" customFormat="1" ht="46.5">
       <c r="A20" s="185"/>
       <c r="B20" s="121" t="s">
         <v>280</v>
@@ -15162,7 +15165,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="21" spans="1:13" customFormat="1" ht="15.75">
+    <row r="21" spans="1:13" customFormat="1" ht="17.25">
       <c r="A21" s="185"/>
       <c r="B21" s="121"/>
       <c r="C21" s="122"/>
@@ -15183,7 +15186,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="22" spans="1:13" customFormat="1" ht="15.75">
+    <row r="22" spans="1:13" customFormat="1" ht="17.25">
       <c r="A22" s="185"/>
       <c r="B22" s="121"/>
       <c r="C22" s="122"/>
@@ -15204,7 +15207,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="23" spans="1:13" customFormat="1" ht="15.75">
+    <row r="23" spans="1:13" customFormat="1" ht="17.25">
       <c r="A23" s="185"/>
       <c r="B23" s="121"/>
       <c r="C23" s="122"/>
@@ -15225,7 +15228,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="24" spans="1:13" customFormat="1" ht="15.75">
+    <row r="24" spans="1:13" customFormat="1" ht="17.25">
       <c r="A24" s="185"/>
       <c r="B24" s="121"/>
       <c r="C24" s="122"/>
@@ -15246,7 +15249,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:13" customFormat="1" ht="15.75">
+    <row r="25" spans="1:13" customFormat="1" ht="17.25">
       <c r="A25" s="185"/>
       <c r="B25" s="121"/>
       <c r="C25" s="122"/>
@@ -15267,7 +15270,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="26" spans="1:13" customFormat="1" ht="15.75">
+    <row r="26" spans="1:13" customFormat="1" ht="17.25">
       <c r="A26" s="185"/>
       <c r="B26" s="121"/>
       <c r="C26" s="122"/>
@@ -15288,7 +15291,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="27" spans="1:13" customFormat="1" ht="15.75">
+    <row r="27" spans="1:13" customFormat="1" ht="17.25">
       <c r="A27" s="185"/>
       <c r="B27" s="121"/>
       <c r="C27" s="122"/>
@@ -15309,7 +15312,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="28" spans="1:13" customFormat="1" ht="15.75">
+    <row r="28" spans="1:13" customFormat="1" ht="17.25">
       <c r="A28" s="185"/>
       <c r="B28" s="121"/>
       <c r="C28" s="122"/>
@@ -15330,7 +15333,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="29" spans="1:13" customFormat="1" ht="15.75">
+    <row r="29" spans="1:13" customFormat="1" ht="17.25">
       <c r="A29" s="185"/>
       <c r="B29" s="121"/>
       <c r="C29" s="122"/>
@@ -15351,7 +15354,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="30" spans="1:13" customFormat="1" ht="15.75">
+    <row r="30" spans="1:13" customFormat="1" ht="17.25">
       <c r="A30" s="185"/>
       <c r="B30" s="121"/>
       <c r="C30" s="122"/>
@@ -15372,7 +15375,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="31" spans="1:13" customFormat="1" ht="15.75">
+    <row r="31" spans="1:13" customFormat="1" ht="17.25">
       <c r="A31" s="185"/>
       <c r="B31" s="121"/>
       <c r="C31" s="122"/>
@@ -15393,7 +15396,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="32" spans="1:13" customFormat="1" ht="15.75">
+    <row r="32" spans="1:13" customFormat="1" ht="17.25">
       <c r="A32" s="185"/>
       <c r="B32" s="121"/>
       <c r="C32" s="122"/>
@@ -15414,7 +15417,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="33" spans="1:13" customFormat="1" ht="15.75">
+    <row r="33" spans="1:13" customFormat="1" ht="17.25">
       <c r="A33" s="185"/>
       <c r="B33" s="121"/>
       <c r="C33" s="122"/>
@@ -15435,7 +15438,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="34" spans="1:13" customFormat="1" ht="15.75">
+    <row r="34" spans="1:13" customFormat="1" ht="17.25">
       <c r="A34" s="185"/>
       <c r="B34" s="121"/>
       <c r="C34" s="122"/>
@@ -15456,7 +15459,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="35" spans="1:13" customFormat="1" ht="15.75">
+    <row r="35" spans="1:13" customFormat="1" ht="17.25">
       <c r="A35" s="185"/>
       <c r="B35" s="121"/>
       <c r="C35" s="122"/>
@@ -15477,7 +15480,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="36" spans="1:13" customFormat="1" ht="15.75">
+    <row r="36" spans="1:13" customFormat="1" ht="17.25">
       <c r="A36" s="185"/>
       <c r="B36" s="121"/>
       <c r="C36" s="122"/>
@@ -15498,7 +15501,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="37" spans="1:13" customFormat="1" ht="15.75">
+    <row r="37" spans="1:13" customFormat="1" ht="17.25">
       <c r="A37" s="185"/>
       <c r="B37" s="121"/>
       <c r="C37" s="122"/>
@@ -15519,7 +15522,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="38" spans="1:13" customFormat="1" ht="15.75">
+    <row r="38" spans="1:13" customFormat="1" ht="17.25">
       <c r="A38" s="186"/>
       <c r="B38" s="121"/>
       <c r="C38" s="122"/>
@@ -15600,7 +15603,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="41" spans="1:13" customFormat="1" ht="45.75">
+    <row r="41" spans="1:13" customFormat="1" ht="30">
       <c r="A41" s="185"/>
       <c r="B41" s="121" t="s">
         <v>296</v>
@@ -16036,7 +16039,7 @@
         <v>1004</v>
       </c>
       <c r="I59" s="121" t="s">
-        <v>1005</v>
+        <v>1914</v>
       </c>
       <c r="J59" s="121" t="s">
         <v>1006</v>
@@ -16114,7 +16117,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="61.5">
+    <row r="63" spans="1:13" ht="78">
       <c r="A63" s="185"/>
       <c r="B63" s="128" t="s">
         <v>524</v>
@@ -16151,7 +16154,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18">
+    <row r="64" spans="1:13">
       <c r="A64" s="185"/>
       <c r="B64" s="128"/>
       <c r="C64" s="121"/>
@@ -16172,7 +16175,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="18">
+    <row r="65" spans="1:13">
       <c r="A65" s="185"/>
       <c r="B65" s="128"/>
       <c r="C65" s="121"/>
@@ -16193,7 +16196,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="36">
+    <row r="66" spans="1:13" ht="37.5">
       <c r="A66" s="185"/>
       <c r="B66" s="128"/>
       <c r="C66" s="121"/>
@@ -16214,7 +16217,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18">
+    <row r="67" spans="1:13">
       <c r="A67" s="185"/>
       <c r="B67" s="128"/>
       <c r="C67" s="121"/>
@@ -16235,7 +16238,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="36">
+    <row r="68" spans="1:13" ht="37.5">
       <c r="A68" s="185"/>
       <c r="B68" s="128"/>
       <c r="C68" s="121"/>
@@ -16256,7 +16259,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="18">
+    <row r="69" spans="1:13">
       <c r="A69" s="185"/>
       <c r="B69" s="128"/>
       <c r="C69" s="121"/>
@@ -16277,7 +16280,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="36">
+    <row r="70" spans="1:13" ht="37.5">
       <c r="A70" s="185"/>
       <c r="B70" s="128"/>
       <c r="C70" s="121"/>
@@ -16298,7 +16301,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="54">
+    <row r="71" spans="1:13" ht="55.5">
       <c r="A71" s="185"/>
       <c r="B71" s="128"/>
       <c r="C71" s="121"/>
@@ -16319,7 +16322,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30.75">
+    <row r="72" spans="1:13" ht="32.25">
       <c r="A72" s="185"/>
       <c r="B72" s="128"/>
       <c r="C72" s="121"/>
@@ -16340,7 +16343,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="54">
+    <row r="73" spans="1:13" ht="55.5">
       <c r="A73" s="185"/>
       <c r="B73" s="128"/>
       <c r="C73" s="121"/>
@@ -16361,7 +16364,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="54">
+    <row r="74" spans="1:13" ht="55.5">
       <c r="A74" s="185"/>
       <c r="B74" s="128"/>
       <c r="C74" s="121"/>
@@ -16382,7 +16385,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30.75">
+    <row r="75" spans="1:13" ht="32.25">
       <c r="A75" s="185"/>
       <c r="B75" s="128"/>
       <c r="C75" s="121"/>
@@ -16401,7 +16404,7 @@
       </c>
       <c r="M75" s="65"/>
     </row>
-    <row r="76" spans="1:13" ht="210">
+    <row r="76" spans="1:13" ht="212.25">
       <c r="A76" s="185"/>
       <c r="B76" s="128" t="s">
         <v>542</v>
@@ -16461,7 +16464,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13" ht="31.5">
       <c r="A78" s="185"/>
       <c r="B78" s="121" t="s">
         <v>713</v>
@@ -16486,7 +16489,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15">
+    <row r="79" spans="1:13" ht="16.5">
       <c r="A79" s="185"/>
       <c r="B79" s="121"/>
       <c r="C79" s="121"/>
@@ -16507,7 +16510,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15">
+    <row r="80" spans="1:13" ht="16.5">
       <c r="A80" s="185"/>
       <c r="B80" s="121"/>
       <c r="C80" s="121"/>
@@ -16528,7 +16531,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15">
+    <row r="81" spans="1:16" ht="16.5">
       <c r="A81" s="185"/>
       <c r="B81" s="121"/>
       <c r="C81" s="121"/>
@@ -16549,7 +16552,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15">
+    <row r="82" spans="1:16" ht="16.5">
       <c r="A82" s="185"/>
       <c r="B82" s="121"/>
       <c r="C82" s="121"/>
@@ -16570,7 +16573,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="210">
+    <row r="83" spans="1:16" ht="212.25">
       <c r="A83" s="185"/>
       <c r="B83" s="128" t="s">
         <v>552</v>
@@ -16603,7 +16606,7 @@
       <c r="L83" s="121"/>
       <c r="M83" s="121"/>
     </row>
-    <row r="84" spans="1:16" ht="210">
+    <row r="84" spans="1:16" ht="212.25">
       <c r="A84" s="186"/>
       <c r="B84" s="128" t="s">
         <v>561</v>
@@ -16636,7 +16639,7 @@
       <c r="L84" s="121"/>
       <c r="M84" s="121"/>
     </row>
-    <row r="85" spans="1:16" ht="150">
+    <row r="85" spans="1:16" ht="152.25">
       <c r="A85" s="183" t="s">
         <v>1076</v>
       </c>
@@ -16677,7 +16680,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15.75">
+    <row r="86" spans="1:16">
       <c r="A86" s="183"/>
       <c r="B86" s="128"/>
       <c r="C86" s="121"/>
@@ -16698,7 +16701,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="45">
+    <row r="87" spans="1:16" ht="47.25">
       <c r="A87" s="183"/>
       <c r="B87" s="128"/>
       <c r="C87" s="121" t="s">
@@ -16729,7 +16732,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="64" customFormat="1" ht="60.75" hidden="1">
+    <row r="88" spans="1:16" s="64" customFormat="1" ht="78" hidden="1">
       <c r="A88" s="180" t="s">
         <v>1086</v>
       </c>
@@ -16771,7 +16774,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="1:16" s="64" customFormat="1" ht="45" hidden="1">
+    <row r="89" spans="1:16" s="64" customFormat="1" ht="39" hidden="1">
       <c r="A89" s="181"/>
       <c r="B89" s="72" t="s">
         <v>1091</v>
@@ -16793,7 +16796,7 @@
       <c r="O89" s="65"/>
       <c r="P89" s="65"/>
     </row>
-    <row r="90" spans="1:16" s="64" customFormat="1" ht="45" hidden="1">
+    <row r="90" spans="1:16" s="64" customFormat="1" ht="47.25" hidden="1">
       <c r="A90" s="182"/>
       <c r="B90" s="114" t="s">
         <v>713</v>
@@ -16827,7 +16830,7 @@
       <c r="O90" s="115"/>
       <c r="P90" s="115"/>
     </row>
-    <row r="91" spans="1:16" ht="15.75">
+    <row r="91" spans="1:16">
       <c r="A91" s="168"/>
       <c r="B91" s="169"/>
       <c r="C91" s="168"/>
@@ -16872,8 +16875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AC70D3-E892-4236-B978-834B1733516E}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -16894,7 +16897,7 @@
     <col min="13" max="13" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
+    <row r="1" spans="1:13" ht="19.5">
       <c r="A1" s="84" t="s">
         <v>813</v>
       </c>
@@ -17039,7 +17042,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42.75">
+    <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="192"/>
       <c r="B6" s="86" t="s">
         <v>440</v>
@@ -17070,7 +17073,7 @@
       <c r="L6" s="68"/>
       <c r="M6" s="149"/>
     </row>
-    <row r="7" spans="1:13" ht="38.25">
+    <row r="7" spans="1:13" ht="49.5">
       <c r="A7" s="192"/>
       <c r="B7" s="86" t="s">
         <v>449</v>
@@ -17107,7 +17110,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="192"/>
       <c r="B8" s="86"/>
       <c r="C8" s="134"/>
@@ -17128,7 +17131,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="192"/>
       <c r="B9" s="86"/>
       <c r="C9" s="134"/>
@@ -17149,7 +17152,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="192"/>
       <c r="B10" s="86"/>
       <c r="C10" s="134"/>
@@ -17170,7 +17173,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="192"/>
       <c r="B11" s="86"/>
       <c r="C11" s="134"/>
@@ -17191,7 +17194,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="192"/>
       <c r="B12" s="86"/>
       <c r="C12" s="134"/>
@@ -17212,7 +17215,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="192"/>
       <c r="B13" s="86"/>
       <c r="C13" s="134"/>
@@ -17233,7 +17236,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="51.75">
+    <row r="14" spans="1:13" ht="66">
       <c r="A14" s="192"/>
       <c r="B14" s="86" t="s">
         <v>457</v>
@@ -17314,7 +17317,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="25.5">
+    <row r="17" spans="1:13" ht="33">
       <c r="A17" s="192"/>
       <c r="B17" s="86" t="s">
         <v>465</v>
@@ -17337,7 +17340,7 @@
       <c r="L17" s="68"/>
       <c r="M17" s="149"/>
     </row>
-    <row r="18" spans="1:13" ht="51">
+    <row r="18" spans="1:13" ht="66">
       <c r="A18" s="194" t="s">
         <v>1156</v>
       </c>
@@ -17399,7 +17402,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="58.5">
+    <row r="20" spans="1:13" ht="66">
       <c r="A20" s="194"/>
       <c r="B20" s="86" t="s">
         <v>482</v>
@@ -17438,7 +17441,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.5">
+    <row r="21" spans="1:13" ht="16.5">
       <c r="A21" s="194"/>
       <c r="B21" s="86"/>
       <c r="C21" s="134"/>
@@ -17459,7 +17462,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19.5">
+    <row r="22" spans="1:13" ht="16.5">
       <c r="A22" s="194"/>
       <c r="B22" s="86"/>
       <c r="C22" s="134"/>
@@ -17480,7 +17483,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.5">
+    <row r="23" spans="1:13" ht="16.5">
       <c r="A23" s="194"/>
       <c r="B23" s="86"/>
       <c r="C23" s="134"/>
@@ -17501,7 +17504,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.5">
+    <row r="24" spans="1:13" ht="16.5">
       <c r="A24" s="194"/>
       <c r="B24" s="86"/>
       <c r="C24" s="134"/>
@@ -17522,7 +17525,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19.5">
+    <row r="25" spans="1:13" ht="16.5">
       <c r="A25" s="194"/>
       <c r="B25" s="86"/>
       <c r="C25" s="134"/>
@@ -17543,7 +17546,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="76.5">
+    <row r="26" spans="1:13" ht="99">
       <c r="A26" s="194"/>
       <c r="B26" s="86"/>
       <c r="C26" s="134"/>
@@ -17568,7 +17571,7 @@
       <c r="L26" s="68"/>
       <c r="M26" s="149"/>
     </row>
-    <row r="27" spans="1:13" ht="89.25">
+    <row r="27" spans="1:13" ht="115.5">
       <c r="A27" s="194" t="s">
         <v>1192</v>
       </c>
@@ -17630,7 +17633,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="102">
+    <row r="29" spans="1:13" ht="132">
       <c r="A29" s="194"/>
       <c r="B29" s="86" t="s">
         <v>499</v>
@@ -17667,7 +17670,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75">
+    <row r="30" spans="1:13" ht="16.5">
       <c r="A30" s="194"/>
       <c r="B30" s="86"/>
       <c r="C30" s="134"/>
@@ -17688,7 +17691,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75">
+    <row r="31" spans="1:13" ht="16.5">
       <c r="A31" s="194"/>
       <c r="B31" s="86"/>
       <c r="C31" s="134"/>
@@ -17709,7 +17712,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75">
+    <row r="32" spans="1:13" ht="16.5">
       <c r="A32" s="194"/>
       <c r="B32" s="86"/>
       <c r="C32" s="134"/>
@@ -17774,7 +17777,7 @@
       <c r="L34" s="131"/>
       <c r="M34" s="152"/>
     </row>
-    <row r="35" spans="1:13" ht="57">
+    <row r="35" spans="1:13" ht="66">
       <c r="A35" s="189" t="s">
         <v>1223</v>
       </c>
@@ -17836,7 +17839,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="51">
+    <row r="37" spans="1:13" ht="66">
       <c r="A37" s="190"/>
       <c r="B37" s="86" t="s">
         <v>516</v>
@@ -17875,7 +17878,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75">
+    <row r="38" spans="1:13" ht="16.5">
       <c r="A38" s="190"/>
       <c r="B38" s="86"/>
       <c r="C38" s="134"/>
@@ -17896,7 +17899,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75">
+    <row r="39" spans="1:13" ht="16.5">
       <c r="A39" s="190"/>
       <c r="B39" s="86"/>
       <c r="C39" s="134"/>
@@ -17917,7 +17920,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75">
+    <row r="40" spans="1:13" ht="16.5">
       <c r="A40" s="190"/>
       <c r="B40" s="86"/>
       <c r="C40" s="134"/>
@@ -17938,7 +17941,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75">
+    <row r="41" spans="1:13" ht="16.5">
       <c r="A41" s="190"/>
       <c r="B41" s="86"/>
       <c r="C41" s="134"/>
@@ -17959,7 +17962,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75">
+    <row r="42" spans="1:13" ht="16.5">
       <c r="A42" s="191"/>
       <c r="B42" s="86"/>
       <c r="C42" s="134"/>
@@ -17980,7 +17983,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="56.25">
+    <row r="43" spans="1:13" ht="49.5">
       <c r="A43" s="193" t="s">
         <v>1249</v>
       </c>
@@ -18019,7 +18022,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75">
+    <row r="44" spans="1:13" ht="16.5">
       <c r="A44" s="193"/>
       <c r="B44" s="86"/>
       <c r="C44" s="134"/>
@@ -18040,7 +18043,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75">
+    <row r="45" spans="1:13" ht="16.5">
       <c r="A45" s="193"/>
       <c r="B45" s="86"/>
       <c r="C45" s="134"/>
@@ -18061,7 +18064,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75">
+    <row r="46" spans="1:13" ht="16.5">
       <c r="A46" s="193"/>
       <c r="B46" s="86"/>
       <c r="C46" s="134"/>
@@ -18082,7 +18085,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75">
+    <row r="47" spans="1:13" ht="16.5">
       <c r="A47" s="193"/>
       <c r="B47" s="86"/>
       <c r="C47" s="134"/>
@@ -18103,7 +18106,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75">
+    <row r="48" spans="1:13" ht="16.5">
       <c r="A48" s="193"/>
       <c r="B48" s="86"/>
       <c r="C48" s="134"/>
@@ -18124,7 +18127,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75">
+    <row r="49" spans="1:13" ht="16.5">
       <c r="A49" s="193"/>
       <c r="B49" s="86"/>
       <c r="C49" s="134"/>
@@ -18145,7 +18148,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75">
+    <row r="50" spans="1:13" ht="16.5">
       <c r="A50" s="193"/>
       <c r="B50" s="86"/>
       <c r="C50" s="134"/>
@@ -18166,7 +18169,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75">
+    <row r="51" spans="1:13" ht="16.5">
       <c r="A51" s="193"/>
       <c r="B51" s="86"/>
       <c r="C51" s="134"/>
@@ -18187,7 +18190,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75">
+    <row r="52" spans="1:13" ht="16.5">
       <c r="A52" s="193"/>
       <c r="B52" s="86"/>
       <c r="C52" s="134"/>
@@ -18245,7 +18248,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75">
+    <row r="54" spans="1:13" ht="16.5">
       <c r="A54" s="193"/>
       <c r="B54" s="86"/>
       <c r="C54" s="134"/>
@@ -18266,7 +18269,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75">
+    <row r="55" spans="1:13" ht="16.5">
       <c r="A55" s="193"/>
       <c r="B55" s="86"/>
       <c r="C55" s="134"/>
@@ -18287,7 +18290,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75">
+    <row r="56" spans="1:13" ht="16.5">
       <c r="A56" s="193"/>
       <c r="B56" s="86"/>
       <c r="C56" s="134"/>
@@ -18308,7 +18311,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75">
+    <row r="57" spans="1:13" ht="16.5">
       <c r="A57" s="193"/>
       <c r="B57" s="86"/>
       <c r="C57" s="134"/>
@@ -18329,7 +18332,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75">
+    <row r="58" spans="1:13" ht="16.5">
       <c r="A58" s="193"/>
       <c r="B58" s="86"/>
       <c r="C58" s="134"/>
@@ -18350,7 +18353,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75">
+    <row r="59" spans="1:13" ht="16.5">
       <c r="A59" s="193"/>
       <c r="B59" s="86"/>
       <c r="C59" s="134"/>
@@ -18396,7 +18399,7 @@
       <c r="L60" s="66"/>
       <c r="M60" s="150"/>
     </row>
-    <row r="61" spans="1:13" ht="51">
+    <row r="61" spans="1:13" ht="66">
       <c r="A61" s="193"/>
       <c r="B61" s="86" t="s">
         <v>588</v>
@@ -18433,7 +18436,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75">
+    <row r="62" spans="1:13" ht="16.5">
       <c r="A62" s="193"/>
       <c r="B62" s="86"/>
       <c r="C62" s="134"/>
@@ -18454,7 +18457,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75">
+    <row r="63" spans="1:13" ht="16.5">
       <c r="A63" s="193"/>
       <c r="B63" s="86"/>
       <c r="C63" s="134"/>
@@ -18475,7 +18478,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75">
+    <row r="64" spans="1:13" ht="16.5">
       <c r="A64" s="193"/>
       <c r="B64" s="86"/>
       <c r="C64" s="134"/>
@@ -18496,7 +18499,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75">
+    <row r="65" spans="1:13" ht="16.5">
       <c r="A65" s="193"/>
       <c r="B65" s="86"/>
       <c r="C65" s="134"/>
@@ -18517,7 +18520,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75">
+    <row r="66" spans="1:13" ht="16.5">
       <c r="A66" s="193"/>
       <c r="B66" s="86"/>
       <c r="C66" s="134"/>
@@ -18538,7 +18541,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75">
+    <row r="67" spans="1:13" ht="16.5">
       <c r="A67" s="193"/>
       <c r="B67" s="86"/>
       <c r="C67" s="134"/>
@@ -18619,7 +18622,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75">
+    <row r="70" spans="1:13" ht="16.5">
       <c r="A70" s="193"/>
       <c r="B70" s="86"/>
       <c r="C70" s="134"/>
@@ -18640,7 +18643,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75">
+    <row r="71" spans="1:13" ht="16.5">
       <c r="A71" s="193"/>
       <c r="B71" s="86"/>
       <c r="C71" s="134"/>
@@ -18661,7 +18664,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75">
+    <row r="72" spans="1:13" ht="16.5">
       <c r="A72" s="193"/>
       <c r="B72" s="86"/>
       <c r="C72" s="134"/>
@@ -18682,7 +18685,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75">
+    <row r="73" spans="1:13" ht="16.5">
       <c r="A73" s="193"/>
       <c r="B73" s="86"/>
       <c r="C73" s="134"/>
@@ -18703,7 +18706,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75">
+    <row r="74" spans="1:13" ht="16.5">
       <c r="A74" s="193"/>
       <c r="B74" s="86"/>
       <c r="C74" s="134"/>
@@ -18724,7 +18727,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75">
+    <row r="75" spans="1:13" ht="16.5">
       <c r="A75" s="193"/>
       <c r="B75" s="86"/>
       <c r="C75" s="134"/>
@@ -18745,7 +18748,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75">
+    <row r="76" spans="1:13" ht="16.5">
       <c r="A76" s="193"/>
       <c r="B76" s="86"/>
       <c r="C76" s="134"/>
@@ -18766,7 +18769,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30">
+    <row r="77" spans="1:13" ht="33">
       <c r="A77" s="193"/>
       <c r="B77" s="86" t="s">
         <v>606</v>
@@ -18803,7 +18806,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75">
+    <row r="78" spans="1:13" ht="16.5">
       <c r="A78" s="193"/>
       <c r="B78" s="86"/>
       <c r="C78" s="134"/>
@@ -18863,7 +18866,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" ht="16.5">
       <c r="A80" s="193"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
@@ -18958,7 +18961,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75">
+    <row r="83" spans="1:13" ht="16.5">
       <c r="A83" s="193"/>
       <c r="B83" s="86"/>
       <c r="C83" s="134"/>
@@ -18979,7 +18982,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75">
+    <row r="84" spans="1:13" ht="16.5">
       <c r="A84" s="193"/>
       <c r="B84" s="86"/>
       <c r="C84" s="134"/>
@@ -19000,7 +19003,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75">
+    <row r="85" spans="1:13" ht="16.5">
       <c r="A85" s="193"/>
       <c r="B85" s="86"/>
       <c r="C85" s="134"/>
@@ -19021,7 +19024,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75">
+    <row r="86" spans="1:13" ht="16.5">
       <c r="A86" s="193"/>
       <c r="B86" s="86"/>
       <c r="C86" s="134"/>
@@ -19042,7 +19045,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75">
+    <row r="87" spans="1:13" ht="16.5">
       <c r="A87" s="193"/>
       <c r="B87" s="86"/>
       <c r="C87" s="134"/>
@@ -19063,7 +19066,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75">
+    <row r="88" spans="1:13" ht="16.5">
       <c r="A88" s="193"/>
       <c r="B88" s="86"/>
       <c r="C88" s="134"/>
@@ -19084,7 +19087,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75">
+    <row r="89" spans="1:13" ht="16.5">
       <c r="A89" s="193"/>
       <c r="B89" s="86"/>
       <c r="C89" s="134"/>
@@ -19105,7 +19108,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75">
+    <row r="90" spans="1:13" ht="16.5">
       <c r="A90" s="193"/>
       <c r="B90" s="86"/>
       <c r="C90" s="134"/>
@@ -19126,7 +19129,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.75">
+    <row r="91" spans="1:13" ht="16.5">
       <c r="A91" s="193"/>
       <c r="B91" s="86"/>
       <c r="C91" s="134"/>
@@ -19147,7 +19150,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.75">
+    <row r="92" spans="1:13" ht="16.5">
       <c r="A92" s="193"/>
       <c r="B92" s="86"/>
       <c r="C92" s="134"/>
@@ -19265,7 +19268,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75">
+    <row r="96" spans="1:13" ht="16.5">
       <c r="A96" s="193"/>
       <c r="B96" s="86"/>
       <c r="C96" s="134"/>
@@ -19286,7 +19289,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75">
+    <row r="97" spans="1:13" ht="16.5">
       <c r="A97" s="193"/>
       <c r="B97" s="86"/>
       <c r="C97" s="134"/>
@@ -19307,7 +19310,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75">
+    <row r="98" spans="1:13" ht="16.5">
       <c r="A98" s="193"/>
       <c r="B98" s="86"/>
       <c r="C98" s="134"/>
@@ -19328,7 +19331,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75">
+    <row r="99" spans="1:13" ht="16.5">
       <c r="A99" s="193"/>
       <c r="B99" s="86"/>
       <c r="C99" s="134"/>
@@ -19349,7 +19352,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.75">
+    <row r="100" spans="1:13" ht="16.5">
       <c r="A100" s="193"/>
       <c r="B100" s="86"/>
       <c r="C100" s="134"/>
@@ -19407,7 +19410,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.75">
+    <row r="102" spans="1:13" ht="16.5">
       <c r="A102" s="193"/>
       <c r="B102" s="86"/>
       <c r="C102" s="134"/>
@@ -19428,7 +19431,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75">
+    <row r="103" spans="1:13" ht="16.5">
       <c r="A103" s="193"/>
       <c r="B103" s="86"/>
       <c r="C103" s="134"/>
@@ -19449,7 +19452,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.75">
+    <row r="104" spans="1:13" ht="16.5">
       <c r="A104" s="193"/>
       <c r="B104" s="86"/>
       <c r="C104" s="134"/>
@@ -19470,7 +19473,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.75">
+    <row r="105" spans="1:13" ht="16.5">
       <c r="A105" s="193"/>
       <c r="B105" s="86"/>
       <c r="C105" s="134"/>
@@ -19491,7 +19494,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.75">
+    <row r="106" spans="1:13" ht="16.5">
       <c r="A106" s="193"/>
       <c r="B106" s="86"/>
       <c r="C106" s="134"/>
@@ -19512,7 +19515,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.75">
+    <row r="107" spans="1:13" ht="16.5">
       <c r="A107" s="193"/>
       <c r="B107" s="86"/>
       <c r="C107" s="134"/>
@@ -19533,7 +19536,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.75">
+    <row r="108" spans="1:13" ht="16.5">
       <c r="A108" s="193"/>
       <c r="B108" s="86"/>
       <c r="C108" s="134"/>
@@ -19554,7 +19557,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75">
+    <row r="109" spans="1:13" ht="16.5">
       <c r="A109" s="193"/>
       <c r="B109" s="86"/>
       <c r="C109" s="134"/>
@@ -19575,7 +19578,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75">
+    <row r="110" spans="1:13" ht="16.5">
       <c r="A110" s="193"/>
       <c r="B110" s="86"/>
       <c r="C110" s="134"/>
@@ -19596,7 +19599,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75">
+    <row r="111" spans="1:13" ht="16.5">
       <c r="A111" s="193"/>
       <c r="B111" s="86"/>
       <c r="C111" s="134"/>
@@ -19617,7 +19620,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.75">
+    <row r="112" spans="1:13" ht="16.5">
       <c r="A112" s="193"/>
       <c r="B112" s="86"/>
       <c r="C112" s="134"/>
@@ -19638,7 +19641,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75">
+    <row r="113" spans="1:13" ht="16.5">
       <c r="A113" s="193"/>
       <c r="B113" s="86"/>
       <c r="C113" s="134"/>
@@ -19696,7 +19699,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75">
+    <row r="115" spans="1:13" ht="16.5">
       <c r="A115" s="193"/>
       <c r="B115" s="86"/>
       <c r="C115" s="134"/>
@@ -19717,7 +19720,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75">
+    <row r="116" spans="1:13" ht="16.5">
       <c r="A116" s="193"/>
       <c r="B116" s="86"/>
       <c r="C116" s="134"/>
@@ -19738,7 +19741,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75">
+    <row r="117" spans="1:13" ht="16.5">
       <c r="A117" s="193"/>
       <c r="B117" s="86"/>
       <c r="C117" s="134"/>
@@ -19759,7 +19762,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75">
+    <row r="118" spans="1:13" ht="16.5">
       <c r="A118" s="193"/>
       <c r="B118" s="86"/>
       <c r="C118" s="134"/>
@@ -19817,7 +19820,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75">
+    <row r="120" spans="1:13" ht="16.5">
       <c r="A120" s="193"/>
       <c r="B120" s="86"/>
       <c r="C120" s="134"/>
@@ -19838,7 +19841,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.75">
+    <row r="121" spans="1:13" ht="16.5">
       <c r="A121" s="193"/>
       <c r="B121" s="86"/>
       <c r="C121" s="134"/>
@@ -19859,7 +19862,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75">
+    <row r="122" spans="1:13" ht="16.5">
       <c r="A122" s="193"/>
       <c r="B122" s="86"/>
       <c r="C122" s="134"/>
@@ -19880,7 +19883,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75">
+    <row r="123" spans="1:13" ht="16.5">
       <c r="A123" s="193"/>
       <c r="B123" s="86"/>
       <c r="C123" s="134"/>
@@ -19901,7 +19904,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75">
+    <row r="124" spans="1:13" ht="16.5">
       <c r="A124" s="193"/>
       <c r="B124" s="86"/>
       <c r="C124" s="134"/>
@@ -19922,7 +19925,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75">
+    <row r="125" spans="1:13" ht="16.5">
       <c r="A125" s="193"/>
       <c r="B125" s="86"/>
       <c r="C125" s="134"/>
@@ -19943,7 +19946,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75">
+    <row r="126" spans="1:13" ht="16.5">
       <c r="A126" s="193"/>
       <c r="B126" s="86"/>
       <c r="C126" s="134"/>
@@ -20001,7 +20004,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75">
+    <row r="128" spans="1:13" ht="16.5">
       <c r="A128" s="193"/>
       <c r="B128" s="86"/>
       <c r="C128" s="134"/>
@@ -20022,7 +20025,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.75">
+    <row r="129" spans="1:13" ht="16.5">
       <c r="A129" s="193"/>
       <c r="B129" s="86"/>
       <c r="C129" s="134"/>
@@ -20043,7 +20046,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.75">
+    <row r="130" spans="1:13" ht="16.5">
       <c r="A130" s="193"/>
       <c r="B130" s="86"/>
       <c r="C130" s="134"/>
@@ -20064,7 +20067,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.75">
+    <row r="131" spans="1:13" ht="16.5">
       <c r="A131" s="193"/>
       <c r="B131" s="86"/>
       <c r="C131" s="134"/>
@@ -20085,7 +20088,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.75">
+    <row r="132" spans="1:13" ht="16.5">
       <c r="A132" s="193"/>
       <c r="B132" s="86"/>
       <c r="C132" s="134"/>
@@ -20106,7 +20109,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.75">
+    <row r="133" spans="1:13" ht="16.5">
       <c r="A133" s="193"/>
       <c r="B133" s="86"/>
       <c r="C133" s="134"/>
@@ -20127,7 +20130,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.75">
+    <row r="134" spans="1:13" ht="16.5">
       <c r="A134" s="193"/>
       <c r="B134" s="86"/>
       <c r="C134" s="134"/>
@@ -20148,7 +20151,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.75">
+    <row r="135" spans="1:13" ht="16.5">
       <c r="A135" s="193"/>
       <c r="B135" s="86"/>
       <c r="C135" s="134"/>
@@ -20169,7 +20172,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.75">
+    <row r="136" spans="1:13" ht="16.5">
       <c r="A136" s="193"/>
       <c r="B136" s="86"/>
       <c r="C136" s="134"/>
@@ -20190,7 +20193,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.75">
+    <row r="137" spans="1:13" ht="16.5">
       <c r="A137" s="193"/>
       <c r="B137" s="86"/>
       <c r="C137" s="134"/>
@@ -20211,7 +20214,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.75">
+    <row r="138" spans="1:13" ht="16.5">
       <c r="A138" s="193"/>
       <c r="B138" s="86"/>
       <c r="C138" s="134"/>
@@ -20263,7 +20266,7 @@
       <c r="L139" s="68"/>
       <c r="M139" s="149"/>
     </row>
-    <row r="140" spans="1:13" ht="25.5">
+    <row r="140" spans="1:13" ht="33">
       <c r="A140" s="193"/>
       <c r="B140" s="86" t="s">
         <v>741</v>
@@ -20346,7 +20349,7 @@
       <c r="L142" s="66"/>
       <c r="M142" s="150"/>
     </row>
-    <row r="143" spans="1:13" ht="15.75">
+    <row r="143" spans="1:13" ht="16.5">
       <c r="A143" s="188"/>
       <c r="B143" s="93" t="s">
         <v>1583</v>
@@ -20371,7 +20374,7 @@
       <c r="L143" s="68"/>
       <c r="M143" s="149"/>
     </row>
-    <row r="144" spans="1:13" ht="15.75">
+    <row r="144" spans="1:13" ht="16.5">
       <c r="A144" s="188"/>
       <c r="B144" s="93" t="s">
         <v>1587</v>
@@ -20396,7 +20399,7 @@
       <c r="L144" s="68"/>
       <c r="M144" s="149"/>
     </row>
-    <row r="145" spans="1:13" ht="15.75">
+    <row r="145" spans="1:13" ht="16.5">
       <c r="A145" s="188"/>
       <c r="B145" s="93" t="s">
         <v>1591</v>
@@ -20427,7 +20430,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.75">
+    <row r="146" spans="1:13" ht="16.5">
       <c r="A146" s="188"/>
       <c r="B146" s="93"/>
       <c r="C146" s="134"/>
@@ -20448,7 +20451,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.75">
+    <row r="147" spans="1:13" ht="16.5">
       <c r="A147" s="188"/>
       <c r="B147" s="93"/>
       <c r="C147" s="134"/>
@@ -20469,7 +20472,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.75">
+    <row r="148" spans="1:13" ht="16.5">
       <c r="A148" s="188"/>
       <c r="B148" s="93"/>
       <c r="C148" s="134"/>
@@ -20490,7 +20493,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.75">
+    <row r="149" spans="1:13" ht="16.5">
       <c r="A149" s="188"/>
       <c r="B149" s="93"/>
       <c r="C149" s="134"/>
@@ -20511,7 +20514,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.75">
+    <row r="150" spans="1:13" ht="16.5">
       <c r="A150" s="188"/>
       <c r="B150" s="93"/>
       <c r="C150" s="134"/>
@@ -20532,7 +20535,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.75">
+    <row r="151" spans="1:13" ht="16.5">
       <c r="A151" s="188"/>
       <c r="B151" s="93"/>
       <c r="C151" s="134"/>
@@ -20553,7 +20556,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.75">
+    <row r="152" spans="1:13" ht="16.5">
       <c r="A152" s="188"/>
       <c r="B152" s="93"/>
       <c r="C152" s="134"/>
@@ -20574,7 +20577,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.75">
+    <row r="153" spans="1:13" ht="16.5">
       <c r="A153" s="188"/>
       <c r="B153" s="93"/>
       <c r="C153" s="134"/>
@@ -20595,7 +20598,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.75">
+    <row r="154" spans="1:13" ht="16.5">
       <c r="A154" s="188"/>
       <c r="B154" s="93"/>
       <c r="C154" s="134"/>
@@ -20616,7 +20619,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.75">
+    <row r="155" spans="1:13" ht="16.5">
       <c r="A155" s="188"/>
       <c r="B155" s="93"/>
       <c r="C155" s="134"/>
@@ -20721,7 +20724,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.75">
+    <row r="160" spans="1:13" ht="16.5">
       <c r="A160" s="188"/>
       <c r="B160" s="93" t="s">
         <v>1639</v>
@@ -20746,7 +20749,7 @@
       <c r="L160" s="68"/>
       <c r="M160" s="149"/>
     </row>
-    <row r="161" spans="1:13" ht="15.75">
+    <row r="161" spans="1:13" ht="16.5">
       <c r="A161" s="188"/>
       <c r="B161" s="156" t="s">
         <v>1643</v>
@@ -20803,7 +20806,7 @@
     <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57.75">
+    <row r="1" spans="1:13" ht="72">
       <c r="A1" s="81" t="s">
         <v>813</v>
       </c>
@@ -21609,7 +21612,7 @@
     <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" ht="19.5">
       <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
@@ -22080,7 +22083,7 @@
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="32.25">
       <c r="A1" s="178" t="s">
         <v>813</v>
       </c>
@@ -23031,26 +23034,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A595C2436754DD4192B3BEE0FFE1ED0A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ba19257e65125414350f132367e985">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00591925-1995-4bf8-8d28-1f7cbeda4924" xmlns:ns3="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a6491f746e84da8ae5f2642b9bcf21" ns2:_="" ns3:_="">
     <xsd:import namespace="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
@@ -23279,10 +23262,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23299,20 +23313,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/atique.xlsx
+++ b/atique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ur_sensei\Desktop\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424812FE-38FC-441E-8982-9C635C7D996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D720B45-7D96-44E4-B787-A674F1C4E360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="1914">
   <si>
     <t>#</t>
   </si>
@@ -9931,15 +9931,12 @@
   <si>
     <t>பின்னர்  முன்னோக்கி என்ற பட்டனை Click செய்யவும்</t>
   </si>
-  <si>
-    <t>multicheck</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="75">
+  <fonts count="76">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10408,6 +10405,12 @@
       <name val="Ui-Sans-Serif"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -10661,7 +10664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11178,6 +11181,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14653,8 +14659,8 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -16038,8 +16044,8 @@
       <c r="H59" s="65" t="s">
         <v>1004</v>
       </c>
-      <c r="I59" s="121" t="s">
-        <v>1914</v>
+      <c r="I59" s="198" t="s">
+        <v>1005</v>
       </c>
       <c r="J59" s="121" t="s">
         <v>1006</v>
@@ -16141,7 +16147,7 @@
         <v>1010</v>
       </c>
       <c r="I63" s="121" t="s">
-        <v>1011</v>
+        <v>828</v>
       </c>
       <c r="J63" s="121"/>
       <c r="K63" s="65" t="s">
@@ -16477,7 +16483,9 @@
       <c r="F78" s="165"/>
       <c r="G78" s="121"/>
       <c r="H78" s="121"/>
-      <c r="I78" s="121"/>
+      <c r="I78" s="121" t="s">
+        <v>828</v>
+      </c>
       <c r="J78" s="121"/>
       <c r="K78" s="162" t="s">
         <v>1058</v>
@@ -16868,6 +16876,7 @@
     <mergeCell ref="A63:A84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23034,6 +23043,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A595C2436754DD4192B3BEE0FFE1ED0A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ba19257e65125414350f132367e985">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00591925-1995-4bf8-8d28-1f7cbeda4924" xmlns:ns3="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a6491f746e84da8ae5f2642b9bcf21" ns2:_="" ns3:_="">
     <xsd:import namespace="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
@@ -23262,27 +23291,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23299,23 +23327,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
-    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/atique.xlsx
+++ b/atique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ur_sensei\Desktop\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D720B45-7D96-44E4-B787-A674F1C4E360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153268AF-16D9-48AB-9FE2-898F6FA7A0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
@@ -11124,6 +11124,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11180,9 +11183,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14658,9 +14658,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -14723,7 +14723,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" customFormat="1" ht="46.5">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="185" t="s">
         <v>824</v>
       </c>
       <c r="B2" s="121" t="s">
@@ -14762,7 +14762,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A3" s="185"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="121"/>
       <c r="C3" s="122"/>
       <c r="D3" s="121"/>
@@ -14783,7 +14783,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A4" s="185"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="121"/>
       <c r="C4" s="122"/>
       <c r="D4" s="121"/>
@@ -14804,7 +14804,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A5" s="185"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="121"/>
       <c r="C5" s="122"/>
       <c r="D5" s="121"/>
@@ -14825,7 +14825,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A6" s="185"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="121"/>
       <c r="C6" s="122"/>
       <c r="D6" s="121"/>
@@ -14846,7 +14846,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A7" s="185"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="121"/>
       <c r="C7" s="122"/>
       <c r="D7" s="121"/>
@@ -14867,7 +14867,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A8" s="185"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="121"/>
       <c r="C8" s="122"/>
       <c r="D8" s="121"/>
@@ -14888,7 +14888,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" customFormat="1" ht="49.5">
-      <c r="A9" s="185"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="123" t="s">
         <v>270</v>
       </c>
@@ -14925,7 +14925,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A10" s="185"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="121"/>
       <c r="C10" s="122"/>
       <c r="D10" s="121"/>
@@ -14946,7 +14946,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A11" s="185"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="121"/>
       <c r="C11" s="122"/>
       <c r="D11" s="121"/>
@@ -14967,7 +14967,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A12" s="185"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="121"/>
       <c r="C12" s="122"/>
       <c r="D12" s="121"/>
@@ -14988,7 +14988,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" customFormat="1" ht="30">
-      <c r="A13" s="185"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="121"/>
       <c r="C13" s="122"/>
       <c r="D13" s="121"/>
@@ -15009,7 +15009,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A14" s="185"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="121"/>
       <c r="C14" s="122"/>
       <c r="D14" s="121"/>
@@ -15030,7 +15030,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A15" s="185"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="121"/>
       <c r="C15" s="122"/>
       <c r="D15" s="121"/>
@@ -15051,7 +15051,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A16" s="185"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
       <c r="D16" s="121"/>
@@ -15072,7 +15072,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A17" s="185"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="121"/>
       <c r="C17" s="122"/>
       <c r="D17" s="121"/>
@@ -15093,7 +15093,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A18" s="185"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="121"/>
       <c r="C18" s="122"/>
       <c r="D18" s="121"/>
@@ -15114,7 +15114,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A19" s="185"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="121"/>
       <c r="C19" s="122"/>
       <c r="D19" s="121"/>
@@ -15135,7 +15135,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" customFormat="1" ht="46.5">
-      <c r="A20" s="185"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="121" t="s">
         <v>280</v>
       </c>
@@ -15172,7 +15172,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="121"/>
       <c r="C21" s="122"/>
       <c r="D21" s="123"/>
@@ -15193,7 +15193,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A22" s="185"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="121"/>
       <c r="C22" s="122"/>
       <c r="D22" s="123"/>
@@ -15214,7 +15214,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A23" s="185"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="121"/>
       <c r="C23" s="122"/>
       <c r="D23" s="123"/>
@@ -15235,7 +15235,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A24" s="185"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="121"/>
       <c r="C24" s="122"/>
       <c r="D24" s="123"/>
@@ -15256,7 +15256,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A25" s="185"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="121"/>
       <c r="C25" s="122"/>
       <c r="D25" s="123"/>
@@ -15277,7 +15277,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A26" s="185"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="121"/>
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
@@ -15298,7 +15298,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="121"/>
       <c r="C27" s="122"/>
       <c r="D27" s="123"/>
@@ -15319,7 +15319,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A28" s="185"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="121"/>
       <c r="C28" s="122"/>
       <c r="D28" s="123"/>
@@ -15340,7 +15340,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A29" s="185"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="121"/>
       <c r="C29" s="122"/>
       <c r="D29" s="123"/>
@@ -15361,7 +15361,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A30" s="185"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="121"/>
       <c r="C30" s="122"/>
       <c r="D30" s="123"/>
@@ -15382,7 +15382,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="121"/>
       <c r="C31" s="122"/>
       <c r="D31" s="123"/>
@@ -15403,7 +15403,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A32" s="185"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="121"/>
       <c r="C32" s="122"/>
       <c r="D32" s="123"/>
@@ -15424,7 +15424,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A33" s="185"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="121"/>
       <c r="C33" s="122"/>
       <c r="D33" s="123"/>
@@ -15445,7 +15445,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A34" s="185"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="121"/>
       <c r="C34" s="122"/>
       <c r="D34" s="123"/>
@@ -15466,7 +15466,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="121"/>
       <c r="C35" s="122"/>
       <c r="D35" s="123"/>
@@ -15487,7 +15487,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A36" s="185"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="121"/>
       <c r="C36" s="122"/>
       <c r="D36" s="123"/>
@@ -15508,7 +15508,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A37" s="185"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="121"/>
       <c r="C37" s="122"/>
       <c r="D37" s="123"/>
@@ -15529,7 +15529,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A38" s="186"/>
+      <c r="A38" s="187"/>
       <c r="B38" s="121"/>
       <c r="C38" s="122"/>
       <c r="D38" s="123"/>
@@ -15550,7 +15550,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="185" t="s">
         <v>947</v>
       </c>
       <c r="B39" s="123" t="s">
@@ -15589,7 +15589,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A40" s="185"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="121"/>
       <c r="C40" s="122"/>
       <c r="D40" s="121"/>
@@ -15610,7 +15610,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" customFormat="1" ht="30">
-      <c r="A41" s="185"/>
+      <c r="A41" s="186"/>
       <c r="B41" s="121" t="s">
         <v>296</v>
       </c>
@@ -15647,7 +15647,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A42" s="185"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="121"/>
       <c r="C42" s="122"/>
       <c r="D42" s="121"/>
@@ -15668,7 +15668,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A43" s="185"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="121"/>
       <c r="C43" s="122"/>
       <c r="D43" s="121"/>
@@ -15689,7 +15689,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A44" s="185"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="121"/>
       <c r="C44" s="122"/>
       <c r="D44" s="121"/>
@@ -15710,7 +15710,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A45" s="185"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="121"/>
       <c r="C45" s="122"/>
       <c r="D45" s="121"/>
@@ -15731,7 +15731,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A46" s="185"/>
+      <c r="A46" s="186"/>
       <c r="B46" s="121"/>
       <c r="C46" s="122"/>
       <c r="D46" s="121"/>
@@ -15752,7 +15752,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A47" s="185"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="121"/>
       <c r="C47" s="122"/>
       <c r="D47" s="121"/>
@@ -15773,7 +15773,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A48" s="185"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="121"/>
       <c r="C48" s="122"/>
       <c r="D48" s="121"/>
@@ -15794,7 +15794,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A49" s="185"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="121"/>
       <c r="C49" s="122"/>
       <c r="D49" s="121"/>
@@ -15815,7 +15815,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A50" s="185"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="121"/>
       <c r="C50" s="122"/>
       <c r="D50" s="121"/>
@@ -15836,7 +15836,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A51" s="185"/>
+      <c r="A51" s="186"/>
       <c r="B51" s="121"/>
       <c r="C51" s="122"/>
       <c r="D51" s="121"/>
@@ -15857,7 +15857,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A52" s="185"/>
+      <c r="A52" s="186"/>
       <c r="B52" s="121"/>
       <c r="C52" s="122"/>
       <c r="D52" s="121"/>
@@ -15878,7 +15878,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A53" s="185"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="121"/>
       <c r="C53" s="122"/>
       <c r="D53" s="121"/>
@@ -15899,7 +15899,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A54" s="185"/>
+      <c r="A54" s="186"/>
       <c r="B54" s="121"/>
       <c r="C54" s="122"/>
       <c r="D54" s="121"/>
@@ -15920,7 +15920,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A55" s="185"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="121"/>
       <c r="C55" s="122"/>
       <c r="D55" s="121"/>
@@ -15941,7 +15941,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A56" s="186"/>
+      <c r="A56" s="187"/>
       <c r="B56" s="121"/>
       <c r="C56" s="122"/>
       <c r="D56" s="121"/>
@@ -15962,7 +15962,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" customFormat="1" ht="114.75" customHeight="1">
-      <c r="A57" s="179" t="s">
+      <c r="A57" s="180" t="s">
         <v>997</v>
       </c>
       <c r="B57" s="121" t="s">
@@ -16001,7 +16001,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" customFormat="1" ht="15">
-      <c r="A58" s="179"/>
+      <c r="A58" s="180"/>
       <c r="B58" s="121"/>
       <c r="C58" s="122"/>
       <c r="D58" s="121"/>
@@ -16022,7 +16022,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" customFormat="1" ht="150">
-      <c r="A59" s="179"/>
+      <c r="A59" s="180"/>
       <c r="B59" s="121" t="s">
         <v>402</v>
       </c>
@@ -16044,7 +16044,7 @@
       <c r="H59" s="65" t="s">
         <v>1004</v>
       </c>
-      <c r="I59" s="198" t="s">
+      <c r="I59" s="179" t="s">
         <v>1005</v>
       </c>
       <c r="J59" s="121" t="s">
@@ -16061,7 +16061,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" customFormat="1" ht="15">
-      <c r="A60" s="179"/>
+      <c r="A60" s="180"/>
       <c r="B60" s="121"/>
       <c r="C60" s="122"/>
       <c r="D60" s="121"/>
@@ -16082,7 +16082,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" customFormat="1" ht="15">
-      <c r="A61" s="179"/>
+      <c r="A61" s="180"/>
       <c r="B61" s="121"/>
       <c r="C61" s="122"/>
       <c r="D61" s="121"/>
@@ -16103,7 +16103,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" customFormat="1" ht="15">
-      <c r="A62" s="179"/>
+      <c r="A62" s="180"/>
       <c r="B62" s="121"/>
       <c r="C62" s="122"/>
       <c r="D62" s="121"/>
@@ -16124,7 +16124,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="78">
-      <c r="A63" s="185"/>
+      <c r="A63" s="186"/>
       <c r="B63" s="128" t="s">
         <v>524</v>
       </c>
@@ -16161,7 +16161,7 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="185"/>
+      <c r="A64" s="186"/>
       <c r="B64" s="128"/>
       <c r="C64" s="121"/>
       <c r="D64" s="127"/>
@@ -16182,7 +16182,7 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="185"/>
+      <c r="A65" s="186"/>
       <c r="B65" s="128"/>
       <c r="C65" s="121"/>
       <c r="D65" s="127"/>
@@ -16203,7 +16203,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="37.5">
-      <c r="A66" s="185"/>
+      <c r="A66" s="186"/>
       <c r="B66" s="128"/>
       <c r="C66" s="121"/>
       <c r="D66" s="127"/>
@@ -16224,7 +16224,7 @@
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="185"/>
+      <c r="A67" s="186"/>
       <c r="B67" s="128"/>
       <c r="C67" s="121"/>
       <c r="D67" s="127"/>
@@ -16245,7 +16245,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="37.5">
-      <c r="A68" s="185"/>
+      <c r="A68" s="186"/>
       <c r="B68" s="128"/>
       <c r="C68" s="121"/>
       <c r="D68" s="127"/>
@@ -16266,7 +16266,7 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="185"/>
+      <c r="A69" s="186"/>
       <c r="B69" s="128"/>
       <c r="C69" s="121"/>
       <c r="D69" s="127"/>
@@ -16287,7 +16287,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="37.5">
-      <c r="A70" s="185"/>
+      <c r="A70" s="186"/>
       <c r="B70" s="128"/>
       <c r="C70" s="121"/>
       <c r="D70" s="127"/>
@@ -16308,7 +16308,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="55.5">
-      <c r="A71" s="185"/>
+      <c r="A71" s="186"/>
       <c r="B71" s="128"/>
       <c r="C71" s="121"/>
       <c r="D71" s="127"/>
@@ -16329,7 +16329,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="32.25">
-      <c r="A72" s="185"/>
+      <c r="A72" s="186"/>
       <c r="B72" s="128"/>
       <c r="C72" s="121"/>
       <c r="D72" s="127"/>
@@ -16350,7 +16350,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="55.5">
-      <c r="A73" s="185"/>
+      <c r="A73" s="186"/>
       <c r="B73" s="128"/>
       <c r="C73" s="121"/>
       <c r="D73" s="127"/>
@@ -16371,7 +16371,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="55.5">
-      <c r="A74" s="185"/>
+      <c r="A74" s="186"/>
       <c r="B74" s="128"/>
       <c r="C74" s="121"/>
       <c r="D74" s="127"/>
@@ -16392,7 +16392,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="32.25">
-      <c r="A75" s="185"/>
+      <c r="A75" s="186"/>
       <c r="B75" s="128"/>
       <c r="C75" s="121"/>
       <c r="D75" s="127"/>
@@ -16411,7 +16411,7 @@
       <c r="M75" s="65"/>
     </row>
     <row r="76" spans="1:13" ht="212.25">
-      <c r="A76" s="185"/>
+      <c r="A76" s="186"/>
       <c r="B76" s="128" t="s">
         <v>542</v>
       </c>
@@ -16450,7 +16450,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="15">
-      <c r="A77" s="185"/>
+      <c r="A77" s="186"/>
       <c r="B77" s="121"/>
       <c r="C77" s="121"/>
       <c r="D77" s="121"/>
@@ -16471,7 +16471,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="31.5">
-      <c r="A78" s="185"/>
+      <c r="A78" s="186"/>
       <c r="B78" s="121" t="s">
         <v>713</v>
       </c>
@@ -16498,7 +16498,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.5">
-      <c r="A79" s="185"/>
+      <c r="A79" s="186"/>
       <c r="B79" s="121"/>
       <c r="C79" s="121"/>
       <c r="D79" s="121"/>
@@ -16519,7 +16519,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="16.5">
-      <c r="A80" s="185"/>
+      <c r="A80" s="186"/>
       <c r="B80" s="121"/>
       <c r="C80" s="121"/>
       <c r="D80" s="121"/>
@@ -16540,7 +16540,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" ht="16.5">
-      <c r="A81" s="185"/>
+      <c r="A81" s="186"/>
       <c r="B81" s="121"/>
       <c r="C81" s="121"/>
       <c r="D81" s="121"/>
@@ -16561,7 +16561,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" ht="16.5">
-      <c r="A82" s="185"/>
+      <c r="A82" s="186"/>
       <c r="B82" s="121"/>
       <c r="C82" s="121"/>
       <c r="D82" s="121"/>
@@ -16582,7 +16582,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="212.25">
-      <c r="A83" s="185"/>
+      <c r="A83" s="186"/>
       <c r="B83" s="128" t="s">
         <v>552</v>
       </c>
@@ -16615,7 +16615,7 @@
       <c r="M83" s="121"/>
     </row>
     <row r="84" spans="1:16" ht="212.25">
-      <c r="A84" s="186"/>
+      <c r="A84" s="187"/>
       <c r="B84" s="128" t="s">
         <v>561</v>
       </c>
@@ -16648,7 +16648,7 @@
       <c r="M84" s="121"/>
     </row>
     <row r="85" spans="1:16" ht="152.25">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>1076</v>
       </c>
       <c r="B85" s="128" t="s">
@@ -16689,7 +16689,7 @@
       </c>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="183"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="128"/>
       <c r="C86" s="121"/>
       <c r="D86" s="127"/>
@@ -16710,7 +16710,7 @@
       </c>
     </row>
     <row r="87" spans="1:16" ht="47.25">
-      <c r="A87" s="183"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="128"/>
       <c r="C87" s="121" t="s">
         <v>1082</v>
@@ -16741,7 +16741,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" s="64" customFormat="1" ht="78" hidden="1">
-      <c r="A88" s="180" t="s">
+      <c r="A88" s="181" t="s">
         <v>1086</v>
       </c>
       <c r="B88" s="117" t="s">
@@ -16783,7 +16783,7 @@
       <c r="P88" s="118"/>
     </row>
     <row r="89" spans="1:16" s="64" customFormat="1" ht="39" hidden="1">
-      <c r="A89" s="181"/>
+      <c r="A89" s="182"/>
       <c r="B89" s="72" t="s">
         <v>1091</v>
       </c>
@@ -16805,7 +16805,7 @@
       <c r="P89" s="65"/>
     </row>
     <row r="90" spans="1:16" s="64" customFormat="1" ht="47.25" hidden="1">
-      <c r="A90" s="182"/>
+      <c r="A90" s="183"/>
       <c r="B90" s="114" t="s">
         <v>713</v>
       </c>
@@ -16948,7 +16948,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="60">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>1099</v>
       </c>
       <c r="B2" s="86" t="s">
@@ -16989,7 +16989,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="192"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
@@ -17010,7 +17010,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
-      <c r="A4" s="192"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -17031,7 +17031,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75">
-      <c r="A5" s="192"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -17052,7 +17052,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="49.5">
-      <c r="A6" s="192"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="86" t="s">
         <v>440</v>
       </c>
@@ -17083,7 +17083,7 @@
       <c r="M6" s="149"/>
     </row>
     <row r="7" spans="1:13" ht="49.5">
-      <c r="A7" s="192"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="86" t="s">
         <v>449</v>
       </c>
@@ -17120,7 +17120,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5">
-      <c r="A8" s="192"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="86"/>
       <c r="C8" s="134"/>
       <c r="D8" s="87"/>
@@ -17141,7 +17141,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5">
-      <c r="A9" s="192"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="86"/>
       <c r="C9" s="134"/>
       <c r="D9" s="87"/>
@@ -17162,7 +17162,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5">
-      <c r="A10" s="192"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="86"/>
       <c r="C10" s="134"/>
       <c r="D10" s="87"/>
@@ -17183,7 +17183,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
-      <c r="A11" s="192"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="86"/>
       <c r="C11" s="134"/>
       <c r="D11" s="87"/>
@@ -17204,7 +17204,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5">
-      <c r="A12" s="192"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="86"/>
       <c r="C12" s="134"/>
       <c r="D12" s="87"/>
@@ -17225,7 +17225,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5">
-      <c r="A13" s="192"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="86"/>
       <c r="C13" s="134"/>
       <c r="D13" s="87"/>
@@ -17246,7 +17246,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="66">
-      <c r="A14" s="192"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="86" t="s">
         <v>457</v>
       </c>
@@ -17285,7 +17285,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="192"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -17306,7 +17306,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="192"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -17327,7 +17327,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="33">
-      <c r="A17" s="192"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="86" t="s">
         <v>465</v>
       </c>
@@ -17350,7 +17350,7 @@
       <c r="M17" s="149"/>
     </row>
     <row r="18" spans="1:13" ht="66">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="195" t="s">
         <v>1156</v>
       </c>
       <c r="B18" s="86" t="s">
@@ -17391,7 +17391,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="194"/>
+      <c r="A19" s="195"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -17412,7 +17412,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="66">
-      <c r="A20" s="194"/>
+      <c r="A20" s="195"/>
       <c r="B20" s="86" t="s">
         <v>482</v>
       </c>
@@ -17451,7 +17451,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5">
-      <c r="A21" s="194"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="86"/>
       <c r="C21" s="134"/>
       <c r="D21" s="87"/>
@@ -17472,7 +17472,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5">
-      <c r="A22" s="194"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="86"/>
       <c r="C22" s="134"/>
       <c r="D22" s="87"/>
@@ -17493,7 +17493,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5">
-      <c r="A23" s="194"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="86"/>
       <c r="C23" s="134"/>
       <c r="D23" s="87"/>
@@ -17514,7 +17514,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5">
-      <c r="A24" s="194"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="86"/>
       <c r="C24" s="134"/>
       <c r="D24" s="87"/>
@@ -17535,7 +17535,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5">
-      <c r="A25" s="194"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="86"/>
       <c r="C25" s="134"/>
       <c r="D25" s="87"/>
@@ -17556,7 +17556,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="99">
-      <c r="A26" s="194"/>
+      <c r="A26" s="195"/>
       <c r="B26" s="86"/>
       <c r="C26" s="134"/>
       <c r="D26" s="87"/>
@@ -17581,7 +17581,7 @@
       <c r="M26" s="149"/>
     </row>
     <row r="27" spans="1:13" ht="115.5">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="195" t="s">
         <v>1192</v>
       </c>
       <c r="B27" s="86" t="s">
@@ -17622,7 +17622,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="194"/>
+      <c r="A28" s="195"/>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -17643,7 +17643,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="132">
-      <c r="A29" s="194"/>
+      <c r="A29" s="195"/>
       <c r="B29" s="86" t="s">
         <v>499</v>
       </c>
@@ -17680,7 +17680,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5">
-      <c r="A30" s="194"/>
+      <c r="A30" s="195"/>
       <c r="B30" s="86"/>
       <c r="C30" s="134"/>
       <c r="D30" s="87"/>
@@ -17701,7 +17701,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5">
-      <c r="A31" s="194"/>
+      <c r="A31" s="195"/>
       <c r="B31" s="86"/>
       <c r="C31" s="134"/>
       <c r="D31" s="87"/>
@@ -17722,7 +17722,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5">
-      <c r="A32" s="194"/>
+      <c r="A32" s="195"/>
       <c r="B32" s="86"/>
       <c r="C32" s="134"/>
       <c r="D32" s="87"/>
@@ -17743,7 +17743,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="194"/>
+      <c r="A33" s="195"/>
       <c r="B33" s="68"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
@@ -17764,7 +17764,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="60">
-      <c r="A34" s="194"/>
+      <c r="A34" s="195"/>
       <c r="B34" s="68"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
@@ -17787,7 +17787,7 @@
       <c r="M34" s="152"/>
     </row>
     <row r="35" spans="1:13" ht="66">
-      <c r="A35" s="189" t="s">
+      <c r="A35" s="190" t="s">
         <v>1223</v>
       </c>
       <c r="B35" s="86" t="s">
@@ -17828,7 +17828,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="190"/>
+      <c r="A36" s="191"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -17849,7 +17849,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="66">
-      <c r="A37" s="190"/>
+      <c r="A37" s="191"/>
       <c r="B37" s="86" t="s">
         <v>516</v>
       </c>
@@ -17888,7 +17888,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5">
-      <c r="A38" s="190"/>
+      <c r="A38" s="191"/>
       <c r="B38" s="86"/>
       <c r="C38" s="134"/>
       <c r="D38" s="87"/>
@@ -17909,7 +17909,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.5">
-      <c r="A39" s="190"/>
+      <c r="A39" s="191"/>
       <c r="B39" s="86"/>
       <c r="C39" s="134"/>
       <c r="D39" s="87"/>
@@ -17930,7 +17930,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.5">
-      <c r="A40" s="190"/>
+      <c r="A40" s="191"/>
       <c r="B40" s="86"/>
       <c r="C40" s="134"/>
       <c r="D40" s="87"/>
@@ -17951,7 +17951,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="16.5">
-      <c r="A41" s="190"/>
+      <c r="A41" s="191"/>
       <c r="B41" s="86"/>
       <c r="C41" s="134"/>
       <c r="D41" s="87"/>
@@ -17972,7 +17972,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.5">
-      <c r="A42" s="191"/>
+      <c r="A42" s="192"/>
       <c r="B42" s="86"/>
       <c r="C42" s="134"/>
       <c r="D42" s="87"/>
@@ -17993,7 +17993,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="49.5">
-      <c r="A43" s="193" t="s">
+      <c r="A43" s="194" t="s">
         <v>1249</v>
       </c>
       <c r="B43" s="86" t="s">
@@ -18032,7 +18032,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="16.5">
-      <c r="A44" s="193"/>
+      <c r="A44" s="194"/>
       <c r="B44" s="86"/>
       <c r="C44" s="134"/>
       <c r="D44" s="87"/>
@@ -18053,7 +18053,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="16.5">
-      <c r="A45" s="193"/>
+      <c r="A45" s="194"/>
       <c r="B45" s="86"/>
       <c r="C45" s="134"/>
       <c r="D45" s="87"/>
@@ -18074,7 +18074,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="16.5">
-      <c r="A46" s="193"/>
+      <c r="A46" s="194"/>
       <c r="B46" s="86"/>
       <c r="C46" s="134"/>
       <c r="D46" s="87"/>
@@ -18095,7 +18095,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="16.5">
-      <c r="A47" s="193"/>
+      <c r="A47" s="194"/>
       <c r="B47" s="86"/>
       <c r="C47" s="134"/>
       <c r="D47" s="87"/>
@@ -18116,7 +18116,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="16.5">
-      <c r="A48" s="193"/>
+      <c r="A48" s="194"/>
       <c r="B48" s="86"/>
       <c r="C48" s="134"/>
       <c r="D48" s="87"/>
@@ -18137,7 +18137,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="16.5">
-      <c r="A49" s="193"/>
+      <c r="A49" s="194"/>
       <c r="B49" s="86"/>
       <c r="C49" s="134"/>
       <c r="D49" s="87"/>
@@ -18158,7 +18158,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="16.5">
-      <c r="A50" s="193"/>
+      <c r="A50" s="194"/>
       <c r="B50" s="86"/>
       <c r="C50" s="134"/>
       <c r="D50" s="87"/>
@@ -18179,7 +18179,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="16.5">
-      <c r="A51" s="193"/>
+      <c r="A51" s="194"/>
       <c r="B51" s="86"/>
       <c r="C51" s="134"/>
       <c r="D51" s="87"/>
@@ -18200,7 +18200,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="16.5">
-      <c r="A52" s="193"/>
+      <c r="A52" s="194"/>
       <c r="B52" s="86"/>
       <c r="C52" s="134"/>
       <c r="D52" s="87"/>
@@ -18221,7 +18221,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="57">
-      <c r="A53" s="193"/>
+      <c r="A53" s="194"/>
       <c r="B53" s="86" t="s">
         <v>579</v>
       </c>
@@ -18258,7 +18258,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="16.5">
-      <c r="A54" s="193"/>
+      <c r="A54" s="194"/>
       <c r="B54" s="86"/>
       <c r="C54" s="134"/>
       <c r="D54" s="87"/>
@@ -18279,7 +18279,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="16.5">
-      <c r="A55" s="193"/>
+      <c r="A55" s="194"/>
       <c r="B55" s="86"/>
       <c r="C55" s="134"/>
       <c r="D55" s="87"/>
@@ -18300,7 +18300,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="16.5">
-      <c r="A56" s="193"/>
+      <c r="A56" s="194"/>
       <c r="B56" s="86"/>
       <c r="C56" s="134"/>
       <c r="D56" s="87"/>
@@ -18321,7 +18321,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="16.5">
-      <c r="A57" s="193"/>
+      <c r="A57" s="194"/>
       <c r="B57" s="86"/>
       <c r="C57" s="134"/>
       <c r="D57" s="87"/>
@@ -18342,7 +18342,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="16.5">
-      <c r="A58" s="193"/>
+      <c r="A58" s="194"/>
       <c r="B58" s="86"/>
       <c r="C58" s="134"/>
       <c r="D58" s="87"/>
@@ -18363,7 +18363,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="16.5">
-      <c r="A59" s="193"/>
+      <c r="A59" s="194"/>
       <c r="B59" s="86"/>
       <c r="C59" s="134"/>
       <c r="D59" s="87"/>
@@ -18384,7 +18384,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="56.25">
-      <c r="A60" s="193"/>
+      <c r="A60" s="194"/>
       <c r="B60" s="68"/>
       <c r="C60" s="66" t="s">
         <v>1309</v>
@@ -18409,7 +18409,7 @@
       <c r="M60" s="150"/>
     </row>
     <row r="61" spans="1:13" ht="66">
-      <c r="A61" s="193"/>
+      <c r="A61" s="194"/>
       <c r="B61" s="86" t="s">
         <v>588</v>
       </c>
@@ -18446,7 +18446,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="16.5">
-      <c r="A62" s="193"/>
+      <c r="A62" s="194"/>
       <c r="B62" s="86"/>
       <c r="C62" s="134"/>
       <c r="D62" s="87"/>
@@ -18467,7 +18467,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="16.5">
-      <c r="A63" s="193"/>
+      <c r="A63" s="194"/>
       <c r="B63" s="86"/>
       <c r="C63" s="134"/>
       <c r="D63" s="87"/>
@@ -18488,7 +18488,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="16.5">
-      <c r="A64" s="193"/>
+      <c r="A64" s="194"/>
       <c r="B64" s="86"/>
       <c r="C64" s="134"/>
       <c r="D64" s="87"/>
@@ -18509,7 +18509,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="16.5">
-      <c r="A65" s="193"/>
+      <c r="A65" s="194"/>
       <c r="B65" s="86"/>
       <c r="C65" s="134"/>
       <c r="D65" s="87"/>
@@ -18530,7 +18530,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="16.5">
-      <c r="A66" s="193"/>
+      <c r="A66" s="194"/>
       <c r="B66" s="86"/>
       <c r="C66" s="134"/>
       <c r="D66" s="87"/>
@@ -18551,7 +18551,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="16.5">
-      <c r="A67" s="193"/>
+      <c r="A67" s="194"/>
       <c r="B67" s="86"/>
       <c r="C67" s="134"/>
       <c r="D67" s="87"/>
@@ -18572,7 +18572,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="56.25">
-      <c r="A68" s="193"/>
+      <c r="A68" s="194"/>
       <c r="B68" s="86"/>
       <c r="C68" s="134" t="s">
         <v>1335</v>
@@ -18595,7 +18595,7 @@
       <c r="M68" s="150"/>
     </row>
     <row r="69" spans="1:13" ht="75">
-      <c r="A69" s="193"/>
+      <c r="A69" s="194"/>
       <c r="B69" s="86" t="s">
         <v>597</v>
       </c>
@@ -18632,7 +18632,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="16.5">
-      <c r="A70" s="193"/>
+      <c r="A70" s="194"/>
       <c r="B70" s="86"/>
       <c r="C70" s="134"/>
       <c r="D70" s="87"/>
@@ -18653,7 +18653,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="16.5">
-      <c r="A71" s="193"/>
+      <c r="A71" s="194"/>
       <c r="B71" s="86"/>
       <c r="C71" s="134"/>
       <c r="D71" s="87"/>
@@ -18674,7 +18674,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="16.5">
-      <c r="A72" s="193"/>
+      <c r="A72" s="194"/>
       <c r="B72" s="86"/>
       <c r="C72" s="134"/>
       <c r="D72" s="87"/>
@@ -18695,7 +18695,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="16.5">
-      <c r="A73" s="193"/>
+      <c r="A73" s="194"/>
       <c r="B73" s="86"/>
       <c r="C73" s="134"/>
       <c r="D73" s="87"/>
@@ -18716,7 +18716,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="16.5">
-      <c r="A74" s="193"/>
+      <c r="A74" s="194"/>
       <c r="B74" s="86"/>
       <c r="C74" s="134"/>
       <c r="D74" s="87"/>
@@ -18737,7 +18737,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="16.5">
-      <c r="A75" s="193"/>
+      <c r="A75" s="194"/>
       <c r="B75" s="86"/>
       <c r="C75" s="134"/>
       <c r="D75" s="87"/>
@@ -18758,7 +18758,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="16.5">
-      <c r="A76" s="193"/>
+      <c r="A76" s="194"/>
       <c r="B76" s="86"/>
       <c r="C76" s="134"/>
       <c r="D76" s="87"/>
@@ -18779,7 +18779,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="33">
-      <c r="A77" s="193"/>
+      <c r="A77" s="194"/>
       <c r="B77" s="86" t="s">
         <v>606</v>
       </c>
@@ -18816,7 +18816,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="16.5">
-      <c r="A78" s="193"/>
+      <c r="A78" s="194"/>
       <c r="B78" s="86"/>
       <c r="C78" s="134"/>
       <c r="D78" s="87"/>
@@ -18837,7 +18837,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="60">
-      <c r="A79" s="193"/>
+      <c r="A79" s="194"/>
       <c r="B79" s="86" t="s">
         <v>614</v>
       </c>
@@ -18876,7 +18876,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="16.5">
-      <c r="A80" s="193"/>
+      <c r="A80" s="194"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
       <c r="D80" s="87"/>
@@ -18897,7 +18897,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="45">
-      <c r="A81" s="193"/>
+      <c r="A81" s="194"/>
       <c r="B81" s="86" t="s">
         <v>623</v>
       </c>
@@ -18934,7 +18934,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="90">
-      <c r="A82" s="193"/>
+      <c r="A82" s="194"/>
       <c r="B82" s="86" t="s">
         <v>632</v>
       </c>
@@ -18971,7 +18971,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="16.5">
-      <c r="A83" s="193"/>
+      <c r="A83" s="194"/>
       <c r="B83" s="86"/>
       <c r="C83" s="134"/>
       <c r="D83" s="101"/>
@@ -18992,7 +18992,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="16.5">
-      <c r="A84" s="193"/>
+      <c r="A84" s="194"/>
       <c r="B84" s="86"/>
       <c r="C84" s="134"/>
       <c r="D84" s="101"/>
@@ -19013,7 +19013,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="16.5">
-      <c r="A85" s="193"/>
+      <c r="A85" s="194"/>
       <c r="B85" s="86"/>
       <c r="C85" s="134"/>
       <c r="D85" s="101"/>
@@ -19034,7 +19034,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="16.5">
-      <c r="A86" s="193"/>
+      <c r="A86" s="194"/>
       <c r="B86" s="86"/>
       <c r="C86" s="134"/>
       <c r="D86" s="101"/>
@@ -19055,7 +19055,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="16.5">
-      <c r="A87" s="193"/>
+      <c r="A87" s="194"/>
       <c r="B87" s="86"/>
       <c r="C87" s="134"/>
       <c r="D87" s="101"/>
@@ -19076,7 +19076,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="16.5">
-      <c r="A88" s="193"/>
+      <c r="A88" s="194"/>
       <c r="B88" s="86"/>
       <c r="C88" s="134"/>
       <c r="D88" s="101"/>
@@ -19097,7 +19097,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="16.5">
-      <c r="A89" s="193"/>
+      <c r="A89" s="194"/>
       <c r="B89" s="86"/>
       <c r="C89" s="134"/>
       <c r="D89" s="101"/>
@@ -19118,7 +19118,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="16.5">
-      <c r="A90" s="193"/>
+      <c r="A90" s="194"/>
       <c r="B90" s="86"/>
       <c r="C90" s="134"/>
       <c r="D90" s="101"/>
@@ -19139,7 +19139,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="16.5">
-      <c r="A91" s="193"/>
+      <c r="A91" s="194"/>
       <c r="B91" s="86"/>
       <c r="C91" s="134"/>
       <c r="D91" s="101"/>
@@ -19160,7 +19160,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="16.5">
-      <c r="A92" s="193"/>
+      <c r="A92" s="194"/>
       <c r="B92" s="86"/>
       <c r="C92" s="134"/>
       <c r="D92" s="101"/>
@@ -19181,7 +19181,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="75">
-      <c r="A93" s="193"/>
+      <c r="A93" s="194"/>
       <c r="B93" s="86" t="s">
         <v>641</v>
       </c>
@@ -19220,7 +19220,7 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="193"/>
+      <c r="A94" s="194"/>
       <c r="B94" s="68"/>
       <c r="C94" s="68"/>
       <c r="D94" s="68"/>
@@ -19241,7 +19241,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="120">
-      <c r="A95" s="193"/>
+      <c r="A95" s="194"/>
       <c r="B95" s="86" t="s">
         <v>649</v>
       </c>
@@ -19278,7 +19278,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="16.5">
-      <c r="A96" s="193"/>
+      <c r="A96" s="194"/>
       <c r="B96" s="86"/>
       <c r="C96" s="134"/>
       <c r="D96" s="101"/>
@@ -19299,7 +19299,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="16.5">
-      <c r="A97" s="193"/>
+      <c r="A97" s="194"/>
       <c r="B97" s="86"/>
       <c r="C97" s="134"/>
       <c r="D97" s="101"/>
@@ -19320,7 +19320,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="16.5">
-      <c r="A98" s="193"/>
+      <c r="A98" s="194"/>
       <c r="B98" s="86"/>
       <c r="C98" s="134"/>
       <c r="D98" s="101"/>
@@ -19341,7 +19341,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="16.5">
-      <c r="A99" s="193"/>
+      <c r="A99" s="194"/>
       <c r="B99" s="86"/>
       <c r="C99" s="134"/>
       <c r="D99" s="101"/>
@@ -19362,7 +19362,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="16.5">
-      <c r="A100" s="193"/>
+      <c r="A100" s="194"/>
       <c r="B100" s="86"/>
       <c r="C100" s="134"/>
       <c r="D100" s="101"/>
@@ -19383,7 +19383,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="120">
-      <c r="A101" s="193"/>
+      <c r="A101" s="194"/>
       <c r="B101" s="86" t="s">
         <v>658</v>
       </c>
@@ -19420,7 +19420,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="16.5">
-      <c r="A102" s="193"/>
+      <c r="A102" s="194"/>
       <c r="B102" s="86"/>
       <c r="C102" s="134"/>
       <c r="D102" s="101"/>
@@ -19441,7 +19441,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="16.5">
-      <c r="A103" s="193"/>
+      <c r="A103" s="194"/>
       <c r="B103" s="86"/>
       <c r="C103" s="134"/>
       <c r="D103" s="101"/>
@@ -19462,7 +19462,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="16.5">
-      <c r="A104" s="193"/>
+      <c r="A104" s="194"/>
       <c r="B104" s="86"/>
       <c r="C104" s="134"/>
       <c r="D104" s="101"/>
@@ -19483,7 +19483,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="16.5">
-      <c r="A105" s="193"/>
+      <c r="A105" s="194"/>
       <c r="B105" s="86"/>
       <c r="C105" s="134"/>
       <c r="D105" s="101"/>
@@ -19504,7 +19504,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="16.5">
-      <c r="A106" s="193"/>
+      <c r="A106" s="194"/>
       <c r="B106" s="86"/>
       <c r="C106" s="134"/>
       <c r="D106" s="101"/>
@@ -19525,7 +19525,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="16.5">
-      <c r="A107" s="193"/>
+      <c r="A107" s="194"/>
       <c r="B107" s="86"/>
       <c r="C107" s="134"/>
       <c r="D107" s="101"/>
@@ -19546,7 +19546,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="16.5">
-      <c r="A108" s="193"/>
+      <c r="A108" s="194"/>
       <c r="B108" s="86"/>
       <c r="C108" s="134"/>
       <c r="D108" s="101"/>
@@ -19567,7 +19567,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="16.5">
-      <c r="A109" s="193"/>
+      <c r="A109" s="194"/>
       <c r="B109" s="86"/>
       <c r="C109" s="134"/>
       <c r="D109" s="101"/>
@@ -19588,7 +19588,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="16.5">
-      <c r="A110" s="193"/>
+      <c r="A110" s="194"/>
       <c r="B110" s="86"/>
       <c r="C110" s="134"/>
       <c r="D110" s="101"/>
@@ -19609,7 +19609,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="16.5">
-      <c r="A111" s="193"/>
+      <c r="A111" s="194"/>
       <c r="B111" s="86"/>
       <c r="C111" s="134"/>
       <c r="D111" s="101"/>
@@ -19630,7 +19630,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="16.5">
-      <c r="A112" s="193"/>
+      <c r="A112" s="194"/>
       <c r="B112" s="86"/>
       <c r="C112" s="134"/>
       <c r="D112" s="101"/>
@@ -19651,7 +19651,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="16.5">
-      <c r="A113" s="193"/>
+      <c r="A113" s="194"/>
       <c r="B113" s="86"/>
       <c r="C113" s="134"/>
       <c r="D113" s="101"/>
@@ -19672,7 +19672,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="60">
-      <c r="A114" s="193"/>
+      <c r="A114" s="194"/>
       <c r="B114" s="86" t="s">
         <v>668</v>
       </c>
@@ -19709,7 +19709,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="16.5">
-      <c r="A115" s="193"/>
+      <c r="A115" s="194"/>
       <c r="B115" s="86"/>
       <c r="C115" s="134"/>
       <c r="D115" s="101"/>
@@ -19730,7 +19730,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="16.5">
-      <c r="A116" s="193"/>
+      <c r="A116" s="194"/>
       <c r="B116" s="86"/>
       <c r="C116" s="134"/>
       <c r="D116" s="101"/>
@@ -19751,7 +19751,7 @@
       </c>
     </row>
     <row r="117" spans="1:13" ht="16.5">
-      <c r="A117" s="193"/>
+      <c r="A117" s="194"/>
       <c r="B117" s="86"/>
       <c r="C117" s="134"/>
       <c r="D117" s="101"/>
@@ -19772,7 +19772,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="16.5">
-      <c r="A118" s="193"/>
+      <c r="A118" s="194"/>
       <c r="B118" s="86"/>
       <c r="C118" s="134"/>
       <c r="D118" s="101"/>
@@ -19793,7 +19793,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="60">
-      <c r="A119" s="193"/>
+      <c r="A119" s="194"/>
       <c r="B119" s="86" t="s">
         <v>678</v>
       </c>
@@ -19830,7 +19830,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="16.5">
-      <c r="A120" s="193"/>
+      <c r="A120" s="194"/>
       <c r="B120" s="86"/>
       <c r="C120" s="134"/>
       <c r="D120" s="87"/>
@@ -19851,7 +19851,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="16.5">
-      <c r="A121" s="193"/>
+      <c r="A121" s="194"/>
       <c r="B121" s="86"/>
       <c r="C121" s="134"/>
       <c r="D121" s="87"/>
@@ -19872,7 +19872,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="16.5">
-      <c r="A122" s="193"/>
+      <c r="A122" s="194"/>
       <c r="B122" s="86"/>
       <c r="C122" s="134"/>
       <c r="D122" s="87"/>
@@ -19893,7 +19893,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="16.5">
-      <c r="A123" s="193"/>
+      <c r="A123" s="194"/>
       <c r="B123" s="86"/>
       <c r="C123" s="134"/>
       <c r="D123" s="87"/>
@@ -19914,7 +19914,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="16.5">
-      <c r="A124" s="193"/>
+      <c r="A124" s="194"/>
       <c r="B124" s="86"/>
       <c r="C124" s="134"/>
       <c r="D124" s="87"/>
@@ -19935,7 +19935,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="16.5">
-      <c r="A125" s="193"/>
+      <c r="A125" s="194"/>
       <c r="B125" s="86"/>
       <c r="C125" s="134"/>
       <c r="D125" s="87"/>
@@ -19956,7 +19956,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" ht="16.5">
-      <c r="A126" s="193"/>
+      <c r="A126" s="194"/>
       <c r="B126" s="86"/>
       <c r="C126" s="134"/>
       <c r="D126" s="87"/>
@@ -19977,7 +19977,7 @@
       </c>
     </row>
     <row r="127" spans="1:13" ht="60">
-      <c r="A127" s="193"/>
+      <c r="A127" s="194"/>
       <c r="B127" s="86" t="s">
         <v>687</v>
       </c>
@@ -20014,7 +20014,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" ht="16.5">
-      <c r="A128" s="193"/>
+      <c r="A128" s="194"/>
       <c r="B128" s="86"/>
       <c r="C128" s="134"/>
       <c r="D128" s="87"/>
@@ -20035,7 +20035,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" ht="16.5">
-      <c r="A129" s="193"/>
+      <c r="A129" s="194"/>
       <c r="B129" s="86"/>
       <c r="C129" s="134"/>
       <c r="D129" s="87"/>
@@ -20056,7 +20056,7 @@
       </c>
     </row>
     <row r="130" spans="1:13" ht="16.5">
-      <c r="A130" s="193"/>
+      <c r="A130" s="194"/>
       <c r="B130" s="86"/>
       <c r="C130" s="134"/>
       <c r="D130" s="87"/>
@@ -20077,7 +20077,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="16.5">
-      <c r="A131" s="193"/>
+      <c r="A131" s="194"/>
       <c r="B131" s="86"/>
       <c r="C131" s="134"/>
       <c r="D131" s="87"/>
@@ -20098,7 +20098,7 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="16.5">
-      <c r="A132" s="193"/>
+      <c r="A132" s="194"/>
       <c r="B132" s="86"/>
       <c r="C132" s="134"/>
       <c r="D132" s="87"/>
@@ -20119,7 +20119,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" ht="16.5">
-      <c r="A133" s="193"/>
+      <c r="A133" s="194"/>
       <c r="B133" s="86"/>
       <c r="C133" s="134"/>
       <c r="D133" s="87"/>
@@ -20140,7 +20140,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" ht="16.5">
-      <c r="A134" s="193"/>
+      <c r="A134" s="194"/>
       <c r="B134" s="86"/>
       <c r="C134" s="134"/>
       <c r="D134" s="87"/>
@@ -20161,7 +20161,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" ht="16.5">
-      <c r="A135" s="193"/>
+      <c r="A135" s="194"/>
       <c r="B135" s="86"/>
       <c r="C135" s="134"/>
       <c r="D135" s="87"/>
@@ -20182,7 +20182,7 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="16.5">
-      <c r="A136" s="193"/>
+      <c r="A136" s="194"/>
       <c r="B136" s="86"/>
       <c r="C136" s="134"/>
       <c r="D136" s="87"/>
@@ -20203,7 +20203,7 @@
       </c>
     </row>
     <row r="137" spans="1:13" ht="16.5">
-      <c r="A137" s="193"/>
+      <c r="A137" s="194"/>
       <c r="B137" s="86"/>
       <c r="C137" s="134"/>
       <c r="D137" s="87"/>
@@ -20224,7 +20224,7 @@
       </c>
     </row>
     <row r="138" spans="1:13" ht="16.5">
-      <c r="A138" s="193"/>
+      <c r="A138" s="194"/>
       <c r="B138" s="86"/>
       <c r="C138" s="134"/>
       <c r="D138" s="87"/>
@@ -20245,7 +20245,7 @@
       </c>
     </row>
     <row r="139" spans="1:13" ht="135">
-      <c r="A139" s="193"/>
+      <c r="A139" s="194"/>
       <c r="B139" s="86" t="s">
         <v>741</v>
       </c>
@@ -20276,7 +20276,7 @@
       <c r="M139" s="149"/>
     </row>
     <row r="140" spans="1:13" ht="33">
-      <c r="A140" s="193"/>
+      <c r="A140" s="194"/>
       <c r="B140" s="86" t="s">
         <v>741</v>
       </c>
@@ -20295,7 +20295,7 @@
       <c r="M140" s="149"/>
     </row>
     <row r="141" spans="1:13" ht="255">
-      <c r="A141" s="193"/>
+      <c r="A141" s="194"/>
       <c r="B141" s="86" t="s">
         <v>749</v>
       </c>
@@ -20326,7 +20326,7 @@
       <c r="M141" s="149"/>
     </row>
     <row r="142" spans="1:13" ht="225">
-      <c r="A142" s="187" t="s">
+      <c r="A142" s="188" t="s">
         <v>1576</v>
       </c>
       <c r="B142" s="93" t="s">
@@ -20359,7 +20359,7 @@
       <c r="M142" s="150"/>
     </row>
     <row r="143" spans="1:13" ht="16.5">
-      <c r="A143" s="188"/>
+      <c r="A143" s="189"/>
       <c r="B143" s="93" t="s">
         <v>1583</v>
       </c>
@@ -20384,7 +20384,7 @@
       <c r="M143" s="149"/>
     </row>
     <row r="144" spans="1:13" ht="16.5">
-      <c r="A144" s="188"/>
+      <c r="A144" s="189"/>
       <c r="B144" s="93" t="s">
         <v>1587</v>
       </c>
@@ -20409,7 +20409,7 @@
       <c r="M144" s="149"/>
     </row>
     <row r="145" spans="1:13" ht="16.5">
-      <c r="A145" s="188"/>
+      <c r="A145" s="189"/>
       <c r="B145" s="93" t="s">
         <v>1591</v>
       </c>
@@ -20440,7 +20440,7 @@
       </c>
     </row>
     <row r="146" spans="1:13" ht="16.5">
-      <c r="A146" s="188"/>
+      <c r="A146" s="189"/>
       <c r="B146" s="93"/>
       <c r="C146" s="134"/>
       <c r="D146" s="68"/>
@@ -20461,7 +20461,7 @@
       </c>
     </row>
     <row r="147" spans="1:13" ht="16.5">
-      <c r="A147" s="188"/>
+      <c r="A147" s="189"/>
       <c r="B147" s="93"/>
       <c r="C147" s="134"/>
       <c r="D147" s="68"/>
@@ -20482,7 +20482,7 @@
       </c>
     </row>
     <row r="148" spans="1:13" ht="16.5">
-      <c r="A148" s="188"/>
+      <c r="A148" s="189"/>
       <c r="B148" s="93"/>
       <c r="C148" s="134"/>
       <c r="D148" s="68"/>
@@ -20503,7 +20503,7 @@
       </c>
     </row>
     <row r="149" spans="1:13" ht="16.5">
-      <c r="A149" s="188"/>
+      <c r="A149" s="189"/>
       <c r="B149" s="93"/>
       <c r="C149" s="134"/>
       <c r="D149" s="68"/>
@@ -20524,7 +20524,7 @@
       </c>
     </row>
     <row r="150" spans="1:13" ht="16.5">
-      <c r="A150" s="188"/>
+      <c r="A150" s="189"/>
       <c r="B150" s="93"/>
       <c r="C150" s="134"/>
       <c r="D150" s="68"/>
@@ -20545,7 +20545,7 @@
       </c>
     </row>
     <row r="151" spans="1:13" ht="16.5">
-      <c r="A151" s="188"/>
+      <c r="A151" s="189"/>
       <c r="B151" s="93"/>
       <c r="C151" s="134"/>
       <c r="D151" s="68"/>
@@ -20566,7 +20566,7 @@
       </c>
     </row>
     <row r="152" spans="1:13" ht="16.5">
-      <c r="A152" s="188"/>
+      <c r="A152" s="189"/>
       <c r="B152" s="93"/>
       <c r="C152" s="134"/>
       <c r="D152" s="68"/>
@@ -20587,7 +20587,7 @@
       </c>
     </row>
     <row r="153" spans="1:13" ht="16.5">
-      <c r="A153" s="188"/>
+      <c r="A153" s="189"/>
       <c r="B153" s="93"/>
       <c r="C153" s="134"/>
       <c r="D153" s="68"/>
@@ -20608,7 +20608,7 @@
       </c>
     </row>
     <row r="154" spans="1:13" ht="16.5">
-      <c r="A154" s="188"/>
+      <c r="A154" s="189"/>
       <c r="B154" s="93"/>
       <c r="C154" s="134"/>
       <c r="D154" s="68"/>
@@ -20629,7 +20629,7 @@
       </c>
     </row>
     <row r="155" spans="1:13" ht="16.5">
-      <c r="A155" s="188"/>
+      <c r="A155" s="189"/>
       <c r="B155" s="93"/>
       <c r="C155" s="134"/>
       <c r="D155" s="68"/>
@@ -20650,7 +20650,7 @@
       </c>
     </row>
     <row r="156" spans="1:13" ht="15.75">
-      <c r="A156" s="188"/>
+      <c r="A156" s="189"/>
       <c r="B156" s="68"/>
       <c r="C156" s="68"/>
       <c r="D156" s="68"/>
@@ -20671,7 +20671,7 @@
       </c>
     </row>
     <row r="157" spans="1:13" ht="15.75">
-      <c r="A157" s="188"/>
+      <c r="A157" s="189"/>
       <c r="B157" s="68"/>
       <c r="C157" s="68"/>
       <c r="D157" s="68"/>
@@ -20692,7 +20692,7 @@
       </c>
     </row>
     <row r="158" spans="1:13" ht="15.75">
-      <c r="A158" s="188"/>
+      <c r="A158" s="189"/>
       <c r="B158" s="68"/>
       <c r="C158" s="68"/>
       <c r="D158" s="68"/>
@@ -20713,7 +20713,7 @@
       </c>
     </row>
     <row r="159" spans="1:13" ht="15.75">
-      <c r="A159" s="188"/>
+      <c r="A159" s="189"/>
       <c r="B159" s="68"/>
       <c r="C159" s="68"/>
       <c r="D159" s="68"/>
@@ -20734,7 +20734,7 @@
       </c>
     </row>
     <row r="160" spans="1:13" ht="16.5">
-      <c r="A160" s="188"/>
+      <c r="A160" s="189"/>
       <c r="B160" s="93" t="s">
         <v>1639</v>
       </c>
@@ -20759,7 +20759,7 @@
       <c r="M160" s="149"/>
     </row>
     <row r="161" spans="1:13" ht="16.5">
-      <c r="A161" s="188"/>
+      <c r="A161" s="189"/>
       <c r="B161" s="156" t="s">
         <v>1643</v>
       </c>
@@ -20857,7 +20857,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="75">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="196" t="s">
         <v>1648</v>
       </c>
       <c r="B2" s="80" t="s">
@@ -20888,7 +20888,7 @@
       <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="75" customHeight="1">
-      <c r="A3" s="196"/>
+      <c r="A3" s="197"/>
       <c r="B3" s="80" t="s">
         <v>130</v>
       </c>
@@ -20917,7 +20917,7 @@
       <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="196"/>
+      <c r="A4" s="197"/>
       <c r="B4" s="80" t="s">
         <v>139</v>
       </c>
@@ -20946,7 +20946,7 @@
       <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="196"/>
+      <c r="A5" s="197"/>
       <c r="B5" s="80" t="s">
         <v>148</v>
       </c>
@@ -20975,7 +20975,7 @@
       <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="30">
-      <c r="A6" s="196"/>
+      <c r="A6" s="197"/>
       <c r="B6" s="80" t="s">
         <v>157</v>
       </c>
@@ -21003,7 +21003,7 @@
       <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:13" ht="105">
-      <c r="A7" s="196"/>
+      <c r="A7" s="197"/>
       <c r="B7" s="80" t="s">
         <v>731</v>
       </c>
@@ -21034,7 +21034,7 @@
       <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:13" ht="45">
-      <c r="A8" s="196"/>
+      <c r="A8" s="197"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -21051,7 +21051,7 @@
       <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="196"/>
+      <c r="A9" s="197"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -21068,7 +21068,7 @@
       <c r="M9" s="80"/>
     </row>
     <row r="10" spans="1:13" ht="105">
-      <c r="A10" s="196"/>
+      <c r="A10" s="197"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -21085,7 +21085,7 @@
       <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="196"/>
+      <c r="A11" s="197"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -21112,7 +21112,7 @@
       <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="196"/>
+      <c r="A12" s="197"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -21131,7 +21131,7 @@
       <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="45">
-      <c r="A13" s="197"/>
+      <c r="A13" s="198"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -21150,7 +21150,7 @@
       <c r="M13" s="80"/>
     </row>
     <row r="14" spans="1:13" ht="30">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="196" t="s">
         <v>1687</v>
       </c>
       <c r="B14" s="80" t="s">
@@ -21183,7 +21183,7 @@
       <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="196"/>
+      <c r="A15" s="197"/>
       <c r="B15" s="80" t="s">
         <v>174</v>
       </c>
@@ -21212,7 +21212,7 @@
       <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="196"/>
+      <c r="A16" s="197"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="80"/>
@@ -21229,7 +21229,7 @@
       <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="196"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
@@ -21246,7 +21246,7 @@
       <c r="M17" s="80"/>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1">
-      <c r="A18" s="196"/>
+      <c r="A18" s="197"/>
       <c r="B18" s="80" t="s">
         <v>183</v>
       </c>
@@ -21281,7 +21281,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
-      <c r="A19" s="196"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
@@ -21302,7 +21302,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="196"/>
+      <c r="A20" s="197"/>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
@@ -21323,7 +21323,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
-      <c r="A21" s="196"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
@@ -21344,7 +21344,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="45" customHeight="1">
-      <c r="A22" s="196"/>
+      <c r="A22" s="197"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
@@ -21365,7 +21365,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
-      <c r="A23" s="196"/>
+      <c r="A23" s="197"/>
       <c r="B23" s="80" t="s">
         <v>192</v>
       </c>
@@ -21396,7 +21396,7 @@
       <c r="M23" s="80"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="196"/>
+      <c r="A24" s="197"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
@@ -21415,7 +21415,7 @@
       <c r="M24" s="80"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
-      <c r="A25" s="196"/>
+      <c r="A25" s="197"/>
       <c r="B25" s="80" t="s">
         <v>201</v>
       </c>
@@ -21444,7 +21444,7 @@
       <c r="M25" s="80"/>
     </row>
     <row r="26" spans="1:13" ht="105" customHeight="1">
-      <c r="A26" s="196"/>
+      <c r="A26" s="197"/>
       <c r="B26" s="80" t="s">
         <v>209</v>
       </c>
@@ -21475,7 +21475,7 @@
       <c r="M26" s="80"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
-      <c r="A27" s="196"/>
+      <c r="A27" s="197"/>
       <c r="B27" s="80" t="s">
         <v>218</v>
       </c>
@@ -21506,7 +21506,7 @@
       <c r="M27" s="80"/>
     </row>
     <row r="28" spans="1:13" ht="45" customHeight="1">
-      <c r="A28" s="196"/>
+      <c r="A28" s="197"/>
       <c r="B28" s="80" t="s">
         <v>1732</v>
       </c>
@@ -21535,7 +21535,7 @@
       <c r="M28" s="80"/>
     </row>
     <row r="29" spans="1:13" ht="45" customHeight="1">
-      <c r="A29" s="196"/>
+      <c r="A29" s="197"/>
       <c r="B29" s="80" t="s">
         <v>235</v>
       </c>
@@ -21564,7 +21564,7 @@
       <c r="M29" s="80"/>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1">
-      <c r="A30" s="197"/>
+      <c r="A30" s="198"/>
       <c r="B30" s="80" t="s">
         <v>1738</v>
       </c>
@@ -22134,7 +22134,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="283.5">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="195" t="s">
         <v>1795</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -22175,7 +22175,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="60.75">
-      <c r="A3" s="194"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="65"/>
       <c r="C3" s="65"/>
       <c r="D3" s="102"/>
@@ -22196,7 +22196,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="60.75">
-      <c r="A4" s="194"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
       <c r="D4" s="102"/>
@@ -22217,7 +22217,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="75.75">
-      <c r="A5" s="194"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
       <c r="D5" s="102"/>
@@ -22238,7 +22238,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="60.75">
-      <c r="A6" s="194"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
       <c r="D6" s="102"/>
@@ -22259,7 +22259,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="105.75">
-      <c r="A7" s="194"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
       <c r="D7" s="102"/>
@@ -22280,7 +22280,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="30.75">
-      <c r="A8" s="194"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
       <c r="D8" s="102"/>
@@ -22301,7 +22301,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="162">
-      <c r="A9" s="194"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="67" t="s">
         <v>315</v>
       </c>
@@ -22340,7 +22340,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.25">
-      <c r="A10" s="194"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67"/>
@@ -22361,7 +22361,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="252">
-      <c r="A11" s="194"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="67" t="s">
         <v>325</v>
       </c>
@@ -22608,7 +22608,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="45">
-      <c r="A22" s="194" t="s">
+      <c r="A22" s="195" t="s">
         <v>1864</v>
       </c>
       <c r="B22" s="65" t="s">
@@ -22641,7 +22641,7 @@
       <c r="M22" s="65"/>
     </row>
     <row r="23" spans="1:13" ht="90">
-      <c r="A23" s="194"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="65" t="s">
         <v>344</v>
       </c>
@@ -22680,7 +22680,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
-      <c r="A24" s="194"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
@@ -22701,7 +22701,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75">
-      <c r="A25" s="194"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
@@ -22722,7 +22722,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="30.75">
-      <c r="A26" s="194"/>
+      <c r="A26" s="195"/>
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
@@ -22743,7 +22743,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
-      <c r="A27" s="194"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -22764,7 +22764,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75">
-      <c r="A28" s="194"/>
+      <c r="A28" s="195"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -22785,7 +22785,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75">
-      <c r="A29" s="194"/>
+      <c r="A29" s="195"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
@@ -22806,7 +22806,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="90">
-      <c r="A30" s="194"/>
+      <c r="A30" s="195"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67" t="s">
         <v>1892</v>
@@ -22837,7 +22837,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="194"/>
+      <c r="A31" s="195"/>
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
@@ -22858,7 +22858,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="90">
-      <c r="A32" s="194"/>
+      <c r="A32" s="195"/>
       <c r="B32" s="67" t="s">
         <v>362</v>
       </c>
@@ -22897,7 +22897,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="194"/>
+      <c r="A33" s="195"/>
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
       <c r="D33" s="67"/>
@@ -22918,7 +22918,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="75">
-      <c r="A34" s="194"/>
+      <c r="A34" s="195"/>
       <c r="B34" s="67" t="s">
         <v>370</v>
       </c>
@@ -22949,7 +22949,7 @@
       <c r="M34" s="67"/>
     </row>
     <row r="35" spans="1:13" ht="105">
-      <c r="A35" s="194"/>
+      <c r="A35" s="195"/>
       <c r="B35" s="67" t="s">
         <v>378</v>
       </c>
@@ -22988,7 +22988,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="194"/>
+      <c r="A36" s="195"/>
       <c r="B36" s="67"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
@@ -23009,7 +23009,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="60">
-      <c r="A37" s="194"/>
+      <c r="A37" s="195"/>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
         <v>1910</v>
@@ -23043,6 +23043,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
@@ -23051,15 +23060,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23292,20 +23292,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
     <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/atique.xlsx
+++ b/atique.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ur_sensei\Desktop\translation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Desktop\New folder\excel_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153268AF-16D9-48AB-9FE2-898F6FA7A0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE9F58-BDFF-461C-975F-0828C769BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
-    <sheet name="Income" sheetId="3" r:id="rId2"/>
+    <sheet name="IncomeInfo" sheetId="3" r:id="rId2"/>
     <sheet name="AssetInfo" sheetId="4" r:id="rId3"/>
     <sheet name="FamilyInfo" sheetId="5" r:id="rId4"/>
     <sheet name="EducationInfo" sheetId="6" r:id="rId5"/>
     <sheet name="Medical&amp;Accessibility " sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Income!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IncomeInfo!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Questions - Idea Log'!$A$1:$L$95</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1915">
   <si>
     <t>#</t>
   </si>
@@ -8303,6 +8303,9 @@
     <t>Obtaining the photograph of the respective  member</t>
   </si>
   <si>
+    <t>Datatype</t>
+  </si>
+  <si>
     <t>current_education</t>
   </si>
   <si>
@@ -9936,7 +9939,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="76">
+  <fonts count="75">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10405,12 +10408,6 @@
       <name val="Ui-Sans-Serif"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -10664,7 +10661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11005,8 +11002,6 @@
     <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="70" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11016,7 +11011,6 @@
     <xf numFmtId="0" fontId="43" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11086,17 +11080,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11106,10 +11090,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11124,9 +11104,46 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="69" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="45" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="70" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="70" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="71" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="48" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="48" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14658,30 +14675,30 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="60" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="60" customWidth="1"/>
+    <col min="3" max="3" width="19" style="60" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="62" customWidth="1"/>
     <col min="5" max="5" width="27.140625" style="60" customWidth="1"/>
     <col min="6" max="6" width="59.140625" style="60" customWidth="1"/>
     <col min="7" max="7" width="48.28515625" style="60" customWidth="1"/>
     <col min="8" max="8" width="65.7109375" style="60" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="60" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="60" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="60" customWidth="1"/>
-    <col min="11" max="11" width="37" style="60" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" style="60" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" style="60" customWidth="1"/>
+    <col min="11" max="11" width="37" style="179" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="179" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" style="179" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="59" customFormat="1">
+    <row r="1" spans="1:13" s="59" customFormat="1" ht="15.75">
       <c r="A1" s="59" t="s">
         <v>813</v>
       </c>
@@ -14712,18 +14729,18 @@
       <c r="J1" s="61" t="s">
         <v>820</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="168" t="s">
         <v>821</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="168" t="s">
         <v>822</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="182" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" ht="46.5">
-      <c r="A2" s="185" t="s">
+    <row r="2" spans="1:13" customFormat="1" ht="45">
+      <c r="A2" s="195" t="s">
         <v>824</v>
       </c>
       <c r="B2" s="121" t="s">
@@ -14751,18 +14768,18 @@
         <v>828</v>
       </c>
       <c r="J2" s="121"/>
-      <c r="K2" s="161" t="s">
+      <c r="K2" s="169" t="s">
         <v>829</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="174" t="s">
         <v>830</v>
       </c>
-      <c r="M2" s="150" t="s">
+      <c r="M2" s="183" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A3" s="186"/>
+    <row r="3" spans="1:13" customFormat="1" ht="15">
+      <c r="A3" s="196"/>
       <c r="B3" s="121"/>
       <c r="C3" s="122"/>
       <c r="D3" s="121"/>
@@ -14772,18 +14789,18 @@
       <c r="H3" s="121"/>
       <c r="I3" s="121"/>
       <c r="J3" s="121"/>
-      <c r="K3" s="161" t="s">
+      <c r="K3" s="169" t="s">
         <v>832</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="174" t="s">
         <v>833</v>
       </c>
-      <c r="M3" s="150" t="s">
+      <c r="M3" s="183" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A4" s="186"/>
+    <row r="4" spans="1:13" customFormat="1" ht="15">
+      <c r="A4" s="196"/>
       <c r="B4" s="121"/>
       <c r="C4" s="122"/>
       <c r="D4" s="121"/>
@@ -14793,18 +14810,18 @@
       <c r="H4" s="121"/>
       <c r="I4" s="121"/>
       <c r="J4" s="121"/>
-      <c r="K4" s="161" t="s">
+      <c r="K4" s="169" t="s">
         <v>835</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="174" t="s">
         <v>836</v>
       </c>
-      <c r="M4" s="150" t="s">
+      <c r="M4" s="183" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A5" s="186"/>
+    <row r="5" spans="1:13" customFormat="1" ht="15">
+      <c r="A5" s="196"/>
       <c r="B5" s="121"/>
       <c r="C5" s="122"/>
       <c r="D5" s="121"/>
@@ -14814,18 +14831,18 @@
       <c r="H5" s="121"/>
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
-      <c r="K5" s="161" t="s">
+      <c r="K5" s="169" t="s">
         <v>838</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="174" t="s">
         <v>839</v>
       </c>
-      <c r="M5" s="150" t="s">
+      <c r="M5" s="183" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A6" s="186"/>
+    <row r="6" spans="1:13" customFormat="1" ht="15">
+      <c r="A6" s="196"/>
       <c r="B6" s="121"/>
       <c r="C6" s="122"/>
       <c r="D6" s="121"/>
@@ -14835,18 +14852,18 @@
       <c r="H6" s="121"/>
       <c r="I6" s="121"/>
       <c r="J6" s="121"/>
-      <c r="K6" s="161" t="s">
+      <c r="K6" s="169" t="s">
         <v>841</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="174" t="s">
         <v>842</v>
       </c>
-      <c r="M6" s="150" t="s">
+      <c r="M6" s="183" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A7" s="186"/>
+    <row r="7" spans="1:13" customFormat="1" ht="15">
+      <c r="A7" s="196"/>
       <c r="B7" s="121"/>
       <c r="C7" s="122"/>
       <c r="D7" s="121"/>
@@ -14856,18 +14873,18 @@
       <c r="H7" s="121"/>
       <c r="I7" s="121"/>
       <c r="J7" s="121"/>
-      <c r="K7" s="161" t="s">
+      <c r="K7" s="169" t="s">
         <v>844</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="174" t="s">
         <v>845</v>
       </c>
-      <c r="M7" s="150" t="s">
+      <c r="M7" s="183" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" ht="16.5">
-      <c r="A8" s="186"/>
+    <row r="8" spans="1:13" customFormat="1" ht="15">
+      <c r="A8" s="196"/>
       <c r="B8" s="121"/>
       <c r="C8" s="122"/>
       <c r="D8" s="121"/>
@@ -14877,18 +14894,18 @@
       <c r="H8" s="121"/>
       <c r="I8" s="121"/>
       <c r="J8" s="121"/>
-      <c r="K8" s="161" t="s">
+      <c r="K8" s="169" t="s">
         <v>847</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="174" t="s">
         <v>848</v>
       </c>
-      <c r="M8" s="150" t="s">
+      <c r="M8" s="183" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="49.5">
-      <c r="A9" s="186"/>
+    <row r="9" spans="1:13" customFormat="1" ht="45">
+      <c r="A9" s="196"/>
       <c r="B9" s="123" t="s">
         <v>270</v>
       </c>
@@ -14914,18 +14931,18 @@
         <v>828</v>
       </c>
       <c r="J9" s="121"/>
-      <c r="K9" s="124" t="s">
+      <c r="K9" s="170" t="s">
         <v>854</v>
       </c>
-      <c r="L9" s="122" t="s">
+      <c r="L9" s="172" t="s">
         <v>855</v>
       </c>
-      <c r="M9" s="165" t="s">
+      <c r="M9" s="184" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A10" s="186"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="121"/>
       <c r="C10" s="122"/>
       <c r="D10" s="121"/>
@@ -14935,18 +14952,18 @@
       <c r="H10" s="121"/>
       <c r="I10" s="121"/>
       <c r="J10" s="121"/>
-      <c r="K10" s="124" t="s">
+      <c r="K10" s="170" t="s">
         <v>857</v>
       </c>
-      <c r="L10" s="122" t="s">
+      <c r="L10" s="172" t="s">
         <v>858</v>
       </c>
-      <c r="M10" s="165" t="s">
+      <c r="M10" s="184" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="11" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A11" s="186"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="121"/>
       <c r="C11" s="122"/>
       <c r="D11" s="121"/>
@@ -14956,18 +14973,18 @@
       <c r="H11" s="121"/>
       <c r="I11" s="121"/>
       <c r="J11" s="121"/>
-      <c r="K11" s="124" t="s">
+      <c r="K11" s="170" t="s">
         <v>860</v>
       </c>
-      <c r="L11" s="122" t="s">
+      <c r="L11" s="172" t="s">
         <v>861</v>
       </c>
-      <c r="M11" s="165" t="s">
+      <c r="M11" s="184" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A12" s="186"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="121"/>
       <c r="C12" s="122"/>
       <c r="D12" s="121"/>
@@ -14977,18 +14994,18 @@
       <c r="H12" s="121"/>
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="170" t="s">
         <v>863</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="172" t="s">
         <v>864</v>
       </c>
-      <c r="M12" s="165" t="s">
+      <c r="M12" s="184" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="13" spans="1:13" customFormat="1" ht="30">
-      <c r="A13" s="186"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="121"/>
       <c r="C13" s="122"/>
       <c r="D13" s="121"/>
@@ -14998,18 +15015,18 @@
       <c r="H13" s="121"/>
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
-      <c r="K13" s="124" t="s">
+      <c r="K13" s="170" t="s">
         <v>866</v>
       </c>
-      <c r="L13" s="122" t="s">
+      <c r="L13" s="172" t="s">
         <v>867</v>
       </c>
-      <c r="M13" s="165" t="s">
+      <c r="M13" s="184" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="14" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A14" s="186"/>
+      <c r="A14" s="196"/>
       <c r="B14" s="121"/>
       <c r="C14" s="122"/>
       <c r="D14" s="121"/>
@@ -15019,18 +15036,18 @@
       <c r="H14" s="121"/>
       <c r="I14" s="121"/>
       <c r="J14" s="121"/>
-      <c r="K14" s="124" t="s">
+      <c r="K14" s="170" t="s">
         <v>869</v>
       </c>
-      <c r="L14" s="122" t="s">
+      <c r="L14" s="172" t="s">
         <v>870</v>
       </c>
-      <c r="M14" s="165" t="s">
+      <c r="M14" s="184" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="15" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A15" s="186"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="121"/>
       <c r="C15" s="122"/>
       <c r="D15" s="121"/>
@@ -15040,18 +15057,18 @@
       <c r="H15" s="121"/>
       <c r="I15" s="121"/>
       <c r="J15" s="121"/>
-      <c r="K15" s="124" t="s">
+      <c r="K15" s="170" t="s">
         <v>872</v>
       </c>
-      <c r="L15" s="122" t="s">
+      <c r="L15" s="172" t="s">
         <v>873</v>
       </c>
-      <c r="M15" s="165" t="s">
+      <c r="M15" s="184" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A16" s="186"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
       <c r="D16" s="121"/>
@@ -15061,18 +15078,18 @@
       <c r="H16" s="121"/>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
-      <c r="K16" s="124" t="s">
+      <c r="K16" s="170" t="s">
         <v>875</v>
       </c>
-      <c r="L16" s="122" t="s">
+      <c r="L16" s="172" t="s">
         <v>876</v>
       </c>
-      <c r="M16" s="165" t="s">
+      <c r="M16" s="184" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A17" s="186"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="121"/>
       <c r="C17" s="122"/>
       <c r="D17" s="121"/>
@@ -15082,18 +15099,18 @@
       <c r="H17" s="121"/>
       <c r="I17" s="121"/>
       <c r="J17" s="121"/>
-      <c r="K17" s="124" t="s">
+      <c r="K17" s="170" t="s">
         <v>878</v>
       </c>
-      <c r="L17" s="122" t="s">
+      <c r="L17" s="172" t="s">
         <v>879</v>
       </c>
-      <c r="M17" s="165" t="s">
+      <c r="M17" s="184" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="18" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A18" s="186"/>
+      <c r="A18" s="196"/>
       <c r="B18" s="121"/>
       <c r="C18" s="122"/>
       <c r="D18" s="121"/>
@@ -15103,18 +15120,18 @@
       <c r="H18" s="121"/>
       <c r="I18" s="121"/>
       <c r="J18" s="121"/>
-      <c r="K18" s="124" t="s">
+      <c r="K18" s="170" t="s">
         <v>881</v>
       </c>
-      <c r="L18" s="122" t="s">
+      <c r="L18" s="172" t="s">
         <v>882</v>
       </c>
-      <c r="M18" s="165" t="s">
+      <c r="M18" s="184" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="19" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A19" s="186"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="121"/>
       <c r="C19" s="122"/>
       <c r="D19" s="121"/>
@@ -15124,18 +15141,18 @@
       <c r="H19" s="121"/>
       <c r="I19" s="121"/>
       <c r="J19" s="121"/>
-      <c r="K19" s="124" t="s">
+      <c r="K19" s="170" t="s">
         <v>884</v>
       </c>
-      <c r="L19" s="122" t="s">
+      <c r="L19" s="172" t="s">
         <v>885</v>
       </c>
-      <c r="M19" s="165" t="s">
+      <c r="M19" s="184" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="20" spans="1:13" customFormat="1" ht="46.5">
-      <c r="A20" s="186"/>
+    <row r="20" spans="1:13" customFormat="1" ht="45">
+      <c r="A20" s="196"/>
       <c r="B20" s="121" t="s">
         <v>280</v>
       </c>
@@ -15161,18 +15178,18 @@
         <v>828</v>
       </c>
       <c r="J20" s="121"/>
-      <c r="K20" s="125" t="s">
+      <c r="K20" s="171" t="s">
         <v>890</v>
       </c>
-      <c r="L20" s="122" t="s">
+      <c r="L20" s="172" t="s">
         <v>891</v>
       </c>
-      <c r="M20" s="166" t="s">
+      <c r="M20" s="185" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="21" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A21" s="186"/>
+    <row r="21" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A21" s="196"/>
       <c r="B21" s="121"/>
       <c r="C21" s="122"/>
       <c r="D21" s="123"/>
@@ -15182,18 +15199,18 @@
       <c r="H21" s="121"/>
       <c r="I21" s="121"/>
       <c r="J21" s="121"/>
-      <c r="K21" s="125" t="s">
+      <c r="K21" s="171" t="s">
         <v>893</v>
       </c>
-      <c r="L21" s="122" t="s">
+      <c r="L21" s="172" t="s">
         <v>894</v>
       </c>
-      <c r="M21" s="166" t="s">
+      <c r="M21" s="185" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="22" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A22" s="186"/>
+    <row r="22" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A22" s="196"/>
       <c r="B22" s="121"/>
       <c r="C22" s="122"/>
       <c r="D22" s="123"/>
@@ -15203,18 +15220,18 @@
       <c r="H22" s="121"/>
       <c r="I22" s="121"/>
       <c r="J22" s="121"/>
-      <c r="K22" s="125" t="s">
+      <c r="K22" s="171" t="s">
         <v>896</v>
       </c>
-      <c r="L22" s="122" t="s">
+      <c r="L22" s="172" t="s">
         <v>897</v>
       </c>
-      <c r="M22" s="166" t="s">
+      <c r="M22" s="185" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="23" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A23" s="186"/>
+    <row r="23" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A23" s="196"/>
       <c r="B23" s="121"/>
       <c r="C23" s="122"/>
       <c r="D23" s="123"/>
@@ -15224,18 +15241,18 @@
       <c r="H23" s="121"/>
       <c r="I23" s="121"/>
       <c r="J23" s="121"/>
-      <c r="K23" s="125" t="s">
+      <c r="K23" s="171" t="s">
         <v>899</v>
       </c>
-      <c r="L23" s="122" t="s">
+      <c r="L23" s="172" t="s">
         <v>900</v>
       </c>
-      <c r="M23" s="166" t="s">
+      <c r="M23" s="185" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="24" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A24" s="186"/>
+    <row r="24" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A24" s="196"/>
       <c r="B24" s="121"/>
       <c r="C24" s="122"/>
       <c r="D24" s="123"/>
@@ -15245,18 +15262,18 @@
       <c r="H24" s="121"/>
       <c r="I24" s="121"/>
       <c r="J24" s="121"/>
-      <c r="K24" s="125" t="s">
+      <c r="K24" s="171" t="s">
         <v>902</v>
       </c>
-      <c r="L24" s="122" t="s">
+      <c r="L24" s="172" t="s">
         <v>903</v>
       </c>
-      <c r="M24" s="166" t="s">
+      <c r="M24" s="185" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A25" s="186"/>
+    <row r="25" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A25" s="196"/>
       <c r="B25" s="121"/>
       <c r="C25" s="122"/>
       <c r="D25" s="123"/>
@@ -15266,18 +15283,18 @@
       <c r="H25" s="121"/>
       <c r="I25" s="121"/>
       <c r="J25" s="121"/>
-      <c r="K25" s="125" t="s">
+      <c r="K25" s="171" t="s">
         <v>905</v>
       </c>
-      <c r="L25" s="122" t="s">
+      <c r="L25" s="172" t="s">
         <v>906</v>
       </c>
-      <c r="M25" s="166" t="s">
+      <c r="M25" s="185" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="26" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A26" s="186"/>
+    <row r="26" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A26" s="196"/>
       <c r="B26" s="121"/>
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
@@ -15287,18 +15304,18 @@
       <c r="H26" s="121"/>
       <c r="I26" s="121"/>
       <c r="J26" s="121"/>
-      <c r="K26" s="125" t="s">
+      <c r="K26" s="171" t="s">
         <v>908</v>
       </c>
-      <c r="L26" s="122" t="s">
+      <c r="L26" s="172" t="s">
         <v>909</v>
       </c>
-      <c r="M26" s="166" t="s">
+      <c r="M26" s="185" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="27" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A27" s="186"/>
+    <row r="27" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A27" s="196"/>
       <c r="B27" s="121"/>
       <c r="C27" s="122"/>
       <c r="D27" s="123"/>
@@ -15308,18 +15325,18 @@
       <c r="H27" s="121"/>
       <c r="I27" s="121"/>
       <c r="J27" s="121"/>
-      <c r="K27" s="125" t="s">
+      <c r="K27" s="171" t="s">
         <v>911</v>
       </c>
-      <c r="L27" s="122" t="s">
+      <c r="L27" s="172" t="s">
         <v>912</v>
       </c>
-      <c r="M27" s="166" t="s">
+      <c r="M27" s="185" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="28" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A28" s="186"/>
+    <row r="28" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A28" s="196"/>
       <c r="B28" s="121"/>
       <c r="C28" s="122"/>
       <c r="D28" s="123"/>
@@ -15329,18 +15346,18 @@
       <c r="H28" s="121"/>
       <c r="I28" s="121"/>
       <c r="J28" s="121"/>
-      <c r="K28" s="125" t="s">
+      <c r="K28" s="171" t="s">
         <v>914</v>
       </c>
-      <c r="L28" s="122" t="s">
+      <c r="L28" s="172" t="s">
         <v>915</v>
       </c>
-      <c r="M28" s="166" t="s">
+      <c r="M28" s="185" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="29" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A29" s="186"/>
+    <row r="29" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A29" s="196"/>
       <c r="B29" s="121"/>
       <c r="C29" s="122"/>
       <c r="D29" s="123"/>
@@ -15350,18 +15367,18 @@
       <c r="H29" s="121"/>
       <c r="I29" s="121"/>
       <c r="J29" s="121"/>
-      <c r="K29" s="125" t="s">
+      <c r="K29" s="171" t="s">
         <v>917</v>
       </c>
-      <c r="L29" s="122" t="s">
+      <c r="L29" s="172" t="s">
         <v>918</v>
       </c>
-      <c r="M29" s="166" t="s">
+      <c r="M29" s="185" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="30" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A30" s="186"/>
+    <row r="30" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A30" s="196"/>
       <c r="B30" s="121"/>
       <c r="C30" s="122"/>
       <c r="D30" s="123"/>
@@ -15371,18 +15388,18 @@
       <c r="H30" s="121"/>
       <c r="I30" s="121"/>
       <c r="J30" s="121"/>
-      <c r="K30" s="125" t="s">
+      <c r="K30" s="171" t="s">
         <v>920</v>
       </c>
-      <c r="L30" s="122" t="s">
+      <c r="L30" s="172" t="s">
         <v>921</v>
       </c>
-      <c r="M30" s="166" t="s">
+      <c r="M30" s="185" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="31" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A31" s="186"/>
+    <row r="31" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A31" s="196"/>
       <c r="B31" s="121"/>
       <c r="C31" s="122"/>
       <c r="D31" s="123"/>
@@ -15392,18 +15409,18 @@
       <c r="H31" s="121"/>
       <c r="I31" s="121"/>
       <c r="J31" s="121"/>
-      <c r="K31" s="125" t="s">
+      <c r="K31" s="171" t="s">
         <v>923</v>
       </c>
-      <c r="L31" s="122" t="s">
+      <c r="L31" s="172" t="s">
         <v>924</v>
       </c>
-      <c r="M31" s="166" t="s">
+      <c r="M31" s="185" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="32" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A32" s="186"/>
+    <row r="32" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A32" s="196"/>
       <c r="B32" s="121"/>
       <c r="C32" s="122"/>
       <c r="D32" s="123"/>
@@ -15413,18 +15430,18 @@
       <c r="H32" s="121"/>
       <c r="I32" s="121"/>
       <c r="J32" s="121"/>
-      <c r="K32" s="125" t="s">
+      <c r="K32" s="171" t="s">
         <v>926</v>
       </c>
-      <c r="L32" s="122" t="s">
+      <c r="L32" s="172" t="s">
         <v>927</v>
       </c>
-      <c r="M32" s="166" t="s">
+      <c r="M32" s="185" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="33" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A33" s="186"/>
+    <row r="33" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A33" s="196"/>
       <c r="B33" s="121"/>
       <c r="C33" s="122"/>
       <c r="D33" s="123"/>
@@ -15434,18 +15451,18 @@
       <c r="H33" s="121"/>
       <c r="I33" s="121"/>
       <c r="J33" s="121"/>
-      <c r="K33" s="125" t="s">
+      <c r="K33" s="171" t="s">
         <v>929</v>
       </c>
-      <c r="L33" s="122" t="s">
+      <c r="L33" s="172" t="s">
         <v>930</v>
       </c>
-      <c r="M33" s="166" t="s">
+      <c r="M33" s="185" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="34" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A34" s="186"/>
+    <row r="34" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A34" s="196"/>
       <c r="B34" s="121"/>
       <c r="C34" s="122"/>
       <c r="D34" s="123"/>
@@ -15455,18 +15472,18 @@
       <c r="H34" s="121"/>
       <c r="I34" s="121"/>
       <c r="J34" s="121"/>
-      <c r="K34" s="125" t="s">
+      <c r="K34" s="171" t="s">
         <v>932</v>
       </c>
-      <c r="L34" s="122" t="s">
+      <c r="L34" s="172" t="s">
         <v>933</v>
       </c>
-      <c r="M34" s="166" t="s">
+      <c r="M34" s="185" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="35" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A35" s="186"/>
+    <row r="35" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A35" s="196"/>
       <c r="B35" s="121"/>
       <c r="C35" s="122"/>
       <c r="D35" s="123"/>
@@ -15476,18 +15493,18 @@
       <c r="H35" s="121"/>
       <c r="I35" s="121"/>
       <c r="J35" s="121"/>
-      <c r="K35" s="125" t="s">
+      <c r="K35" s="171" t="s">
         <v>935</v>
       </c>
-      <c r="L35" s="122" t="s">
+      <c r="L35" s="172" t="s">
         <v>936</v>
       </c>
-      <c r="M35" s="166" t="s">
+      <c r="M35" s="185" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="36" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A36" s="186"/>
+    <row r="36" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A36" s="196"/>
       <c r="B36" s="121"/>
       <c r="C36" s="122"/>
       <c r="D36" s="123"/>
@@ -15497,18 +15514,18 @@
       <c r="H36" s="121"/>
       <c r="I36" s="121"/>
       <c r="J36" s="121"/>
-      <c r="K36" s="125" t="s">
+      <c r="K36" s="171" t="s">
         <v>938</v>
       </c>
-      <c r="L36" s="122" t="s">
+      <c r="L36" s="172" t="s">
         <v>939</v>
       </c>
-      <c r="M36" s="166" t="s">
+      <c r="M36" s="185" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="37" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A37" s="186"/>
+    <row r="37" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A37" s="196"/>
       <c r="B37" s="121"/>
       <c r="C37" s="122"/>
       <c r="D37" s="123"/>
@@ -15518,18 +15535,18 @@
       <c r="H37" s="121"/>
       <c r="I37" s="121"/>
       <c r="J37" s="121"/>
-      <c r="K37" s="125" t="s">
+      <c r="K37" s="171" t="s">
         <v>941</v>
       </c>
-      <c r="L37" s="122" t="s">
+      <c r="L37" s="172" t="s">
         <v>942</v>
       </c>
-      <c r="M37" s="166" t="s">
+      <c r="M37" s="185" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="38" spans="1:13" customFormat="1" ht="17.25">
-      <c r="A38" s="187"/>
+    <row r="38" spans="1:13" customFormat="1" ht="15.75">
+      <c r="A38" s="197"/>
       <c r="B38" s="121"/>
       <c r="C38" s="122"/>
       <c r="D38" s="123"/>
@@ -15539,18 +15556,18 @@
       <c r="H38" s="121"/>
       <c r="I38" s="121"/>
       <c r="J38" s="121"/>
-      <c r="K38" s="125" t="s">
+      <c r="K38" s="171" t="s">
         <v>944</v>
       </c>
-      <c r="L38" s="122" t="s">
+      <c r="L38" s="172" t="s">
         <v>945</v>
       </c>
-      <c r="M38" s="166" t="s">
+      <c r="M38" s="185" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="39" spans="1:13" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A39" s="185" t="s">
+      <c r="A39" s="195" t="s">
         <v>947</v>
       </c>
       <c r="B39" s="123" t="s">
@@ -15578,18 +15595,18 @@
         <v>953</v>
       </c>
       <c r="J39" s="121"/>
-      <c r="K39" s="122" t="s">
+      <c r="K39" s="172" t="s">
         <v>954</v>
       </c>
-      <c r="L39" s="122" t="s">
+      <c r="L39" s="172" t="s">
         <v>955</v>
       </c>
-      <c r="M39" s="165" t="s">
+      <c r="M39" s="184" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="40" spans="1:13" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A40" s="186"/>
+      <c r="A40" s="196"/>
       <c r="B40" s="121"/>
       <c r="C40" s="122"/>
       <c r="D40" s="121"/>
@@ -15599,18 +15616,18 @@
       <c r="H40" s="121"/>
       <c r="I40" s="121"/>
       <c r="J40" s="121"/>
-      <c r="K40" s="122" t="s">
+      <c r="K40" s="172" t="s">
         <v>957</v>
       </c>
-      <c r="L40" s="122" t="s">
+      <c r="L40" s="172" t="s">
         <v>958</v>
       </c>
-      <c r="M40" s="165" t="s">
+      <c r="M40" s="184" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="41" spans="1:13" customFormat="1" ht="30">
-      <c r="A41" s="186"/>
+    <row r="41" spans="1:13" customFormat="1" ht="45.75">
+      <c r="A41" s="196"/>
       <c r="B41" s="121" t="s">
         <v>296</v>
       </c>
@@ -15620,7 +15637,7 @@
       <c r="D41" s="121" t="s">
         <v>299</v>
       </c>
-      <c r="E41" s="126" t="s">
+      <c r="E41" s="124" t="s">
         <v>301</v>
       </c>
       <c r="F41" s="65" t="s">
@@ -15635,334 +15652,334 @@
       <c r="I41" s="121" t="s">
         <v>828</v>
       </c>
-      <c r="J41" s="126"/>
-      <c r="K41" s="140" t="s">
+      <c r="J41" s="124"/>
+      <c r="K41" s="173" t="s">
         <v>964</v>
       </c>
-      <c r="L41" s="66" t="s">
+      <c r="L41" s="174" t="s">
         <v>965</v>
       </c>
-      <c r="M41" s="150" t="s">
+      <c r="M41" s="183" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="42" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A42" s="186"/>
+      <c r="A42" s="196"/>
       <c r="B42" s="121"/>
       <c r="C42" s="122"/>
       <c r="D42" s="121"/>
-      <c r="E42" s="126"/>
+      <c r="E42" s="124"/>
       <c r="F42" s="121"/>
       <c r="G42" s="121"/>
       <c r="H42" s="121"/>
       <c r="I42" s="121"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="140" t="s">
+      <c r="J42" s="124"/>
+      <c r="K42" s="173" t="s">
         <v>967</v>
       </c>
-      <c r="L42" s="66" t="s">
+      <c r="L42" s="174" t="s">
         <v>968</v>
       </c>
-      <c r="M42" s="150" t="s">
+      <c r="M42" s="183" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="43" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A43" s="186"/>
+      <c r="A43" s="196"/>
       <c r="B43" s="121"/>
       <c r="C43" s="122"/>
       <c r="D43" s="121"/>
-      <c r="E43" s="126"/>
+      <c r="E43" s="124"/>
       <c r="F43" s="121"/>
       <c r="G43" s="121"/>
       <c r="H43" s="121"/>
       <c r="I43" s="121"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="140" t="s">
+      <c r="J43" s="124"/>
+      <c r="K43" s="173" t="s">
         <v>970</v>
       </c>
-      <c r="L43" s="66" t="s">
+      <c r="L43" s="174" t="s">
         <v>971</v>
       </c>
-      <c r="M43" s="150" t="s">
+      <c r="M43" s="183" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="44" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A44" s="186"/>
+      <c r="A44" s="196"/>
       <c r="B44" s="121"/>
       <c r="C44" s="122"/>
       <c r="D44" s="121"/>
-      <c r="E44" s="126"/>
+      <c r="E44" s="124"/>
       <c r="F44" s="121"/>
       <c r="G44" s="121"/>
       <c r="H44" s="121"/>
       <c r="I44" s="121"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="140" t="s">
+      <c r="J44" s="124"/>
+      <c r="K44" s="173" t="s">
         <v>973</v>
       </c>
-      <c r="L44" s="66" t="s">
+      <c r="L44" s="174" t="s">
         <v>974</v>
       </c>
-      <c r="M44" s="150" t="s">
+      <c r="M44" s="183" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A45" s="186"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="121"/>
       <c r="C45" s="122"/>
       <c r="D45" s="121"/>
-      <c r="E45" s="126"/>
+      <c r="E45" s="124"/>
       <c r="F45" s="121"/>
       <c r="G45" s="121"/>
       <c r="H45" s="121"/>
       <c r="I45" s="121"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="140" t="s">
+      <c r="J45" s="124"/>
+      <c r="K45" s="173" t="s">
         <v>976</v>
       </c>
-      <c r="L45" s="66" t="s">
+      <c r="L45" s="174" t="s">
         <v>977</v>
       </c>
-      <c r="M45" s="150" t="s">
+      <c r="M45" s="183" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="46" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A46" s="186"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="121"/>
       <c r="C46" s="122"/>
       <c r="D46" s="121"/>
-      <c r="E46" s="126"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="121"/>
       <c r="G46" s="121"/>
       <c r="H46" s="121"/>
       <c r="I46" s="121"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="140" t="s">
+      <c r="J46" s="124"/>
+      <c r="K46" s="173" t="s">
         <v>979</v>
       </c>
-      <c r="L46" s="66" t="s">
+      <c r="L46" s="174" t="s">
         <v>980</v>
       </c>
-      <c r="M46" s="150" t="s">
+      <c r="M46" s="183" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="47" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A47" s="186"/>
+      <c r="A47" s="196"/>
       <c r="B47" s="121"/>
       <c r="C47" s="122"/>
       <c r="D47" s="121"/>
-      <c r="E47" s="126"/>
+      <c r="E47" s="124"/>
       <c r="F47" s="121"/>
       <c r="G47" s="121"/>
       <c r="H47" s="121"/>
       <c r="I47" s="121"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="140" t="s">
+      <c r="J47" s="124"/>
+      <c r="K47" s="173" t="s">
         <v>970</v>
       </c>
-      <c r="L47" s="66" t="s">
+      <c r="L47" s="174" t="s">
         <v>971</v>
       </c>
-      <c r="M47" s="150" t="s">
+      <c r="M47" s="183" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="48" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A48" s="186"/>
+      <c r="A48" s="196"/>
       <c r="B48" s="121"/>
       <c r="C48" s="122"/>
       <c r="D48" s="121"/>
-      <c r="E48" s="126"/>
+      <c r="E48" s="124"/>
       <c r="F48" s="121"/>
       <c r="G48" s="121"/>
       <c r="H48" s="121"/>
       <c r="I48" s="121"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="140" t="s">
+      <c r="J48" s="124"/>
+      <c r="K48" s="173" t="s">
         <v>973</v>
       </c>
-      <c r="L48" s="66" t="s">
+      <c r="L48" s="174" t="s">
         <v>974</v>
       </c>
-      <c r="M48" s="150" t="s">
+      <c r="M48" s="183" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="49" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A49" s="186"/>
+      <c r="A49" s="196"/>
       <c r="B49" s="121"/>
       <c r="C49" s="122"/>
       <c r="D49" s="121"/>
-      <c r="E49" s="126"/>
+      <c r="E49" s="124"/>
       <c r="F49" s="121"/>
       <c r="G49" s="121"/>
       <c r="H49" s="121"/>
       <c r="I49" s="121"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="140" t="s">
+      <c r="J49" s="124"/>
+      <c r="K49" s="173" t="s">
         <v>976</v>
       </c>
-      <c r="L49" s="66" t="s">
+      <c r="L49" s="174" t="s">
         <v>977</v>
       </c>
-      <c r="M49" s="150" t="s">
+      <c r="M49" s="183" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="50" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A50" s="186"/>
+      <c r="A50" s="196"/>
       <c r="B50" s="121"/>
       <c r="C50" s="122"/>
       <c r="D50" s="121"/>
-      <c r="E50" s="126"/>
+      <c r="E50" s="124"/>
       <c r="F50" s="121"/>
       <c r="G50" s="121"/>
       <c r="H50" s="121"/>
       <c r="I50" s="121"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="140" t="s">
+      <c r="J50" s="124"/>
+      <c r="K50" s="173" t="s">
         <v>979</v>
       </c>
-      <c r="L50" s="66" t="s">
+      <c r="L50" s="174" t="s">
         <v>980</v>
       </c>
-      <c r="M50" s="150" t="s">
+      <c r="M50" s="183" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="51" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A51" s="186"/>
+      <c r="A51" s="196"/>
       <c r="B51" s="121"/>
       <c r="C51" s="122"/>
       <c r="D51" s="121"/>
-      <c r="E51" s="126"/>
+      <c r="E51" s="124"/>
       <c r="F51" s="121"/>
       <c r="G51" s="121"/>
       <c r="H51" s="121"/>
       <c r="I51" s="121"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="140" t="s">
+      <c r="J51" s="124"/>
+      <c r="K51" s="173" t="s">
         <v>982</v>
       </c>
-      <c r="L51" s="66" t="s">
+      <c r="L51" s="174" t="s">
         <v>983</v>
       </c>
-      <c r="M51" s="150" t="s">
+      <c r="M51" s="183" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="52" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A52" s="186"/>
+      <c r="A52" s="196"/>
       <c r="B52" s="121"/>
       <c r="C52" s="122"/>
       <c r="D52" s="121"/>
-      <c r="E52" s="126"/>
+      <c r="E52" s="124"/>
       <c r="F52" s="121"/>
       <c r="G52" s="121"/>
       <c r="H52" s="121"/>
       <c r="I52" s="121"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="140" t="s">
+      <c r="J52" s="124"/>
+      <c r="K52" s="173" t="s">
         <v>985</v>
       </c>
-      <c r="L52" s="66" t="s">
+      <c r="L52" s="174" t="s">
         <v>986</v>
       </c>
-      <c r="M52" s="150" t="s">
+      <c r="M52" s="183" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="53" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A53" s="186"/>
+      <c r="A53" s="196"/>
       <c r="B53" s="121"/>
       <c r="C53" s="122"/>
       <c r="D53" s="121"/>
-      <c r="E53" s="126"/>
+      <c r="E53" s="124"/>
       <c r="F53" s="121"/>
       <c r="G53" s="121"/>
       <c r="H53" s="121"/>
       <c r="I53" s="121"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="140" t="s">
+      <c r="J53" s="124"/>
+      <c r="K53" s="173" t="s">
         <v>988</v>
       </c>
-      <c r="L53" s="66" t="s">
+      <c r="L53" s="174" t="s">
         <v>989</v>
       </c>
-      <c r="M53" s="150" t="s">
+      <c r="M53" s="183" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="54" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A54" s="186"/>
+      <c r="A54" s="196"/>
       <c r="B54" s="121"/>
       <c r="C54" s="122"/>
       <c r="D54" s="121"/>
-      <c r="E54" s="126"/>
+      <c r="E54" s="124"/>
       <c r="F54" s="121"/>
       <c r="G54" s="121"/>
       <c r="H54" s="121"/>
       <c r="I54" s="121"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="140" t="s">
+      <c r="J54" s="124"/>
+      <c r="K54" s="173" t="s">
         <v>941</v>
       </c>
-      <c r="L54" s="66" t="s">
+      <c r="L54" s="174" t="s">
         <v>942</v>
       </c>
-      <c r="M54" s="150" t="s">
+      <c r="M54" s="183" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="55" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A55" s="186"/>
+      <c r="A55" s="196"/>
       <c r="B55" s="121"/>
       <c r="C55" s="122"/>
       <c r="D55" s="121"/>
-      <c r="E55" s="126"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="121"/>
       <c r="G55" s="121"/>
       <c r="H55" s="121"/>
       <c r="I55" s="121"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="140" t="s">
+      <c r="J55" s="124"/>
+      <c r="K55" s="173" t="s">
         <v>991</v>
       </c>
-      <c r="L55" s="66" t="s">
+      <c r="L55" s="174" t="s">
         <v>992</v>
       </c>
-      <c r="M55" s="150" t="s">
+      <c r="M55" s="183" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="56" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A56" s="187"/>
+      <c r="A56" s="197"/>
       <c r="B56" s="121"/>
       <c r="C56" s="122"/>
       <c r="D56" s="121"/>
-      <c r="E56" s="126"/>
+      <c r="E56" s="124"/>
       <c r="F56" s="121"/>
       <c r="G56" s="121"/>
       <c r="H56" s="121"/>
       <c r="I56" s="121"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="140" t="s">
+      <c r="J56" s="124"/>
+      <c r="K56" s="173" t="s">
         <v>994</v>
       </c>
-      <c r="L56" s="66" t="s">
+      <c r="L56" s="174" t="s">
         <v>995</v>
       </c>
-      <c r="M56" s="150" t="s">
+      <c r="M56" s="183" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="57" spans="1:13" customFormat="1" ht="114.75" customHeight="1">
-      <c r="A57" s="180" t="s">
+      <c r="A57" s="190" t="s">
         <v>997</v>
       </c>
       <c r="B57" s="121" t="s">
@@ -15990,18 +16007,18 @@
         <v>953</v>
       </c>
       <c r="J57" s="121"/>
-      <c r="K57" s="122" t="s">
+      <c r="K57" s="172" t="s">
         <v>954</v>
       </c>
-      <c r="L57" s="122" t="s">
+      <c r="L57" s="172" t="s">
         <v>955</v>
       </c>
-      <c r="M57" s="165" t="s">
+      <c r="M57" s="184" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="58" spans="1:13" customFormat="1" ht="15">
-      <c r="A58" s="180"/>
+      <c r="A58" s="190"/>
       <c r="B58" s="121"/>
       <c r="C58" s="122"/>
       <c r="D58" s="121"/>
@@ -16011,18 +16028,18 @@
       <c r="H58" s="121"/>
       <c r="I58" s="121"/>
       <c r="J58" s="121"/>
-      <c r="K58" s="122" t="s">
+      <c r="K58" s="172" t="s">
         <v>957</v>
       </c>
-      <c r="L58" s="122" t="s">
+      <c r="L58" s="172" t="s">
         <v>958</v>
       </c>
-      <c r="M58" s="165" t="s">
+      <c r="M58" s="184" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="59" spans="1:13" customFormat="1" ht="150">
-      <c r="A59" s="180"/>
+      <c r="A59" s="190"/>
       <c r="B59" s="121" t="s">
         <v>402</v>
       </c>
@@ -16044,24 +16061,24 @@
       <c r="H59" s="65" t="s">
         <v>1004</v>
       </c>
-      <c r="I59" s="179" t="s">
+      <c r="I59" s="121" t="s">
         <v>1005</v>
       </c>
       <c r="J59" s="121" t="s">
         <v>1006</v>
       </c>
-      <c r="K59" s="66">
+      <c r="K59" s="174">
         <v>420</v>
       </c>
-      <c r="L59" s="66">
+      <c r="L59" s="174">
         <v>420</v>
       </c>
-      <c r="M59" s="150">
+      <c r="M59" s="183">
         <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:13" customFormat="1" ht="15">
-      <c r="A60" s="180"/>
+      <c r="A60" s="190"/>
       <c r="B60" s="121"/>
       <c r="C60" s="122"/>
       <c r="D60" s="121"/>
@@ -16071,18 +16088,18 @@
       <c r="H60" s="121"/>
       <c r="I60" s="121"/>
       <c r="J60" s="121"/>
-      <c r="K60" s="66">
+      <c r="K60" s="174">
         <v>1900</v>
       </c>
-      <c r="L60" s="66">
+      <c r="L60" s="174">
         <v>1900</v>
       </c>
-      <c r="M60" s="150">
+      <c r="M60" s="183">
         <v>1900</v>
       </c>
     </row>
     <row r="61" spans="1:13" customFormat="1" ht="15">
-      <c r="A61" s="180"/>
+      <c r="A61" s="190"/>
       <c r="B61" s="121"/>
       <c r="C61" s="122"/>
       <c r="D61" s="121"/>
@@ -16092,18 +16109,18 @@
       <c r="H61" s="121"/>
       <c r="I61" s="121"/>
       <c r="J61" s="121"/>
-      <c r="K61" s="66">
+      <c r="K61" s="174">
         <v>3200</v>
       </c>
-      <c r="L61" s="66">
+      <c r="L61" s="174">
         <v>3200</v>
       </c>
-      <c r="M61" s="150">
+      <c r="M61" s="183">
         <v>3200</v>
       </c>
     </row>
     <row r="62" spans="1:13" customFormat="1" ht="15">
-      <c r="A62" s="180"/>
+      <c r="A62" s="190"/>
       <c r="B62" s="121"/>
       <c r="C62" s="122"/>
       <c r="D62" s="121"/>
@@ -16113,25 +16130,25 @@
       <c r="H62" s="121"/>
       <c r="I62" s="121"/>
       <c r="J62" s="121"/>
-      <c r="K62" s="66">
+      <c r="K62" s="174">
         <v>4500</v>
       </c>
-      <c r="L62" s="66">
+      <c r="L62" s="174">
         <v>4500</v>
       </c>
-      <c r="M62" s="150">
+      <c r="M62" s="183">
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="78">
-      <c r="A63" s="186"/>
-      <c r="B63" s="128" t="s">
+    <row r="63" spans="1:13" ht="61.5">
+      <c r="A63" s="196"/>
+      <c r="B63" s="126" t="s">
         <v>524</v>
       </c>
       <c r="C63" s="121" t="s">
         <v>1007</v>
       </c>
-      <c r="D63" s="127" t="s">
+      <c r="D63" s="125" t="s">
         <v>527</v>
       </c>
       <c r="E63" s="121" t="s">
@@ -16147,284 +16164,284 @@
         <v>1010</v>
       </c>
       <c r="I63" s="121" t="s">
-        <v>828</v>
+        <v>1011</v>
       </c>
       <c r="J63" s="121"/>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="175" t="s">
         <v>1012</v>
       </c>
-      <c r="L63" s="163" t="s">
+      <c r="L63" s="180" t="s">
         <v>1013</v>
       </c>
-      <c r="M63" s="167" t="s">
+      <c r="M63" s="186" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="186"/>
-      <c r="B64" s="128"/>
+    <row r="64" spans="1:13" ht="18">
+      <c r="A64" s="196"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="121"/>
-      <c r="D64" s="127"/>
+      <c r="D64" s="125"/>
       <c r="E64" s="121"/>
       <c r="F64" s="121"/>
       <c r="G64" s="121"/>
       <c r="H64" s="121"/>
       <c r="I64" s="121"/>
       <c r="J64" s="121"/>
-      <c r="K64" s="65" t="s">
+      <c r="K64" s="175" t="s">
         <v>1015</v>
       </c>
-      <c r="L64" s="163" t="s">
+      <c r="L64" s="180" t="s">
         <v>1016</v>
       </c>
-      <c r="M64" s="167" t="s">
+      <c r="M64" s="186" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="186"/>
-      <c r="B65" s="128"/>
+    <row r="65" spans="1:13" ht="18">
+      <c r="A65" s="196"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="121"/>
-      <c r="D65" s="127"/>
+      <c r="D65" s="125"/>
       <c r="E65" s="121"/>
       <c r="F65" s="121"/>
       <c r="G65" s="121"/>
       <c r="H65" s="121"/>
       <c r="I65" s="121"/>
       <c r="J65" s="121"/>
-      <c r="K65" s="65" t="s">
+      <c r="K65" s="175" t="s">
         <v>1018</v>
       </c>
-      <c r="L65" s="163" t="s">
+      <c r="L65" s="180" t="s">
         <v>1019</v>
       </c>
-      <c r="M65" s="167" t="s">
+      <c r="M65" s="186" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="37.5">
-      <c r="A66" s="186"/>
-      <c r="B66" s="128"/>
+    <row r="66" spans="1:13" ht="36">
+      <c r="A66" s="196"/>
+      <c r="B66" s="126"/>
       <c r="C66" s="121"/>
-      <c r="D66" s="127"/>
+      <c r="D66" s="125"/>
       <c r="E66" s="121"/>
       <c r="F66" s="121"/>
       <c r="G66" s="121"/>
       <c r="H66" s="121"/>
       <c r="I66" s="121"/>
       <c r="J66" s="121"/>
-      <c r="K66" s="65" t="s">
+      <c r="K66" s="175" t="s">
         <v>1021</v>
       </c>
-      <c r="L66" s="163" t="s">
+      <c r="L66" s="180" t="s">
         <v>1022</v>
       </c>
-      <c r="M66" s="167" t="s">
+      <c r="M66" s="186" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="186"/>
-      <c r="B67" s="128"/>
+    <row r="67" spans="1:13" ht="18">
+      <c r="A67" s="196"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="121"/>
-      <c r="D67" s="127"/>
+      <c r="D67" s="125"/>
       <c r="E67" s="121"/>
       <c r="F67" s="121"/>
       <c r="G67" s="121"/>
       <c r="H67" s="121"/>
       <c r="I67" s="121"/>
       <c r="J67" s="121"/>
-      <c r="K67" s="65" t="s">
+      <c r="K67" s="175" t="s">
         <v>1024</v>
       </c>
-      <c r="L67" s="163" t="s">
+      <c r="L67" s="180" t="s">
         <v>1025</v>
       </c>
-      <c r="M67" s="167" t="s">
+      <c r="M67" s="186" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="37.5">
-      <c r="A68" s="186"/>
-      <c r="B68" s="128"/>
+    <row r="68" spans="1:13" ht="36">
+      <c r="A68" s="196"/>
+      <c r="B68" s="126"/>
       <c r="C68" s="121"/>
-      <c r="D68" s="127"/>
+      <c r="D68" s="125"/>
       <c r="E68" s="121"/>
       <c r="F68" s="121"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168"/>
-      <c r="J68" s="168"/>
-      <c r="K68" s="115" t="s">
+      <c r="G68" s="159"/>
+      <c r="H68" s="159"/>
+      <c r="I68" s="159"/>
+      <c r="J68" s="159"/>
+      <c r="K68" s="176" t="s">
         <v>1027</v>
       </c>
-      <c r="L68" s="171" t="s">
+      <c r="L68" s="181" t="s">
         <v>1028</v>
       </c>
-      <c r="M68" s="172" t="s">
+      <c r="M68" s="187" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="186"/>
-      <c r="B69" s="128"/>
+    <row r="69" spans="1:13" ht="18">
+      <c r="A69" s="196"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="121"/>
-      <c r="D69" s="127"/>
+      <c r="D69" s="125"/>
       <c r="E69" s="121"/>
-      <c r="F69" s="165"/>
+      <c r="F69" s="158"/>
       <c r="G69" s="121"/>
       <c r="H69" s="121"/>
       <c r="I69" s="121"/>
       <c r="J69" s="121"/>
-      <c r="K69" s="65" t="s">
+      <c r="K69" s="175" t="s">
         <v>1030</v>
       </c>
-      <c r="L69" s="163" t="s">
+      <c r="L69" s="180" t="s">
         <v>1031</v>
       </c>
-      <c r="M69" s="164" t="s">
+      <c r="M69" s="188" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="37.5">
-      <c r="A70" s="186"/>
-      <c r="B70" s="128"/>
+    <row r="70" spans="1:13" ht="36">
+      <c r="A70" s="196"/>
+      <c r="B70" s="126"/>
       <c r="C70" s="121"/>
-      <c r="D70" s="127"/>
+      <c r="D70" s="125"/>
       <c r="E70" s="121"/>
-      <c r="F70" s="165"/>
+      <c r="F70" s="158"/>
       <c r="G70" s="121"/>
       <c r="H70" s="121"/>
       <c r="I70" s="121"/>
       <c r="J70" s="121"/>
-      <c r="K70" s="65" t="s">
+      <c r="K70" s="175" t="s">
         <v>1033</v>
       </c>
-      <c r="L70" s="163" t="s">
+      <c r="L70" s="180" t="s">
         <v>1034</v>
       </c>
-      <c r="M70" s="164" t="s">
+      <c r="M70" s="188" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="55.5">
-      <c r="A71" s="186"/>
-      <c r="B71" s="128"/>
+    <row r="71" spans="1:13" ht="54">
+      <c r="A71" s="196"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="121"/>
-      <c r="D71" s="127"/>
+      <c r="D71" s="125"/>
       <c r="E71" s="121"/>
-      <c r="F71" s="165"/>
+      <c r="F71" s="158"/>
       <c r="G71" s="121"/>
       <c r="H71" s="121"/>
       <c r="I71" s="121"/>
       <c r="J71" s="121"/>
-      <c r="K71" s="65" t="s">
+      <c r="K71" s="175" t="s">
         <v>1036</v>
       </c>
-      <c r="L71" s="163" t="s">
+      <c r="L71" s="180" t="s">
         <v>1037</v>
       </c>
-      <c r="M71" s="164" t="s">
+      <c r="M71" s="188" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="32.25">
-      <c r="A72" s="186"/>
-      <c r="B72" s="128"/>
+    <row r="72" spans="1:13" ht="30.75">
+      <c r="A72" s="196"/>
+      <c r="B72" s="126"/>
       <c r="C72" s="121"/>
-      <c r="D72" s="127"/>
+      <c r="D72" s="125"/>
       <c r="E72" s="121"/>
-      <c r="F72" s="165"/>
+      <c r="F72" s="158"/>
       <c r="G72" s="121"/>
       <c r="H72" s="121"/>
       <c r="I72" s="121"/>
       <c r="J72" s="121"/>
-      <c r="K72" s="65" t="s">
+      <c r="K72" s="175" t="s">
         <v>1039</v>
       </c>
-      <c r="L72" s="163" t="s">
+      <c r="L72" s="180" t="s">
         <v>1040</v>
       </c>
-      <c r="M72" s="164" t="s">
+      <c r="M72" s="188" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="55.5">
-      <c r="A73" s="186"/>
-      <c r="B73" s="128"/>
+    <row r="73" spans="1:13" ht="54">
+      <c r="A73" s="196"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="121"/>
-      <c r="D73" s="127"/>
+      <c r="D73" s="125"/>
       <c r="E73" s="121"/>
-      <c r="F73" s="165"/>
+      <c r="F73" s="158"/>
       <c r="G73" s="121"/>
       <c r="H73" s="121"/>
       <c r="I73" s="121"/>
       <c r="J73" s="121"/>
-      <c r="K73" s="65" t="s">
+      <c r="K73" s="175" t="s">
         <v>1042</v>
       </c>
-      <c r="L73" s="163" t="s">
+      <c r="L73" s="180" t="s">
         <v>1043</v>
       </c>
-      <c r="M73" s="164" t="s">
+      <c r="M73" s="188" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="55.5">
-      <c r="A74" s="186"/>
-      <c r="B74" s="128"/>
+    <row r="74" spans="1:13" ht="54">
+      <c r="A74" s="196"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="121"/>
-      <c r="D74" s="127"/>
+      <c r="D74" s="125"/>
       <c r="E74" s="121"/>
-      <c r="F74" s="165"/>
+      <c r="F74" s="158"/>
       <c r="G74" s="121"/>
       <c r="H74" s="121"/>
       <c r="I74" s="121"/>
       <c r="J74" s="121"/>
-      <c r="K74" s="65" t="s">
+      <c r="K74" s="175" t="s">
         <v>1045</v>
       </c>
-      <c r="L74" s="163" t="s">
+      <c r="L74" s="180" t="s">
         <v>1046</v>
       </c>
-      <c r="M74" s="164" t="s">
+      <c r="M74" s="188" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="32.25">
-      <c r="A75" s="186"/>
-      <c r="B75" s="128"/>
+    <row r="75" spans="1:13" ht="30.75">
+      <c r="A75" s="196"/>
+      <c r="B75" s="126"/>
       <c r="C75" s="121"/>
-      <c r="D75" s="127"/>
+      <c r="D75" s="125"/>
       <c r="E75" s="121"/>
-      <c r="F75" s="165"/>
+      <c r="F75" s="158"/>
       <c r="G75" s="121"/>
       <c r="H75" s="121"/>
       <c r="I75" s="121"/>
       <c r="J75" s="121"/>
-      <c r="K75" s="65" t="s">
+      <c r="K75" s="175" t="s">
         <v>1048</v>
       </c>
-      <c r="L75" s="163" t="s">
+      <c r="L75" s="180" t="s">
         <v>1049</v>
       </c>
-      <c r="M75" s="65"/>
-    </row>
-    <row r="76" spans="1:13" ht="212.25">
-      <c r="A76" s="186"/>
-      <c r="B76" s="128" t="s">
+      <c r="M75" s="175"/>
+    </row>
+    <row r="76" spans="1:13" ht="210">
+      <c r="A76" s="196"/>
+      <c r="B76" s="126" t="s">
         <v>542</v>
       </c>
       <c r="C76" s="121" t="s">
         <v>1050</v>
       </c>
-      <c r="D76" s="127" t="s">
+      <c r="D76" s="125" t="s">
         <v>545</v>
       </c>
       <c r="E76" s="121" t="s">
         <v>547</v>
       </c>
-      <c r="F76" s="165" t="s">
+      <c r="F76" s="158" t="s">
         <v>1051</v>
       </c>
       <c r="G76" s="121" t="s">
@@ -16439,39 +16456,39 @@
       <c r="J76" s="121" t="s">
         <v>1054</v>
       </c>
-      <c r="K76" s="121" t="s">
+      <c r="K76" s="177" t="s">
         <v>954</v>
       </c>
-      <c r="L76" s="121" t="s">
+      <c r="L76" s="177" t="s">
         <v>955</v>
       </c>
-      <c r="M76" s="129" t="s">
+      <c r="M76" s="189" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15">
-      <c r="A77" s="186"/>
+      <c r="A77" s="196"/>
       <c r="B77" s="121"/>
       <c r="C77" s="121"/>
       <c r="D77" s="121"/>
       <c r="E77" s="121"/>
-      <c r="F77" s="165"/>
+      <c r="F77" s="158"/>
       <c r="G77" s="121"/>
       <c r="H77" s="121"/>
       <c r="I77" s="121"/>
       <c r="J77" s="121"/>
-      <c r="K77" s="121" t="s">
+      <c r="K77" s="177" t="s">
         <v>957</v>
       </c>
-      <c r="L77" s="121" t="s">
+      <c r="L77" s="177" t="s">
         <v>1056</v>
       </c>
-      <c r="M77" s="129" t="s">
+      <c r="M77" s="189" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="31.5">
-      <c r="A78" s="186"/>
+    <row r="78" spans="1:13" ht="30">
+      <c r="A78" s="196"/>
       <c r="B78" s="121" t="s">
         <v>713</v>
       </c>
@@ -16480,122 +16497,120 @@
       </c>
       <c r="D78" s="121"/>
       <c r="E78" s="121"/>
-      <c r="F78" s="165"/>
+      <c r="F78" s="158"/>
       <c r="G78" s="121"/>
       <c r="H78" s="121"/>
-      <c r="I78" s="121" t="s">
-        <v>828</v>
-      </c>
+      <c r="I78" s="121"/>
       <c r="J78" s="121"/>
-      <c r="K78" s="162" t="s">
+      <c r="K78" s="178" t="s">
         <v>1058</v>
       </c>
-      <c r="L78" s="66" t="s">
+      <c r="L78" s="174" t="s">
         <v>1059</v>
       </c>
-      <c r="M78" s="66" t="s">
+      <c r="M78" s="174" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5">
-      <c r="A79" s="186"/>
+    <row r="79" spans="1:13" ht="15">
+      <c r="A79" s="196"/>
       <c r="B79" s="121"/>
       <c r="C79" s="121"/>
       <c r="D79" s="121"/>
       <c r="E79" s="121"/>
-      <c r="F79" s="165"/>
+      <c r="F79" s="158"/>
       <c r="G79" s="121"/>
       <c r="H79" s="121"/>
       <c r="I79" s="121"/>
       <c r="J79" s="121"/>
-      <c r="K79" s="162" t="s">
+      <c r="K79" s="178" t="s">
         <v>1061</v>
       </c>
-      <c r="L79" s="66" t="s">
+      <c r="L79" s="174" t="s">
         <v>1062</v>
       </c>
-      <c r="M79" s="66" t="s">
+      <c r="M79" s="174" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16.5">
-      <c r="A80" s="186"/>
+    <row r="80" spans="1:13" ht="15">
+      <c r="A80" s="196"/>
       <c r="B80" s="121"/>
       <c r="C80" s="121"/>
       <c r="D80" s="121"/>
       <c r="E80" s="121"/>
-      <c r="F80" s="165"/>
+      <c r="F80" s="158"/>
       <c r="G80" s="121"/>
       <c r="H80" s="121"/>
       <c r="I80" s="121"/>
       <c r="J80" s="121"/>
-      <c r="K80" s="162" t="s">
+      <c r="K80" s="178" t="s">
         <v>1064</v>
       </c>
-      <c r="L80" s="66" t="s">
+      <c r="L80" s="174" t="s">
         <v>1065</v>
       </c>
-      <c r="M80" s="66" t="s">
+      <c r="M80" s="174" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="16.5">
-      <c r="A81" s="186"/>
+    <row r="81" spans="1:16" ht="15">
+      <c r="A81" s="196"/>
       <c r="B81" s="121"/>
       <c r="C81" s="121"/>
       <c r="D81" s="121"/>
       <c r="E81" s="121"/>
-      <c r="F81" s="165"/>
+      <c r="F81" s="158"/>
       <c r="G81" s="121"/>
       <c r="H81" s="121"/>
       <c r="I81" s="121"/>
       <c r="J81" s="121"/>
-      <c r="K81" s="162" t="s">
+      <c r="K81" s="178" t="s">
         <v>1033</v>
       </c>
-      <c r="L81" s="66" t="s">
+      <c r="L81" s="174" t="s">
         <v>1067</v>
       </c>
-      <c r="M81" s="66" t="s">
+      <c r="M81" s="174" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="16.5">
-      <c r="A82" s="186"/>
+    <row r="82" spans="1:16" ht="15">
+      <c r="A82" s="196"/>
       <c r="B82" s="121"/>
       <c r="C82" s="121"/>
       <c r="D82" s="121"/>
       <c r="E82" s="121"/>
-      <c r="F82" s="165"/>
+      <c r="F82" s="158"/>
       <c r="G82" s="121"/>
       <c r="H82" s="121"/>
       <c r="I82" s="121"/>
       <c r="J82" s="121"/>
-      <c r="K82" s="162" t="s">
+      <c r="K82" s="178" t="s">
         <v>941</v>
       </c>
-      <c r="L82" s="66" t="s">
+      <c r="L82" s="174" t="s">
         <v>942</v>
       </c>
-      <c r="M82" s="66" t="s">
+      <c r="M82" s="174" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="212.25">
-      <c r="A83" s="186"/>
-      <c r="B83" s="128" t="s">
+    <row r="83" spans="1:16" ht="210">
+      <c r="A83" s="196"/>
+      <c r="B83" s="126" t="s">
         <v>552</v>
       </c>
       <c r="C83" s="121" t="s">
         <v>1069</v>
       </c>
-      <c r="D83" s="127" t="s">
+      <c r="D83" s="125" t="s">
         <v>555</v>
       </c>
       <c r="E83" s="121" t="s">
         <v>557</v>
       </c>
-      <c r="F83" s="136" t="s">
+      <c r="F83" s="133" t="s">
         <v>1070</v>
       </c>
       <c r="G83" s="65" t="s">
@@ -16607,28 +16622,28 @@
       <c r="I83" s="121" t="s">
         <v>1011</v>
       </c>
-      <c r="J83" s="130" t="s">
+      <c r="J83" s="127" t="s">
         <v>1054</v>
       </c>
-      <c r="K83" s="121"/>
-      <c r="L83" s="121"/>
-      <c r="M83" s="121"/>
-    </row>
-    <row r="84" spans="1:16" ht="212.25">
-      <c r="A84" s="187"/>
-      <c r="B84" s="128" t="s">
+      <c r="K83" s="177"/>
+      <c r="L83" s="177"/>
+      <c r="M83" s="177"/>
+    </row>
+    <row r="84" spans="1:16" ht="210">
+      <c r="A84" s="197"/>
+      <c r="B84" s="126" t="s">
         <v>561</v>
       </c>
       <c r="C84" s="121" t="s">
         <v>563</v>
       </c>
-      <c r="D84" s="127" t="s">
+      <c r="D84" s="125" t="s">
         <v>564</v>
       </c>
       <c r="E84" s="121" t="s">
         <v>566</v>
       </c>
-      <c r="F84" s="136" t="s">
+      <c r="F84" s="133" t="s">
         <v>1073</v>
       </c>
       <c r="G84" s="65" t="s">
@@ -16640,30 +16655,30 @@
       <c r="I84" s="121" t="s">
         <v>1011</v>
       </c>
-      <c r="J84" s="130" t="s">
+      <c r="J84" s="127" t="s">
         <v>1054</v>
       </c>
-      <c r="K84" s="121"/>
-      <c r="L84" s="121"/>
-      <c r="M84" s="121"/>
-    </row>
-    <row r="85" spans="1:16" ht="152.25">
-      <c r="A85" s="184" t="s">
+      <c r="K84" s="177"/>
+      <c r="L84" s="177"/>
+      <c r="M84" s="177"/>
+    </row>
+    <row r="85" spans="1:16" ht="150">
+      <c r="A85" s="194" t="s">
         <v>1076</v>
       </c>
-      <c r="B85" s="128" t="s">
+      <c r="B85" s="126" t="s">
         <v>695</v>
       </c>
       <c r="C85" s="121" t="s">
         <v>1077</v>
       </c>
-      <c r="D85" s="127" t="s">
+      <c r="D85" s="125" t="s">
         <v>698</v>
       </c>
       <c r="E85" s="121" t="s">
         <v>700</v>
       </c>
-      <c r="F85" s="165" t="s">
+      <c r="F85" s="158" t="s">
         <v>1078</v>
       </c>
       <c r="G85" s="121" t="s">
@@ -16678,46 +16693,46 @@
       <c r="J85" s="121" t="s">
         <v>1081</v>
       </c>
-      <c r="K85" s="121" t="s">
+      <c r="K85" s="177" t="s">
         <v>954</v>
       </c>
-      <c r="L85" s="121" t="s">
+      <c r="L85" s="177" t="s">
         <v>955</v>
       </c>
-      <c r="M85" s="129" t="s">
+      <c r="M85" s="189" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="184"/>
-      <c r="B86" s="128"/>
+    <row r="86" spans="1:16" ht="15.75">
+      <c r="A86" s="194"/>
+      <c r="B86" s="126"/>
       <c r="C86" s="121"/>
-      <c r="D86" s="127"/>
+      <c r="D86" s="125"/>
       <c r="E86" s="121"/>
-      <c r="F86" s="165"/>
+      <c r="F86" s="158"/>
       <c r="G86" s="121"/>
       <c r="H86" s="121"/>
       <c r="I86" s="121"/>
       <c r="J86" s="121"/>
-      <c r="K86" s="121" t="s">
+      <c r="K86" s="177" t="s">
         <v>957</v>
       </c>
-      <c r="L86" s="121" t="s">
+      <c r="L86" s="177" t="s">
         <v>1056</v>
       </c>
-      <c r="M86" s="129" t="s">
+      <c r="M86" s="189" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="47.25">
-      <c r="A87" s="184"/>
-      <c r="B87" s="128"/>
+    <row r="87" spans="1:16" ht="45">
+      <c r="A87" s="194"/>
+      <c r="B87" s="126"/>
       <c r="C87" s="121" t="s">
         <v>1082</v>
       </c>
-      <c r="D87" s="128"/>
+      <c r="D87" s="126"/>
       <c r="E87" s="121"/>
-      <c r="F87" s="165" t="s">
+      <c r="F87" s="158" t="s">
         <v>1083</v>
       </c>
       <c r="G87" s="121" t="s">
@@ -16730,18 +16745,18 @@
         <v>953</v>
       </c>
       <c r="J87" s="121"/>
-      <c r="K87" s="121" t="s">
+      <c r="K87" s="177" t="s">
         <v>954</v>
       </c>
-      <c r="L87" s="121" t="s">
+      <c r="L87" s="177" t="s">
         <v>955</v>
       </c>
-      <c r="M87" s="129" t="s">
+      <c r="M87" s="189" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="64" customFormat="1" ht="78" hidden="1">
-      <c r="A88" s="181" t="s">
+    <row r="88" spans="1:16" s="64" customFormat="1" ht="60.75" hidden="1">
+      <c r="A88" s="191" t="s">
         <v>1086</v>
       </c>
       <c r="B88" s="117" t="s">
@@ -16782,8 +16797,8 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="1:16" s="64" customFormat="1" ht="39" hidden="1">
-      <c r="A89" s="182"/>
+    <row r="89" spans="1:16" s="64" customFormat="1" ht="45" hidden="1">
+      <c r="A89" s="192"/>
       <c r="B89" s="72" t="s">
         <v>1091</v>
       </c>
@@ -16804,8 +16819,8 @@
       <c r="O89" s="65"/>
       <c r="P89" s="65"/>
     </row>
-    <row r="90" spans="1:16" s="64" customFormat="1" ht="47.25" hidden="1">
-      <c r="A90" s="183"/>
+    <row r="90" spans="1:16" s="64" customFormat="1" ht="45" hidden="1">
+      <c r="A90" s="193"/>
       <c r="B90" s="114" t="s">
         <v>713</v>
       </c>
@@ -16838,24 +16853,24 @@
       <c r="O90" s="115"/>
       <c r="P90" s="115"/>
     </row>
-    <row r="91" spans="1:16">
-      <c r="A91" s="168"/>
-      <c r="B91" s="169"/>
-      <c r="C91" s="168"/>
-      <c r="D91" s="169"/>
-      <c r="E91" s="168"/>
-      <c r="F91" s="170"/>
+    <row r="91" spans="1:16" ht="15.75">
+      <c r="A91" s="159"/>
+      <c r="B91" s="160"/>
+      <c r="C91" s="159"/>
+      <c r="D91" s="160"/>
+      <c r="E91" s="159"/>
+      <c r="F91" s="161"/>
       <c r="G91" s="121"/>
       <c r="H91" s="121"/>
       <c r="I91" s="121"/>
       <c r="J91" s="121"/>
-      <c r="K91" s="121" t="s">
+      <c r="K91" s="177" t="s">
         <v>957</v>
       </c>
-      <c r="L91" s="121" t="s">
+      <c r="L91" s="177" t="s">
         <v>1056</v>
       </c>
-      <c r="M91" s="129" t="s">
+      <c r="M91" s="189" t="s">
         <v>959</v>
       </c>
     </row>
@@ -16876,7 +16891,6 @@
     <mergeCell ref="A63:A84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16884,9 +16898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AC70D3-E892-4236-B978-834B1733516E}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16906,14 +16920,14 @@
     <col min="13" max="13" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="84" t="s">
         <v>813</v>
       </c>
       <c r="B1" s="69" t="s">
         <v>814</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="130" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="69" t="s">
@@ -16943,18 +16957,18 @@
       <c r="L1" s="68" t="s">
         <v>822</v>
       </c>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="146" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="203" t="s">
         <v>1099</v>
       </c>
       <c r="B2" s="86" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="131" t="s">
         <v>1100</v>
       </c>
       <c r="D2" s="87" t="s">
@@ -16975,21 +16989,21 @@
       <c r="I2" s="86" t="s">
         <v>1104</v>
       </c>
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="142" t="s">
         <v>1105</v>
       </c>
-      <c r="K2" s="135" t="s">
+      <c r="K2" s="132" t="s">
         <v>957</v>
       </c>
       <c r="L2" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="M2" s="149" t="s">
+      <c r="M2" s="146" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="193"/>
+      <c r="A3" s="203"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
@@ -16999,18 +17013,18 @@
       <c r="H3" s="89"/>
       <c r="I3" s="89"/>
       <c r="J3" s="68"/>
-      <c r="K3" s="140" t="s">
+      <c r="K3" s="137" t="s">
         <v>1106</v>
       </c>
       <c r="L3" s="66" t="s">
         <v>1107</v>
       </c>
-      <c r="M3" s="150" t="s">
+      <c r="M3" s="147" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
-      <c r="A4" s="193"/>
+      <c r="A4" s="203"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -17020,18 +17034,18 @@
       <c r="H4" s="89"/>
       <c r="I4" s="89"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="140" t="s">
+      <c r="K4" s="137" t="s">
         <v>1109</v>
       </c>
       <c r="L4" s="66" t="s">
         <v>1107</v>
       </c>
-      <c r="M4" s="150" t="s">
+      <c r="M4" s="147" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75">
-      <c r="A5" s="193"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -17041,22 +17055,22 @@
       <c r="H5" s="89"/>
       <c r="I5" s="89"/>
       <c r="J5" s="68"/>
-      <c r="K5" s="140" t="s">
+      <c r="K5" s="137" t="s">
         <v>1110</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>1111</v>
       </c>
-      <c r="M5" s="150" t="s">
+      <c r="M5" s="147" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="49.5">
-      <c r="A6" s="193"/>
+    <row r="6" spans="1:13" ht="42.75">
+      <c r="A6" s="203"/>
       <c r="B6" s="86" t="s">
         <v>440</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="131" t="s">
         <v>1113</v>
       </c>
       <c r="D6" s="87" t="s">
@@ -17075,19 +17089,19 @@
       <c r="I6" s="86" t="s">
         <v>1116</v>
       </c>
-      <c r="J6" s="143" t="s">
+      <c r="J6" s="140" t="s">
         <v>1117</v>
       </c>
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
-      <c r="M6" s="149"/>
-    </row>
-    <row r="7" spans="1:13" ht="49.5">
-      <c r="A7" s="193"/>
+      <c r="M6" s="146"/>
+    </row>
+    <row r="7" spans="1:13" ht="38.25">
+      <c r="A7" s="203"/>
       <c r="B7" s="86" t="s">
         <v>449</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="131" t="s">
         <v>1118</v>
       </c>
       <c r="D7" s="87" t="s">
@@ -17109,20 +17123,20 @@
         <v>1122</v>
       </c>
       <c r="J7" s="88"/>
-      <c r="K7" s="140" t="s">
+      <c r="K7" s="137" t="s">
         <v>1123</v>
       </c>
       <c r="L7" s="66" t="s">
         <v>1124</v>
       </c>
-      <c r="M7" s="150" t="s">
+      <c r="M7" s="147" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
-      <c r="A8" s="193"/>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" s="203"/>
       <c r="B8" s="86"/>
-      <c r="C8" s="134"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="87"/>
       <c r="E8" s="88"/>
       <c r="F8" s="86"/>
@@ -17130,20 +17144,20 @@
       <c r="H8" s="86"/>
       <c r="I8" s="86"/>
       <c r="J8" s="88"/>
-      <c r="K8" s="140" t="s">
+      <c r="K8" s="137" t="s">
         <v>1126</v>
       </c>
       <c r="L8" s="66" t="s">
         <v>1127</v>
       </c>
-      <c r="M8" s="150" t="s">
+      <c r="M8" s="147" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
-      <c r="A9" s="193"/>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" s="203"/>
       <c r="B9" s="86"/>
-      <c r="C9" s="134"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="87"/>
       <c r="E9" s="88"/>
       <c r="F9" s="86"/>
@@ -17151,20 +17165,20 @@
       <c r="H9" s="86"/>
       <c r="I9" s="86"/>
       <c r="J9" s="88"/>
-      <c r="K9" s="140" t="s">
+      <c r="K9" s="137" t="s">
         <v>1129</v>
       </c>
       <c r="L9" s="66" t="s">
         <v>1130</v>
       </c>
-      <c r="M9" s="150" t="s">
+      <c r="M9" s="147" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
-      <c r="A10" s="193"/>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" s="203"/>
       <c r="B10" s="86"/>
-      <c r="C10" s="134"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="86"/>
@@ -17172,20 +17186,20 @@
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
       <c r="J10" s="88"/>
-      <c r="K10" s="140" t="s">
+      <c r="K10" s="137" t="s">
         <v>1132</v>
       </c>
       <c r="L10" s="66" t="s">
         <v>1133</v>
       </c>
-      <c r="M10" s="150" t="s">
+      <c r="M10" s="147" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
-      <c r="A11" s="193"/>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" s="203"/>
       <c r="B11" s="86"/>
-      <c r="C11" s="134"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="87"/>
       <c r="E11" s="88"/>
       <c r="F11" s="86"/>
@@ -17193,20 +17207,20 @@
       <c r="H11" s="86"/>
       <c r="I11" s="86"/>
       <c r="J11" s="88"/>
-      <c r="K11" s="140" t="s">
+      <c r="K11" s="137" t="s">
         <v>1135</v>
       </c>
       <c r="L11" s="66" t="s">
         <v>1136</v>
       </c>
-      <c r="M11" s="150" t="s">
+      <c r="M11" s="147" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
-      <c r="A12" s="193"/>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="203"/>
       <c r="B12" s="86"/>
-      <c r="C12" s="134"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="87"/>
       <c r="E12" s="88"/>
       <c r="F12" s="86"/>
@@ -17214,20 +17228,20 @@
       <c r="H12" s="86"/>
       <c r="I12" s="86"/>
       <c r="J12" s="88"/>
-      <c r="K12" s="140" t="s">
+      <c r="K12" s="137" t="s">
         <v>1138</v>
       </c>
       <c r="L12" s="66" t="s">
         <v>1139</v>
       </c>
-      <c r="M12" s="150" t="s">
+      <c r="M12" s="147" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
-      <c r="A13" s="193"/>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="203"/>
       <c r="B13" s="86"/>
-      <c r="C13" s="134"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="87"/>
       <c r="E13" s="88"/>
       <c r="F13" s="86"/>
@@ -17235,22 +17249,22 @@
       <c r="H13" s="86"/>
       <c r="I13" s="86"/>
       <c r="J13" s="88"/>
-      <c r="K13" s="140" t="s">
+      <c r="K13" s="137" t="s">
         <v>1141</v>
       </c>
       <c r="L13" s="66" t="s">
         <v>1142</v>
       </c>
-      <c r="M13" s="150" t="s">
+      <c r="M13" s="147" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="66">
-      <c r="A14" s="193"/>
+    <row r="14" spans="1:13" ht="51.75">
+      <c r="A14" s="203"/>
       <c r="B14" s="86" t="s">
         <v>457</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="131" t="s">
         <v>1144</v>
       </c>
       <c r="D14" s="87" t="s">
@@ -17271,21 +17285,21 @@
       <c r="I14" s="92" t="s">
         <v>1104</v>
       </c>
-      <c r="J14" s="146" t="s">
+      <c r="J14" s="143" t="s">
         <v>1146</v>
       </c>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="132" t="s">
         <v>957</v>
       </c>
       <c r="L14" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="M14" s="149" t="s">
+      <c r="M14" s="146" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="193"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -17295,18 +17309,18 @@
       <c r="H15" s="89"/>
       <c r="I15" s="89"/>
       <c r="J15" s="68"/>
-      <c r="K15" s="140" t="s">
+      <c r="K15" s="137" t="s">
         <v>1149</v>
       </c>
       <c r="L15" s="66" t="s">
         <v>1150</v>
       </c>
-      <c r="M15" s="150" t="s">
+      <c r="M15" s="147" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="193"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -17316,22 +17330,22 @@
       <c r="H16" s="89"/>
       <c r="I16" s="89"/>
       <c r="J16" s="68"/>
-      <c r="K16" s="140" t="s">
+      <c r="K16" s="137" t="s">
         <v>1152</v>
       </c>
       <c r="L16" s="66" t="s">
         <v>1153</v>
       </c>
-      <c r="M16" s="150" t="s">
+      <c r="M16" s="147" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="33">
-      <c r="A17" s="193"/>
+    <row r="17" spans="1:13" ht="25.5">
+      <c r="A17" s="203"/>
       <c r="B17" s="86" t="s">
         <v>465</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="131" t="s">
         <v>1155</v>
       </c>
       <c r="D17" s="87" t="s">
@@ -17347,16 +17361,16 @@
       <c r="J17" s="88"/>
       <c r="K17" s="68"/>
       <c r="L17" s="68"/>
-      <c r="M17" s="149"/>
-    </row>
-    <row r="18" spans="1:13" ht="66">
-      <c r="A18" s="195" t="s">
+      <c r="M17" s="146"/>
+    </row>
+    <row r="18" spans="1:13" ht="51">
+      <c r="A18" s="205" t="s">
         <v>1156</v>
       </c>
       <c r="B18" s="86" t="s">
         <v>473</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="131" t="s">
         <v>1157</v>
       </c>
       <c r="D18" s="87" t="s">
@@ -17383,15 +17397,15 @@
       <c r="K18" s="66" t="s">
         <v>1162</v>
       </c>
-      <c r="L18" s="147" t="s">
+      <c r="L18" s="144" t="s">
         <v>955</v>
       </c>
-      <c r="M18" s="151" t="s">
+      <c r="M18" s="148" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="195"/>
+      <c r="A19" s="205"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -17404,19 +17418,19 @@
       <c r="K19" s="66" t="s">
         <v>1164</v>
       </c>
-      <c r="L19" s="147" t="s">
+      <c r="L19" s="144" t="s">
         <v>1056</v>
       </c>
-      <c r="M19" s="151" t="s">
+      <c r="M19" s="148" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="66">
-      <c r="A20" s="195"/>
+    <row r="20" spans="1:13" ht="58.5">
+      <c r="A20" s="205"/>
       <c r="B20" s="86" t="s">
         <v>482</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="131" t="s">
         <v>1165</v>
       </c>
       <c r="D20" s="87" t="s">
@@ -17437,128 +17451,128 @@
       <c r="I20" s="86" t="s">
         <v>1122</v>
       </c>
-      <c r="J20" s="148" t="s">
+      <c r="J20" s="145" t="s">
         <v>1169</v>
       </c>
-      <c r="K20" s="140" t="s">
+      <c r="K20" s="137" t="s">
         <v>1170</v>
       </c>
       <c r="L20" s="66" t="s">
         <v>1171</v>
       </c>
-      <c r="M20" s="150" t="s">
+      <c r="M20" s="147" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5">
-      <c r="A21" s="195"/>
+    <row r="21" spans="1:13" ht="19.5">
+      <c r="A21" s="205"/>
       <c r="B21" s="86"/>
-      <c r="C21" s="134"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="87"/>
       <c r="E21" s="88"/>
       <c r="F21" s="86"/>
       <c r="G21" s="89"/>
       <c r="H21" s="86"/>
       <c r="I21" s="86"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="140" t="s">
+      <c r="J21" s="145"/>
+      <c r="K21" s="137" t="s">
         <v>1173</v>
       </c>
       <c r="L21" s="66" t="s">
         <v>1174</v>
       </c>
-      <c r="M21" s="150" t="s">
+      <c r="M21" s="147" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5">
-      <c r="A22" s="195"/>
+    <row r="22" spans="1:13" ht="19.5">
+      <c r="A22" s="205"/>
       <c r="B22" s="86"/>
-      <c r="C22" s="134"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="87"/>
       <c r="E22" s="88"/>
       <c r="F22" s="86"/>
       <c r="G22" s="89"/>
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="140" t="s">
+      <c r="J22" s="145"/>
+      <c r="K22" s="137" t="s">
         <v>1176</v>
       </c>
       <c r="L22" s="66" t="s">
         <v>1177</v>
       </c>
-      <c r="M22" s="150" t="s">
+      <c r="M22" s="147" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
-      <c r="A23" s="195"/>
+    <row r="23" spans="1:13" ht="19.5">
+      <c r="A23" s="205"/>
       <c r="B23" s="86"/>
-      <c r="C23" s="134"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="87"/>
       <c r="E23" s="88"/>
       <c r="F23" s="86"/>
       <c r="G23" s="89"/>
       <c r="H23" s="86"/>
       <c r="I23" s="86"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="140" t="s">
+      <c r="J23" s="145"/>
+      <c r="K23" s="137" t="s">
         <v>1179</v>
       </c>
       <c r="L23" s="66" t="s">
         <v>1180</v>
       </c>
-      <c r="M23" s="150" t="s">
+      <c r="M23" s="147" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5">
-      <c r="A24" s="195"/>
+    <row r="24" spans="1:13" ht="19.5">
+      <c r="A24" s="205"/>
       <c r="B24" s="86"/>
-      <c r="C24" s="134"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="87"/>
       <c r="E24" s="88"/>
       <c r="F24" s="86"/>
       <c r="G24" s="89"/>
       <c r="H24" s="86"/>
       <c r="I24" s="86"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="140" t="s">
+      <c r="J24" s="145"/>
+      <c r="K24" s="137" t="s">
         <v>1182</v>
       </c>
       <c r="L24" s="66" t="s">
         <v>1183</v>
       </c>
-      <c r="M24" s="150" t="s">
+      <c r="M24" s="147" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5">
-      <c r="A25" s="195"/>
+    <row r="25" spans="1:13" ht="19.5">
+      <c r="A25" s="205"/>
       <c r="B25" s="86"/>
-      <c r="C25" s="134"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="87"/>
       <c r="E25" s="88"/>
       <c r="F25" s="86"/>
       <c r="G25" s="89"/>
       <c r="H25" s="86"/>
       <c r="I25" s="86"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="140" t="s">
+      <c r="J25" s="145"/>
+      <c r="K25" s="137" t="s">
         <v>1185</v>
       </c>
       <c r="L25" s="66" t="s">
         <v>1186</v>
       </c>
-      <c r="M25" s="150" t="s">
+      <c r="M25" s="147" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="99">
-      <c r="A26" s="195"/>
+    <row r="26" spans="1:13" ht="76.5">
+      <c r="A26" s="205"/>
       <c r="B26" s="86"/>
-      <c r="C26" s="134"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="87"/>
       <c r="E26" s="88"/>
       <c r="F26" s="86" t="s">
@@ -17573,21 +17587,21 @@
       <c r="I26" s="86" t="s">
         <v>1116</v>
       </c>
-      <c r="J26" s="148" t="s">
+      <c r="J26" s="145" t="s">
         <v>1191</v>
       </c>
-      <c r="K26" s="135"/>
+      <c r="K26" s="132"/>
       <c r="L26" s="68"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="1:13" ht="115.5">
-      <c r="A27" s="195" t="s">
+      <c r="M26" s="146"/>
+    </row>
+    <row r="27" spans="1:13" ht="89.25">
+      <c r="A27" s="205" t="s">
         <v>1192</v>
       </c>
       <c r="B27" s="86" t="s">
         <v>490</v>
       </c>
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="131" t="s">
         <v>1193</v>
       </c>
       <c r="D27" s="87" t="s">
@@ -17614,15 +17628,15 @@
       <c r="K27" s="68" t="s">
         <v>1162</v>
       </c>
-      <c r="L27" s="131" t="s">
+      <c r="L27" s="128" t="s">
         <v>955</v>
       </c>
-      <c r="M27" s="152" t="s">
+      <c r="M27" s="149" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="195"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -17635,19 +17649,19 @@
       <c r="K28" s="68" t="s">
         <v>1164</v>
       </c>
-      <c r="L28" s="131" t="s">
+      <c r="L28" s="128" t="s">
         <v>1056</v>
       </c>
-      <c r="M28" s="152" t="s">
+      <c r="M28" s="149" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="132">
-      <c r="A29" s="195"/>
+    <row r="29" spans="1:13" ht="102">
+      <c r="A29" s="205"/>
       <c r="B29" s="86" t="s">
         <v>499</v>
       </c>
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="131" t="s">
         <v>1198</v>
       </c>
       <c r="D29" s="67" t="s">
@@ -17669,20 +17683,20 @@
         <v>1122</v>
       </c>
       <c r="J29" s="86"/>
-      <c r="K29" s="140" t="s">
+      <c r="K29" s="137" t="s">
         <v>1204</v>
       </c>
       <c r="L29" s="66" t="s">
         <v>1205</v>
       </c>
-      <c r="M29" s="150" t="s">
+      <c r="M29" s="147" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5">
-      <c r="A30" s="195"/>
+    <row r="30" spans="1:13" ht="15.75">
+      <c r="A30" s="205"/>
       <c r="B30" s="86"/>
-      <c r="C30" s="134"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="87"/>
       <c r="E30" s="88"/>
       <c r="F30" s="86"/>
@@ -17690,20 +17704,20 @@
       <c r="H30" s="92"/>
       <c r="I30" s="92"/>
       <c r="J30" s="86"/>
-      <c r="K30" s="140" t="s">
+      <c r="K30" s="137" t="s">
         <v>1207</v>
       </c>
       <c r="L30" s="66" t="s">
         <v>1208</v>
       </c>
-      <c r="M30" s="150" t="s">
+      <c r="M30" s="147" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5">
-      <c r="A31" s="195"/>
+    <row r="31" spans="1:13" ht="15.75">
+      <c r="A31" s="205"/>
       <c r="B31" s="86"/>
-      <c r="C31" s="134"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="87"/>
       <c r="E31" s="88"/>
       <c r="F31" s="86"/>
@@ -17711,20 +17725,20 @@
       <c r="H31" s="92"/>
       <c r="I31" s="92"/>
       <c r="J31" s="86"/>
-      <c r="K31" s="140" t="s">
+      <c r="K31" s="137" t="s">
         <v>1210</v>
       </c>
       <c r="L31" s="66" t="s">
         <v>1211</v>
       </c>
-      <c r="M31" s="150" t="s">
+      <c r="M31" s="147" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5">
-      <c r="A32" s="195"/>
+    <row r="32" spans="1:13" ht="15.75">
+      <c r="A32" s="205"/>
       <c r="B32" s="86"/>
-      <c r="C32" s="134"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="87"/>
       <c r="E32" s="88"/>
       <c r="F32" s="86"/>
@@ -17732,18 +17746,18 @@
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
       <c r="J32" s="86"/>
-      <c r="K32" s="140" t="s">
+      <c r="K32" s="137" t="s">
         <v>1213</v>
       </c>
       <c r="L32" s="66" t="s">
         <v>1214</v>
       </c>
-      <c r="M32" s="150" t="s">
+      <c r="M32" s="147" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="195"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="68"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
@@ -17753,18 +17767,18 @@
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="68"/>
-      <c r="K33" s="140" t="s">
+      <c r="K33" s="137" t="s">
         <v>1216</v>
       </c>
       <c r="L33" s="66" t="s">
         <v>1217</v>
       </c>
-      <c r="M33" s="150" t="s">
+      <c r="M33" s="147" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="60">
-      <c r="A34" s="195"/>
+      <c r="A34" s="205"/>
       <c r="B34" s="68"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
@@ -17783,17 +17797,17 @@
       </c>
       <c r="J34" s="68"/>
       <c r="K34" s="68"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="152"/>
-    </row>
-    <row r="35" spans="1:13" ht="66">
-      <c r="A35" s="190" t="s">
+      <c r="L34" s="128"/>
+      <c r="M34" s="149"/>
+    </row>
+    <row r="35" spans="1:13" ht="57">
+      <c r="A35" s="200" t="s">
         <v>1223</v>
       </c>
       <c r="B35" s="86" t="s">
         <v>508</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="C35" s="131" t="s">
         <v>1224</v>
       </c>
       <c r="D35" s="87" t="s">
@@ -17820,15 +17834,15 @@
       <c r="K35" s="68" t="s">
         <v>1162</v>
       </c>
-      <c r="L35" s="131" t="s">
+      <c r="L35" s="128" t="s">
         <v>955</v>
       </c>
-      <c r="M35" s="152" t="s">
+      <c r="M35" s="149" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="191"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -17841,19 +17855,19 @@
       <c r="K36" s="68" t="s">
         <v>1164</v>
       </c>
-      <c r="L36" s="131" t="s">
+      <c r="L36" s="128" t="s">
         <v>1056</v>
       </c>
-      <c r="M36" s="152" t="s">
+      <c r="M36" s="149" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="66">
-      <c r="A37" s="191"/>
+    <row r="37" spans="1:13" ht="51">
+      <c r="A37" s="201"/>
       <c r="B37" s="86" t="s">
         <v>516</v>
       </c>
-      <c r="C37" s="134" t="s">
+      <c r="C37" s="131" t="s">
         <v>1229</v>
       </c>
       <c r="D37" s="87" t="s">
@@ -17877,20 +17891,20 @@
       <c r="J37" s="90" t="s">
         <v>1233</v>
       </c>
-      <c r="K37" s="140" t="s">
+      <c r="K37" s="137" t="s">
         <v>1234</v>
       </c>
       <c r="L37" s="66" t="s">
         <v>1235</v>
       </c>
-      <c r="M37" s="150" t="s">
+      <c r="M37" s="147" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5">
-      <c r="A38" s="191"/>
+    <row r="38" spans="1:13" ht="15.75">
+      <c r="A38" s="201"/>
       <c r="B38" s="86"/>
-      <c r="C38" s="134"/>
+      <c r="C38" s="131"/>
       <c r="D38" s="87"/>
       <c r="E38" s="88"/>
       <c r="F38" s="86"/>
@@ -17898,20 +17912,20 @@
       <c r="H38" s="86"/>
       <c r="I38" s="86"/>
       <c r="J38" s="90"/>
-      <c r="K38" s="140" t="s">
+      <c r="K38" s="137" t="s">
         <v>1237</v>
       </c>
       <c r="L38" s="66" t="s">
         <v>1238</v>
       </c>
-      <c r="M38" s="150" t="s">
+      <c r="M38" s="147" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5">
-      <c r="A39" s="191"/>
+    <row r="39" spans="1:13" ht="15.75">
+      <c r="A39" s="201"/>
       <c r="B39" s="86"/>
-      <c r="C39" s="134"/>
+      <c r="C39" s="131"/>
       <c r="D39" s="87"/>
       <c r="E39" s="88"/>
       <c r="F39" s="86"/>
@@ -17919,20 +17933,20 @@
       <c r="H39" s="86"/>
       <c r="I39" s="86"/>
       <c r="J39" s="90"/>
-      <c r="K39" s="140" t="s">
+      <c r="K39" s="137" t="s">
         <v>1240</v>
       </c>
       <c r="L39" s="66" t="s">
         <v>1241</v>
       </c>
-      <c r="M39" s="150" t="s">
+      <c r="M39" s="147" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5">
-      <c r="A40" s="191"/>
+    <row r="40" spans="1:13" ht="15.75">
+      <c r="A40" s="201"/>
       <c r="B40" s="86"/>
-      <c r="C40" s="134"/>
+      <c r="C40" s="131"/>
       <c r="D40" s="87"/>
       <c r="E40" s="88"/>
       <c r="F40" s="86"/>
@@ -17940,20 +17954,20 @@
       <c r="H40" s="86"/>
       <c r="I40" s="86"/>
       <c r="J40" s="90"/>
-      <c r="K40" s="140" t="s">
+      <c r="K40" s="137" t="s">
         <v>1243</v>
       </c>
       <c r="L40" s="66" t="s">
         <v>1244</v>
       </c>
-      <c r="M40" s="150" t="s">
+      <c r="M40" s="147" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5">
-      <c r="A41" s="191"/>
+    <row r="41" spans="1:13" ht="15.75">
+      <c r="A41" s="201"/>
       <c r="B41" s="86"/>
-      <c r="C41" s="134"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="87"/>
       <c r="E41" s="88"/>
       <c r="F41" s="86"/>
@@ -17961,20 +17975,20 @@
       <c r="H41" s="86"/>
       <c r="I41" s="86"/>
       <c r="J41" s="90"/>
-      <c r="K41" s="140" t="s">
+      <c r="K41" s="137" t="s">
         <v>1246</v>
       </c>
       <c r="L41" s="66" t="s">
         <v>1247</v>
       </c>
-      <c r="M41" s="150" t="s">
+      <c r="M41" s="147" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5">
-      <c r="A42" s="192"/>
+    <row r="42" spans="1:13" ht="15.75">
+      <c r="A42" s="202"/>
       <c r="B42" s="86"/>
-      <c r="C42" s="134"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="87"/>
       <c r="E42" s="88"/>
       <c r="F42" s="86"/>
@@ -17982,24 +17996,24 @@
       <c r="H42" s="86"/>
       <c r="I42" s="86"/>
       <c r="J42" s="90"/>
-      <c r="K42" s="140" t="s">
+      <c r="K42" s="137" t="s">
         <v>941</v>
       </c>
       <c r="L42" s="66" t="s">
         <v>942</v>
       </c>
-      <c r="M42" s="150" t="s">
+      <c r="M42" s="147" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="49.5">
-      <c r="A43" s="194" t="s">
+    <row r="43" spans="1:13" ht="56.25">
+      <c r="A43" s="204" t="s">
         <v>1249</v>
       </c>
       <c r="B43" s="86" t="s">
         <v>1250</v>
       </c>
-      <c r="C43" s="134" t="s">
+      <c r="C43" s="131" t="s">
         <v>1251</v>
       </c>
       <c r="D43" s="87" t="s">
@@ -18021,188 +18035,188 @@
         <v>1122</v>
       </c>
       <c r="J43" s="98"/>
-      <c r="K43" s="140" t="s">
+      <c r="K43" s="137" t="s">
         <v>1255</v>
       </c>
       <c r="L43" s="66" t="s">
         <v>1256</v>
       </c>
-      <c r="M43" s="150" t="s">
+      <c r="M43" s="147" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5">
-      <c r="A44" s="194"/>
+    <row r="44" spans="1:13" ht="15.75">
+      <c r="A44" s="204"/>
       <c r="B44" s="86"/>
-      <c r="C44" s="134"/>
+      <c r="C44" s="131"/>
       <c r="D44" s="87"/>
       <c r="E44" s="88"/>
       <c r="F44" s="86"/>
       <c r="G44" s="86"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
       <c r="J44" s="90"/>
-      <c r="K44" s="140" t="s">
+      <c r="K44" s="137" t="s">
         <v>1258</v>
       </c>
       <c r="L44" s="66" t="s">
         <v>1259</v>
       </c>
-      <c r="M44" s="150" t="s">
+      <c r="M44" s="147" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5">
-      <c r="A45" s="194"/>
+    <row r="45" spans="1:13" ht="15.75">
+      <c r="A45" s="204"/>
       <c r="B45" s="86"/>
-      <c r="C45" s="134"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="87"/>
       <c r="E45" s="88"/>
       <c r="F45" s="86"/>
       <c r="G45" s="86"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
       <c r="J45" s="90"/>
-      <c r="K45" s="140" t="s">
+      <c r="K45" s="137" t="s">
         <v>1261</v>
       </c>
       <c r="L45" s="66" t="s">
         <v>1262</v>
       </c>
-      <c r="M45" s="150" t="s">
+      <c r="M45" s="147" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5">
-      <c r="A46" s="194"/>
+    <row r="46" spans="1:13" ht="15.75">
+      <c r="A46" s="204"/>
       <c r="B46" s="86"/>
-      <c r="C46" s="134"/>
+      <c r="C46" s="131"/>
       <c r="D46" s="87"/>
       <c r="E46" s="88"/>
       <c r="F46" s="86"/>
       <c r="G46" s="86"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
       <c r="J46" s="90"/>
-      <c r="K46" s="140" t="s">
+      <c r="K46" s="137" t="s">
         <v>1264</v>
       </c>
       <c r="L46" s="66" t="s">
         <v>1265</v>
       </c>
-      <c r="M46" s="150" t="s">
+      <c r="M46" s="147" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5">
-      <c r="A47" s="194"/>
+    <row r="47" spans="1:13" ht="15.75">
+      <c r="A47" s="204"/>
       <c r="B47" s="86"/>
-      <c r="C47" s="134"/>
+      <c r="C47" s="131"/>
       <c r="D47" s="87"/>
       <c r="E47" s="88"/>
       <c r="F47" s="86"/>
       <c r="G47" s="86"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
+      <c r="H47" s="141"/>
+      <c r="I47" s="141"/>
       <c r="J47" s="90"/>
-      <c r="K47" s="140" t="s">
+      <c r="K47" s="137" t="s">
         <v>1267</v>
       </c>
       <c r="L47" s="66" t="s">
         <v>1268</v>
       </c>
-      <c r="M47" s="150" t="s">
+      <c r="M47" s="147" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5">
-      <c r="A48" s="194"/>
+    <row r="48" spans="1:13" ht="15.75">
+      <c r="A48" s="204"/>
       <c r="B48" s="86"/>
-      <c r="C48" s="134"/>
+      <c r="C48" s="131"/>
       <c r="D48" s="87"/>
       <c r="E48" s="88"/>
       <c r="F48" s="86"/>
       <c r="G48" s="86"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="141"/>
       <c r="J48" s="90"/>
-      <c r="K48" s="140" t="s">
+      <c r="K48" s="137" t="s">
         <v>1270</v>
       </c>
       <c r="L48" s="66" t="s">
         <v>1271</v>
       </c>
-      <c r="M48" s="150" t="s">
+      <c r="M48" s="147" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5">
-      <c r="A49" s="194"/>
+    <row r="49" spans="1:13" ht="15.75">
+      <c r="A49" s="204"/>
       <c r="B49" s="86"/>
-      <c r="C49" s="134"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="87"/>
       <c r="E49" s="88"/>
       <c r="F49" s="86"/>
       <c r="G49" s="86"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
       <c r="J49" s="90"/>
-      <c r="K49" s="140" t="s">
+      <c r="K49" s="137" t="s">
         <v>1273</v>
       </c>
       <c r="L49" s="66" t="s">
         <v>1274</v>
       </c>
-      <c r="M49" s="150" t="s">
+      <c r="M49" s="147" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5">
-      <c r="A50" s="194"/>
+    <row r="50" spans="1:13" ht="15.75">
+      <c r="A50" s="204"/>
       <c r="B50" s="86"/>
-      <c r="C50" s="134"/>
+      <c r="C50" s="131"/>
       <c r="D50" s="87"/>
       <c r="E50" s="88"/>
       <c r="F50" s="86"/>
       <c r="G50" s="86"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
       <c r="J50" s="90"/>
-      <c r="K50" s="140" t="s">
+      <c r="K50" s="137" t="s">
         <v>1276</v>
       </c>
       <c r="L50" s="66" t="s">
         <v>1277</v>
       </c>
-      <c r="M50" s="150" t="s">
+      <c r="M50" s="147" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5">
-      <c r="A51" s="194"/>
+    <row r="51" spans="1:13" ht="15.75">
+      <c r="A51" s="204"/>
       <c r="B51" s="86"/>
-      <c r="C51" s="134"/>
+      <c r="C51" s="131"/>
       <c r="D51" s="87"/>
       <c r="E51" s="88"/>
       <c r="F51" s="86"/>
       <c r="G51" s="86"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="141"/>
       <c r="J51" s="90"/>
-      <c r="K51" s="140" t="s">
+      <c r="K51" s="137" t="s">
         <v>1279</v>
       </c>
       <c r="L51" s="66" t="s">
         <v>1280</v>
       </c>
-      <c r="M51" s="150" t="s">
+      <c r="M51" s="147" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5">
-      <c r="A52" s="194"/>
+    <row r="52" spans="1:13" ht="15.75">
+      <c r="A52" s="204"/>
       <c r="B52" s="86"/>
-      <c r="C52" s="134"/>
+      <c r="C52" s="131"/>
       <c r="D52" s="87"/>
       <c r="E52" s="88"/>
       <c r="F52" s="93"/>
@@ -18210,22 +18224,22 @@
       <c r="H52" s="95"/>
       <c r="I52" s="95"/>
       <c r="J52" s="98"/>
-      <c r="K52" s="140" t="s">
+      <c r="K52" s="137" t="s">
         <v>1282</v>
       </c>
       <c r="L52" s="66" t="s">
         <v>1283</v>
       </c>
-      <c r="M52" s="150" t="s">
+      <c r="M52" s="147" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="57">
-      <c r="A53" s="194"/>
+      <c r="A53" s="204"/>
       <c r="B53" s="86" t="s">
         <v>579</v>
       </c>
-      <c r="C53" s="134" t="s">
+      <c r="C53" s="131" t="s">
         <v>1285</v>
       </c>
       <c r="D53" s="87" t="s">
@@ -18247,144 +18261,144 @@
         <v>1122</v>
       </c>
       <c r="J53" s="66"/>
-      <c r="K53" s="140" t="s">
+      <c r="K53" s="137" t="s">
         <v>1288</v>
       </c>
       <c r="L53" s="66" t="s">
         <v>1289</v>
       </c>
-      <c r="M53" s="150" t="s">
+      <c r="M53" s="147" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5">
-      <c r="A54" s="194"/>
+    <row r="54" spans="1:13" ht="15.75">
+      <c r="A54" s="204"/>
       <c r="B54" s="86"/>
-      <c r="C54" s="134"/>
+      <c r="C54" s="131"/>
       <c r="D54" s="87"/>
       <c r="E54" s="88"/>
-      <c r="F54" s="143"/>
+      <c r="F54" s="140"/>
       <c r="G54" s="91"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
       <c r="J54" s="68"/>
-      <c r="K54" s="140" t="s">
+      <c r="K54" s="137" t="s">
         <v>1291</v>
       </c>
       <c r="L54" s="66" t="s">
         <v>1292</v>
       </c>
-      <c r="M54" s="150" t="s">
+      <c r="M54" s="147" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5">
-      <c r="A55" s="194"/>
+    <row r="55" spans="1:13" ht="15.75">
+      <c r="A55" s="204"/>
       <c r="B55" s="86"/>
-      <c r="C55" s="134"/>
+      <c r="C55" s="131"/>
       <c r="D55" s="87"/>
       <c r="E55" s="88"/>
-      <c r="F55" s="143"/>
+      <c r="F55" s="140"/>
       <c r="G55" s="91"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
+      <c r="H55" s="141"/>
+      <c r="I55" s="141"/>
       <c r="J55" s="68"/>
-      <c r="K55" s="140" t="s">
+      <c r="K55" s="137" t="s">
         <v>1294</v>
       </c>
       <c r="L55" s="66" t="s">
         <v>1295</v>
       </c>
-      <c r="M55" s="150" t="s">
+      <c r="M55" s="147" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.5">
-      <c r="A56" s="194"/>
+    <row r="56" spans="1:13" ht="15.75">
+      <c r="A56" s="204"/>
       <c r="B56" s="86"/>
-      <c r="C56" s="134"/>
+      <c r="C56" s="131"/>
       <c r="D56" s="87"/>
       <c r="E56" s="88"/>
-      <c r="F56" s="143"/>
+      <c r="F56" s="140"/>
       <c r="G56" s="91"/>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
       <c r="J56" s="68"/>
-      <c r="K56" s="140" t="s">
+      <c r="K56" s="137" t="s">
         <v>1297</v>
       </c>
       <c r="L56" s="66" t="s">
         <v>1298</v>
       </c>
-      <c r="M56" s="150" t="s">
+      <c r="M56" s="147" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5">
-      <c r="A57" s="194"/>
+    <row r="57" spans="1:13" ht="15.75">
+      <c r="A57" s="204"/>
       <c r="B57" s="86"/>
-      <c r="C57" s="134"/>
+      <c r="C57" s="131"/>
       <c r="D57" s="87"/>
       <c r="E57" s="88"/>
-      <c r="F57" s="143"/>
+      <c r="F57" s="140"/>
       <c r="G57" s="91"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
       <c r="J57" s="68"/>
-      <c r="K57" s="140" t="s">
+      <c r="K57" s="137" t="s">
         <v>1300</v>
       </c>
       <c r="L57" s="66" t="s">
         <v>1301</v>
       </c>
-      <c r="M57" s="150" t="s">
+      <c r="M57" s="147" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5">
-      <c r="A58" s="194"/>
+    <row r="58" spans="1:13" ht="15.75">
+      <c r="A58" s="204"/>
       <c r="B58" s="86"/>
-      <c r="C58" s="134"/>
+      <c r="C58" s="131"/>
       <c r="D58" s="87"/>
       <c r="E58" s="88"/>
-      <c r="F58" s="143"/>
+      <c r="F58" s="140"/>
       <c r="G58" s="91"/>
-      <c r="H58" s="144"/>
-      <c r="I58" s="144"/>
+      <c r="H58" s="141"/>
+      <c r="I58" s="141"/>
       <c r="J58" s="68"/>
-      <c r="K58" s="140" t="s">
+      <c r="K58" s="137" t="s">
         <v>1303</v>
       </c>
       <c r="L58" s="66" t="s">
         <v>1304</v>
       </c>
-      <c r="M58" s="150" t="s">
+      <c r="M58" s="147" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.5">
-      <c r="A59" s="194"/>
+    <row r="59" spans="1:13" ht="15.75">
+      <c r="A59" s="204"/>
       <c r="B59" s="86"/>
-      <c r="C59" s="134"/>
+      <c r="C59" s="131"/>
       <c r="D59" s="87"/>
       <c r="E59" s="88"/>
-      <c r="F59" s="143"/>
+      <c r="F59" s="140"/>
       <c r="G59" s="91"/>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
       <c r="J59" s="68"/>
-      <c r="K59" s="140" t="s">
+      <c r="K59" s="137" t="s">
         <v>1306</v>
       </c>
       <c r="L59" s="66" t="s">
         <v>1307</v>
       </c>
-      <c r="M59" s="150" t="s">
+      <c r="M59" s="147" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="56.25">
-      <c r="A60" s="194"/>
+      <c r="A60" s="204"/>
       <c r="B60" s="68"/>
       <c r="C60" s="66" t="s">
         <v>1309</v>
@@ -18404,16 +18418,16 @@
         <v>1222</v>
       </c>
       <c r="J60" s="66"/>
-      <c r="K60" s="140"/>
+      <c r="K60" s="137"/>
       <c r="L60" s="66"/>
-      <c r="M60" s="150"/>
-    </row>
-    <row r="61" spans="1:13" ht="66">
-      <c r="A61" s="194"/>
+      <c r="M60" s="147"/>
+    </row>
+    <row r="61" spans="1:13" ht="51">
+      <c r="A61" s="204"/>
       <c r="B61" s="86" t="s">
         <v>588</v>
       </c>
-      <c r="C61" s="134" t="s">
+      <c r="C61" s="131" t="s">
         <v>1313</v>
       </c>
       <c r="D61" s="87" t="s">
@@ -18435,146 +18449,146 @@
         <v>1122</v>
       </c>
       <c r="J61" s="66"/>
-      <c r="K61" s="140" t="s">
+      <c r="K61" s="137" t="s">
         <v>1317</v>
       </c>
       <c r="L61" s="66" t="s">
         <v>1318</v>
       </c>
-      <c r="M61" s="150" t="s">
+      <c r="M61" s="147" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16.5">
-      <c r="A62" s="194"/>
+    <row r="62" spans="1:13" ht="15.75">
+      <c r="A62" s="204"/>
       <c r="B62" s="86"/>
-      <c r="C62" s="134"/>
+      <c r="C62" s="131"/>
       <c r="D62" s="87"/>
       <c r="E62" s="88"/>
       <c r="F62" s="90"/>
       <c r="G62" s="89"/>
-      <c r="H62" s="142"/>
-      <c r="I62" s="142"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
       <c r="J62" s="68"/>
-      <c r="K62" s="140" t="s">
+      <c r="K62" s="137" t="s">
         <v>1320</v>
       </c>
       <c r="L62" s="66" t="s">
         <v>1321</v>
       </c>
-      <c r="M62" s="150" t="s">
+      <c r="M62" s="147" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5">
-      <c r="A63" s="194"/>
+    <row r="63" spans="1:13" ht="15.75">
+      <c r="A63" s="204"/>
       <c r="B63" s="86"/>
-      <c r="C63" s="134"/>
+      <c r="C63" s="131"/>
       <c r="D63" s="87"/>
       <c r="E63" s="88"/>
       <c r="F63" s="90"/>
       <c r="G63" s="89"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
+      <c r="H63" s="139"/>
+      <c r="I63" s="139"/>
       <c r="J63" s="68"/>
-      <c r="K63" s="140" t="s">
+      <c r="K63" s="137" t="s">
         <v>1294</v>
       </c>
       <c r="L63" s="66" t="s">
         <v>1295</v>
       </c>
-      <c r="M63" s="150" t="s">
+      <c r="M63" s="147" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.5">
-      <c r="A64" s="194"/>
+    <row r="64" spans="1:13" ht="15.75">
+      <c r="A64" s="204"/>
       <c r="B64" s="86"/>
-      <c r="C64" s="134"/>
+      <c r="C64" s="131"/>
       <c r="D64" s="87"/>
       <c r="E64" s="88"/>
       <c r="F64" s="90"/>
       <c r="G64" s="89"/>
-      <c r="H64" s="142"/>
-      <c r="I64" s="142"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="139"/>
       <c r="J64" s="68"/>
-      <c r="K64" s="140" t="s">
+      <c r="K64" s="137" t="s">
         <v>1323</v>
       </c>
       <c r="L64" s="66" t="s">
         <v>1324</v>
       </c>
-      <c r="M64" s="150" t="s">
+      <c r="M64" s="147" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5">
-      <c r="A65" s="194"/>
+    <row r="65" spans="1:13" ht="15.75">
+      <c r="A65" s="204"/>
       <c r="B65" s="86"/>
-      <c r="C65" s="134"/>
+      <c r="C65" s="131"/>
       <c r="D65" s="87"/>
       <c r="E65" s="88"/>
       <c r="F65" s="90"/>
       <c r="G65" s="89"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="142"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="139"/>
       <c r="J65" s="68"/>
-      <c r="K65" s="140" t="s">
+      <c r="K65" s="137" t="s">
         <v>1326</v>
       </c>
       <c r="L65" s="66" t="s">
         <v>1327</v>
       </c>
-      <c r="M65" s="150" t="s">
+      <c r="M65" s="147" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5">
-      <c r="A66" s="194"/>
+    <row r="66" spans="1:13" ht="15.75">
+      <c r="A66" s="204"/>
       <c r="B66" s="86"/>
-      <c r="C66" s="134"/>
+      <c r="C66" s="131"/>
       <c r="D66" s="87"/>
       <c r="E66" s="88"/>
       <c r="F66" s="90"/>
       <c r="G66" s="89"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="142"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="139"/>
       <c r="J66" s="68"/>
-      <c r="K66" s="140" t="s">
+      <c r="K66" s="137" t="s">
         <v>1329</v>
       </c>
       <c r="L66" s="66" t="s">
         <v>1330</v>
       </c>
-      <c r="M66" s="150" t="s">
+      <c r="M66" s="147" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5">
-      <c r="A67" s="194"/>
+    <row r="67" spans="1:13" ht="15.75">
+      <c r="A67" s="204"/>
       <c r="B67" s="86"/>
-      <c r="C67" s="134"/>
+      <c r="C67" s="131"/>
       <c r="D67" s="87"/>
       <c r="E67" s="88"/>
       <c r="F67" s="90"/>
       <c r="G67" s="89"/>
-      <c r="H67" s="142"/>
-      <c r="I67" s="142"/>
+      <c r="H67" s="139"/>
+      <c r="I67" s="139"/>
       <c r="J67" s="68"/>
-      <c r="K67" s="140" t="s">
+      <c r="K67" s="137" t="s">
         <v>1332</v>
       </c>
       <c r="L67" s="66" t="s">
         <v>1333</v>
       </c>
-      <c r="M67" s="150" t="s">
+      <c r="M67" s="147" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="56.25">
-      <c r="A68" s="194"/>
+      <c r="A68" s="204"/>
       <c r="B68" s="86"/>
-      <c r="C68" s="134" t="s">
+      <c r="C68" s="131" t="s">
         <v>1335</v>
       </c>
       <c r="D68" s="87"/>
@@ -18588,18 +18602,18 @@
       <c r="H68" s="100" t="s">
         <v>1338</v>
       </c>
-      <c r="I68" s="142"/>
+      <c r="I68" s="139"/>
       <c r="J68" s="68"/>
-      <c r="K68" s="140"/>
+      <c r="K68" s="137"/>
       <c r="L68" s="66"/>
-      <c r="M68" s="150"/>
+      <c r="M68" s="147"/>
     </row>
     <row r="69" spans="1:13" ht="75">
-      <c r="A69" s="194"/>
+      <c r="A69" s="204"/>
       <c r="B69" s="86" t="s">
         <v>597</v>
       </c>
-      <c r="C69" s="134" t="s">
+      <c r="C69" s="131" t="s">
         <v>1339</v>
       </c>
       <c r="D69" s="87" t="s">
@@ -18621,20 +18635,20 @@
         <v>1122</v>
       </c>
       <c r="J69" s="66"/>
-      <c r="K69" s="140" t="s">
+      <c r="K69" s="137" t="s">
         <v>1343</v>
       </c>
       <c r="L69" s="66" t="s">
         <v>1344</v>
       </c>
-      <c r="M69" s="150" t="s">
+      <c r="M69" s="147" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5">
-      <c r="A70" s="194"/>
+    <row r="70" spans="1:13" ht="15.75">
+      <c r="A70" s="204"/>
       <c r="B70" s="86"/>
-      <c r="C70" s="134"/>
+      <c r="C70" s="131"/>
       <c r="D70" s="87"/>
       <c r="E70" s="88"/>
       <c r="F70" s="89"/>
@@ -18642,20 +18656,20 @@
       <c r="H70" s="89"/>
       <c r="I70" s="89"/>
       <c r="J70" s="68"/>
-      <c r="K70" s="140" t="s">
+      <c r="K70" s="137" t="s">
         <v>1346</v>
       </c>
       <c r="L70" s="66" t="s">
         <v>1347</v>
       </c>
-      <c r="M70" s="150" t="s">
+      <c r="M70" s="147" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16.5">
-      <c r="A71" s="194"/>
+    <row r="71" spans="1:13" ht="15.75">
+      <c r="A71" s="204"/>
       <c r="B71" s="86"/>
-      <c r="C71" s="134"/>
+      <c r="C71" s="131"/>
       <c r="D71" s="87"/>
       <c r="E71" s="88"/>
       <c r="F71" s="89"/>
@@ -18663,20 +18677,20 @@
       <c r="H71" s="89"/>
       <c r="I71" s="89"/>
       <c r="J71" s="68"/>
-      <c r="K71" s="140" t="s">
+      <c r="K71" s="137" t="s">
         <v>1349</v>
       </c>
       <c r="L71" s="66" t="s">
         <v>1350</v>
       </c>
-      <c r="M71" s="150" t="s">
+      <c r="M71" s="147" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5">
-      <c r="A72" s="194"/>
+    <row r="72" spans="1:13" ht="15.75">
+      <c r="A72" s="204"/>
       <c r="B72" s="86"/>
-      <c r="C72" s="134"/>
+      <c r="C72" s="131"/>
       <c r="D72" s="87"/>
       <c r="E72" s="88"/>
       <c r="F72" s="89"/>
@@ -18684,20 +18698,20 @@
       <c r="H72" s="89"/>
       <c r="I72" s="89"/>
       <c r="J72" s="68"/>
-      <c r="K72" s="140" t="s">
+      <c r="K72" s="137" t="s">
         <v>1352</v>
       </c>
       <c r="L72" s="66" t="s">
         <v>1353</v>
       </c>
-      <c r="M72" s="150" t="s">
+      <c r="M72" s="147" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5">
-      <c r="A73" s="194"/>
+    <row r="73" spans="1:13" ht="15.75">
+      <c r="A73" s="204"/>
       <c r="B73" s="86"/>
-      <c r="C73" s="134"/>
+      <c r="C73" s="131"/>
       <c r="D73" s="87"/>
       <c r="E73" s="88"/>
       <c r="F73" s="89"/>
@@ -18705,20 +18719,20 @@
       <c r="H73" s="89"/>
       <c r="I73" s="89"/>
       <c r="J73" s="68"/>
-      <c r="K73" s="140" t="s">
+      <c r="K73" s="137" t="s">
         <v>1297</v>
       </c>
       <c r="L73" s="66" t="s">
         <v>1298</v>
       </c>
-      <c r="M73" s="150" t="s">
+      <c r="M73" s="147" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16.5">
-      <c r="A74" s="194"/>
+    <row r="74" spans="1:13" ht="15.75">
+      <c r="A74" s="204"/>
       <c r="B74" s="86"/>
-      <c r="C74" s="134"/>
+      <c r="C74" s="131"/>
       <c r="D74" s="87"/>
       <c r="E74" s="88"/>
       <c r="F74" s="89"/>
@@ -18726,20 +18740,20 @@
       <c r="H74" s="89"/>
       <c r="I74" s="89"/>
       <c r="J74" s="68"/>
-      <c r="K74" s="140" t="s">
+      <c r="K74" s="137" t="s">
         <v>1355</v>
       </c>
       <c r="L74" s="66" t="s">
         <v>1356</v>
       </c>
-      <c r="M74" s="150" t="s">
+      <c r="M74" s="147" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.5">
-      <c r="A75" s="194"/>
+    <row r="75" spans="1:13" ht="15.75">
+      <c r="A75" s="204"/>
       <c r="B75" s="86"/>
-      <c r="C75" s="134"/>
+      <c r="C75" s="131"/>
       <c r="D75" s="87"/>
       <c r="E75" s="88"/>
       <c r="F75" s="89"/>
@@ -18747,20 +18761,20 @@
       <c r="H75" s="89"/>
       <c r="I75" s="89"/>
       <c r="J75" s="68"/>
-      <c r="K75" s="140" t="s">
+      <c r="K75" s="137" t="s">
         <v>1358</v>
       </c>
       <c r="L75" s="66" t="s">
         <v>1359</v>
       </c>
-      <c r="M75" s="150" t="s">
+      <c r="M75" s="147" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5">
-      <c r="A76" s="194"/>
+    <row r="76" spans="1:13" ht="15.75">
+      <c r="A76" s="204"/>
       <c r="B76" s="86"/>
-      <c r="C76" s="134"/>
+      <c r="C76" s="131"/>
       <c r="D76" s="87"/>
       <c r="E76" s="88"/>
       <c r="F76" s="89"/>
@@ -18768,22 +18782,22 @@
       <c r="H76" s="89"/>
       <c r="I76" s="89"/>
       <c r="J76" s="68"/>
-      <c r="K76" s="140" t="s">
+      <c r="K76" s="137" t="s">
         <v>1306</v>
       </c>
       <c r="L76" s="66" t="s">
         <v>1307</v>
       </c>
-      <c r="M76" s="150" t="s">
+      <c r="M76" s="147" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="33">
-      <c r="A77" s="194"/>
+    <row r="77" spans="1:13" ht="30">
+      <c r="A77" s="204"/>
       <c r="B77" s="86" t="s">
         <v>606</v>
       </c>
-      <c r="C77" s="134" t="s">
+      <c r="C77" s="131" t="s">
         <v>608</v>
       </c>
       <c r="D77" s="87" t="s">
@@ -18805,20 +18819,20 @@
         <v>1122</v>
       </c>
       <c r="J77" s="68"/>
-      <c r="K77" s="140" t="s">
+      <c r="K77" s="137" t="s">
         <v>1364</v>
       </c>
       <c r="L77" s="66" t="s">
         <v>1365</v>
       </c>
-      <c r="M77" s="150" t="s">
+      <c r="M77" s="147" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5">
-      <c r="A78" s="194"/>
+    <row r="78" spans="1:13" ht="15.75">
+      <c r="A78" s="204"/>
       <c r="B78" s="86"/>
-      <c r="C78" s="134"/>
+      <c r="C78" s="131"/>
       <c r="D78" s="87"/>
       <c r="E78" s="88"/>
       <c r="F78" s="89"/>
@@ -18826,22 +18840,22 @@
       <c r="H78" s="89"/>
       <c r="I78" s="89"/>
       <c r="J78" s="68"/>
-      <c r="K78" s="140" t="s">
+      <c r="K78" s="137" t="s">
         <v>1367</v>
       </c>
       <c r="L78" s="66" t="s">
         <v>1368</v>
       </c>
-      <c r="M78" s="150" t="s">
+      <c r="M78" s="147" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="60">
-      <c r="A79" s="194"/>
+      <c r="A79" s="204"/>
       <c r="B79" s="86" t="s">
         <v>614</v>
       </c>
-      <c r="C79" s="134" t="s">
+      <c r="C79" s="131" t="s">
         <v>1370</v>
       </c>
       <c r="D79" s="87" t="s">
@@ -18868,15 +18882,15 @@
       <c r="K79" s="68" t="s">
         <v>1162</v>
       </c>
-      <c r="L79" s="131" t="s">
+      <c r="L79" s="128" t="s">
         <v>955</v>
       </c>
-      <c r="M79" s="152" t="s">
+      <c r="M79" s="149" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16.5">
-      <c r="A80" s="194"/>
+    <row r="80" spans="1:13">
+      <c r="A80" s="204"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
       <c r="D80" s="87"/>
@@ -18889,19 +18903,19 @@
       <c r="K80" s="68" t="s">
         <v>1164</v>
       </c>
-      <c r="L80" s="131" t="s">
+      <c r="L80" s="128" t="s">
         <v>1056</v>
       </c>
-      <c r="M80" s="152" t="s">
+      <c r="M80" s="149" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="45">
-      <c r="A81" s="194"/>
+      <c r="A81" s="204"/>
       <c r="B81" s="86" t="s">
         <v>623</v>
       </c>
-      <c r="C81" s="134" t="s">
+      <c r="C81" s="131" t="s">
         <v>1375</v>
       </c>
       <c r="D81" s="101" t="s">
@@ -18926,19 +18940,19 @@
       <c r="K81" s="67" t="s">
         <v>1379</v>
       </c>
-      <c r="L81" s="132" t="s">
+      <c r="L81" s="129" t="s">
         <v>1380</v>
       </c>
-      <c r="M81" s="153" t="s">
+      <c r="M81" s="150" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="90">
-      <c r="A82" s="194"/>
+      <c r="A82" s="204"/>
       <c r="B82" s="86" t="s">
         <v>632</v>
       </c>
-      <c r="C82" s="134" t="s">
+      <c r="C82" s="131" t="s">
         <v>1382</v>
       </c>
       <c r="D82" s="87" t="s">
@@ -18960,20 +18974,20 @@
         <v>1374</v>
       </c>
       <c r="J82" s="68"/>
-      <c r="K82" s="135" t="s">
+      <c r="K82" s="132" t="s">
         <v>1386</v>
       </c>
       <c r="L82" s="68" t="s">
         <v>1387</v>
       </c>
-      <c r="M82" s="149" t="s">
+      <c r="M82" s="146" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16.5">
-      <c r="A83" s="194"/>
+    <row r="83" spans="1:13" ht="15.75">
+      <c r="A83" s="204"/>
       <c r="B83" s="86"/>
-      <c r="C83" s="134"/>
+      <c r="C83" s="131"/>
       <c r="D83" s="101"/>
       <c r="E83" s="88"/>
       <c r="F83" s="89"/>
@@ -18981,20 +18995,20 @@
       <c r="H83" s="89"/>
       <c r="I83" s="89"/>
       <c r="J83" s="68"/>
-      <c r="K83" s="135" t="s">
+      <c r="K83" s="132" t="s">
         <v>1389</v>
       </c>
       <c r="L83" s="68" t="s">
         <v>1390</v>
       </c>
-      <c r="M83" s="149" t="s">
+      <c r="M83" s="146" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.5">
-      <c r="A84" s="194"/>
+    <row r="84" spans="1:13" ht="15.75">
+      <c r="A84" s="204"/>
       <c r="B84" s="86"/>
-      <c r="C84" s="134"/>
+      <c r="C84" s="131"/>
       <c r="D84" s="101"/>
       <c r="E84" s="88"/>
       <c r="F84" s="89"/>
@@ -19002,20 +19016,20 @@
       <c r="H84" s="89"/>
       <c r="I84" s="89"/>
       <c r="J84" s="68"/>
-      <c r="K84" s="135" t="s">
+      <c r="K84" s="132" t="s">
         <v>1392</v>
       </c>
       <c r="L84" s="68" t="s">
         <v>1393</v>
       </c>
-      <c r="M84" s="149" t="s">
+      <c r="M84" s="146" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5">
-      <c r="A85" s="194"/>
+    <row r="85" spans="1:13" ht="15.75">
+      <c r="A85" s="204"/>
       <c r="B85" s="86"/>
-      <c r="C85" s="134"/>
+      <c r="C85" s="131"/>
       <c r="D85" s="101"/>
       <c r="E85" s="88"/>
       <c r="F85" s="89"/>
@@ -19023,20 +19037,20 @@
       <c r="H85" s="89"/>
       <c r="I85" s="89"/>
       <c r="J85" s="68"/>
-      <c r="K85" s="135" t="s">
+      <c r="K85" s="132" t="s">
         <v>1395</v>
       </c>
       <c r="L85" s="68" t="s">
         <v>1396</v>
       </c>
-      <c r="M85" s="149" t="s">
+      <c r="M85" s="146" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16.5">
-      <c r="A86" s="194"/>
+    <row r="86" spans="1:13" ht="15.75">
+      <c r="A86" s="204"/>
       <c r="B86" s="86"/>
-      <c r="C86" s="134"/>
+      <c r="C86" s="131"/>
       <c r="D86" s="101"/>
       <c r="E86" s="88"/>
       <c r="F86" s="89"/>
@@ -19044,20 +19058,20 @@
       <c r="H86" s="89"/>
       <c r="I86" s="89"/>
       <c r="J86" s="68"/>
-      <c r="K86" s="135" t="s">
+      <c r="K86" s="132" t="s">
         <v>1398</v>
       </c>
       <c r="L86" s="68" t="s">
         <v>1399</v>
       </c>
-      <c r="M86" s="149" t="s">
+      <c r="M86" s="146" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5">
-      <c r="A87" s="194"/>
+    <row r="87" spans="1:13" ht="15.75">
+      <c r="A87" s="204"/>
       <c r="B87" s="86"/>
-      <c r="C87" s="134"/>
+      <c r="C87" s="131"/>
       <c r="D87" s="101"/>
       <c r="E87" s="88"/>
       <c r="F87" s="89"/>
@@ -19065,20 +19079,20 @@
       <c r="H87" s="89"/>
       <c r="I87" s="89"/>
       <c r="J87" s="68"/>
-      <c r="K87" s="135" t="s">
+      <c r="K87" s="132" t="s">
         <v>1401</v>
       </c>
       <c r="L87" s="68" t="s">
         <v>1402</v>
       </c>
-      <c r="M87" s="149" t="s">
+      <c r="M87" s="146" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5">
-      <c r="A88" s="194"/>
+    <row r="88" spans="1:13" ht="15.75">
+      <c r="A88" s="204"/>
       <c r="B88" s="86"/>
-      <c r="C88" s="134"/>
+      <c r="C88" s="131"/>
       <c r="D88" s="101"/>
       <c r="E88" s="88"/>
       <c r="F88" s="89"/>
@@ -19086,20 +19100,20 @@
       <c r="H88" s="89"/>
       <c r="I88" s="89"/>
       <c r="J88" s="68"/>
-      <c r="K88" s="135" t="s">
+      <c r="K88" s="132" t="s">
         <v>1404</v>
       </c>
       <c r="L88" s="68" t="s">
         <v>1405</v>
       </c>
-      <c r="M88" s="149" t="s">
+      <c r="M88" s="146" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16.5">
-      <c r="A89" s="194"/>
+    <row r="89" spans="1:13" ht="15.75">
+      <c r="A89" s="204"/>
       <c r="B89" s="86"/>
-      <c r="C89" s="134"/>
+      <c r="C89" s="131"/>
       <c r="D89" s="101"/>
       <c r="E89" s="88"/>
       <c r="F89" s="89"/>
@@ -19107,20 +19121,20 @@
       <c r="H89" s="89"/>
       <c r="I89" s="89"/>
       <c r="J89" s="68"/>
-      <c r="K89" s="135" t="s">
+      <c r="K89" s="132" t="s">
         <v>1407</v>
       </c>
       <c r="L89" s="68" t="s">
         <v>1408</v>
       </c>
-      <c r="M89" s="149" t="s">
+      <c r="M89" s="146" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5">
-      <c r="A90" s="194"/>
+    <row r="90" spans="1:13" ht="15.75">
+      <c r="A90" s="204"/>
       <c r="B90" s="86"/>
-      <c r="C90" s="134"/>
+      <c r="C90" s="131"/>
       <c r="D90" s="101"/>
       <c r="E90" s="88"/>
       <c r="F90" s="89"/>
@@ -19128,20 +19142,20 @@
       <c r="H90" s="89"/>
       <c r="I90" s="89"/>
       <c r="J90" s="68"/>
-      <c r="K90" s="135" t="s">
+      <c r="K90" s="132" t="s">
         <v>1410</v>
       </c>
       <c r="L90" s="68" t="s">
         <v>1411</v>
       </c>
-      <c r="M90" s="149" t="s">
+      <c r="M90" s="146" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5">
-      <c r="A91" s="194"/>
+    <row r="91" spans="1:13" ht="15.75">
+      <c r="A91" s="204"/>
       <c r="B91" s="86"/>
-      <c r="C91" s="134"/>
+      <c r="C91" s="131"/>
       <c r="D91" s="101"/>
       <c r="E91" s="88"/>
       <c r="F91" s="89"/>
@@ -19149,20 +19163,20 @@
       <c r="H91" s="89"/>
       <c r="I91" s="89"/>
       <c r="J91" s="68"/>
-      <c r="K91" s="135" t="s">
+      <c r="K91" s="132" t="s">
         <v>1413</v>
       </c>
       <c r="L91" s="68" t="s">
         <v>1414</v>
       </c>
-      <c r="M91" s="149" t="s">
+      <c r="M91" s="146" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16.5">
-      <c r="A92" s="194"/>
+    <row r="92" spans="1:13" ht="15.75">
+      <c r="A92" s="204"/>
       <c r="B92" s="86"/>
-      <c r="C92" s="134"/>
+      <c r="C92" s="131"/>
       <c r="D92" s="101"/>
       <c r="E92" s="88"/>
       <c r="F92" s="89"/>
@@ -19170,22 +19184,22 @@
       <c r="H92" s="89"/>
       <c r="I92" s="89"/>
       <c r="J92" s="68"/>
-      <c r="K92" s="135" t="s">
+      <c r="K92" s="132" t="s">
         <v>1416</v>
       </c>
       <c r="L92" s="68" t="s">
         <v>1417</v>
       </c>
-      <c r="M92" s="149" t="s">
+      <c r="M92" s="146" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="75">
-      <c r="A93" s="194"/>
+      <c r="A93" s="204"/>
       <c r="B93" s="86" t="s">
         <v>641</v>
       </c>
-      <c r="C93" s="134" t="s">
+      <c r="C93" s="131" t="s">
         <v>1419</v>
       </c>
       <c r="D93" s="101" t="s">
@@ -19212,15 +19226,15 @@
       <c r="K93" s="68" t="s">
         <v>1162</v>
       </c>
-      <c r="L93" s="131" t="s">
+      <c r="L93" s="128" t="s">
         <v>955</v>
       </c>
-      <c r="M93" s="152" t="s">
+      <c r="M93" s="149" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="194"/>
+      <c r="A94" s="204"/>
       <c r="B94" s="68"/>
       <c r="C94" s="68"/>
       <c r="D94" s="68"/>
@@ -19233,19 +19247,19 @@
       <c r="K94" s="68" t="s">
         <v>1423</v>
       </c>
-      <c r="L94" s="131" t="s">
+      <c r="L94" s="128" t="s">
         <v>1056</v>
       </c>
-      <c r="M94" s="152" t="s">
+      <c r="M94" s="149" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="120">
-      <c r="A95" s="194"/>
+      <c r="A95" s="204"/>
       <c r="B95" s="86" t="s">
         <v>649</v>
       </c>
-      <c r="C95" s="134" t="s">
+      <c r="C95" s="131" t="s">
         <v>1424</v>
       </c>
       <c r="D95" s="101" t="s">
@@ -19267,20 +19281,20 @@
         <v>1122</v>
       </c>
       <c r="J95" s="66"/>
-      <c r="K95" s="140" t="s">
+      <c r="K95" s="137" t="s">
         <v>1033</v>
       </c>
       <c r="L95" s="66" t="s">
         <v>1067</v>
       </c>
-      <c r="M95" s="150" t="s">
+      <c r="M95" s="147" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16.5">
-      <c r="A96" s="194"/>
+    <row r="96" spans="1:13" ht="15.75">
+      <c r="A96" s="204"/>
       <c r="B96" s="86"/>
-      <c r="C96" s="134"/>
+      <c r="C96" s="131"/>
       <c r="D96" s="101"/>
       <c r="E96" s="88"/>
       <c r="F96" s="89"/>
@@ -19288,20 +19302,20 @@
       <c r="H96" s="89"/>
       <c r="I96" s="89"/>
       <c r="J96" s="68"/>
-      <c r="K96" s="140" t="s">
+      <c r="K96" s="137" t="s">
         <v>1428</v>
       </c>
       <c r="L96" s="66" t="s">
         <v>1429</v>
       </c>
-      <c r="M96" s="150" t="s">
+      <c r="M96" s="147" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16.5">
-      <c r="A97" s="194"/>
+    <row r="97" spans="1:13" ht="15.75">
+      <c r="A97" s="204"/>
       <c r="B97" s="86"/>
-      <c r="C97" s="134"/>
+      <c r="C97" s="131"/>
       <c r="D97" s="101"/>
       <c r="E97" s="88"/>
       <c r="F97" s="89"/>
@@ -19309,20 +19323,20 @@
       <c r="H97" s="89"/>
       <c r="I97" s="89"/>
       <c r="J97" s="68"/>
-      <c r="K97" s="140" t="s">
+      <c r="K97" s="137" t="s">
         <v>1431</v>
       </c>
       <c r="L97" s="66" t="s">
         <v>1432</v>
       </c>
-      <c r="M97" s="150" t="s">
+      <c r="M97" s="147" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="16.5">
-      <c r="A98" s="194"/>
+    <row r="98" spans="1:13" ht="15.75">
+      <c r="A98" s="204"/>
       <c r="B98" s="86"/>
-      <c r="C98" s="134"/>
+      <c r="C98" s="131"/>
       <c r="D98" s="101"/>
       <c r="E98" s="88"/>
       <c r="F98" s="89"/>
@@ -19330,20 +19344,20 @@
       <c r="H98" s="89"/>
       <c r="I98" s="89"/>
       <c r="J98" s="68"/>
-      <c r="K98" s="140" t="s">
+      <c r="K98" s="137" t="s">
         <v>1434</v>
       </c>
       <c r="L98" s="66" t="s">
         <v>1435</v>
       </c>
-      <c r="M98" s="150" t="s">
+      <c r="M98" s="147" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5">
-      <c r="A99" s="194"/>
+    <row r="99" spans="1:13" ht="15.75">
+      <c r="A99" s="204"/>
       <c r="B99" s="86"/>
-      <c r="C99" s="134"/>
+      <c r="C99" s="131"/>
       <c r="D99" s="101"/>
       <c r="E99" s="88"/>
       <c r="F99" s="89"/>
@@ -19351,20 +19365,20 @@
       <c r="H99" s="89"/>
       <c r="I99" s="89"/>
       <c r="J99" s="68"/>
-      <c r="K99" s="140" t="s">
+      <c r="K99" s="137" t="s">
         <v>1437</v>
       </c>
       <c r="L99" s="66" t="s">
         <v>1438</v>
       </c>
-      <c r="M99" s="150" t="s">
+      <c r="M99" s="147" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.5">
-      <c r="A100" s="194"/>
+    <row r="100" spans="1:13" ht="15.75">
+      <c r="A100" s="204"/>
       <c r="B100" s="86"/>
-      <c r="C100" s="134"/>
+      <c r="C100" s="131"/>
       <c r="D100" s="101"/>
       <c r="E100" s="88"/>
       <c r="F100" s="89"/>
@@ -19372,22 +19386,22 @@
       <c r="H100" s="89"/>
       <c r="I100" s="89"/>
       <c r="J100" s="68"/>
-      <c r="K100" s="140" t="s">
+      <c r="K100" s="137" t="s">
         <v>1440</v>
       </c>
       <c r="L100" s="66" t="s">
         <v>1441</v>
       </c>
-      <c r="M100" s="150" t="s">
+      <c r="M100" s="147" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="120">
-      <c r="A101" s="194"/>
+      <c r="A101" s="204"/>
       <c r="B101" s="86" t="s">
         <v>658</v>
       </c>
-      <c r="C101" s="134" t="s">
+      <c r="C101" s="131" t="s">
         <v>660</v>
       </c>
       <c r="D101" s="101" t="s">
@@ -19409,20 +19423,20 @@
         <v>1446</v>
       </c>
       <c r="J101" s="66"/>
-      <c r="K101" s="140" t="s">
+      <c r="K101" s="137" t="s">
         <v>1447</v>
       </c>
       <c r="L101" s="66" t="s">
         <v>1448</v>
       </c>
-      <c r="M101" s="150" t="s">
+      <c r="M101" s="147" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.5">
-      <c r="A102" s="194"/>
+    <row r="102" spans="1:13" ht="15.75">
+      <c r="A102" s="204"/>
       <c r="B102" s="86"/>
-      <c r="C102" s="134"/>
+      <c r="C102" s="131"/>
       <c r="D102" s="101"/>
       <c r="E102" s="88"/>
       <c r="F102" s="89"/>
@@ -19430,20 +19444,20 @@
       <c r="H102" s="89"/>
       <c r="I102" s="89"/>
       <c r="J102" s="68"/>
-      <c r="K102" s="140" t="s">
+      <c r="K102" s="137" t="s">
         <v>1450</v>
       </c>
       <c r="L102" s="66" t="s">
         <v>1451</v>
       </c>
-      <c r="M102" s="150" t="s">
+      <c r="M102" s="147" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16.5">
-      <c r="A103" s="194"/>
+    <row r="103" spans="1:13" ht="15.75">
+      <c r="A103" s="204"/>
       <c r="B103" s="86"/>
-      <c r="C103" s="134"/>
+      <c r="C103" s="131"/>
       <c r="D103" s="101"/>
       <c r="E103" s="88"/>
       <c r="F103" s="89"/>
@@ -19451,20 +19465,20 @@
       <c r="H103" s="89"/>
       <c r="I103" s="89"/>
       <c r="J103" s="68"/>
-      <c r="K103" s="140" t="s">
+      <c r="K103" s="137" t="s">
         <v>1453</v>
       </c>
       <c r="L103" s="66" t="s">
         <v>1454</v>
       </c>
-      <c r="M103" s="150" t="s">
+      <c r="M103" s="147" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="16.5">
-      <c r="A104" s="194"/>
+    <row r="104" spans="1:13" ht="15.75">
+      <c r="A104" s="204"/>
       <c r="B104" s="86"/>
-      <c r="C104" s="134"/>
+      <c r="C104" s="131"/>
       <c r="D104" s="101"/>
       <c r="E104" s="88"/>
       <c r="F104" s="89"/>
@@ -19472,20 +19486,20 @@
       <c r="H104" s="89"/>
       <c r="I104" s="89"/>
       <c r="J104" s="68"/>
-      <c r="K104" s="140" t="s">
+      <c r="K104" s="137" t="s">
         <v>1456</v>
       </c>
       <c r="L104" s="66" t="s">
         <v>1457</v>
       </c>
-      <c r="M104" s="150" t="s">
+      <c r="M104" s="147" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16.5">
-      <c r="A105" s="194"/>
+    <row r="105" spans="1:13" ht="15.75">
+      <c r="A105" s="204"/>
       <c r="B105" s="86"/>
-      <c r="C105" s="134"/>
+      <c r="C105" s="131"/>
       <c r="D105" s="101"/>
       <c r="E105" s="88"/>
       <c r="F105" s="89"/>
@@ -19493,20 +19507,20 @@
       <c r="H105" s="89"/>
       <c r="I105" s="89"/>
       <c r="J105" s="68"/>
-      <c r="K105" s="140" t="s">
+      <c r="K105" s="137" t="s">
         <v>1459</v>
       </c>
       <c r="L105" s="66" t="s">
         <v>1460</v>
       </c>
-      <c r="M105" s="150" t="s">
+      <c r="M105" s="147" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.5">
-      <c r="A106" s="194"/>
+    <row r="106" spans="1:13" ht="15.75">
+      <c r="A106" s="204"/>
       <c r="B106" s="86"/>
-      <c r="C106" s="134"/>
+      <c r="C106" s="131"/>
       <c r="D106" s="101"/>
       <c r="E106" s="88"/>
       <c r="F106" s="89"/>
@@ -19514,20 +19528,20 @@
       <c r="H106" s="89"/>
       <c r="I106" s="89"/>
       <c r="J106" s="68"/>
-      <c r="K106" s="140" t="s">
+      <c r="K106" s="137" t="s">
         <v>1462</v>
       </c>
       <c r="L106" s="66" t="s">
         <v>1463</v>
       </c>
-      <c r="M106" s="150" t="s">
+      <c r="M106" s="147" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16.5">
-      <c r="A107" s="194"/>
+    <row r="107" spans="1:13" ht="15.75">
+      <c r="A107" s="204"/>
       <c r="B107" s="86"/>
-      <c r="C107" s="134"/>
+      <c r="C107" s="131"/>
       <c r="D107" s="101"/>
       <c r="E107" s="88"/>
       <c r="F107" s="89"/>
@@ -19535,20 +19549,20 @@
       <c r="H107" s="89"/>
       <c r="I107" s="89"/>
       <c r="J107" s="68"/>
-      <c r="K107" s="140" t="s">
+      <c r="K107" s="137" t="s">
         <v>1465</v>
       </c>
       <c r="L107" s="66" t="s">
         <v>1466</v>
       </c>
-      <c r="M107" s="150" t="s">
+      <c r="M107" s="147" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16.5">
-      <c r="A108" s="194"/>
+    <row r="108" spans="1:13" ht="15.75">
+      <c r="A108" s="204"/>
       <c r="B108" s="86"/>
-      <c r="C108" s="134"/>
+      <c r="C108" s="131"/>
       <c r="D108" s="101"/>
       <c r="E108" s="88"/>
       <c r="F108" s="89"/>
@@ -19556,20 +19570,20 @@
       <c r="H108" s="89"/>
       <c r="I108" s="89"/>
       <c r="J108" s="68"/>
-      <c r="K108" s="140" t="s">
+      <c r="K108" s="137" t="s">
         <v>1468</v>
       </c>
       <c r="L108" s="66" t="s">
         <v>1469</v>
       </c>
-      <c r="M108" s="150" t="s">
+      <c r="M108" s="147" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16.5">
-      <c r="A109" s="194"/>
+    <row r="109" spans="1:13" ht="15.75">
+      <c r="A109" s="204"/>
       <c r="B109" s="86"/>
-      <c r="C109" s="134"/>
+      <c r="C109" s="131"/>
       <c r="D109" s="101"/>
       <c r="E109" s="88"/>
       <c r="F109" s="89"/>
@@ -19577,20 +19591,20 @@
       <c r="H109" s="89"/>
       <c r="I109" s="89"/>
       <c r="J109" s="68"/>
-      <c r="K109" s="140" t="s">
+      <c r="K109" s="137" t="s">
         <v>1471</v>
       </c>
       <c r="L109" s="66" t="s">
         <v>1472</v>
       </c>
-      <c r="M109" s="150" t="s">
+      <c r="M109" s="147" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.5">
-      <c r="A110" s="194"/>
+    <row r="110" spans="1:13" ht="15.75">
+      <c r="A110" s="204"/>
       <c r="B110" s="86"/>
-      <c r="C110" s="134"/>
+      <c r="C110" s="131"/>
       <c r="D110" s="101"/>
       <c r="E110" s="88"/>
       <c r="F110" s="89"/>
@@ -19598,20 +19612,20 @@
       <c r="H110" s="89"/>
       <c r="I110" s="89"/>
       <c r="J110" s="68"/>
-      <c r="K110" s="140" t="s">
+      <c r="K110" s="137" t="s">
         <v>1474</v>
       </c>
       <c r="L110" s="66" t="s">
         <v>1475</v>
       </c>
-      <c r="M110" s="150" t="s">
+      <c r="M110" s="147" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16.5">
-      <c r="A111" s="194"/>
+    <row r="111" spans="1:13" ht="15.75">
+      <c r="A111" s="204"/>
       <c r="B111" s="86"/>
-      <c r="C111" s="134"/>
+      <c r="C111" s="131"/>
       <c r="D111" s="101"/>
       <c r="E111" s="88"/>
       <c r="F111" s="89"/>
@@ -19619,20 +19633,20 @@
       <c r="H111" s="89"/>
       <c r="I111" s="89"/>
       <c r="J111" s="68"/>
-      <c r="K111" s="140" t="s">
+      <c r="K111" s="137" t="s">
         <v>1477</v>
       </c>
       <c r="L111" s="66" t="s">
         <v>1478</v>
       </c>
-      <c r="M111" s="150" t="s">
+      <c r="M111" s="147" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16.5">
-      <c r="A112" s="194"/>
+    <row r="112" spans="1:13" ht="15.75">
+      <c r="A112" s="204"/>
       <c r="B112" s="86"/>
-      <c r="C112" s="134"/>
+      <c r="C112" s="131"/>
       <c r="D112" s="101"/>
       <c r="E112" s="88"/>
       <c r="F112" s="89"/>
@@ -19640,20 +19654,20 @@
       <c r="H112" s="89"/>
       <c r="I112" s="89"/>
       <c r="J112" s="68"/>
-      <c r="K112" s="140" t="s">
+      <c r="K112" s="137" t="s">
         <v>1480</v>
       </c>
       <c r="L112" s="66" t="s">
         <v>1481</v>
       </c>
-      <c r="M112" s="150" t="s">
+      <c r="M112" s="147" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.5">
-      <c r="A113" s="194"/>
+    <row r="113" spans="1:13" ht="15.75">
+      <c r="A113" s="204"/>
       <c r="B113" s="86"/>
-      <c r="C113" s="134"/>
+      <c r="C113" s="131"/>
       <c r="D113" s="101"/>
       <c r="E113" s="88"/>
       <c r="F113" s="89"/>
@@ -19661,22 +19675,22 @@
       <c r="H113" s="89"/>
       <c r="I113" s="89"/>
       <c r="J113" s="68"/>
-      <c r="K113" s="140" t="s">
+      <c r="K113" s="137" t="s">
         <v>1483</v>
       </c>
       <c r="L113" s="66" t="s">
         <v>1484</v>
       </c>
-      <c r="M113" s="150" t="s">
+      <c r="M113" s="147" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="60">
-      <c r="A114" s="194"/>
+      <c r="A114" s="204"/>
       <c r="B114" s="86" t="s">
         <v>668</v>
       </c>
-      <c r="C114" s="134" t="s">
+      <c r="C114" s="131" t="s">
         <v>670</v>
       </c>
       <c r="D114" s="101" t="s">
@@ -19698,20 +19712,20 @@
         <v>1122</v>
       </c>
       <c r="J114" s="66"/>
-      <c r="K114" s="140" t="s">
+      <c r="K114" s="137" t="s">
         <v>1489</v>
       </c>
       <c r="L114" s="66" t="s">
         <v>1490</v>
       </c>
-      <c r="M114" s="150" t="s">
+      <c r="M114" s="147" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16.5">
-      <c r="A115" s="194"/>
+    <row r="115" spans="1:13" ht="15.75">
+      <c r="A115" s="204"/>
       <c r="B115" s="86"/>
-      <c r="C115" s="134"/>
+      <c r="C115" s="131"/>
       <c r="D115" s="101"/>
       <c r="E115" s="88"/>
       <c r="F115" s="89"/>
@@ -19719,20 +19733,20 @@
       <c r="H115" s="89"/>
       <c r="I115" s="89"/>
       <c r="J115" s="68"/>
-      <c r="K115" s="140" t="s">
+      <c r="K115" s="137" t="s">
         <v>1492</v>
       </c>
       <c r="L115" s="66" t="s">
         <v>1493</v>
       </c>
-      <c r="M115" s="150" t="s">
+      <c r="M115" s="147" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16.5">
-      <c r="A116" s="194"/>
+    <row r="116" spans="1:13" ht="15.75">
+      <c r="A116" s="204"/>
       <c r="B116" s="86"/>
-      <c r="C116" s="134"/>
+      <c r="C116" s="131"/>
       <c r="D116" s="101"/>
       <c r="E116" s="88"/>
       <c r="F116" s="89"/>
@@ -19740,20 +19754,20 @@
       <c r="H116" s="89"/>
       <c r="I116" s="89"/>
       <c r="J116" s="68"/>
-      <c r="K116" s="140" t="s">
+      <c r="K116" s="137" t="s">
         <v>1495</v>
       </c>
       <c r="L116" s="66" t="s">
         <v>1496</v>
       </c>
-      <c r="M116" s="150" t="s">
+      <c r="M116" s="147" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="16.5">
-      <c r="A117" s="194"/>
+    <row r="117" spans="1:13" ht="15.75">
+      <c r="A117" s="204"/>
       <c r="B117" s="86"/>
-      <c r="C117" s="134"/>
+      <c r="C117" s="131"/>
       <c r="D117" s="101"/>
       <c r="E117" s="88"/>
       <c r="F117" s="89"/>
@@ -19761,20 +19775,20 @@
       <c r="H117" s="89"/>
       <c r="I117" s="89"/>
       <c r="J117" s="68"/>
-      <c r="K117" s="140" t="s">
+      <c r="K117" s="137" t="s">
         <v>1498</v>
       </c>
       <c r="L117" s="66" t="s">
         <v>1499</v>
       </c>
-      <c r="M117" s="150" t="s">
+      <c r="M117" s="147" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16.5">
-      <c r="A118" s="194"/>
+    <row r="118" spans="1:13" ht="15.75">
+      <c r="A118" s="204"/>
       <c r="B118" s="86"/>
-      <c r="C118" s="134"/>
+      <c r="C118" s="131"/>
       <c r="D118" s="101"/>
       <c r="E118" s="88"/>
       <c r="F118" s="89"/>
@@ -19782,22 +19796,22 @@
       <c r="H118" s="89"/>
       <c r="I118" s="89"/>
       <c r="J118" s="68"/>
-      <c r="K118" s="140" t="s">
+      <c r="K118" s="137" t="s">
         <v>1501</v>
       </c>
       <c r="L118" s="66" t="s">
         <v>1502</v>
       </c>
-      <c r="M118" s="150" t="s">
+      <c r="M118" s="147" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="60">
-      <c r="A119" s="194"/>
+      <c r="A119" s="204"/>
       <c r="B119" s="86" t="s">
         <v>678</v>
       </c>
-      <c r="C119" s="134" t="s">
+      <c r="C119" s="131" t="s">
         <v>680</v>
       </c>
       <c r="D119" s="87" t="s">
@@ -19819,20 +19833,20 @@
         <v>1122</v>
       </c>
       <c r="J119" s="66"/>
-      <c r="K119" s="140" t="s">
+      <c r="K119" s="137" t="s">
         <v>1506</v>
       </c>
       <c r="L119" s="66" t="s">
         <v>1507</v>
       </c>
-      <c r="M119" s="150" t="s">
+      <c r="M119" s="147" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16.5">
-      <c r="A120" s="194"/>
+    <row r="120" spans="1:13" ht="15.75">
+      <c r="A120" s="204"/>
       <c r="B120" s="86"/>
-      <c r="C120" s="134"/>
+      <c r="C120" s="131"/>
       <c r="D120" s="87"/>
       <c r="E120" s="88"/>
       <c r="F120" s="89"/>
@@ -19840,20 +19854,20 @@
       <c r="H120" s="89"/>
       <c r="I120" s="89"/>
       <c r="J120" s="68"/>
-      <c r="K120" s="140" t="s">
+      <c r="K120" s="137" t="s">
         <v>1509</v>
       </c>
       <c r="L120" s="66" t="s">
         <v>1510</v>
       </c>
-      <c r="M120" s="150" t="s">
+      <c r="M120" s="147" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16.5">
-      <c r="A121" s="194"/>
+    <row r="121" spans="1:13" ht="15.75">
+      <c r="A121" s="204"/>
       <c r="B121" s="86"/>
-      <c r="C121" s="134"/>
+      <c r="C121" s="131"/>
       <c r="D121" s="87"/>
       <c r="E121" s="88"/>
       <c r="F121" s="89"/>
@@ -19861,20 +19875,20 @@
       <c r="H121" s="89"/>
       <c r="I121" s="89"/>
       <c r="J121" s="68"/>
-      <c r="K121" s="140" t="s">
+      <c r="K121" s="137" t="s">
         <v>1512</v>
       </c>
       <c r="L121" s="66" t="s">
         <v>1513</v>
       </c>
-      <c r="M121" s="150" t="s">
+      <c r="M121" s="147" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16.5">
-      <c r="A122" s="194"/>
+    <row r="122" spans="1:13" ht="15.75">
+      <c r="A122" s="204"/>
       <c r="B122" s="86"/>
-      <c r="C122" s="134"/>
+      <c r="C122" s="131"/>
       <c r="D122" s="87"/>
       <c r="E122" s="88"/>
       <c r="F122" s="89"/>
@@ -19882,20 +19896,20 @@
       <c r="H122" s="89"/>
       <c r="I122" s="89"/>
       <c r="J122" s="68"/>
-      <c r="K122" s="140" t="s">
+      <c r="K122" s="137" t="s">
         <v>1515</v>
       </c>
       <c r="L122" s="66" t="s">
         <v>1516</v>
       </c>
-      <c r="M122" s="150" t="s">
+      <c r="M122" s="147" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="16.5">
-      <c r="A123" s="194"/>
+    <row r="123" spans="1:13" ht="15.75">
+      <c r="A123" s="204"/>
       <c r="B123" s="86"/>
-      <c r="C123" s="134"/>
+      <c r="C123" s="131"/>
       <c r="D123" s="87"/>
       <c r="E123" s="88"/>
       <c r="F123" s="89"/>
@@ -19903,20 +19917,20 @@
       <c r="H123" s="89"/>
       <c r="I123" s="89"/>
       <c r="J123" s="68"/>
-      <c r="K123" s="140" t="s">
+      <c r="K123" s="137" t="s">
         <v>1518</v>
       </c>
       <c r="L123" s="66" t="s">
         <v>1519</v>
       </c>
-      <c r="M123" s="150" t="s">
+      <c r="M123" s="147" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16.5">
-      <c r="A124" s="194"/>
+    <row r="124" spans="1:13" ht="15.75">
+      <c r="A124" s="204"/>
       <c r="B124" s="86"/>
-      <c r="C124" s="134"/>
+      <c r="C124" s="131"/>
       <c r="D124" s="87"/>
       <c r="E124" s="88"/>
       <c r="F124" s="89"/>
@@ -19924,20 +19938,20 @@
       <c r="H124" s="89"/>
       <c r="I124" s="89"/>
       <c r="J124" s="68"/>
-      <c r="K124" s="140" t="s">
+      <c r="K124" s="137" t="s">
         <v>1521</v>
       </c>
       <c r="L124" s="66" t="s">
         <v>1522</v>
       </c>
-      <c r="M124" s="150" t="s">
+      <c r="M124" s="147" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16.5">
-      <c r="A125" s="194"/>
+    <row r="125" spans="1:13" ht="15.75">
+      <c r="A125" s="204"/>
       <c r="B125" s="86"/>
-      <c r="C125" s="134"/>
+      <c r="C125" s="131"/>
       <c r="D125" s="87"/>
       <c r="E125" s="88"/>
       <c r="F125" s="89"/>
@@ -19945,20 +19959,20 @@
       <c r="H125" s="89"/>
       <c r="I125" s="89"/>
       <c r="J125" s="68"/>
-      <c r="K125" s="140" t="s">
+      <c r="K125" s="137" t="s">
         <v>1524</v>
       </c>
       <c r="L125" s="66" t="s">
         <v>1525</v>
       </c>
-      <c r="M125" s="150" t="s">
+      <c r="M125" s="147" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="16.5">
-      <c r="A126" s="194"/>
+    <row r="126" spans="1:13" ht="15.75">
+      <c r="A126" s="204"/>
       <c r="B126" s="86"/>
-      <c r="C126" s="134"/>
+      <c r="C126" s="131"/>
       <c r="D126" s="87"/>
       <c r="E126" s="88"/>
       <c r="F126" s="89"/>
@@ -19966,22 +19980,22 @@
       <c r="H126" s="89"/>
       <c r="I126" s="89"/>
       <c r="J126" s="68"/>
-      <c r="K126" s="140" t="s">
+      <c r="K126" s="137" t="s">
         <v>1527</v>
       </c>
       <c r="L126" s="66" t="s">
         <v>1528</v>
       </c>
-      <c r="M126" s="150" t="s">
+      <c r="M126" s="147" t="s">
         <v>1529</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="60">
-      <c r="A127" s="194"/>
+      <c r="A127" s="204"/>
       <c r="B127" s="86" t="s">
         <v>687</v>
       </c>
-      <c r="C127" s="134" t="s">
+      <c r="C127" s="131" t="s">
         <v>1530</v>
       </c>
       <c r="D127" s="87" t="s">
@@ -20003,20 +20017,20 @@
         <v>1122</v>
       </c>
       <c r="J127" s="68"/>
-      <c r="K127" s="140" t="s">
+      <c r="K127" s="137" t="s">
         <v>1534</v>
       </c>
       <c r="L127" s="66" t="s">
         <v>1535</v>
       </c>
-      <c r="M127" s="150" t="s">
+      <c r="M127" s="147" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16.5">
-      <c r="A128" s="194"/>
+    <row r="128" spans="1:13" ht="15.75">
+      <c r="A128" s="204"/>
       <c r="B128" s="86"/>
-      <c r="C128" s="134"/>
+      <c r="C128" s="131"/>
       <c r="D128" s="87"/>
       <c r="E128" s="88"/>
       <c r="F128" s="89"/>
@@ -20024,20 +20038,20 @@
       <c r="H128" s="89"/>
       <c r="I128" s="89"/>
       <c r="J128" s="68"/>
-      <c r="K128" s="140" t="s">
+      <c r="K128" s="137" t="s">
         <v>1537</v>
       </c>
       <c r="L128" s="66" t="s">
         <v>1538</v>
       </c>
-      <c r="M128" s="150" t="s">
+      <c r="M128" s="147" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="16.5">
-      <c r="A129" s="194"/>
+    <row r="129" spans="1:13" ht="15.75">
+      <c r="A129" s="204"/>
       <c r="B129" s="86"/>
-      <c r="C129" s="134"/>
+      <c r="C129" s="131"/>
       <c r="D129" s="87"/>
       <c r="E129" s="88"/>
       <c r="F129" s="89"/>
@@ -20045,20 +20059,20 @@
       <c r="H129" s="89"/>
       <c r="I129" s="89"/>
       <c r="J129" s="68"/>
-      <c r="K129" s="140" t="s">
+      <c r="K129" s="137" t="s">
         <v>1540</v>
       </c>
       <c r="L129" s="66" t="s">
         <v>1541</v>
       </c>
-      <c r="M129" s="150" t="s">
+      <c r="M129" s="147" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16.5">
-      <c r="A130" s="194"/>
+    <row r="130" spans="1:13" ht="15.75">
+      <c r="A130" s="204"/>
       <c r="B130" s="86"/>
-      <c r="C130" s="134"/>
+      <c r="C130" s="131"/>
       <c r="D130" s="87"/>
       <c r="E130" s="88"/>
       <c r="F130" s="89"/>
@@ -20066,20 +20080,20 @@
       <c r="H130" s="89"/>
       <c r="I130" s="89"/>
       <c r="J130" s="68"/>
-      <c r="K130" s="140" t="s">
+      <c r="K130" s="137" t="s">
         <v>1543</v>
       </c>
       <c r="L130" s="66" t="s">
         <v>1544</v>
       </c>
-      <c r="M130" s="150" t="s">
+      <c r="M130" s="147" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16.5">
-      <c r="A131" s="194"/>
+    <row r="131" spans="1:13" ht="15.75">
+      <c r="A131" s="204"/>
       <c r="B131" s="86"/>
-      <c r="C131" s="134"/>
+      <c r="C131" s="131"/>
       <c r="D131" s="87"/>
       <c r="E131" s="88"/>
       <c r="F131" s="89"/>
@@ -20087,20 +20101,20 @@
       <c r="H131" s="89"/>
       <c r="I131" s="89"/>
       <c r="J131" s="68"/>
-      <c r="K131" s="140" t="s">
+      <c r="K131" s="137" t="s">
         <v>1546</v>
       </c>
       <c r="L131" s="66" t="s">
         <v>1547</v>
       </c>
-      <c r="M131" s="150" t="s">
+      <c r="M131" s="147" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="16.5">
-      <c r="A132" s="194"/>
+    <row r="132" spans="1:13" ht="15.75">
+      <c r="A132" s="204"/>
       <c r="B132" s="86"/>
-      <c r="C132" s="134"/>
+      <c r="C132" s="131"/>
       <c r="D132" s="87"/>
       <c r="E132" s="88"/>
       <c r="F132" s="89"/>
@@ -20108,20 +20122,20 @@
       <c r="H132" s="89"/>
       <c r="I132" s="89"/>
       <c r="J132" s="68"/>
-      <c r="K132" s="140" t="s">
+      <c r="K132" s="137" t="s">
         <v>1549</v>
       </c>
       <c r="L132" s="66" t="s">
         <v>1550</v>
       </c>
-      <c r="M132" s="150" t="s">
+      <c r="M132" s="147" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16.5">
-      <c r="A133" s="194"/>
+    <row r="133" spans="1:13" ht="15.75">
+      <c r="A133" s="204"/>
       <c r="B133" s="86"/>
-      <c r="C133" s="134"/>
+      <c r="C133" s="131"/>
       <c r="D133" s="87"/>
       <c r="E133" s="88"/>
       <c r="F133" s="89"/>
@@ -20129,20 +20143,20 @@
       <c r="H133" s="89"/>
       <c r="I133" s="89"/>
       <c r="J133" s="68"/>
-      <c r="K133" s="140" t="s">
+      <c r="K133" s="137" t="s">
         <v>1552</v>
       </c>
       <c r="L133" s="66" t="s">
         <v>1553</v>
       </c>
-      <c r="M133" s="150" t="s">
+      <c r="M133" s="147" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16.5">
-      <c r="A134" s="194"/>
+    <row r="134" spans="1:13" ht="15.75">
+      <c r="A134" s="204"/>
       <c r="B134" s="86"/>
-      <c r="C134" s="134"/>
+      <c r="C134" s="131"/>
       <c r="D134" s="87"/>
       <c r="E134" s="88"/>
       <c r="F134" s="89"/>
@@ -20150,20 +20164,20 @@
       <c r="H134" s="89"/>
       <c r="I134" s="89"/>
       <c r="J134" s="68"/>
-      <c r="K134" s="140" t="s">
+      <c r="K134" s="137" t="s">
         <v>1555</v>
       </c>
       <c r="L134" s="66" t="s">
         <v>1556</v>
       </c>
-      <c r="M134" s="150" t="s">
+      <c r="M134" s="147" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="16.5">
-      <c r="A135" s="194"/>
+    <row r="135" spans="1:13" ht="15.75">
+      <c r="A135" s="204"/>
       <c r="B135" s="86"/>
-      <c r="C135" s="134"/>
+      <c r="C135" s="131"/>
       <c r="D135" s="87"/>
       <c r="E135" s="88"/>
       <c r="F135" s="89"/>
@@ -20171,20 +20185,20 @@
       <c r="H135" s="89"/>
       <c r="I135" s="89"/>
       <c r="J135" s="68"/>
-      <c r="K135" s="140" t="s">
+      <c r="K135" s="137" t="s">
         <v>1558</v>
       </c>
       <c r="L135" s="66" t="s">
         <v>1559</v>
       </c>
-      <c r="M135" s="150" t="s">
+      <c r="M135" s="147" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16.5">
-      <c r="A136" s="194"/>
+    <row r="136" spans="1:13" ht="15.75">
+      <c r="A136" s="204"/>
       <c r="B136" s="86"/>
-      <c r="C136" s="134"/>
+      <c r="C136" s="131"/>
       <c r="D136" s="87"/>
       <c r="E136" s="88"/>
       <c r="F136" s="89"/>
@@ -20192,20 +20206,20 @@
       <c r="H136" s="89"/>
       <c r="I136" s="89"/>
       <c r="J136" s="68"/>
-      <c r="K136" s="140" t="s">
+      <c r="K136" s="137" t="s">
         <v>941</v>
       </c>
       <c r="L136" s="66" t="s">
         <v>942</v>
       </c>
-      <c r="M136" s="150" t="s">
+      <c r="M136" s="147" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16.5">
-      <c r="A137" s="194"/>
+    <row r="137" spans="1:13" ht="15.75">
+      <c r="A137" s="204"/>
       <c r="B137" s="86"/>
-      <c r="C137" s="134"/>
+      <c r="C137" s="131"/>
       <c r="D137" s="87"/>
       <c r="E137" s="88"/>
       <c r="F137" s="89"/>
@@ -20213,20 +20227,20 @@
       <c r="H137" s="89"/>
       <c r="I137" s="89"/>
       <c r="J137" s="68"/>
-      <c r="K137" s="140" t="s">
+      <c r="K137" s="137" t="s">
         <v>1561</v>
       </c>
       <c r="L137" s="66" t="s">
         <v>1562</v>
       </c>
-      <c r="M137" s="150" t="s">
+      <c r="M137" s="147" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="16.5">
-      <c r="A138" s="194"/>
+    <row r="138" spans="1:13" ht="15.75">
+      <c r="A138" s="204"/>
       <c r="B138" s="86"/>
-      <c r="C138" s="134"/>
+      <c r="C138" s="131"/>
       <c r="D138" s="87"/>
       <c r="E138" s="88"/>
       <c r="F138" s="89"/>
@@ -20234,22 +20248,22 @@
       <c r="H138" s="89"/>
       <c r="I138" s="89"/>
       <c r="J138" s="68"/>
-      <c r="K138" s="140" t="s">
+      <c r="K138" s="137" t="s">
         <v>1564</v>
       </c>
       <c r="L138" s="66" t="s">
         <v>1565</v>
       </c>
-      <c r="M138" s="150" t="s">
+      <c r="M138" s="147" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="135">
-      <c r="A139" s="194"/>
+      <c r="A139" s="204"/>
       <c r="B139" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C139" s="134" t="s">
+      <c r="C139" s="131" t="s">
         <v>1567</v>
       </c>
       <c r="D139" s="103" t="s">
@@ -20273,14 +20287,14 @@
       <c r="J139" s="68"/>
       <c r="K139" s="68"/>
       <c r="L139" s="68"/>
-      <c r="M139" s="149"/>
-    </row>
-    <row r="140" spans="1:13" ht="33">
-      <c r="A140" s="194"/>
+      <c r="M139" s="146"/>
+    </row>
+    <row r="140" spans="1:13" ht="25.5">
+      <c r="A140" s="204"/>
       <c r="B140" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C140" s="134" t="s">
+      <c r="C140" s="131" t="s">
         <v>1570</v>
       </c>
       <c r="D140" s="103"/>
@@ -20292,14 +20306,14 @@
       <c r="J140" s="68"/>
       <c r="K140" s="68"/>
       <c r="L140" s="68"/>
-      <c r="M140" s="149"/>
+      <c r="M140" s="146"/>
     </row>
     <row r="141" spans="1:13" ht="255">
-      <c r="A141" s="194"/>
+      <c r="A141" s="204"/>
       <c r="B141" s="86" t="s">
         <v>749</v>
       </c>
-      <c r="C141" s="134" t="s">
+      <c r="C141" s="131" t="s">
         <v>1571</v>
       </c>
       <c r="D141" s="87" t="s">
@@ -20323,22 +20337,22 @@
       <c r="J141" s="68"/>
       <c r="K141" s="68"/>
       <c r="L141" s="68"/>
-      <c r="M141" s="149"/>
+      <c r="M141" s="146"/>
     </row>
     <row r="142" spans="1:13" ht="225">
-      <c r="A142" s="188" t="s">
+      <c r="A142" s="198" t="s">
         <v>1576</v>
       </c>
       <c r="B142" s="93" t="s">
         <v>722</v>
       </c>
-      <c r="C142" s="141" t="s">
+      <c r="C142" s="138" t="s">
         <v>1577</v>
       </c>
-      <c r="D142" s="138" t="s">
+      <c r="D142" s="135" t="s">
         <v>1578</v>
       </c>
-      <c r="E142" s="138" t="s">
+      <c r="E142" s="135" t="s">
         <v>1579</v>
       </c>
       <c r="F142" s="93" t="s">
@@ -20356,20 +20370,20 @@
       <c r="J142" s="66"/>
       <c r="K142" s="66"/>
       <c r="L142" s="66"/>
-      <c r="M142" s="150"/>
-    </row>
-    <row r="143" spans="1:13" ht="16.5">
-      <c r="A143" s="189"/>
+      <c r="M142" s="147"/>
+    </row>
+    <row r="143" spans="1:13" ht="15.75">
+      <c r="A143" s="199"/>
       <c r="B143" s="93" t="s">
         <v>1583</v>
       </c>
-      <c r="C143" s="141" t="s">
+      <c r="C143" s="138" t="s">
         <v>1584</v>
       </c>
-      <c r="D143" s="139" t="s">
+      <c r="D143" s="136" t="s">
         <v>1585</v>
       </c>
-      <c r="E143" s="139" t="s">
+      <c r="E143" s="136" t="s">
         <v>1586</v>
       </c>
       <c r="F143" s="89"/>
@@ -20381,20 +20395,20 @@
       <c r="J143" s="68"/>
       <c r="K143" s="68"/>
       <c r="L143" s="68"/>
-      <c r="M143" s="149"/>
-    </row>
-    <row r="144" spans="1:13" ht="16.5">
-      <c r="A144" s="189"/>
+      <c r="M143" s="146"/>
+    </row>
+    <row r="144" spans="1:13" ht="15.75">
+      <c r="A144" s="199"/>
       <c r="B144" s="93" t="s">
         <v>1587</v>
       </c>
-      <c r="C144" s="141" t="s">
+      <c r="C144" s="138" t="s">
         <v>1588</v>
       </c>
-      <c r="D144" s="139" t="s">
+      <c r="D144" s="136" t="s">
         <v>1589</v>
       </c>
-      <c r="E144" s="139" t="s">
+      <c r="E144" s="136" t="s">
         <v>1590</v>
       </c>
       <c r="F144" s="89"/>
@@ -20406,20 +20420,20 @@
       <c r="J144" s="68"/>
       <c r="K144" s="68"/>
       <c r="L144" s="68"/>
-      <c r="M144" s="149"/>
-    </row>
-    <row r="145" spans="1:13" ht="16.5">
-      <c r="A145" s="189"/>
+      <c r="M144" s="146"/>
+    </row>
+    <row r="145" spans="1:13" ht="15.75">
+      <c r="A145" s="199"/>
       <c r="B145" s="93" t="s">
         <v>1591</v>
       </c>
-      <c r="C145" s="141" t="s">
+      <c r="C145" s="138" t="s">
         <v>1592</v>
       </c>
-      <c r="D145" s="139" t="s">
+      <c r="D145" s="136" t="s">
         <v>1593</v>
       </c>
-      <c r="E145" s="139" t="s">
+      <c r="E145" s="136" t="s">
         <v>1594</v>
       </c>
       <c r="F145" s="89"/>
@@ -20429,20 +20443,20 @@
         <v>1122</v>
       </c>
       <c r="J145" s="68"/>
-      <c r="K145" s="140" t="s">
+      <c r="K145" s="137" t="s">
         <v>1595</v>
       </c>
-      <c r="L145" s="138" t="s">
+      <c r="L145" s="135" t="s">
         <v>1596</v>
       </c>
-      <c r="M145" s="154" t="s">
+      <c r="M145" s="151" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16.5">
-      <c r="A146" s="189"/>
+    <row r="146" spans="1:13" ht="15.75">
+      <c r="A146" s="199"/>
       <c r="B146" s="93"/>
-      <c r="C146" s="134"/>
+      <c r="C146" s="131"/>
       <c r="D146" s="68"/>
       <c r="E146" s="68"/>
       <c r="F146" s="89"/>
@@ -20450,20 +20464,20 @@
       <c r="H146" s="89"/>
       <c r="I146" s="89"/>
       <c r="J146" s="68"/>
-      <c r="K146" s="140" t="s">
+      <c r="K146" s="137" t="s">
         <v>1598</v>
       </c>
-      <c r="L146" s="139" t="s">
+      <c r="L146" s="136" t="s">
         <v>1599</v>
       </c>
-      <c r="M146" s="155" t="s">
+      <c r="M146" s="152" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="16.5">
-      <c r="A147" s="189"/>
+    <row r="147" spans="1:13" ht="15.75">
+      <c r="A147" s="199"/>
       <c r="B147" s="93"/>
-      <c r="C147" s="134"/>
+      <c r="C147" s="131"/>
       <c r="D147" s="68"/>
       <c r="E147" s="68"/>
       <c r="F147" s="89"/>
@@ -20471,20 +20485,20 @@
       <c r="H147" s="89"/>
       <c r="I147" s="89"/>
       <c r="J147" s="68"/>
-      <c r="K147" s="140" t="s">
+      <c r="K147" s="137" t="s">
         <v>1601</v>
       </c>
-      <c r="L147" s="139" t="s">
+      <c r="L147" s="136" t="s">
         <v>1602</v>
       </c>
-      <c r="M147" s="155" t="s">
+      <c r="M147" s="152" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16.5">
-      <c r="A148" s="189"/>
+    <row r="148" spans="1:13" ht="15.75">
+      <c r="A148" s="199"/>
       <c r="B148" s="93"/>
-      <c r="C148" s="134"/>
+      <c r="C148" s="131"/>
       <c r="D148" s="68"/>
       <c r="E148" s="68"/>
       <c r="F148" s="89"/>
@@ -20492,20 +20506,20 @@
       <c r="H148" s="89"/>
       <c r="I148" s="89"/>
       <c r="J148" s="68"/>
-      <c r="K148" s="140" t="s">
+      <c r="K148" s="137" t="s">
         <v>1604</v>
       </c>
-      <c r="L148" s="139" t="s">
+      <c r="L148" s="136" t="s">
         <v>1605</v>
       </c>
-      <c r="M148" s="155" t="s">
+      <c r="M148" s="152" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16.5">
-      <c r="A149" s="189"/>
+    <row r="149" spans="1:13" ht="15.75">
+      <c r="A149" s="199"/>
       <c r="B149" s="93"/>
-      <c r="C149" s="134"/>
+      <c r="C149" s="131"/>
       <c r="D149" s="68"/>
       <c r="E149" s="68"/>
       <c r="F149" s="89"/>
@@ -20513,20 +20527,20 @@
       <c r="H149" s="89"/>
       <c r="I149" s="89"/>
       <c r="J149" s="68"/>
-      <c r="K149" s="140" t="s">
+      <c r="K149" s="137" t="s">
         <v>1607</v>
       </c>
-      <c r="L149" s="139" t="s">
+      <c r="L149" s="136" t="s">
         <v>1608</v>
       </c>
-      <c r="M149" s="155" t="s">
+      <c r="M149" s="152" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="16.5">
-      <c r="A150" s="189"/>
+    <row r="150" spans="1:13" ht="15.75">
+      <c r="A150" s="199"/>
       <c r="B150" s="93"/>
-      <c r="C150" s="134"/>
+      <c r="C150" s="131"/>
       <c r="D150" s="68"/>
       <c r="E150" s="68"/>
       <c r="F150" s="89"/>
@@ -20534,20 +20548,20 @@
       <c r="H150" s="89"/>
       <c r="I150" s="89"/>
       <c r="J150" s="68"/>
-      <c r="K150" s="140" t="s">
+      <c r="K150" s="137" t="s">
         <v>1610</v>
       </c>
-      <c r="L150" s="139" t="s">
+      <c r="L150" s="136" t="s">
         <v>1611</v>
       </c>
-      <c r="M150" s="155" t="s">
+      <c r="M150" s="152" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16.5">
-      <c r="A151" s="189"/>
+    <row r="151" spans="1:13" ht="15.75">
+      <c r="A151" s="199"/>
       <c r="B151" s="93"/>
-      <c r="C151" s="134"/>
+      <c r="C151" s="131"/>
       <c r="D151" s="68"/>
       <c r="E151" s="68"/>
       <c r="F151" s="89"/>
@@ -20555,20 +20569,20 @@
       <c r="H151" s="89"/>
       <c r="I151" s="89"/>
       <c r="J151" s="68"/>
-      <c r="K151" s="140" t="s">
+      <c r="K151" s="137" t="s">
         <v>1613</v>
       </c>
-      <c r="L151" s="139" t="s">
+      <c r="L151" s="136" t="s">
         <v>1614</v>
       </c>
-      <c r="M151" s="155" t="s">
+      <c r="M151" s="152" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16.5">
-      <c r="A152" s="189"/>
+    <row r="152" spans="1:13" ht="15.75">
+      <c r="A152" s="199"/>
       <c r="B152" s="93"/>
-      <c r="C152" s="134"/>
+      <c r="C152" s="131"/>
       <c r="D152" s="68"/>
       <c r="E152" s="68"/>
       <c r="F152" s="89"/>
@@ -20576,20 +20590,20 @@
       <c r="H152" s="89"/>
       <c r="I152" s="89"/>
       <c r="J152" s="68"/>
-      <c r="K152" s="140" t="s">
+      <c r="K152" s="137" t="s">
         <v>1616</v>
       </c>
-      <c r="L152" s="139" t="s">
+      <c r="L152" s="136" t="s">
         <v>1617</v>
       </c>
-      <c r="M152" s="155" t="s">
+      <c r="M152" s="152" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="16.5">
-      <c r="A153" s="189"/>
+    <row r="153" spans="1:13" ht="15.75">
+      <c r="A153" s="199"/>
       <c r="B153" s="93"/>
-      <c r="C153" s="134"/>
+      <c r="C153" s="131"/>
       <c r="D153" s="68"/>
       <c r="E153" s="68"/>
       <c r="F153" s="89"/>
@@ -20597,20 +20611,20 @@
       <c r="H153" s="89"/>
       <c r="I153" s="89"/>
       <c r="J153" s="68"/>
-      <c r="K153" s="140" t="s">
+      <c r="K153" s="137" t="s">
         <v>1619</v>
       </c>
-      <c r="L153" s="139" t="s">
+      <c r="L153" s="136" t="s">
         <v>1620</v>
       </c>
-      <c r="M153" s="155" t="s">
+      <c r="M153" s="152" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="16.5">
-      <c r="A154" s="189"/>
+    <row r="154" spans="1:13" ht="15.75">
+      <c r="A154" s="199"/>
       <c r="B154" s="93"/>
-      <c r="C154" s="134"/>
+      <c r="C154" s="131"/>
       <c r="D154" s="68"/>
       <c r="E154" s="68"/>
       <c r="F154" s="89"/>
@@ -20618,20 +20632,20 @@
       <c r="H154" s="89"/>
       <c r="I154" s="89"/>
       <c r="J154" s="68"/>
-      <c r="K154" s="140" t="s">
+      <c r="K154" s="137" t="s">
         <v>1622</v>
       </c>
-      <c r="L154" s="139" t="s">
+      <c r="L154" s="136" t="s">
         <v>1623</v>
       </c>
-      <c r="M154" s="155" t="s">
+      <c r="M154" s="152" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16.5">
-      <c r="A155" s="189"/>
+    <row r="155" spans="1:13" ht="15.75">
+      <c r="A155" s="199"/>
       <c r="B155" s="93"/>
-      <c r="C155" s="134"/>
+      <c r="C155" s="131"/>
       <c r="D155" s="68"/>
       <c r="E155" s="68"/>
       <c r="F155" s="89"/>
@@ -20639,18 +20653,18 @@
       <c r="H155" s="89"/>
       <c r="I155" s="89"/>
       <c r="J155" s="68"/>
-      <c r="K155" s="140" t="s">
+      <c r="K155" s="137" t="s">
         <v>1624</v>
       </c>
-      <c r="L155" s="139" t="s">
+      <c r="L155" s="136" t="s">
         <v>1625</v>
       </c>
-      <c r="M155" s="155" t="s">
+      <c r="M155" s="152" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="15.75">
-      <c r="A156" s="189"/>
+      <c r="A156" s="199"/>
       <c r="B156" s="68"/>
       <c r="C156" s="68"/>
       <c r="D156" s="68"/>
@@ -20660,18 +20674,18 @@
       <c r="H156" s="89"/>
       <c r="I156" s="89"/>
       <c r="J156" s="68"/>
-      <c r="K156" s="140" t="s">
+      <c r="K156" s="137" t="s">
         <v>1627</v>
       </c>
-      <c r="L156" s="139" t="s">
+      <c r="L156" s="136" t="s">
         <v>1628</v>
       </c>
-      <c r="M156" s="155" t="s">
+      <c r="M156" s="152" t="s">
         <v>1629</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="15.75">
-      <c r="A157" s="189"/>
+      <c r="A157" s="199"/>
       <c r="B157" s="68"/>
       <c r="C157" s="68"/>
       <c r="D157" s="68"/>
@@ -20681,18 +20695,18 @@
       <c r="H157" s="89"/>
       <c r="I157" s="89"/>
       <c r="J157" s="68"/>
-      <c r="K157" s="140" t="s">
+      <c r="K157" s="137" t="s">
         <v>1630</v>
       </c>
-      <c r="L157" s="139" t="s">
+      <c r="L157" s="136" t="s">
         <v>1631</v>
       </c>
-      <c r="M157" s="155" t="s">
+      <c r="M157" s="152" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="15.75">
-      <c r="A158" s="189"/>
+      <c r="A158" s="199"/>
       <c r="B158" s="68"/>
       <c r="C158" s="68"/>
       <c r="D158" s="68"/>
@@ -20702,18 +20716,18 @@
       <c r="H158" s="89"/>
       <c r="I158" s="89"/>
       <c r="J158" s="68"/>
-      <c r="K158" s="140" t="s">
+      <c r="K158" s="137" t="s">
         <v>1633</v>
       </c>
-      <c r="L158" s="139" t="s">
+      <c r="L158" s="136" t="s">
         <v>1634</v>
       </c>
-      <c r="M158" s="155" t="s">
+      <c r="M158" s="152" t="s">
         <v>1635</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="15.75">
-      <c r="A159" s="189"/>
+      <c r="A159" s="199"/>
       <c r="B159" s="68"/>
       <c r="C159" s="68"/>
       <c r="D159" s="68"/>
@@ -20723,28 +20737,28 @@
       <c r="H159" s="89"/>
       <c r="I159" s="89"/>
       <c r="J159" s="68"/>
-      <c r="K159" s="140" t="s">
+      <c r="K159" s="137" t="s">
         <v>1636</v>
       </c>
-      <c r="L159" s="139" t="s">
+      <c r="L159" s="136" t="s">
         <v>1637</v>
       </c>
-      <c r="M159" s="155" t="s">
+      <c r="M159" s="152" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="16.5">
-      <c r="A160" s="189"/>
+    <row r="160" spans="1:13" ht="15.75">
+      <c r="A160" s="199"/>
       <c r="B160" s="93" t="s">
         <v>1639</v>
       </c>
-      <c r="C160" s="141" t="s">
+      <c r="C160" s="138" t="s">
         <v>1640</v>
       </c>
-      <c r="D160" s="138" t="s">
+      <c r="D160" s="135" t="s">
         <v>1641</v>
       </c>
-      <c r="E160" s="138" t="s">
+      <c r="E160" s="135" t="s">
         <v>1642</v>
       </c>
       <c r="F160" s="89"/>
@@ -20756,32 +20770,32 @@
       <c r="J160" s="68"/>
       <c r="K160" s="68"/>
       <c r="L160" s="68"/>
-      <c r="M160" s="149"/>
-    </row>
-    <row r="161" spans="1:13" ht="16.5">
-      <c r="A161" s="189"/>
-      <c r="B161" s="156" t="s">
+      <c r="M160" s="146"/>
+    </row>
+    <row r="161" spans="1:13" ht="15.75">
+      <c r="A161" s="199"/>
+      <c r="B161" s="153" t="s">
         <v>1643</v>
       </c>
-      <c r="C161" s="157" t="s">
+      <c r="C161" s="154" t="s">
         <v>1643</v>
       </c>
-      <c r="D161" s="158" t="s">
+      <c r="D161" s="155" t="s">
         <v>1644</v>
       </c>
-      <c r="E161" s="158" t="s">
+      <c r="E161" s="155" t="s">
         <v>1645</v>
       </c>
-      <c r="F161" s="159"/>
-      <c r="G161" s="159"/>
-      <c r="H161" s="159"/>
-      <c r="I161" s="159" t="s">
+      <c r="F161" s="156"/>
+      <c r="G161" s="156"/>
+      <c r="H161" s="156"/>
+      <c r="I161" s="156" t="s">
         <v>1374</v>
       </c>
       <c r="J161" s="74"/>
       <c r="K161" s="74"/>
       <c r="L161" s="74"/>
-      <c r="M161" s="160"/>
+      <c r="M161" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -20800,7 +20814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED6F67A-2FF0-4BA5-9195-10237D63C3F9}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20815,7 +20831,7 @@
     <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="72">
+    <row r="1" spans="1:13" ht="57.75">
       <c r="A1" s="81" t="s">
         <v>813</v>
       </c>
@@ -20857,7 +20873,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="75">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="206" t="s">
         <v>1648</v>
       </c>
       <c r="B2" s="80" t="s">
@@ -20870,13 +20886,13 @@
       <c r="E2" s="80" t="s">
         <v>1650</v>
       </c>
-      <c r="F2" s="173" t="s">
+      <c r="F2" s="162" t="s">
         <v>1651</v>
       </c>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="162" t="s">
         <v>1652</v>
       </c>
-      <c r="H2" s="173" t="s">
+      <c r="H2" s="162" t="s">
         <v>1653</v>
       </c>
       <c r="I2" s="80" t="s">
@@ -20888,7 +20904,7 @@
       <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="75" customHeight="1">
-      <c r="A3" s="197"/>
+      <c r="A3" s="207"/>
       <c r="B3" s="80" t="s">
         <v>130</v>
       </c>
@@ -20917,7 +20933,7 @@
       <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="197"/>
+      <c r="A4" s="207"/>
       <c r="B4" s="80" t="s">
         <v>139</v>
       </c>
@@ -20946,7 +20962,7 @@
       <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="197"/>
+      <c r="A5" s="207"/>
       <c r="B5" s="80" t="s">
         <v>148</v>
       </c>
@@ -20975,7 +20991,7 @@
       <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="30">
-      <c r="A6" s="197"/>
+      <c r="A6" s="207"/>
       <c r="B6" s="80" t="s">
         <v>157</v>
       </c>
@@ -21003,7 +21019,7 @@
       <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:13" ht="105">
-      <c r="A7" s="197"/>
+      <c r="A7" s="207"/>
       <c r="B7" s="80" t="s">
         <v>731</v>
       </c>
@@ -21014,13 +21030,13 @@
       <c r="E7" s="80" t="s">
         <v>736</v>
       </c>
-      <c r="F7" s="173" t="s">
+      <c r="F7" s="162" t="s">
         <v>1671</v>
       </c>
-      <c r="G7" s="173" t="s">
+      <c r="G7" s="162" t="s">
         <v>1672</v>
       </c>
-      <c r="H7" s="173" t="s">
+      <c r="H7" s="162" t="s">
         <v>1673</v>
       </c>
       <c r="I7" s="80" t="s">
@@ -21034,7 +21050,7 @@
       <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:13" ht="45">
-      <c r="A8" s="197"/>
+      <c r="A8" s="207"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -21051,7 +21067,7 @@
       <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="197"/>
+      <c r="A9" s="207"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -21068,7 +21084,7 @@
       <c r="M9" s="80"/>
     </row>
     <row r="10" spans="1:13" ht="105">
-      <c r="A10" s="197"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -21085,7 +21101,7 @@
       <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="197"/>
+      <c r="A11" s="207"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -21112,7 +21128,7 @@
       <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="197"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -21131,7 +21147,7 @@
       <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13" ht="45">
-      <c r="A13" s="198"/>
+      <c r="A13" s="208"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -21150,7 +21166,7 @@
       <c r="M13" s="80"/>
     </row>
     <row r="14" spans="1:13" ht="30">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="206" t="s">
         <v>1687</v>
       </c>
       <c r="B14" s="80" t="s">
@@ -21183,7 +21199,7 @@
       <c r="M14" s="80"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="197"/>
+      <c r="A15" s="207"/>
       <c r="B15" s="80" t="s">
         <v>174</v>
       </c>
@@ -21191,13 +21207,13 @@
       <c r="D15" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="173" t="s">
+      <c r="E15" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="173" t="s">
+      <c r="F15" s="162" t="s">
         <v>1692</v>
       </c>
-      <c r="G15" s="173" t="s">
+      <c r="G15" s="162" t="s">
         <v>1693</v>
       </c>
       <c r="H15" s="80"/>
@@ -21212,7 +21228,7 @@
       <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="197"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="80"/>
@@ -21229,7 +21245,7 @@
       <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="197"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
@@ -21246,7 +21262,7 @@
       <c r="M17" s="80"/>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1">
-      <c r="A18" s="197"/>
+      <c r="A18" s="207"/>
       <c r="B18" s="80" t="s">
         <v>183</v>
       </c>
@@ -21257,13 +21273,13 @@
       <c r="E18" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="173" t="s">
+      <c r="F18" s="162" t="s">
         <v>1696</v>
       </c>
-      <c r="G18" s="173" t="s">
+      <c r="G18" s="162" t="s">
         <v>1697</v>
       </c>
-      <c r="H18" s="173" t="s">
+      <c r="H18" s="162" t="s">
         <v>1698</v>
       </c>
       <c r="I18" s="80" t="s">
@@ -21281,7 +21297,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
-      <c r="A19" s="197"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
@@ -21302,7 +21318,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="197"/>
+      <c r="A20" s="207"/>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
@@ -21323,7 +21339,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
-      <c r="A21" s="197"/>
+      <c r="A21" s="207"/>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
@@ -21344,7 +21360,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="45" customHeight="1">
-      <c r="A22" s="197"/>
+      <c r="A22" s="207"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
@@ -21365,7 +21381,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
-      <c r="A23" s="197"/>
+      <c r="A23" s="207"/>
       <c r="B23" s="80" t="s">
         <v>192</v>
       </c>
@@ -21396,7 +21412,7 @@
       <c r="M23" s="80"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="197"/>
+      <c r="A24" s="207"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
@@ -21415,7 +21431,7 @@
       <c r="M24" s="80"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
-      <c r="A25" s="197"/>
+      <c r="A25" s="207"/>
       <c r="B25" s="80" t="s">
         <v>201</v>
       </c>
@@ -21444,7 +21460,7 @@
       <c r="M25" s="80"/>
     </row>
     <row r="26" spans="1:13" ht="105" customHeight="1">
-      <c r="A26" s="197"/>
+      <c r="A26" s="207"/>
       <c r="B26" s="80" t="s">
         <v>209</v>
       </c>
@@ -21475,7 +21491,7 @@
       <c r="M26" s="80"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
-      <c r="A27" s="197"/>
+      <c r="A27" s="207"/>
       <c r="B27" s="80" t="s">
         <v>218</v>
       </c>
@@ -21506,7 +21522,7 @@
       <c r="M27" s="80"/>
     </row>
     <row r="28" spans="1:13" ht="45" customHeight="1">
-      <c r="A28" s="197"/>
+      <c r="A28" s="207"/>
       <c r="B28" s="80" t="s">
         <v>1732</v>
       </c>
@@ -21535,7 +21551,7 @@
       <c r="M28" s="80"/>
     </row>
     <row r="29" spans="1:13" ht="45" customHeight="1">
-      <c r="A29" s="197"/>
+      <c r="A29" s="207"/>
       <c r="B29" s="80" t="s">
         <v>235</v>
       </c>
@@ -21564,7 +21580,7 @@
       <c r="M29" s="80"/>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1">
-      <c r="A30" s="198"/>
+      <c r="A30" s="208"/>
       <c r="B30" s="80" t="s">
         <v>1738</v>
       </c>
@@ -21605,8 +21621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203E6863-51D1-4E9C-B940-511F1401EDBF}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21621,7 +21637,7 @@
     <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
@@ -21646,8 +21662,8 @@
       <c r="H1" s="58" t="s">
         <v>1097</v>
       </c>
-      <c r="I1" s="61" t="s">
-        <v>819</v>
+      <c r="I1" s="58" t="s">
+        <v>1739</v>
       </c>
       <c r="J1" t="s">
         <v>1098</v>
@@ -21668,7 +21684,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>248</v>
@@ -21677,26 +21693,26 @@
         <v>250</v>
       </c>
       <c r="F2" s="82" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="I2" s="67" t="s">
         <v>1122</v>
       </c>
       <c r="J2" s="67"/>
       <c r="K2" s="66" t="s">
-        <v>1743</v>
-      </c>
-      <c r="L2" s="177" t="s">
         <v>1744</v>
       </c>
-      <c r="M2" s="176" t="s">
+      <c r="L2" s="166" t="s">
         <v>1745</v>
+      </c>
+      <c r="M2" s="165" t="s">
+        <v>1746</v>
       </c>
       <c r="N2" s="67"/>
     </row>
@@ -21712,13 +21728,13 @@
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
       <c r="K3" s="66" t="s">
-        <v>1746</v>
-      </c>
-      <c r="L3" s="177" t="s">
         <v>1747</v>
       </c>
-      <c r="M3" s="176" t="s">
+      <c r="L3" s="166" t="s">
         <v>1748</v>
+      </c>
+      <c r="M3" s="165" t="s">
+        <v>1749</v>
       </c>
       <c r="N3" s="67"/>
     </row>
@@ -21734,13 +21750,13 @@
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
       <c r="K4" s="66" t="s">
-        <v>1749</v>
-      </c>
-      <c r="L4" s="177" t="s">
         <v>1750</v>
       </c>
-      <c r="M4" s="176" t="s">
+      <c r="L4" s="166" t="s">
         <v>1751</v>
+      </c>
+      <c r="M4" s="165" t="s">
+        <v>1752</v>
       </c>
       <c r="N4" s="67"/>
     </row>
@@ -21756,13 +21772,13 @@
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
-        <v>1752</v>
-      </c>
-      <c r="L5" s="177" t="s">
         <v>1753</v>
       </c>
-      <c r="M5" s="176" t="s">
+      <c r="L5" s="166" t="s">
         <v>1754</v>
+      </c>
+      <c r="M5" s="165" t="s">
+        <v>1755</v>
       </c>
       <c r="N5" s="67"/>
     </row>
@@ -21778,13 +21794,13 @@
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
       <c r="K6" s="66" t="s">
-        <v>1755</v>
-      </c>
-      <c r="L6" s="177" t="s">
         <v>1756</v>
       </c>
-      <c r="M6" s="176" t="s">
+      <c r="L6" s="166" t="s">
         <v>1757</v>
+      </c>
+      <c r="M6" s="165" t="s">
+        <v>1758</v>
       </c>
       <c r="N6" s="67"/>
     </row>
@@ -21800,13 +21816,13 @@
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="66" t="s">
-        <v>1758</v>
-      </c>
-      <c r="L7" s="177" t="s">
         <v>1759</v>
       </c>
-      <c r="M7" s="176" t="s">
+      <c r="L7" s="166" t="s">
         <v>1760</v>
+      </c>
+      <c r="M7" s="165" t="s">
+        <v>1761</v>
       </c>
       <c r="N7" s="67"/>
     </row>
@@ -21822,13 +21838,13 @@
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="66" t="s">
-        <v>1761</v>
-      </c>
-      <c r="L8" s="177" t="s">
         <v>1762</v>
       </c>
-      <c r="M8" s="176" t="s">
+      <c r="L8" s="166" t="s">
         <v>1763</v>
+      </c>
+      <c r="M8" s="165" t="s">
+        <v>1764</v>
       </c>
       <c r="N8" s="67"/>
     </row>
@@ -21843,14 +21859,14 @@
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
-      <c r="K9" s="174" t="s">
-        <v>1764</v>
-      </c>
-      <c r="L9" s="175" t="s">
+      <c r="K9" s="163" t="s">
         <v>1765</v>
       </c>
-      <c r="M9" s="176" t="s">
+      <c r="L9" s="164" t="s">
         <v>1766</v>
+      </c>
+      <c r="M9" s="165" t="s">
+        <v>1767</v>
       </c>
       <c r="N9" s="68"/>
     </row>
@@ -21860,31 +21876,31 @@
         <v>253</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
       <c r="F10" s="67" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="I10" s="67" t="s">
         <v>1122</v>
       </c>
       <c r="J10" s="68"/>
-      <c r="K10" s="174" t="s">
-        <v>1771</v>
-      </c>
-      <c r="L10" s="175" t="s">
+      <c r="K10" s="163" t="s">
         <v>1772</v>
       </c>
-      <c r="M10" s="176" t="s">
+      <c r="L10" s="164" t="s">
         <v>1773</v>
+      </c>
+      <c r="M10" s="165" t="s">
+        <v>1774</v>
       </c>
       <c r="N10" s="68"/>
     </row>
@@ -21899,14 +21915,14 @@
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
-      <c r="K11" s="174" t="s">
-        <v>1774</v>
-      </c>
-      <c r="L11" s="175" t="s">
-        <v>1772</v>
-      </c>
-      <c r="M11" s="176" t="s">
+      <c r="K11" s="163" t="s">
         <v>1775</v>
+      </c>
+      <c r="L11" s="164" t="s">
+        <v>1773</v>
+      </c>
+      <c r="M11" s="165" t="s">
+        <v>1776</v>
       </c>
       <c r="N11" s="68"/>
     </row>
@@ -21921,14 +21937,14 @@
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
-      <c r="K12" s="174" t="s">
-        <v>1776</v>
-      </c>
-      <c r="L12" s="175" t="s">
-        <v>1772</v>
-      </c>
-      <c r="M12" s="176" t="s">
+      <c r="K12" s="163" t="s">
         <v>1777</v>
+      </c>
+      <c r="L12" s="164" t="s">
+        <v>1773</v>
+      </c>
+      <c r="M12" s="165" t="s">
+        <v>1778</v>
       </c>
       <c r="N12" s="68"/>
     </row>
@@ -21943,14 +21959,14 @@
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
-      <c r="K13" s="174" t="s">
-        <v>1778</v>
-      </c>
-      <c r="L13" s="175" t="s">
-        <v>1772</v>
-      </c>
-      <c r="M13" s="176" t="s">
+      <c r="K13" s="163" t="s">
         <v>1779</v>
+      </c>
+      <c r="L13" s="164" t="s">
+        <v>1773</v>
+      </c>
+      <c r="M13" s="165" t="s">
+        <v>1780</v>
       </c>
       <c r="N13" s="68"/>
     </row>
@@ -21965,14 +21981,14 @@
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
-      <c r="K14" s="174" t="s">
-        <v>1780</v>
-      </c>
-      <c r="L14" s="175" t="s">
+      <c r="K14" s="163" t="s">
         <v>1781</v>
       </c>
-      <c r="M14" s="176" t="s">
+      <c r="L14" s="164" t="s">
         <v>1782</v>
+      </c>
+      <c r="M14" s="165" t="s">
+        <v>1783</v>
       </c>
       <c r="N14" s="68"/>
     </row>
@@ -21987,14 +22003,14 @@
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
-      <c r="K15" s="174" t="s">
-        <v>1783</v>
-      </c>
-      <c r="L15" s="175" t="s">
+      <c r="K15" s="163" t="s">
         <v>1784</v>
       </c>
-      <c r="M15" s="176" t="s">
+      <c r="L15" s="164" t="s">
         <v>1785</v>
+      </c>
+      <c r="M15" s="165" t="s">
+        <v>1786</v>
       </c>
       <c r="N15" s="68"/>
     </row>
@@ -22009,14 +22025,14 @@
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
-      <c r="K16" s="174" t="s">
-        <v>1786</v>
-      </c>
-      <c r="L16" s="175" t="s">
+      <c r="K16" s="163" t="s">
         <v>1787</v>
       </c>
-      <c r="M16" s="176" t="s">
+      <c r="L16" s="164" t="s">
         <v>1788</v>
+      </c>
+      <c r="M16" s="165" t="s">
+        <v>1789</v>
       </c>
       <c r="N16" s="68"/>
     </row>
@@ -22031,14 +22047,14 @@
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
-      <c r="K17" s="174" t="s">
-        <v>1789</v>
-      </c>
-      <c r="L17" s="175" t="s">
+      <c r="K17" s="163" t="s">
         <v>1790</v>
       </c>
-      <c r="M17" s="176" t="s">
+      <c r="L17" s="164" t="s">
         <v>1791</v>
+      </c>
+      <c r="M17" s="165" t="s">
+        <v>1792</v>
       </c>
       <c r="N17" s="68"/>
     </row>
@@ -22053,14 +22069,14 @@
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
-      <c r="K18" s="174" t="s">
-        <v>1792</v>
-      </c>
-      <c r="L18" s="175" t="s">
+      <c r="K18" s="163" t="s">
         <v>1793</v>
       </c>
-      <c r="M18" s="176" t="s">
+      <c r="L18" s="164" t="s">
         <v>1794</v>
+      </c>
+      <c r="M18" s="165" t="s">
+        <v>1795</v>
       </c>
       <c r="N18" s="68"/>
     </row>
@@ -22092,8 +22108,8 @@
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25">
-      <c r="A1" s="178" t="s">
+    <row r="1" spans="1:13" ht="30">
+      <c r="A1" s="167" t="s">
         <v>813</v>
       </c>
       <c r="B1" s="70" t="s">
@@ -22134,11 +22150,11 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="283.5">
-      <c r="A2" s="195" t="s">
-        <v>1795</v>
+      <c r="A2" s="205" t="s">
+        <v>1796</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>308</v>
@@ -22147,35 +22163,35 @@
         <v>309</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="G2" s="105" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H2" s="106" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="I2" s="106" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>1802</v>
-      </c>
-      <c r="K2" s="137" t="s">
         <v>1803</v>
       </c>
-      <c r="L2" s="138" t="s">
+      <c r="K2" s="134" t="s">
         <v>1804</v>
       </c>
-      <c r="M2" s="138" t="s">
+      <c r="L2" s="135" t="s">
         <v>1805</v>
       </c>
+      <c r="M2" s="135" t="s">
+        <v>1806</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="60.75">
-      <c r="A3" s="195"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="65"/>
       <c r="C3" s="65"/>
       <c r="D3" s="102"/>
@@ -22185,18 +22201,18 @@
       <c r="H3" s="106"/>
       <c r="I3" s="106"/>
       <c r="J3" s="99"/>
-      <c r="K3" s="137" t="s">
-        <v>1806</v>
-      </c>
-      <c r="L3" s="139" t="s">
+      <c r="K3" s="134" t="s">
         <v>1807</v>
       </c>
-      <c r="M3" s="139" t="s">
+      <c r="L3" s="136" t="s">
         <v>1808</v>
       </c>
+      <c r="M3" s="136" t="s">
+        <v>1809</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="60.75">
-      <c r="A4" s="195"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
       <c r="D4" s="102"/>
@@ -22206,18 +22222,18 @@
       <c r="H4" s="106"/>
       <c r="I4" s="106"/>
       <c r="J4" s="99"/>
-      <c r="K4" s="137" t="s">
-        <v>1809</v>
-      </c>
-      <c r="L4" s="139" t="s">
+      <c r="K4" s="134" t="s">
         <v>1810</v>
       </c>
-      <c r="M4" s="139" t="s">
+      <c r="L4" s="136" t="s">
         <v>1811</v>
       </c>
+      <c r="M4" s="136" t="s">
+        <v>1812</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="75.75">
-      <c r="A5" s="195"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
       <c r="D5" s="102"/>
@@ -22227,18 +22243,18 @@
       <c r="H5" s="106"/>
       <c r="I5" s="106"/>
       <c r="J5" s="99"/>
-      <c r="K5" s="137" t="s">
-        <v>1812</v>
-      </c>
-      <c r="L5" s="139" t="s">
+      <c r="K5" s="134" t="s">
         <v>1813</v>
       </c>
-      <c r="M5" s="139" t="s">
+      <c r="L5" s="136" t="s">
         <v>1814</v>
       </c>
+      <c r="M5" s="136" t="s">
+        <v>1815</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="60.75">
-      <c r="A6" s="195"/>
+      <c r="A6" s="205"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
       <c r="D6" s="102"/>
@@ -22248,18 +22264,18 @@
       <c r="H6" s="106"/>
       <c r="I6" s="106"/>
       <c r="J6" s="99"/>
-      <c r="K6" s="137" t="s">
-        <v>1815</v>
-      </c>
-      <c r="L6" s="139" t="s">
+      <c r="K6" s="134" t="s">
         <v>1816</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="L6" s="136" t="s">
         <v>1817</v>
       </c>
+      <c r="M6" s="136" t="s">
+        <v>1818</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="105.75">
-      <c r="A7" s="195"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
       <c r="D7" s="102"/>
@@ -22269,18 +22285,18 @@
       <c r="H7" s="106"/>
       <c r="I7" s="106"/>
       <c r="J7" s="99"/>
-      <c r="K7" s="137" t="s">
-        <v>1818</v>
-      </c>
-      <c r="L7" s="139" t="s">
+      <c r="K7" s="134" t="s">
         <v>1819</v>
       </c>
-      <c r="M7" s="139" t="s">
+      <c r="L7" s="136" t="s">
         <v>1820</v>
       </c>
+      <c r="M7" s="136" t="s">
+        <v>1821</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="30.75">
-      <c r="A8" s="195"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
       <c r="D8" s="102"/>
@@ -22290,18 +22306,18 @@
       <c r="H8" s="106"/>
       <c r="I8" s="106"/>
       <c r="J8" s="99"/>
-      <c r="K8" s="137" t="s">
-        <v>1821</v>
-      </c>
-      <c r="L8" s="139" t="s">
+      <c r="K8" s="134" t="s">
         <v>1822</v>
       </c>
-      <c r="M8" s="139" t="s">
+      <c r="L8" s="136" t="s">
         <v>1823</v>
       </c>
+      <c r="M8" s="136" t="s">
+        <v>1824</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="162">
-      <c r="A9" s="195"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="67" t="s">
         <v>315</v>
       </c>
@@ -22315,19 +22331,19 @@
         <v>320</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="H9" s="108" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="I9" s="108" t="s">
         <v>1654</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="K9" s="67" t="s">
         <v>954</v>
@@ -22340,7 +22356,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.25">
-      <c r="A10" s="195"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67"/>
@@ -22361,12 +22377,12 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="252">
-      <c r="A11" s="195"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="67" t="s">
         <v>325</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>327</v>
@@ -22375,26 +22391,26 @@
         <v>329</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="G11" s="107" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="H11" s="107" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="I11" s="107" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="J11" s="67"/>
       <c r="K11" s="67" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="L11" s="109" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="M11" s="67" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30">
@@ -22409,13 +22425,13 @@
       <c r="I12" s="108"/>
       <c r="J12" s="67"/>
       <c r="K12" s="109" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="M12" s="67" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -22430,13 +22446,13 @@
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="109" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="M13" s="67" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="45">
@@ -22451,13 +22467,13 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="109" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="M14" s="67" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30">
@@ -22472,13 +22488,13 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
       <c r="K15" s="109" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L15" s="67" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="M15" s="67" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -22493,13 +22509,13 @@
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
       <c r="K16" s="109" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="L16" s="67" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="M16" s="67" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="75">
@@ -22514,13 +22530,13 @@
       <c r="I17" s="67"/>
       <c r="J17" s="67"/>
       <c r="K17" s="109" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="L17" s="67" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="M17" s="67" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="75">
@@ -22535,13 +22551,13 @@
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
       <c r="K18" s="109" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="L18" s="67" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="M18" s="67" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="45">
@@ -22556,13 +22572,13 @@
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
       <c r="K19" s="109" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="L19" s="67" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="M19" s="67" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -22577,13 +22593,13 @@
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="109" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="L20" s="67" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="M20" s="67" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30">
@@ -22598,18 +22614,18 @@
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
       <c r="K21" s="67" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="L21" s="67" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="M21" s="67" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="45">
-      <c r="A22" s="195" t="s">
-        <v>1864</v>
+      <c r="A22" s="205" t="s">
+        <v>1865</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>334</v>
@@ -22624,13 +22640,13 @@
         <v>339</v>
       </c>
       <c r="F22" s="65" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="I22" s="65" t="s">
         <v>1222</v>
@@ -22641,12 +22657,12 @@
       <c r="M22" s="65"/>
     </row>
     <row r="23" spans="1:13" ht="90">
-      <c r="A23" s="195"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="65" t="s">
         <v>344</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>347</v>
@@ -22655,32 +22671,32 @@
         <v>349</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="I23" s="65" t="s">
         <v>1122</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>1872</v>
-      </c>
-      <c r="K23" s="137" t="s">
         <v>1873</v>
       </c>
-      <c r="L23" s="138" t="s">
+      <c r="K23" s="134" t="s">
         <v>1874</v>
       </c>
-      <c r="M23" s="138" t="s">
+      <c r="L23" s="135" t="s">
         <v>1875</v>
       </c>
+      <c r="M23" s="135" t="s">
+        <v>1876</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
-      <c r="A24" s="195"/>
+      <c r="A24" s="205"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
@@ -22690,18 +22706,18 @@
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
-      <c r="K24" s="137" t="s">
-        <v>1876</v>
-      </c>
-      <c r="L24" s="139" t="s">
+      <c r="K24" s="134" t="s">
         <v>1877</v>
       </c>
-      <c r="M24" s="139" t="s">
+      <c r="L24" s="136" t="s">
         <v>1878</v>
       </c>
+      <c r="M24" s="136" t="s">
+        <v>1879</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75">
-      <c r="A25" s="195"/>
+      <c r="A25" s="205"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
@@ -22711,18 +22727,18 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="67"/>
-      <c r="K25" s="137" t="s">
-        <v>1879</v>
-      </c>
-      <c r="L25" s="139" t="s">
+      <c r="K25" s="134" t="s">
         <v>1880</v>
       </c>
-      <c r="M25" s="139" t="s">
+      <c r="L25" s="136" t="s">
         <v>1881</v>
       </c>
+      <c r="M25" s="136" t="s">
+        <v>1882</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="30.75">
-      <c r="A26" s="195"/>
+      <c r="A26" s="205"/>
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
@@ -22732,18 +22748,18 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="67"/>
-      <c r="K26" s="137" t="s">
-        <v>1882</v>
-      </c>
-      <c r="L26" s="139" t="s">
+      <c r="K26" s="134" t="s">
         <v>1883</v>
       </c>
-      <c r="M26" s="139" t="s">
+      <c r="L26" s="136" t="s">
         <v>1884</v>
       </c>
+      <c r="M26" s="136" t="s">
+        <v>1885</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
-      <c r="A27" s="195"/>
+      <c r="A27" s="205"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -22753,18 +22769,18 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="67"/>
-      <c r="K27" s="137" t="s">
-        <v>1885</v>
-      </c>
-      <c r="L27" s="139" t="s">
+      <c r="K27" s="134" t="s">
         <v>1886</v>
       </c>
-      <c r="M27" s="139" t="s">
+      <c r="L27" s="136" t="s">
         <v>1887</v>
       </c>
+      <c r="M27" s="136" t="s">
+        <v>1888</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75">
-      <c r="A28" s="195"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -22774,18 +22790,18 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="137" t="s">
-        <v>1888</v>
-      </c>
-      <c r="L28" s="139" t="s">
+      <c r="K28" s="134" t="s">
         <v>1889</v>
       </c>
-      <c r="M28" s="139" t="s">
+      <c r="L28" s="136" t="s">
         <v>1890</v>
       </c>
+      <c r="M28" s="136" t="s">
+        <v>1891</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75">
-      <c r="A29" s="195"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
@@ -22795,32 +22811,32 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="67"/>
-      <c r="K29" s="137" t="s">
+      <c r="K29" s="134" t="s">
         <v>941</v>
       </c>
-      <c r="L29" s="139" t="s">
-        <v>1891</v>
-      </c>
-      <c r="M29" s="139" t="s">
+      <c r="L29" s="136" t="s">
+        <v>1892</v>
+      </c>
+      <c r="M29" s="136" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="90">
-      <c r="A30" s="195"/>
+      <c r="A30" s="205"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
       <c r="F30" s="67" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="H30" s="67" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="I30" s="67" t="s">
         <v>1654</v>
@@ -22837,7 +22853,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="195"/>
+      <c r="A31" s="205"/>
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
@@ -22858,12 +22874,12 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="90">
-      <c r="A32" s="195"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="67" t="s">
         <v>362</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>365</v>
@@ -22872,19 +22888,19 @@
         <v>367</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="H32" s="67" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="I32" s="67" t="s">
         <v>1654</v>
       </c>
       <c r="J32" s="67" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="K32" s="109" t="s">
         <v>954</v>
@@ -22897,7 +22913,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="195"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
       <c r="D33" s="67"/>
@@ -22918,12 +22934,12 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="75">
-      <c r="A34" s="195"/>
+      <c r="A34" s="205"/>
       <c r="B34" s="67" t="s">
         <v>370</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>373</v>
@@ -22932,13 +22948,13 @@
         <v>375</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="H34" s="67" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="I34" s="67" t="s">
         <v>1374</v>
@@ -22949,12 +22965,12 @@
       <c r="M34" s="67"/>
     </row>
     <row r="35" spans="1:13" ht="105">
-      <c r="A35" s="195"/>
+      <c r="A35" s="205"/>
       <c r="B35" s="67" t="s">
         <v>378</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D35" s="67" t="s">
         <v>381</v>
@@ -22963,19 +22979,19 @@
         <v>339</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="H35" s="67" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="I35" s="67" t="s">
         <v>1654</v>
       </c>
       <c r="J35" s="67" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="K35" s="109" t="s">
         <v>954</v>
@@ -22988,7 +23004,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="195"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="67"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
@@ -23009,21 +23025,21 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="60">
-      <c r="A37" s="195"/>
+      <c r="A37" s="205"/>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="G37" s="67" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="H37" s="67" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="I37" s="67" t="s">
         <v>1222</v>
@@ -23052,17 +23068,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A595C2436754DD4192B3BEE0FFE1ED0A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ba19257e65125414350f132367e985">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00591925-1995-4bf8-8d28-1f7cbeda4924" xmlns:ns3="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a6491f746e84da8ae5f2642b9bcf21" ns2:_="" ns3:_="">
     <xsd:import namespace="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
@@ -23291,6 +23296,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
   <ds:schemaRefs>
@@ -23300,17 +23316,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
-    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23327,4 +23332,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/atique.xlsx
+++ b/atique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Desktop\New folder\excel_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66DC758-4C05-477C-86E2-93F64D5BF5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE5AAE-BE91-4DAF-949C-5D54B89C5F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1979">
   <si>
     <t>#</t>
   </si>
@@ -6651,9 +6651,6 @@
   </si>
   <si>
     <t>විදුලිය</t>
-  </si>
-  <si>
-    <t>Questions</t>
   </si>
   <si>
     <t>Questions in Tamil</t>
@@ -13142,7 +13139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -13802,6 +13799,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13843,18 +13846,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17361,9 +17352,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1"/>
@@ -17426,7 +17417,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" customFormat="1" ht="57.75">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="273" t="s">
         <v>824</v>
       </c>
       <c r="B2" s="115" t="s">
@@ -17465,7 +17456,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="15">
-      <c r="A3" s="272"/>
+      <c r="A3" s="274"/>
       <c r="B3" s="115"/>
       <c r="C3" s="116"/>
       <c r="D3" s="115"/>
@@ -17486,7 +17477,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="15">
-      <c r="A4" s="272"/>
+      <c r="A4" s="274"/>
       <c r="B4" s="115"/>
       <c r="C4" s="116"/>
       <c r="D4" s="115"/>
@@ -17507,7 +17498,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" customFormat="1" ht="15">
-      <c r="A5" s="272"/>
+      <c r="A5" s="274"/>
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
       <c r="D5" s="115"/>
@@ -17528,7 +17519,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" customFormat="1" ht="15">
-      <c r="A6" s="272"/>
+      <c r="A6" s="274"/>
       <c r="B6" s="115"/>
       <c r="C6" s="116"/>
       <c r="D6" s="115"/>
@@ -17549,7 +17540,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" customFormat="1" ht="15">
-      <c r="A7" s="272"/>
+      <c r="A7" s="274"/>
       <c r="B7" s="115"/>
       <c r="C7" s="116"/>
       <c r="D7" s="115"/>
@@ -17570,7 +17561,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" customFormat="1" ht="15">
-      <c r="A8" s="272"/>
+      <c r="A8" s="274"/>
       <c r="B8" s="115"/>
       <c r="C8" s="116"/>
       <c r="D8" s="115"/>
@@ -17591,7 +17582,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" customFormat="1" ht="45">
-      <c r="A9" s="272"/>
+      <c r="A9" s="274"/>
       <c r="B9" s="117" t="s">
         <v>270</v>
       </c>
@@ -17628,7 +17619,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A10" s="272"/>
+      <c r="A10" s="274"/>
       <c r="B10" s="115"/>
       <c r="C10" s="116"/>
       <c r="D10" s="115"/>
@@ -17651,7 +17642,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" customFormat="1" ht="30">
-      <c r="A11" s="272"/>
+      <c r="A11" s="274"/>
       <c r="B11" s="115"/>
       <c r="C11" s="116"/>
       <c r="D11" s="115"/>
@@ -17672,7 +17663,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A12" s="272"/>
+      <c r="A12" s="274"/>
       <c r="B12" s="115"/>
       <c r="C12" s="116"/>
       <c r="D12" s="115"/>
@@ -17693,7 +17684,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" customFormat="1" ht="30">
-      <c r="A13" s="272"/>
+      <c r="A13" s="274"/>
       <c r="B13" s="115"/>
       <c r="C13" s="116"/>
       <c r="D13" s="115"/>
@@ -17714,7 +17705,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A14" s="272"/>
+      <c r="A14" s="274"/>
       <c r="B14" s="115"/>
       <c r="C14" s="116"/>
       <c r="D14" s="115"/>
@@ -17735,7 +17726,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A15" s="272"/>
+      <c r="A15" s="274"/>
       <c r="B15" s="115"/>
       <c r="C15" s="116"/>
       <c r="D15" s="115"/>
@@ -17756,7 +17747,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A16" s="272"/>
+      <c r="A16" s="274"/>
       <c r="B16" s="115"/>
       <c r="C16" s="116"/>
       <c r="D16" s="115"/>
@@ -17777,7 +17768,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A17" s="272"/>
+      <c r="A17" s="274"/>
       <c r="B17" s="115"/>
       <c r="C17" s="116"/>
       <c r="D17" s="115"/>
@@ -17798,7 +17789,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A18" s="272"/>
+      <c r="A18" s="274"/>
       <c r="B18" s="115"/>
       <c r="C18" s="116"/>
       <c r="D18" s="115"/>
@@ -17819,7 +17810,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A19" s="272"/>
+      <c r="A19" s="274"/>
       <c r="B19" s="115"/>
       <c r="C19" s="116"/>
       <c r="D19" s="115"/>
@@ -17840,7 +17831,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" customFormat="1" ht="45">
-      <c r="A20" s="272"/>
+      <c r="A20" s="274"/>
       <c r="B20" s="115" t="s">
         <v>280</v>
       </c>
@@ -17862,7 +17853,7 @@
       <c r="H20" s="162" t="s">
         <v>893</v>
       </c>
-      <c r="I20" s="288" t="s">
+      <c r="I20" s="115" t="s">
         <v>894</v>
       </c>
       <c r="J20" s="115"/>
@@ -17877,7 +17868,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A21" s="272"/>
+      <c r="A21" s="274"/>
       <c r="B21" s="115"/>
       <c r="C21" s="116"/>
       <c r="D21" s="117"/>
@@ -17898,7 +17889,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A22" s="272"/>
+      <c r="A22" s="274"/>
       <c r="B22" s="115"/>
       <c r="C22" s="116"/>
       <c r="D22" s="117"/>
@@ -17919,7 +17910,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A23" s="272"/>
+      <c r="A23" s="274"/>
       <c r="B23" s="115"/>
       <c r="C23" s="116"/>
       <c r="D23" s="117"/>
@@ -17940,7 +17931,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A24" s="272"/>
+      <c r="A24" s="274"/>
       <c r="B24" s="115"/>
       <c r="C24" s="116"/>
       <c r="D24" s="117"/>
@@ -17961,7 +17952,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A25" s="272"/>
+      <c r="A25" s="274"/>
       <c r="B25" s="115"/>
       <c r="C25" s="116"/>
       <c r="D25" s="117"/>
@@ -17982,7 +17973,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A26" s="272"/>
+      <c r="A26" s="274"/>
       <c r="B26" s="115"/>
       <c r="C26" s="116"/>
       <c r="D26" s="117"/>
@@ -18003,7 +17994,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A27" s="272"/>
+      <c r="A27" s="274"/>
       <c r="B27" s="115"/>
       <c r="C27" s="116"/>
       <c r="D27" s="117"/>
@@ -18024,7 +18015,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A28" s="272"/>
+      <c r="A28" s="274"/>
       <c r="B28" s="115"/>
       <c r="C28" s="116"/>
       <c r="D28" s="117"/>
@@ -18045,7 +18036,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A29" s="272"/>
+      <c r="A29" s="274"/>
       <c r="B29" s="115"/>
       <c r="C29" s="116"/>
       <c r="D29" s="117"/>
@@ -18066,7 +18057,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A30" s="272"/>
+      <c r="A30" s="274"/>
       <c r="B30" s="115"/>
       <c r="C30" s="116"/>
       <c r="D30" s="117"/>
@@ -18087,7 +18078,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A31" s="272"/>
+      <c r="A31" s="274"/>
       <c r="B31" s="115"/>
       <c r="C31" s="116"/>
       <c r="D31" s="117"/>
@@ -18108,7 +18099,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" customFormat="1" ht="15.75">
-      <c r="A32" s="272"/>
+      <c r="A32" s="274"/>
       <c r="B32" s="115"/>
       <c r="C32" s="116"/>
       <c r="D32" s="117"/>
@@ -18129,7 +18120,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A33" s="272"/>
+      <c r="A33" s="274"/>
       <c r="B33" s="115"/>
       <c r="C33" s="116"/>
       <c r="D33" s="117"/>
@@ -18150,7 +18141,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A34" s="272"/>
+      <c r="A34" s="274"/>
       <c r="B34" s="115"/>
       <c r="C34" s="116"/>
       <c r="D34" s="117"/>
@@ -18171,7 +18162,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A35" s="272"/>
+      <c r="A35" s="274"/>
       <c r="B35" s="115"/>
       <c r="C35" s="116"/>
       <c r="D35" s="117"/>
@@ -18192,7 +18183,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A36" s="272"/>
+      <c r="A36" s="274"/>
       <c r="B36" s="115"/>
       <c r="C36" s="116"/>
       <c r="D36" s="117"/>
@@ -18213,7 +18204,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A37" s="272"/>
+      <c r="A37" s="274"/>
       <c r="B37" s="115"/>
       <c r="C37" s="116"/>
       <c r="D37" s="117"/>
@@ -18234,7 +18225,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A38" s="273"/>
+      <c r="A38" s="275"/>
       <c r="B38" s="115"/>
       <c r="C38" s="116"/>
       <c r="D38" s="117"/>
@@ -18255,7 +18246,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A39" s="271" t="s">
+      <c r="A39" s="273" t="s">
         <v>950</v>
       </c>
       <c r="B39" s="117" t="s">
@@ -18294,7 +18285,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A40" s="272"/>
+      <c r="A40" s="274"/>
       <c r="B40" s="115"/>
       <c r="C40" s="116"/>
       <c r="D40" s="115"/>
@@ -18315,7 +18306,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" customFormat="1" ht="30">
-      <c r="A41" s="272"/>
+      <c r="A41" s="274"/>
       <c r="B41" s="115" t="s">
         <v>296</v>
       </c>
@@ -18352,7 +18343,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A42" s="272"/>
+      <c r="A42" s="274"/>
       <c r="B42" s="115"/>
       <c r="C42" s="116"/>
       <c r="D42" s="115"/>
@@ -18373,7 +18364,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A43" s="272"/>
+      <c r="A43" s="274"/>
       <c r="B43" s="115"/>
       <c r="C43" s="116"/>
       <c r="D43" s="115"/>
@@ -18394,7 +18385,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A44" s="272"/>
+      <c r="A44" s="274"/>
       <c r="B44" s="115"/>
       <c r="C44" s="116"/>
       <c r="D44" s="115"/>
@@ -18418,7 +18409,7 @@
       <c r="P44" s="180"/>
     </row>
     <row r="45" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A45" s="272"/>
+      <c r="A45" s="274"/>
       <c r="B45" s="115"/>
       <c r="C45" s="116"/>
       <c r="D45" s="115"/>
@@ -18442,7 +18433,7 @@
       <c r="P45" s="180"/>
     </row>
     <row r="46" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A46" s="272"/>
+      <c r="A46" s="274"/>
       <c r="B46" s="115"/>
       <c r="C46" s="116"/>
       <c r="D46" s="115"/>
@@ -18466,7 +18457,7 @@
       <c r="P46" s="180"/>
     </row>
     <row r="47" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A47" s="272"/>
+      <c r="A47" s="274"/>
       <c r="B47" s="115"/>
       <c r="C47" s="116"/>
       <c r="D47" s="115"/>
@@ -18490,7 +18481,7 @@
       <c r="P47" s="180"/>
     </row>
     <row r="48" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A48" s="272"/>
+      <c r="A48" s="274"/>
       <c r="B48" s="115"/>
       <c r="C48" s="116"/>
       <c r="D48" s="115"/>
@@ -18514,7 +18505,7 @@
       <c r="P48" s="180"/>
     </row>
     <row r="49" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A49" s="272"/>
+      <c r="A49" s="274"/>
       <c r="B49" s="115"/>
       <c r="C49" s="116"/>
       <c r="D49" s="115"/>
@@ -18538,7 +18529,7 @@
       <c r="P49" s="180"/>
     </row>
     <row r="50" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A50" s="272"/>
+      <c r="A50" s="274"/>
       <c r="B50" s="115"/>
       <c r="C50" s="116"/>
       <c r="D50" s="115"/>
@@ -18562,7 +18553,7 @@
       <c r="P50" s="180"/>
     </row>
     <row r="51" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A51" s="272"/>
+      <c r="A51" s="274"/>
       <c r="B51" s="115"/>
       <c r="C51" s="116"/>
       <c r="D51" s="115"/>
@@ -18583,7 +18574,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A52" s="272"/>
+      <c r="A52" s="274"/>
       <c r="B52" s="115"/>
       <c r="C52" s="116"/>
       <c r="D52" s="115"/>
@@ -18604,7 +18595,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A53" s="272"/>
+      <c r="A53" s="274"/>
       <c r="B53" s="115"/>
       <c r="C53" s="116"/>
       <c r="D53" s="115"/>
@@ -18625,7 +18616,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A54" s="272"/>
+      <c r="A54" s="274"/>
       <c r="B54" s="115"/>
       <c r="C54" s="116"/>
       <c r="D54" s="115"/>
@@ -18646,7 +18637,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A55" s="272"/>
+      <c r="A55" s="274"/>
       <c r="B55" s="115"/>
       <c r="C55" s="116"/>
       <c r="D55" s="115"/>
@@ -18667,7 +18658,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A56" s="273"/>
+      <c r="A56" s="275"/>
       <c r="B56" s="115"/>
       <c r="C56" s="116"/>
       <c r="D56" s="115"/>
@@ -18688,7 +18679,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" customFormat="1" ht="114.75" customHeight="1">
-      <c r="A57" s="274" t="s">
+      <c r="A57" s="276" t="s">
         <v>1006</v>
       </c>
       <c r="B57" s="115" t="s">
@@ -18727,7 +18718,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" customFormat="1" ht="15">
-      <c r="A58" s="274"/>
+      <c r="A58" s="276"/>
       <c r="B58" s="145"/>
       <c r="C58" s="191"/>
       <c r="D58" s="145"/>
@@ -18748,7 +18739,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" customFormat="1" ht="105">
-      <c r="A59" s="275"/>
+      <c r="A59" s="277"/>
       <c r="B59" s="115" t="s">
         <v>393</v>
       </c>
@@ -18787,7 +18778,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" customFormat="1" ht="15.75">
-      <c r="A60" s="275"/>
+      <c r="A60" s="277"/>
       <c r="B60" s="70"/>
       <c r="C60" s="67"/>
       <c r="D60" s="70"/>
@@ -18808,7 +18799,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" customFormat="1" ht="15">
-      <c r="A61" s="274"/>
+      <c r="A61" s="276"/>
       <c r="B61" s="158"/>
       <c r="C61" s="195"/>
       <c r="D61" s="158"/>
@@ -18829,7 +18820,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" customFormat="1" ht="15">
-      <c r="A62" s="274"/>
+      <c r="A62" s="276"/>
       <c r="B62" s="115"/>
       <c r="C62" s="116"/>
       <c r="D62" s="115"/>
@@ -18850,7 +18841,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="45.75">
-      <c r="A63" s="272"/>
+      <c r="A63" s="274"/>
       <c r="B63" s="122" t="s">
         <v>524</v>
       </c>
@@ -18887,7 +18878,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.75">
-      <c r="A64" s="272"/>
+      <c r="A64" s="274"/>
       <c r="B64" s="122"/>
       <c r="C64" s="115"/>
       <c r="D64" s="121"/>
@@ -18908,7 +18899,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75">
-      <c r="A65" s="272"/>
+      <c r="A65" s="274"/>
       <c r="B65" s="122"/>
       <c r="C65" s="115"/>
       <c r="D65" s="121"/>
@@ -18929,7 +18920,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="15.75">
-      <c r="A66" s="272"/>
+      <c r="A66" s="274"/>
       <c r="B66" s="122"/>
       <c r="C66" s="115"/>
       <c r="D66" s="121"/>
@@ -18950,7 +18941,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75">
-      <c r="A67" s="272"/>
+      <c r="A67" s="274"/>
       <c r="B67" s="122"/>
       <c r="C67" s="115"/>
       <c r="D67" s="121"/>
@@ -18971,7 +18962,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75">
-      <c r="A68" s="272"/>
+      <c r="A68" s="274"/>
       <c r="B68" s="122"/>
       <c r="C68" s="115"/>
       <c r="D68" s="121"/>
@@ -18992,7 +18983,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75">
-      <c r="A69" s="272"/>
+      <c r="A69" s="274"/>
       <c r="B69" s="122"/>
       <c r="C69" s="115"/>
       <c r="D69" s="121"/>
@@ -19013,7 +19004,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="15.75">
-      <c r="A70" s="272"/>
+      <c r="A70" s="274"/>
       <c r="B70" s="122"/>
       <c r="C70" s="115"/>
       <c r="D70" s="121"/>
@@ -19034,7 +19025,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75">
-      <c r="A71" s="272"/>
+      <c r="A71" s="274"/>
       <c r="B71" s="122"/>
       <c r="C71" s="115"/>
       <c r="D71" s="121"/>
@@ -19055,7 +19046,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="30">
-      <c r="A72" s="272"/>
+      <c r="A72" s="274"/>
       <c r="B72" s="122"/>
       <c r="C72" s="115"/>
       <c r="D72" s="121"/>
@@ -19076,7 +19067,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75">
-      <c r="A73" s="272"/>
+      <c r="A73" s="274"/>
       <c r="B73" s="122"/>
       <c r="C73" s="115"/>
       <c r="D73" s="121"/>
@@ -19097,7 +19088,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="30">
-      <c r="A74" s="272"/>
+      <c r="A74" s="274"/>
       <c r="B74" s="122"/>
       <c r="C74" s="115"/>
       <c r="D74" s="121"/>
@@ -19118,7 +19109,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="45">
-      <c r="A75" s="272"/>
+      <c r="A75" s="274"/>
       <c r="B75" s="122"/>
       <c r="C75" s="115"/>
       <c r="D75" s="121"/>
@@ -19139,7 +19130,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="210">
-      <c r="A76" s="272"/>
+      <c r="A76" s="274"/>
       <c r="B76" s="122" t="s">
         <v>542</v>
       </c>
@@ -19178,7 +19169,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="15">
-      <c r="A77" s="272"/>
+      <c r="A77" s="274"/>
       <c r="B77" s="115"/>
       <c r="C77" s="115"/>
       <c r="D77" s="115"/>
@@ -19199,7 +19190,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="210">
-      <c r="A78" s="272"/>
+      <c r="A78" s="274"/>
       <c r="B78" s="122" t="s">
         <v>552</v>
       </c>
@@ -19232,7 +19223,7 @@
       <c r="M78" s="115"/>
     </row>
     <row r="79" spans="1:13" ht="210">
-      <c r="A79" s="273"/>
+      <c r="A79" s="275"/>
       <c r="B79" s="122" t="s">
         <v>561</v>
       </c>
@@ -19265,7 +19256,7 @@
       <c r="M79" s="115"/>
     </row>
     <row r="80" spans="1:13" ht="150">
-      <c r="A80" s="276" t="s">
+      <c r="A80" s="278" t="s">
         <v>1078</v>
       </c>
       <c r="B80" s="122" t="s">
@@ -19306,7 +19297,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" ht="15.75">
-      <c r="A81" s="276"/>
+      <c r="A81" s="278"/>
       <c r="B81" s="122"/>
       <c r="C81" s="115"/>
       <c r="D81" s="121"/>
@@ -19327,7 +19318,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" ht="45">
-      <c r="A82" s="276"/>
+      <c r="A82" s="278"/>
       <c r="B82" s="146"/>
       <c r="C82" s="145" t="s">
         <v>1085</v>
@@ -19384,7 +19375,7 @@
       <c r="P83" s="112"/>
     </row>
     <row r="84" spans="1:16" s="64" customFormat="1" ht="45.75">
-      <c r="A84" s="285"/>
+      <c r="A84" s="271"/>
       <c r="B84" s="71" t="s">
         <v>704</v>
       </c>
@@ -19418,7 +19409,7 @@
       <c r="P84" s="112"/>
     </row>
     <row r="85" spans="1:16" s="64" customFormat="1" ht="39" customHeight="1">
-      <c r="A85" s="285"/>
+      <c r="A85" s="271"/>
       <c r="B85" s="111" t="s">
         <v>1095</v>
       </c>
@@ -19446,7 +19437,7 @@
       <c r="P85" s="65"/>
     </row>
     <row r="86" spans="1:16" s="64" customFormat="1" ht="48" customHeight="1">
-      <c r="A86" s="286"/>
+      <c r="A86" s="272"/>
       <c r="B86" s="108" t="s">
         <v>713</v>
       </c>
@@ -19468,7 +19459,7 @@
       <c r="H86" s="204" t="s">
         <v>1102</v>
       </c>
-      <c r="I86" s="287" t="s">
+      <c r="I86" s="115" t="s">
         <v>894</v>
       </c>
       <c r="J86" s="109"/>
@@ -19564,9 +19555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284FCB9-3FD4-49BA-8155-9FD865B384A9}">
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -19602,20 +19593,20 @@
       <c r="E1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="82" t="s">
-        <v>1113</v>
+      <c r="F1" s="61" t="s">
+        <v>816</v>
       </c>
       <c r="G1" s="82" t="s">
         <v>817</v>
       </c>
       <c r="H1" s="82" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I1" s="82" t="s">
         <v>819</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>821</v>
@@ -19628,35 +19619,35 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="60">
-      <c r="A2" s="278" t="s">
-        <v>1116</v>
+      <c r="A2" s="280" t="s">
+        <v>1115</v>
       </c>
       <c r="B2" s="83" t="s">
         <v>430</v>
       </c>
       <c r="C2" s="205" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>433</v>
       </c>
       <c r="E2" s="206" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>1118</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>1119</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="207" t="s">
         <v>1120</v>
       </c>
-      <c r="H2" s="207" t="s">
+      <c r="I2" s="83" t="s">
         <v>1121</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="136" t="s">
         <v>1122</v>
-      </c>
-      <c r="J2" s="136" t="s">
-        <v>1123</v>
       </c>
       <c r="K2" s="127" t="s">
         <v>960</v>
@@ -19669,7 +19660,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="278"/>
+      <c r="A3" s="280"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="67"/>
@@ -19680,17 +19671,17 @@
       <c r="I3" s="85"/>
       <c r="J3" s="68"/>
       <c r="K3" s="132" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L3" s="159" t="s">
         <v>1124</v>
       </c>
-      <c r="L3" s="159" t="s">
+      <c r="M3" s="66" t="s">
         <v>1125</v>
       </c>
-      <c r="M3" s="66" t="s">
-        <v>1126</v>
-      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
-      <c r="A4" s="278"/>
+      <c r="A4" s="280"/>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="67"/>
@@ -19701,87 +19692,87 @@
       <c r="I4" s="85"/>
       <c r="J4" s="68"/>
       <c r="K4" s="132" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L4" s="159" t="s">
         <v>1127</v>
       </c>
-      <c r="L4" s="159" t="s">
+      <c r="M4" s="66" t="s">
         <v>1128</v>
       </c>
-      <c r="M4" s="66" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="55.5" customHeight="1">
+      <c r="A5" s="280"/>
+      <c r="B5" s="83" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="83" t="s">
+      <c r="C5" s="205" t="s">
         <v>1130</v>
       </c>
-      <c r="C5" s="205" t="s">
+      <c r="D5" s="96" t="s">
         <v>1131</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>1132</v>
       </c>
       <c r="E5" s="84" t="s">
         <v>445</v>
       </c>
       <c r="F5" s="86" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G5" s="87" t="s">
         <v>1133</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="H5" s="208" t="s">
         <v>1134</v>
       </c>
-      <c r="H5" s="208" t="s">
+      <c r="I5" s="83" t="s">
         <v>1135</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="J5" s="134" t="s">
         <v>1136</v>
-      </c>
-      <c r="J5" s="134" t="s">
-        <v>1137</v>
       </c>
       <c r="K5" s="68"/>
       <c r="L5" s="68"/>
       <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:13" ht="72" customHeight="1">
-      <c r="A6" s="278"/>
+      <c r="A6" s="280"/>
       <c r="B6" s="83" t="s">
         <v>449</v>
       </c>
       <c r="C6" s="205" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D6" s="96" t="s">
         <v>452</v>
       </c>
       <c r="E6" s="206" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F6" s="83" t="s">
         <v>1139</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="G6" s="208" t="s">
         <v>1140</v>
       </c>
-      <c r="G6" s="208" t="s">
+      <c r="H6" s="209" t="s">
         <v>1141</v>
       </c>
-      <c r="H6" s="209" t="s">
+      <c r="I6" s="83" t="s">
         <v>1142</v>
-      </c>
-      <c r="I6" s="83" t="s">
-        <v>1143</v>
       </c>
       <c r="J6" s="84"/>
       <c r="K6" s="132" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L6" s="159" t="s">
         <v>1144</v>
       </c>
-      <c r="L6" s="159" t="s">
+      <c r="M6" s="159" t="s">
         <v>1145</v>
       </c>
-      <c r="M6" s="159" t="s">
-        <v>1146</v>
-      </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="278"/>
+      <c r="A7" s="280"/>
       <c r="B7" s="83"/>
       <c r="C7" s="205"/>
       <c r="D7" s="96"/>
@@ -19792,17 +19783,17 @@
       <c r="I7" s="83"/>
       <c r="J7" s="84"/>
       <c r="K7" s="132" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L7" s="159" t="s">
         <v>1147</v>
       </c>
-      <c r="L7" s="159" t="s">
+      <c r="M7" s="159" t="s">
         <v>1148</v>
       </c>
-      <c r="M7" s="159" t="s">
-        <v>1149</v>
-      </c>
     </row>
     <row r="8" spans="1:13" ht="15.75">
-      <c r="A8" s="278"/>
+      <c r="A8" s="280"/>
       <c r="B8" s="83"/>
       <c r="C8" s="205"/>
       <c r="D8" s="96"/>
@@ -19813,17 +19804,17 @@
       <c r="I8" s="83"/>
       <c r="J8" s="84"/>
       <c r="K8" s="132" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L8" s="159" t="s">
         <v>1150</v>
       </c>
-      <c r="L8" s="159" t="s">
+      <c r="M8" s="66" t="s">
         <v>1151</v>
       </c>
-      <c r="M8" s="66" t="s">
-        <v>1152</v>
-      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
-      <c r="A9" s="278"/>
+      <c r="A9" s="280"/>
       <c r="B9" s="83"/>
       <c r="C9" s="205"/>
       <c r="D9" s="96"/>
@@ -19834,17 +19825,17 @@
       <c r="I9" s="83"/>
       <c r="J9" s="84"/>
       <c r="K9" s="132" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L9" s="159" t="s">
         <v>1153</v>
       </c>
-      <c r="L9" s="159" t="s">
+      <c r="M9" s="66" t="s">
         <v>1154</v>
       </c>
-      <c r="M9" s="66" t="s">
-        <v>1155</v>
-      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75">
-      <c r="A10" s="278"/>
+      <c r="A10" s="280"/>
       <c r="B10" s="83"/>
       <c r="C10" s="205"/>
       <c r="D10" s="96"/>
@@ -19855,17 +19846,17 @@
       <c r="I10" s="83"/>
       <c r="J10" s="84"/>
       <c r="K10" s="132" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L10" s="159" t="s">
         <v>1156</v>
       </c>
-      <c r="L10" s="159" t="s">
+      <c r="M10" s="66" t="s">
         <v>1157</v>
       </c>
-      <c r="M10" s="66" t="s">
-        <v>1158</v>
-      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
-      <c r="A11" s="278"/>
+      <c r="A11" s="280"/>
       <c r="B11" s="83"/>
       <c r="C11" s="205"/>
       <c r="D11" s="96"/>
@@ -19876,17 +19867,17 @@
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
       <c r="K11" s="132" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L11" s="66" t="s">
         <v>1159</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="M11" s="66" t="s">
         <v>1160</v>
       </c>
-      <c r="M11" s="66" t="s">
-        <v>1161</v>
-      </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="278"/>
+      <c r="A12" s="280"/>
       <c r="B12" s="83"/>
       <c r="C12" s="205"/>
       <c r="D12" s="96"/>
@@ -19897,43 +19888,43 @@
       <c r="I12" s="83"/>
       <c r="J12" s="84"/>
       <c r="K12" s="132" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L12" s="66" t="s">
         <v>1162</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="M12" s="66" t="s">
         <v>1163</v>
       </c>
-      <c r="M12" s="66" t="s">
-        <v>1164</v>
-      </c>
     </row>
     <row r="13" spans="1:13" ht="67.5">
-      <c r="A13" s="278"/>
+      <c r="A13" s="280"/>
       <c r="B13" s="83" t="s">
         <v>457</v>
       </c>
       <c r="C13" s="205" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D13" s="96" t="s">
         <v>460</v>
       </c>
       <c r="E13" s="206" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F13" s="86" t="s">
         <v>1166</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="G13" s="83" t="s">
         <v>1167</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="H13" s="210" t="s">
         <v>1168</v>
       </c>
-      <c r="H13" s="210" t="s">
-        <v>1169</v>
-      </c>
       <c r="I13" s="88" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J13" s="137" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="K13" s="127" t="s">
         <v>960</v>
@@ -19946,7 +19937,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75">
-      <c r="A14" s="278"/>
+      <c r="A14" s="280"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="D14" s="67"/>
@@ -19957,17 +19948,17 @@
       <c r="I14" s="85"/>
       <c r="J14" s="68"/>
       <c r="K14" s="132" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L14" s="159" t="s">
         <v>1170</v>
       </c>
-      <c r="L14" s="159" t="s">
+      <c r="M14" s="66" t="s">
         <v>1171</v>
       </c>
-      <c r="M14" s="66" t="s">
-        <v>1172</v>
-      </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="278"/>
+      <c r="A15" s="280"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="D15" s="67"/>
@@ -19978,28 +19969,28 @@
       <c r="I15" s="85"/>
       <c r="J15" s="68"/>
       <c r="K15" s="132" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L15" s="159" t="s">
         <v>1173</v>
       </c>
-      <c r="L15" s="159" t="s">
+      <c r="M15" s="66" t="s">
         <v>1174</v>
       </c>
-      <c r="M15" s="66" t="s">
-        <v>1175</v>
-      </c>
     </row>
     <row r="16" spans="1:13" ht="28.5">
-      <c r="A16" s="278"/>
+      <c r="A16" s="280"/>
       <c r="B16" s="83" t="s">
         <v>465</v>
       </c>
       <c r="C16" s="205" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D16" s="211" t="s">
         <v>1176</v>
       </c>
-      <c r="D16" s="211" t="s">
+      <c r="E16" s="206" t="s">
         <v>1177</v>
-      </c>
-      <c r="E16" s="206" t="s">
-        <v>1178</v>
       </c>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
@@ -20011,14 +20002,14 @@
       <c r="M16" s="68"/>
     </row>
     <row r="17" spans="1:13" ht="51">
-      <c r="A17" s="279" t="s">
-        <v>1179</v>
+      <c r="A17" s="281" t="s">
+        <v>1178</v>
       </c>
       <c r="B17" s="83" t="s">
         <v>473</v>
       </c>
       <c r="C17" s="205" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D17" s="96" t="s">
         <v>476</v>
@@ -20027,32 +20018,32 @@
         <v>487</v>
       </c>
       <c r="F17" s="86" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G17" s="83" t="s">
         <v>1181</v>
       </c>
-      <c r="G17" s="83" t="s">
+      <c r="H17" s="208" t="s">
         <v>1182</v>
       </c>
-      <c r="H17" s="208" t="s">
+      <c r="I17" s="83" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J17" s="86" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K17" s="66" t="s">
         <v>1183</v>
-      </c>
-      <c r="I17" s="83" t="s">
-        <v>1122</v>
-      </c>
-      <c r="J17" s="86" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K17" s="66" t="s">
-        <v>1184</v>
       </c>
       <c r="L17" s="138" t="s">
         <v>958</v>
       </c>
       <c r="M17" s="138" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="279"/>
+      <c r="A18" s="281"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="D18" s="67"/>
@@ -20063,7 +20054,7 @@
       <c r="I18" s="85"/>
       <c r="J18" s="68"/>
       <c r="K18" s="66" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L18" s="138" t="s">
         <v>961</v>
@@ -20073,46 +20064,46 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A19" s="279"/>
+      <c r="A19" s="281"/>
       <c r="B19" s="83" t="s">
         <v>482</v>
       </c>
       <c r="C19" s="205" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>485</v>
       </c>
       <c r="E19" s="212" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F19" s="83" t="s">
         <v>1188</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="G19" s="213" t="s">
         <v>1189</v>
       </c>
-      <c r="G19" s="213" t="s">
+      <c r="H19" s="83" t="s">
         <v>1190</v>
       </c>
-      <c r="H19" s="83" t="s">
+      <c r="I19" s="83" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J19" s="139" t="s">
         <v>1191</v>
       </c>
-      <c r="I19" s="83" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J19" s="139" t="s">
+      <c r="K19" s="132" t="s">
         <v>1192</v>
       </c>
-      <c r="K19" s="132" t="s">
+      <c r="L19" s="159" t="s">
         <v>1193</v>
       </c>
-      <c r="L19" s="159" t="s">
+      <c r="M19" s="66" t="s">
         <v>1194</v>
       </c>
-      <c r="M19" s="66" t="s">
-        <v>1195</v>
-      </c>
     </row>
     <row r="20" spans="1:13" ht="19.5">
-      <c r="A20" s="279"/>
+      <c r="A20" s="281"/>
       <c r="B20" s="83"/>
       <c r="C20" s="205"/>
       <c r="D20" s="96"/>
@@ -20123,17 +20114,17 @@
       <c r="I20" s="83"/>
       <c r="J20" s="139"/>
       <c r="K20" s="132" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L20" s="159" t="s">
         <v>1196</v>
       </c>
-      <c r="L20" s="159" t="s">
+      <c r="M20" s="159" t="s">
         <v>1197</v>
       </c>
-      <c r="M20" s="159" t="s">
-        <v>1198</v>
-      </c>
     </row>
     <row r="21" spans="1:13" ht="19.5">
-      <c r="A21" s="279"/>
+      <c r="A21" s="281"/>
       <c r="B21" s="83"/>
       <c r="C21" s="205"/>
       <c r="D21" s="96"/>
@@ -20144,17 +20135,17 @@
       <c r="I21" s="83"/>
       <c r="J21" s="139"/>
       <c r="K21" s="132" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L21" s="66" t="s">
         <v>1199</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="M21" s="66" t="s">
         <v>1200</v>
       </c>
-      <c r="M21" s="66" t="s">
-        <v>1201</v>
-      </c>
     </row>
     <row r="22" spans="1:13" ht="19.5">
-      <c r="A22" s="279"/>
+      <c r="A22" s="281"/>
       <c r="B22" s="83"/>
       <c r="C22" s="205"/>
       <c r="D22" s="96"/>
@@ -20165,17 +20156,17 @@
       <c r="I22" s="83"/>
       <c r="J22" s="139"/>
       <c r="K22" s="132" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L22" s="66" t="s">
         <v>1202</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="M22" s="66" t="s">
         <v>1203</v>
       </c>
-      <c r="M22" s="66" t="s">
-        <v>1204</v>
-      </c>
     </row>
     <row r="23" spans="1:13" ht="19.5">
-      <c r="A23" s="279"/>
+      <c r="A23" s="281"/>
       <c r="B23" s="83"/>
       <c r="C23" s="205"/>
       <c r="D23" s="96"/>
@@ -20186,17 +20177,17 @@
       <c r="I23" s="83"/>
       <c r="J23" s="139"/>
       <c r="K23" s="132" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L23" s="66" t="s">
         <v>1205</v>
       </c>
-      <c r="L23" s="66" t="s">
+      <c r="M23" s="66" t="s">
         <v>1206</v>
       </c>
-      <c r="M23" s="66" t="s">
-        <v>1207</v>
-      </c>
     </row>
     <row r="24" spans="1:13" ht="19.5">
-      <c r="A24" s="279"/>
+      <c r="A24" s="281"/>
       <c r="B24" s="83"/>
       <c r="C24" s="205"/>
       <c r="D24" s="96"/>
@@ -20207,83 +20198,83 @@
       <c r="I24" s="83"/>
       <c r="J24" s="139"/>
       <c r="K24" s="132" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L24" s="66" t="s">
         <v>1208</v>
       </c>
-      <c r="L24" s="66" t="s">
+      <c r="M24" s="66" t="s">
         <v>1209</v>
       </c>
-      <c r="M24" s="66" t="s">
-        <v>1210</v>
-      </c>
     </row>
     <row r="25" spans="1:13" ht="58.5">
-      <c r="A25" s="279"/>
+      <c r="A25" s="281"/>
       <c r="B25" s="83"/>
       <c r="C25" s="205"/>
       <c r="D25" s="96"/>
       <c r="E25" s="84"/>
       <c r="F25" s="83" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G25" s="213" t="s">
         <v>1211</v>
       </c>
-      <c r="G25" s="213" t="s">
+      <c r="H25" s="214" t="s">
         <v>1212</v>
       </c>
-      <c r="H25" s="214" t="s">
+      <c r="I25" s="83" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J25" s="139" t="s">
         <v>1213</v>
-      </c>
-      <c r="I25" s="83" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J25" s="139" t="s">
-        <v>1214</v>
       </c>
       <c r="K25" s="127"/>
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
     </row>
     <row r="26" spans="1:13" ht="90">
-      <c r="A26" s="280" t="s">
-        <v>1215</v>
+      <c r="A26" s="282" t="s">
+        <v>1214</v>
       </c>
       <c r="B26" s="215" t="s">
         <v>490</v>
       </c>
       <c r="C26" s="216" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D26" s="217" t="s">
         <v>493</v>
       </c>
       <c r="E26" s="218" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F26" s="215" t="s">
         <v>1217</v>
       </c>
-      <c r="F26" s="215" t="s">
+      <c r="G26" s="219" t="s">
         <v>1218</v>
       </c>
-      <c r="G26" s="219" t="s">
+      <c r="H26" s="214" t="s">
         <v>1219</v>
       </c>
-      <c r="H26" s="214" t="s">
-        <v>1220</v>
-      </c>
       <c r="I26" s="220" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J26" s="215" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K26" s="221" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L26" s="222" t="s">
         <v>958</v>
       </c>
       <c r="M26" s="222" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="279"/>
+      <c r="A27" s="281"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
       <c r="D27" s="67"/>
@@ -20294,7 +20285,7 @@
       <c r="I27" s="85"/>
       <c r="J27" s="68"/>
       <c r="K27" s="68" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L27" s="125" t="s">
         <v>961</v>
@@ -20304,44 +20295,44 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="102">
-      <c r="A28" s="279"/>
+      <c r="A28" s="281"/>
       <c r="B28" s="83" t="s">
         <v>499</v>
       </c>
       <c r="C28" s="205" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D28" s="67" t="s">
         <v>1221</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="E28" s="206" t="s">
         <v>1222</v>
       </c>
-      <c r="E28" s="206" t="s">
+      <c r="F28" s="96" t="s">
         <v>1223</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="G28" s="84" t="s">
         <v>1224</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="H28" s="83" t="s">
         <v>1225</v>
       </c>
-      <c r="H28" s="83" t="s">
-        <v>1226</v>
-      </c>
       <c r="I28" s="88" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J28" s="83"/>
       <c r="K28" s="132" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L28" s="159" t="s">
         <v>1227</v>
       </c>
-      <c r="L28" s="159" t="s">
+      <c r="M28" s="223" t="s">
         <v>1228</v>
       </c>
-      <c r="M28" s="223" t="s">
-        <v>1229</v>
-      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75">
-      <c r="A29" s="279"/>
+      <c r="A29" s="281"/>
       <c r="B29" s="83"/>
       <c r="C29" s="205"/>
       <c r="D29" s="96"/>
@@ -20352,17 +20343,17 @@
       <c r="I29" s="88"/>
       <c r="J29" s="83"/>
       <c r="K29" s="132" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L29" s="159" t="s">
         <v>1230</v>
       </c>
-      <c r="L29" s="159" t="s">
+      <c r="M29" s="224" t="s">
         <v>1231</v>
       </c>
-      <c r="M29" s="224" t="s">
-        <v>1232</v>
-      </c>
     </row>
     <row r="30" spans="1:13" ht="15.75">
-      <c r="A30" s="279"/>
+      <c r="A30" s="281"/>
       <c r="B30" s="83"/>
       <c r="C30" s="205"/>
       <c r="D30" s="96"/>
@@ -20373,17 +20364,17 @@
       <c r="I30" s="88"/>
       <c r="J30" s="83"/>
       <c r="K30" s="132" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L30" s="159" t="s">
         <v>1233</v>
       </c>
-      <c r="L30" s="159" t="s">
+      <c r="M30" s="66" t="s">
         <v>1234</v>
       </c>
-      <c r="M30" s="66" t="s">
-        <v>1235</v>
-      </c>
     </row>
     <row r="31" spans="1:13" ht="15.75">
-      <c r="A31" s="279"/>
+      <c r="A31" s="281"/>
       <c r="B31" s="83"/>
       <c r="C31" s="205"/>
       <c r="D31" s="96"/>
@@ -20394,17 +20385,17 @@
       <c r="I31" s="88"/>
       <c r="J31" s="83"/>
       <c r="K31" s="132" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L31" s="159" t="s">
         <v>1236</v>
       </c>
-      <c r="L31" s="159" t="s">
+      <c r="M31" s="66" t="s">
         <v>1237</v>
       </c>
-      <c r="M31" s="66" t="s">
-        <v>1238</v>
-      </c>
     </row>
     <row r="32" spans="1:13" ht="15.75">
-      <c r="A32" s="279"/>
+      <c r="A32" s="281"/>
       <c r="B32" s="68"/>
       <c r="C32" s="68"/>
       <c r="D32" s="67"/>
@@ -20415,32 +20406,32 @@
       <c r="I32" s="85"/>
       <c r="J32" s="68"/>
       <c r="K32" s="132" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L32" s="159" t="s">
         <v>1239</v>
       </c>
-      <c r="L32" s="159" t="s">
+      <c r="M32" s="66" t="s">
         <v>1240</v>
       </c>
-      <c r="M32" s="66" t="s">
-        <v>1241</v>
-      </c>
     </row>
     <row r="33" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A33" s="279"/>
+      <c r="A33" s="281"/>
       <c r="B33" s="68"/>
       <c r="C33" s="68"/>
       <c r="D33" s="67"/>
       <c r="E33" s="68"/>
       <c r="F33" s="85" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G33" s="213" t="s">
         <v>1242</v>
       </c>
-      <c r="G33" s="213" t="s">
+      <c r="H33" s="85" t="s">
         <v>1243</v>
       </c>
-      <c r="H33" s="85" t="s">
+      <c r="I33" s="85" t="s">
         <v>1244</v>
-      </c>
-      <c r="I33" s="85" t="s">
-        <v>1245</v>
       </c>
       <c r="J33" s="68"/>
       <c r="K33" s="68"/>
@@ -20448,14 +20439,14 @@
       <c r="M33" s="125"/>
     </row>
     <row r="34" spans="1:13" ht="79.5" customHeight="1">
-      <c r="A34" s="281" t="s">
+      <c r="A34" s="283" t="s">
         <v>901</v>
       </c>
       <c r="B34" s="83" t="s">
         <v>508</v>
       </c>
       <c r="C34" s="205" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D34" s="96" t="s">
         <v>511</v>
@@ -20464,32 +20455,32 @@
         <v>521</v>
       </c>
       <c r="F34" s="86" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G34" s="87" t="s">
         <v>1247</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="H34" s="208" t="s">
         <v>1248</v>
       </c>
-      <c r="H34" s="208" t="s">
-        <v>1249</v>
-      </c>
       <c r="I34" s="83" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J34" s="86" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="K34" s="68" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L34" s="125" t="s">
         <v>958</v>
       </c>
       <c r="M34" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="281"/>
+      <c r="A35" s="283"/>
       <c r="B35" s="68"/>
       <c r="C35" s="68"/>
       <c r="D35" s="67"/>
@@ -20500,7 +20491,7 @@
       <c r="I35" s="85"/>
       <c r="J35" s="68"/>
       <c r="K35" s="68" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L35" s="125" t="s">
         <v>961</v>
@@ -20510,46 +20501,46 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51">
-      <c r="A36" s="281"/>
+      <c r="A36" s="283"/>
       <c r="B36" s="83" t="s">
         <v>516</v>
       </c>
       <c r="C36" s="205" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D36" s="96" t="s">
         <v>519</v>
       </c>
       <c r="E36" s="206" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F36" s="83" t="s">
         <v>1251</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="G36" s="208" t="s">
         <v>1252</v>
       </c>
-      <c r="G36" s="208" t="s">
+      <c r="H36" s="83" t="s">
         <v>1253</v>
       </c>
-      <c r="H36" s="83" t="s">
+      <c r="I36" s="83" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J36" s="86" t="s">
         <v>1254</v>
       </c>
-      <c r="I36" s="83" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J36" s="86" t="s">
+      <c r="K36" s="132" t="s">
         <v>1255</v>
       </c>
-      <c r="K36" s="132" t="s">
+      <c r="L36" s="159" t="s">
         <v>1256</v>
       </c>
-      <c r="L36" s="159" t="s">
+      <c r="M36" s="66" t="s">
         <v>1257</v>
       </c>
-      <c r="M36" s="66" t="s">
-        <v>1258</v>
-      </c>
     </row>
     <row r="37" spans="1:13" ht="15.75">
-      <c r="A37" s="281"/>
+      <c r="A37" s="283"/>
       <c r="B37" s="83"/>
       <c r="C37" s="205"/>
       <c r="D37" s="96"/>
@@ -20560,17 +20551,17 @@
       <c r="I37" s="83"/>
       <c r="J37" s="86"/>
       <c r="K37" s="132" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L37" s="159" t="s">
         <v>1259</v>
       </c>
-      <c r="L37" s="159" t="s">
+      <c r="M37" s="66" t="s">
         <v>1260</v>
       </c>
-      <c r="M37" s="66" t="s">
-        <v>1261</v>
-      </c>
     </row>
     <row r="38" spans="1:13" ht="15.75">
-      <c r="A38" s="281"/>
+      <c r="A38" s="283"/>
       <c r="B38" s="83"/>
       <c r="C38" s="205"/>
       <c r="D38" s="96"/>
@@ -20581,17 +20572,17 @@
       <c r="I38" s="83"/>
       <c r="J38" s="86"/>
       <c r="K38" s="132" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L38" s="159" t="s">
         <v>1262</v>
       </c>
-      <c r="L38" s="159" t="s">
+      <c r="M38" s="66" t="s">
         <v>1263</v>
       </c>
-      <c r="M38" s="66" t="s">
-        <v>1264</v>
-      </c>
     </row>
     <row r="39" spans="1:13" ht="15.75">
-      <c r="A39" s="281"/>
+      <c r="A39" s="283"/>
       <c r="B39" s="83"/>
       <c r="C39" s="205"/>
       <c r="D39" s="96"/>
@@ -20602,17 +20593,17 @@
       <c r="I39" s="83"/>
       <c r="J39" s="86"/>
       <c r="K39" s="132" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L39" s="159" t="s">
         <v>1265</v>
       </c>
-      <c r="L39" s="159" t="s">
+      <c r="M39" s="66" t="s">
         <v>1266</v>
       </c>
-      <c r="M39" s="66" t="s">
-        <v>1267</v>
-      </c>
     </row>
     <row r="40" spans="1:13" ht="15.75">
-      <c r="A40" s="281"/>
+      <c r="A40" s="283"/>
       <c r="B40" s="83"/>
       <c r="C40" s="205"/>
       <c r="D40" s="96"/>
@@ -20623,17 +20614,17 @@
       <c r="I40" s="83"/>
       <c r="J40" s="86"/>
       <c r="K40" s="132" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L40" s="225" t="s">
         <v>1268</v>
       </c>
-      <c r="L40" s="225" t="s">
+      <c r="M40" s="159" t="s">
         <v>1269</v>
       </c>
-      <c r="M40" s="159" t="s">
-        <v>1270</v>
-      </c>
     </row>
     <row r="41" spans="1:13" ht="15.75">
-      <c r="A41" s="281"/>
+      <c r="A41" s="283"/>
       <c r="B41" s="83"/>
       <c r="C41" s="205"/>
       <c r="D41" s="96"/>
@@ -20650,18 +20641,18 @@
         <v>945</v>
       </c>
       <c r="M41" s="168" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="56.25">
+      <c r="A42" s="283" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="56.25">
-      <c r="A42" s="281" t="s">
+      <c r="B42" s="83" t="s">
         <v>1272</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="C42" s="205" t="s">
         <v>1273</v>
-      </c>
-      <c r="C42" s="205" t="s">
-        <v>1274</v>
       </c>
       <c r="D42" s="96" t="s">
         <v>574</v>
@@ -20670,30 +20661,30 @@
         <v>584</v>
       </c>
       <c r="F42" s="89" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G42" s="207" t="s">
         <v>1275</v>
       </c>
-      <c r="G42" s="207" t="s">
+      <c r="H42" s="226" t="s">
         <v>1276</v>
       </c>
-      <c r="H42" s="226" t="s">
-        <v>1277</v>
-      </c>
       <c r="I42" s="90" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J42" s="227"/>
       <c r="K42" s="132" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L42" s="159" t="s">
         <v>1278</v>
       </c>
-      <c r="L42" s="159" t="s">
+      <c r="M42" s="66" t="s">
         <v>1279</v>
       </c>
-      <c r="M42" s="66" t="s">
-        <v>1280</v>
-      </c>
     </row>
     <row r="43" spans="1:13" ht="15.75">
-      <c r="A43" s="281"/>
+      <c r="A43" s="283"/>
       <c r="B43" s="83"/>
       <c r="C43" s="205"/>
       <c r="D43" s="96"/>
@@ -20704,17 +20695,17 @@
       <c r="I43" s="135"/>
       <c r="J43" s="228"/>
       <c r="K43" s="132" t="s">
+        <v>1280</v>
+      </c>
+      <c r="L43" s="159" t="s">
         <v>1281</v>
       </c>
-      <c r="L43" s="159" t="s">
+      <c r="M43" s="66" t="s">
         <v>1282</v>
       </c>
-      <c r="M43" s="66" t="s">
-        <v>1283</v>
-      </c>
     </row>
     <row r="44" spans="1:13" ht="15.75">
-      <c r="A44" s="281"/>
+      <c r="A44" s="283"/>
       <c r="B44" s="83"/>
       <c r="C44" s="205"/>
       <c r="D44" s="96"/>
@@ -20725,17 +20716,17 @@
       <c r="I44" s="135"/>
       <c r="J44" s="228"/>
       <c r="K44" s="132" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L44" s="159" t="s">
         <v>1284</v>
       </c>
-      <c r="L44" s="159" t="s">
+      <c r="M44" s="66" t="s">
         <v>1285</v>
       </c>
-      <c r="M44" s="66" t="s">
-        <v>1286</v>
-      </c>
     </row>
     <row r="45" spans="1:13" ht="15.75">
-      <c r="A45" s="281"/>
+      <c r="A45" s="283"/>
       <c r="B45" s="83"/>
       <c r="C45" s="205"/>
       <c r="D45" s="96"/>
@@ -20746,17 +20737,17 @@
       <c r="I45" s="135"/>
       <c r="J45" s="228"/>
       <c r="K45" s="132" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L45" s="159" t="s">
         <v>1287</v>
       </c>
-      <c r="L45" s="159" t="s">
+      <c r="M45" s="159" t="s">
         <v>1288</v>
       </c>
-      <c r="M45" s="159" t="s">
-        <v>1289</v>
-      </c>
     </row>
     <row r="46" spans="1:13" ht="15.75">
-      <c r="A46" s="281"/>
+      <c r="A46" s="283"/>
       <c r="B46" s="83"/>
       <c r="C46" s="205"/>
       <c r="D46" s="96"/>
@@ -20767,17 +20758,17 @@
       <c r="I46" s="135"/>
       <c r="J46" s="228"/>
       <c r="K46" s="132" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L46" s="159" t="s">
         <v>1290</v>
       </c>
-      <c r="L46" s="159" t="s">
+      <c r="M46" s="159" t="s">
         <v>1291</v>
       </c>
-      <c r="M46" s="159" t="s">
-        <v>1292</v>
-      </c>
     </row>
     <row r="47" spans="1:13" ht="15.75">
-      <c r="A47" s="281"/>
+      <c r="A47" s="283"/>
       <c r="B47" s="83"/>
       <c r="C47" s="205"/>
       <c r="D47" s="96"/>
@@ -20788,17 +20779,17 @@
       <c r="I47" s="135"/>
       <c r="J47" s="228"/>
       <c r="K47" s="132" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L47" s="159" t="s">
         <v>1293</v>
       </c>
-      <c r="L47" s="159" t="s">
+      <c r="M47" s="66" t="s">
         <v>1294</v>
       </c>
-      <c r="M47" s="66" t="s">
-        <v>1295</v>
-      </c>
     </row>
     <row r="48" spans="1:13" ht="15.75">
-      <c r="A48" s="281"/>
+      <c r="A48" s="283"/>
       <c r="B48" s="83"/>
       <c r="C48" s="205"/>
       <c r="D48" s="96"/>
@@ -20809,17 +20800,17 @@
       <c r="I48" s="135"/>
       <c r="J48" s="228"/>
       <c r="K48" s="132" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L48" s="159" t="s">
         <v>1296</v>
       </c>
-      <c r="L48" s="159" t="s">
+      <c r="M48" s="66" t="s">
         <v>1297</v>
       </c>
-      <c r="M48" s="66" t="s">
-        <v>1298</v>
-      </c>
     </row>
     <row r="49" spans="1:13" ht="15.75">
-      <c r="A49" s="281"/>
+      <c r="A49" s="283"/>
       <c r="B49" s="83"/>
       <c r="C49" s="205"/>
       <c r="D49" s="96"/>
@@ -20830,17 +20821,17 @@
       <c r="I49" s="135"/>
       <c r="J49" s="228"/>
       <c r="K49" s="132" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L49" s="159" t="s">
         <v>1299</v>
       </c>
-      <c r="L49" s="159" t="s">
+      <c r="M49" s="159" t="s">
         <v>1300</v>
       </c>
-      <c r="M49" s="159" t="s">
-        <v>1301</v>
-      </c>
     </row>
     <row r="50" spans="1:13" ht="15.75">
-      <c r="A50" s="281"/>
+      <c r="A50" s="283"/>
       <c r="B50" s="83"/>
       <c r="C50" s="205"/>
       <c r="D50" s="96"/>
@@ -20851,17 +20842,17 @@
       <c r="I50" s="135"/>
       <c r="J50" s="228"/>
       <c r="K50" s="132" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L50" s="159" t="s">
         <v>1302</v>
       </c>
-      <c r="L50" s="159" t="s">
+      <c r="M50" s="159" t="s">
         <v>1303</v>
       </c>
-      <c r="M50" s="159" t="s">
-        <v>1304</v>
-      </c>
     </row>
     <row r="51" spans="1:13" ht="15.75">
-      <c r="A51" s="281"/>
+      <c r="A51" s="283"/>
       <c r="B51" s="83"/>
       <c r="C51" s="205"/>
       <c r="D51" s="96"/>
@@ -20872,22 +20863,22 @@
       <c r="I51" s="90"/>
       <c r="J51" s="227"/>
       <c r="K51" s="132" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L51" s="159" t="s">
         <v>1305</v>
       </c>
-      <c r="L51" s="159" t="s">
+      <c r="M51" s="159" t="s">
         <v>1306</v>
       </c>
-      <c r="M51" s="159" t="s">
-        <v>1307</v>
-      </c>
     </row>
     <row r="52" spans="1:13" ht="57">
-      <c r="A52" s="281"/>
+      <c r="A52" s="283"/>
       <c r="B52" s="83" t="s">
         <v>579</v>
       </c>
       <c r="C52" s="205" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D52" s="96" t="s">
         <v>582</v>
@@ -20896,30 +20887,30 @@
         <v>593</v>
       </c>
       <c r="F52" s="91" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G52" s="92" t="s">
         <v>1309</v>
       </c>
-      <c r="G52" s="92" t="s">
+      <c r="H52" s="229" t="s">
         <v>1310</v>
       </c>
-      <c r="H52" s="229" t="s">
-        <v>1311</v>
-      </c>
       <c r="I52" s="90" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J52" s="66"/>
       <c r="K52" s="132" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L52" s="159" t="s">
         <v>1312</v>
       </c>
-      <c r="L52" s="159" t="s">
+      <c r="M52" s="66" t="s">
         <v>1313</v>
       </c>
-      <c r="M52" s="66" t="s">
-        <v>1314</v>
-      </c>
     </row>
     <row r="53" spans="1:13" ht="15.75">
-      <c r="A53" s="281"/>
+      <c r="A53" s="283"/>
       <c r="B53" s="83"/>
       <c r="C53" s="205"/>
       <c r="D53" s="96"/>
@@ -20930,17 +20921,17 @@
       <c r="I53" s="135"/>
       <c r="J53" s="68"/>
       <c r="K53" s="132" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L53" s="159" t="s">
         <v>1315</v>
       </c>
-      <c r="L53" s="159" t="s">
+      <c r="M53" s="66" t="s">
         <v>1316</v>
       </c>
-      <c r="M53" s="66" t="s">
-        <v>1317</v>
-      </c>
     </row>
     <row r="54" spans="1:13" ht="15.75">
-      <c r="A54" s="281"/>
+      <c r="A54" s="283"/>
       <c r="B54" s="83"/>
       <c r="C54" s="205"/>
       <c r="D54" s="96"/>
@@ -20951,17 +20942,17 @@
       <c r="I54" s="135"/>
       <c r="J54" s="68"/>
       <c r="K54" s="132" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L54" s="159" t="s">
         <v>1318</v>
       </c>
-      <c r="L54" s="159" t="s">
+      <c r="M54" s="159" t="s">
         <v>1319</v>
       </c>
-      <c r="M54" s="159" t="s">
-        <v>1320</v>
-      </c>
     </row>
     <row r="55" spans="1:13" ht="15.75">
-      <c r="A55" s="281"/>
+      <c r="A55" s="283"/>
       <c r="B55" s="83"/>
       <c r="C55" s="205"/>
       <c r="D55" s="96"/>
@@ -20972,17 +20963,17 @@
       <c r="I55" s="135"/>
       <c r="J55" s="68"/>
       <c r="K55" s="132" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L55" s="159" t="s">
         <v>1321</v>
       </c>
-      <c r="L55" s="159" t="s">
+      <c r="M55" s="66" t="s">
         <v>1322</v>
       </c>
-      <c r="M55" s="66" t="s">
-        <v>1323</v>
-      </c>
     </row>
     <row r="56" spans="1:13" ht="15.75">
-      <c r="A56" s="281"/>
+      <c r="A56" s="283"/>
       <c r="B56" s="83"/>
       <c r="C56" s="205"/>
       <c r="D56" s="96"/>
@@ -20993,17 +20984,17 @@
       <c r="I56" s="135"/>
       <c r="J56" s="68"/>
       <c r="K56" s="132" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L56" s="159" t="s">
         <v>1324</v>
       </c>
-      <c r="L56" s="159" t="s">
+      <c r="M56" s="159" t="s">
         <v>1325</v>
       </c>
-      <c r="M56" s="159" t="s">
-        <v>1326</v>
-      </c>
     </row>
     <row r="57" spans="1:13" ht="15.75">
-      <c r="A57" s="281"/>
+      <c r="A57" s="283"/>
       <c r="B57" s="83"/>
       <c r="C57" s="205"/>
       <c r="D57" s="96"/>
@@ -21014,17 +21005,17 @@
       <c r="I57" s="135"/>
       <c r="J57" s="68"/>
       <c r="K57" s="132" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L57" s="159" t="s">
         <v>1327</v>
       </c>
-      <c r="L57" s="159" t="s">
+      <c r="M57" s="159" t="s">
         <v>1328</v>
       </c>
-      <c r="M57" s="159" t="s">
-        <v>1329</v>
-      </c>
     </row>
     <row r="58" spans="1:13" ht="15.75">
-      <c r="A58" s="281"/>
+      <c r="A58" s="283"/>
       <c r="B58" s="83"/>
       <c r="C58" s="205"/>
       <c r="D58" s="96"/>
@@ -21035,34 +21026,34 @@
       <c r="I58" s="135"/>
       <c r="J58" s="68"/>
       <c r="K58" s="132" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L58" s="159" t="s">
         <v>1330</v>
       </c>
-      <c r="L58" s="159" t="s">
+      <c r="M58" s="159" t="s">
         <v>1331</v>
       </c>
-      <c r="M58" s="159" t="s">
-        <v>1332</v>
-      </c>
     </row>
     <row r="59" spans="1:13" ht="15.75">
-      <c r="A59" s="281"/>
+      <c r="A59" s="283"/>
       <c r="B59" s="68"/>
       <c r="C59" s="66" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D59" s="67"/>
       <c r="E59" s="207" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F59" s="97"/>
       <c r="G59" s="226" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H59" s="226" t="s">
         <v>1335</v>
       </c>
-      <c r="H59" s="226" t="s">
-        <v>1336</v>
-      </c>
       <c r="I59" s="90" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J59" s="66"/>
       <c r="K59" s="132"/>
@@ -21070,71 +21061,71 @@
       <c r="M59" s="66"/>
     </row>
     <row r="60" spans="1:13" ht="103.5" customHeight="1">
-      <c r="A60" s="281"/>
+      <c r="A60" s="283"/>
       <c r="B60" s="83" t="s">
         <v>588</v>
       </c>
       <c r="C60" s="205" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D60" s="96" t="s">
         <v>591</v>
       </c>
       <c r="E60" s="206" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F60" s="93" t="s">
         <v>1338</v>
       </c>
-      <c r="F60" s="93" t="s">
+      <c r="G60" s="94" t="s">
         <v>1339</v>
       </c>
-      <c r="G60" s="94" t="s">
+      <c r="H60" s="230" t="s">
         <v>1340</v>
       </c>
-      <c r="H60" s="230" t="s">
-        <v>1341</v>
-      </c>
       <c r="I60" s="95" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J60" s="66"/>
       <c r="K60" s="132" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L60" s="159" t="s">
         <v>1342</v>
       </c>
-      <c r="L60" s="159" t="s">
+      <c r="M60" s="159" t="s">
         <v>1343</v>
       </c>
-      <c r="M60" s="159" t="s">
-        <v>1344</v>
-      </c>
     </row>
     <row r="61" spans="1:13" ht="84" customHeight="1">
-      <c r="A61" s="281"/>
+      <c r="A61" s="283"/>
       <c r="B61" s="83"/>
       <c r="C61" s="205"/>
       <c r="D61" s="96"/>
       <c r="E61" s="84"/>
       <c r="F61" s="231" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G61" s="232" t="s">
         <v>1345</v>
       </c>
-      <c r="G61" s="232" t="s">
+      <c r="H61" s="230" t="s">
         <v>1346</v>
-      </c>
-      <c r="H61" s="230" t="s">
-        <v>1347</v>
       </c>
       <c r="I61" s="133"/>
       <c r="J61" s="68"/>
       <c r="K61" s="132" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L61" s="159" t="s">
         <v>1348</v>
       </c>
-      <c r="L61" s="159" t="s">
+      <c r="M61" s="159" t="s">
         <v>1349</v>
       </c>
-      <c r="M61" s="159" t="s">
-        <v>1350</v>
-      </c>
     </row>
     <row r="62" spans="1:13" ht="15.75">
-      <c r="A62" s="281"/>
+      <c r="A62" s="283"/>
       <c r="B62" s="83"/>
       <c r="C62" s="205"/>
       <c r="D62" s="96"/>
@@ -21145,17 +21136,17 @@
       <c r="I62" s="133"/>
       <c r="J62" s="68"/>
       <c r="K62" s="132" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L62" s="159" t="s">
         <v>1318</v>
       </c>
-      <c r="L62" s="159" t="s">
+      <c r="M62" s="159" t="s">
         <v>1319</v>
       </c>
-      <c r="M62" s="159" t="s">
-        <v>1320</v>
-      </c>
     </row>
     <row r="63" spans="1:13" ht="15.75">
-      <c r="A63" s="281"/>
+      <c r="A63" s="283"/>
       <c r="B63" s="83"/>
       <c r="C63" s="205"/>
       <c r="D63" s="96"/>
@@ -21166,17 +21157,17 @@
       <c r="I63" s="133"/>
       <c r="J63" s="68"/>
       <c r="K63" s="132" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L63" s="159" t="s">
         <v>1351</v>
       </c>
-      <c r="L63" s="159" t="s">
+      <c r="M63" s="66" t="s">
         <v>1352</v>
       </c>
-      <c r="M63" s="66" t="s">
-        <v>1353</v>
-      </c>
     </row>
     <row r="64" spans="1:13" ht="15.75">
-      <c r="A64" s="281"/>
+      <c r="A64" s="283"/>
       <c r="B64" s="83"/>
       <c r="C64" s="205"/>
       <c r="D64" s="96"/>
@@ -21187,17 +21178,17 @@
       <c r="I64" s="133"/>
       <c r="J64" s="68"/>
       <c r="K64" s="132" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L64" s="159" t="s">
         <v>1354</v>
       </c>
-      <c r="L64" s="159" t="s">
+      <c r="M64" s="159" t="s">
         <v>1355</v>
       </c>
-      <c r="M64" s="159" t="s">
-        <v>1356</v>
-      </c>
     </row>
     <row r="65" spans="1:13" ht="15.75">
-      <c r="A65" s="281"/>
+      <c r="A65" s="283"/>
       <c r="B65" s="83"/>
       <c r="C65" s="205"/>
       <c r="D65" s="96"/>
@@ -21208,17 +21199,17 @@
       <c r="I65" s="133"/>
       <c r="J65" s="68"/>
       <c r="K65" s="132" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L65" s="159" t="s">
         <v>1357</v>
       </c>
-      <c r="L65" s="159" t="s">
+      <c r="M65" s="159" t="s">
         <v>1358</v>
       </c>
-      <c r="M65" s="159" t="s">
-        <v>1359</v>
-      </c>
     </row>
     <row r="66" spans="1:13" ht="15.75">
-      <c r="A66" s="281"/>
+      <c r="A66" s="283"/>
       <c r="B66" s="83"/>
       <c r="C66" s="205"/>
       <c r="D66" s="96"/>
@@ -21229,22 +21220,22 @@
       <c r="I66" s="133"/>
       <c r="J66" s="68"/>
       <c r="K66" s="233" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L66" s="159" t="s">
         <v>1360</v>
       </c>
-      <c r="L66" s="159" t="s">
+      <c r="M66" s="159" t="s">
         <v>1361</v>
       </c>
-      <c r="M66" s="159" t="s">
-        <v>1362</v>
-      </c>
     </row>
     <row r="67" spans="1:13" ht="91.5" customHeight="1">
-      <c r="A67" s="281"/>
+      <c r="A67" s="283"/>
       <c r="B67" s="83" t="s">
         <v>597</v>
       </c>
       <c r="C67" s="205" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D67" s="96" t="s">
         <v>600</v>
@@ -21253,30 +21244,30 @@
         <v>611</v>
       </c>
       <c r="F67" s="94" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G67" s="94" t="s">
         <v>1364</v>
       </c>
-      <c r="G67" s="94" t="s">
+      <c r="H67" s="234" t="s">
         <v>1365</v>
       </c>
-      <c r="H67" s="234" t="s">
-        <v>1366</v>
-      </c>
       <c r="I67" s="94" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J67" s="66"/>
       <c r="K67" s="132" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L67" s="159" t="s">
         <v>1367</v>
       </c>
-      <c r="L67" s="159" t="s">
+      <c r="M67" s="159" t="s">
         <v>1368</v>
       </c>
-      <c r="M67" s="159" t="s">
-        <v>1369</v>
-      </c>
     </row>
     <row r="68" spans="1:13" ht="15.75">
-      <c r="A68" s="281"/>
+      <c r="A68" s="283"/>
       <c r="B68" s="83"/>
       <c r="C68" s="205"/>
       <c r="D68" s="96"/>
@@ -21287,17 +21278,17 @@
       <c r="I68" s="85"/>
       <c r="J68" s="68"/>
       <c r="K68" s="132" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L68" s="159" t="s">
         <v>1370</v>
       </c>
-      <c r="L68" s="159" t="s">
+      <c r="M68" s="66" t="s">
         <v>1371</v>
       </c>
-      <c r="M68" s="66" t="s">
-        <v>1372</v>
-      </c>
     </row>
     <row r="69" spans="1:13" ht="15.75">
-      <c r="A69" s="281"/>
+      <c r="A69" s="283"/>
       <c r="B69" s="83"/>
       <c r="C69" s="205"/>
       <c r="D69" s="96"/>
@@ -21308,17 +21299,17 @@
       <c r="I69" s="85"/>
       <c r="J69" s="68"/>
       <c r="K69" s="132" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L69" s="159" t="s">
         <v>1373</v>
       </c>
-      <c r="L69" s="159" t="s">
+      <c r="M69" s="66" t="s">
         <v>1374</v>
       </c>
-      <c r="M69" s="66" t="s">
-        <v>1375</v>
-      </c>
     </row>
     <row r="70" spans="1:13" ht="15.75">
-      <c r="A70" s="281"/>
+      <c r="A70" s="283"/>
       <c r="B70" s="83"/>
       <c r="C70" s="205"/>
       <c r="D70" s="96"/>
@@ -21329,17 +21320,17 @@
       <c r="I70" s="85"/>
       <c r="J70" s="68"/>
       <c r="K70" s="132" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L70" s="159" t="s">
         <v>1376</v>
       </c>
-      <c r="L70" s="159" t="s">
+      <c r="M70" s="159" t="s">
         <v>1377</v>
       </c>
-      <c r="M70" s="159" t="s">
-        <v>1378</v>
-      </c>
     </row>
     <row r="71" spans="1:13" ht="15.75">
-      <c r="A71" s="281"/>
+      <c r="A71" s="283"/>
       <c r="B71" s="83"/>
       <c r="C71" s="205"/>
       <c r="D71" s="96"/>
@@ -21350,17 +21341,17 @@
       <c r="I71" s="85"/>
       <c r="J71" s="68"/>
       <c r="K71" s="132" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L71" s="159" t="s">
         <v>1321</v>
       </c>
-      <c r="L71" s="159" t="s">
+      <c r="M71" s="66" t="s">
         <v>1322</v>
       </c>
-      <c r="M71" s="66" t="s">
-        <v>1323</v>
-      </c>
     </row>
     <row r="72" spans="1:13" ht="15.75">
-      <c r="A72" s="281"/>
+      <c r="A72" s="283"/>
       <c r="B72" s="83"/>
       <c r="C72" s="205"/>
       <c r="D72" s="96"/>
@@ -21371,17 +21362,17 @@
       <c r="I72" s="85"/>
       <c r="J72" s="68"/>
       <c r="K72" s="132" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L72" s="159" t="s">
         <v>1379</v>
       </c>
-      <c r="L72" s="159" t="s">
+      <c r="M72" s="159" t="s">
         <v>1380</v>
       </c>
-      <c r="M72" s="159" t="s">
-        <v>1381</v>
-      </c>
     </row>
     <row r="73" spans="1:13" ht="15.75">
-      <c r="A73" s="281"/>
+      <c r="A73" s="283"/>
       <c r="B73" s="83"/>
       <c r="C73" s="205"/>
       <c r="D73" s="96"/>
@@ -21392,17 +21383,17 @@
       <c r="I73" s="85"/>
       <c r="J73" s="68"/>
       <c r="K73" s="132" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L73" s="159" t="s">
         <v>1382</v>
       </c>
-      <c r="L73" s="159" t="s">
+      <c r="M73" s="159" t="s">
         <v>1383</v>
       </c>
-      <c r="M73" s="159" t="s">
-        <v>1384</v>
-      </c>
     </row>
     <row r="74" spans="1:13" ht="15.75">
-      <c r="A74" s="281"/>
+      <c r="A74" s="283"/>
       <c r="B74" s="83"/>
       <c r="C74" s="205"/>
       <c r="D74" s="96"/>
@@ -21413,34 +21404,34 @@
       <c r="I74" s="85"/>
       <c r="J74" s="68"/>
       <c r="K74" s="132" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="L74" s="235" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="M74" s="159" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="25.5">
-      <c r="A75" s="281"/>
+      <c r="A75" s="283"/>
       <c r="B75" s="83"/>
       <c r="C75" s="205" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D75" s="96"/>
       <c r="E75" s="84"/>
       <c r="F75" s="93" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G75" s="94" t="s">
         <v>1387</v>
       </c>
-      <c r="G75" s="94" t="s">
+      <c r="H75" s="229" t="s">
         <v>1388</v>
       </c>
-      <c r="H75" s="229" t="s">
-        <v>1389</v>
-      </c>
       <c r="I75" s="95" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J75" s="66"/>
       <c r="K75" s="127"/>
@@ -21448,7 +21439,7 @@
       <c r="M75" s="68"/>
     </row>
     <row r="76" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A76" s="281"/>
+      <c r="A76" s="283"/>
       <c r="B76" s="83" t="s">
         <v>606</v>
       </c>
@@ -21462,30 +21453,30 @@
         <v>619</v>
       </c>
       <c r="F76" s="85" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G76" s="213" t="s">
         <v>1390</v>
       </c>
-      <c r="G76" s="213" t="s">
+      <c r="H76" s="85" t="s">
         <v>1391</v>
       </c>
-      <c r="H76" s="85" t="s">
-        <v>1392</v>
-      </c>
       <c r="I76" s="85" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J76" s="68"/>
       <c r="K76" s="132" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L76" s="159" t="s">
         <v>1393</v>
       </c>
-      <c r="L76" s="159" t="s">
+      <c r="M76" s="66" t="s">
         <v>1394</v>
       </c>
-      <c r="M76" s="66" t="s">
-        <v>1395</v>
-      </c>
     </row>
     <row r="77" spans="1:13" ht="15.75">
-      <c r="A77" s="281"/>
+      <c r="A77" s="283"/>
       <c r="B77" s="83"/>
       <c r="C77" s="205"/>
       <c r="D77" s="96"/>
@@ -21496,22 +21487,22 @@
       <c r="I77" s="85"/>
       <c r="J77" s="68"/>
       <c r="K77" s="132" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L77" s="159" t="s">
         <v>1396</v>
       </c>
-      <c r="L77" s="159" t="s">
+      <c r="M77" s="66" t="s">
         <v>1397</v>
       </c>
-      <c r="M77" s="66" t="s">
-        <v>1398</v>
-      </c>
     </row>
     <row r="78" spans="1:13" ht="96.75" customHeight="1">
-      <c r="A78" s="281"/>
+      <c r="A78" s="283"/>
       <c r="B78" s="83" t="s">
         <v>614</v>
       </c>
       <c r="C78" s="205" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D78" s="96" t="s">
         <v>617</v>
@@ -21520,32 +21511,32 @@
         <v>628</v>
       </c>
       <c r="F78" s="85" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G78" s="85" t="s">
         <v>1400</v>
       </c>
-      <c r="G78" s="85" t="s">
+      <c r="H78" s="236" t="s">
         <v>1401</v>
       </c>
-      <c r="H78" s="236" t="s">
+      <c r="I78" s="85" t="s">
         <v>1402</v>
       </c>
-      <c r="I78" s="85" t="s">
-        <v>1403</v>
-      </c>
       <c r="J78" s="85" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="K78" s="68" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L78" s="125" t="s">
         <v>958</v>
       </c>
       <c r="M78" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="281"/>
+      <c r="A79" s="283"/>
       <c r="B79" s="83"/>
       <c r="C79" s="83"/>
       <c r="D79" s="96"/>
@@ -21556,7 +21547,7 @@
       <c r="I79" s="85"/>
       <c r="J79" s="68"/>
       <c r="K79" s="68" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L79" s="125" t="s">
         <v>961</v>
@@ -21566,12 +21557,12 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="45">
-      <c r="A80" s="281"/>
+      <c r="A80" s="283"/>
       <c r="B80" s="83" t="s">
         <v>623</v>
       </c>
       <c r="C80" s="205" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D80" s="96" t="s">
         <v>626</v>
@@ -21580,35 +21571,35 @@
         <v>584</v>
       </c>
       <c r="F80" s="85" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G80" s="85" t="s">
         <v>1405</v>
       </c>
-      <c r="G80" s="85" t="s">
+      <c r="H80" s="85" t="s">
         <v>1406</v>
       </c>
-      <c r="H80" s="85" t="s">
-        <v>1407</v>
-      </c>
       <c r="I80" s="85" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J80" s="68"/>
       <c r="K80" s="67" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L80" s="237" t="s">
         <v>1408</v>
       </c>
-      <c r="L80" s="237" t="s">
+      <c r="M80" s="238" t="s">
         <v>1409</v>
       </c>
-      <c r="M80" s="238" t="s">
-        <v>1410</v>
-      </c>
     </row>
     <row r="81" spans="1:13" ht="153.75" customHeight="1">
-      <c r="A81" s="281"/>
+      <c r="A81" s="283"/>
       <c r="B81" s="83" t="s">
         <v>632</v>
       </c>
       <c r="C81" s="205" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D81" s="96" t="s">
         <v>635</v>
@@ -21617,30 +21608,30 @@
         <v>637</v>
       </c>
       <c r="F81" s="85" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G81" s="213" t="s">
         <v>1412</v>
       </c>
-      <c r="G81" s="213" t="s">
+      <c r="H81" s="85" t="s">
         <v>1413</v>
       </c>
-      <c r="H81" s="85" t="s">
-        <v>1414</v>
-      </c>
       <c r="I81" s="85" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J81" s="68"/>
       <c r="K81" s="127" t="s">
+        <v>1414</v>
+      </c>
+      <c r="L81" s="239" t="s">
         <v>1415</v>
       </c>
-      <c r="L81" s="239" t="s">
+      <c r="M81" s="68" t="s">
         <v>1416</v>
       </c>
-      <c r="M81" s="68" t="s">
-        <v>1417</v>
-      </c>
     </row>
     <row r="82" spans="1:13" ht="15.75">
-      <c r="A82" s="281"/>
+      <c r="A82" s="283"/>
       <c r="B82" s="83"/>
       <c r="C82" s="205"/>
       <c r="D82" s="96"/>
@@ -21651,17 +21642,17 @@
       <c r="I82" s="85"/>
       <c r="J82" s="68"/>
       <c r="K82" s="127" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L82" s="239" t="s">
         <v>1418</v>
       </c>
-      <c r="L82" s="239" t="s">
+      <c r="M82" s="68" t="s">
         <v>1419</v>
       </c>
-      <c r="M82" s="68" t="s">
-        <v>1420</v>
-      </c>
     </row>
     <row r="83" spans="1:13" ht="15.75">
-      <c r="A83" s="281"/>
+      <c r="A83" s="283"/>
       <c r="B83" s="83"/>
       <c r="C83" s="205"/>
       <c r="D83" s="96"/>
@@ -21672,17 +21663,17 @@
       <c r="I83" s="85"/>
       <c r="J83" s="68"/>
       <c r="K83" s="127" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L83" s="239" t="s">
         <v>1421</v>
       </c>
-      <c r="L83" s="239" t="s">
+      <c r="M83" s="68" t="s">
         <v>1422</v>
       </c>
-      <c r="M83" s="68" t="s">
-        <v>1423</v>
-      </c>
     </row>
     <row r="84" spans="1:13" ht="15.75">
-      <c r="A84" s="281"/>
+      <c r="A84" s="283"/>
       <c r="B84" s="83"/>
       <c r="C84" s="205"/>
       <c r="D84" s="96"/>
@@ -21693,17 +21684,17 @@
       <c r="I84" s="85"/>
       <c r="J84" s="68"/>
       <c r="K84" s="127" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L84" s="239" t="s">
         <v>1424</v>
       </c>
-      <c r="L84" s="239" t="s">
+      <c r="M84" s="68" t="s">
         <v>1425</v>
       </c>
-      <c r="M84" s="68" t="s">
-        <v>1426</v>
-      </c>
     </row>
     <row r="85" spans="1:13" ht="15.75">
-      <c r="A85" s="281"/>
+      <c r="A85" s="283"/>
       <c r="B85" s="83"/>
       <c r="C85" s="205"/>
       <c r="D85" s="96"/>
@@ -21714,17 +21705,17 @@
       <c r="I85" s="85"/>
       <c r="J85" s="68"/>
       <c r="K85" s="127" t="s">
+        <v>1426</v>
+      </c>
+      <c r="L85" s="239" t="s">
         <v>1427</v>
       </c>
-      <c r="L85" s="239" t="s">
+      <c r="M85" s="68" t="s">
         <v>1428</v>
       </c>
-      <c r="M85" s="68" t="s">
-        <v>1429</v>
-      </c>
     </row>
     <row r="86" spans="1:13" ht="15.75">
-      <c r="A86" s="281"/>
+      <c r="A86" s="283"/>
       <c r="B86" s="83"/>
       <c r="C86" s="205"/>
       <c r="D86" s="96"/>
@@ -21735,17 +21726,17 @@
       <c r="I86" s="85"/>
       <c r="J86" s="68"/>
       <c r="K86" s="127" t="s">
+        <v>1429</v>
+      </c>
+      <c r="L86" s="239" t="s">
         <v>1430</v>
       </c>
-      <c r="L86" s="239" t="s">
+      <c r="M86" s="188" t="s">
         <v>1431</v>
       </c>
-      <c r="M86" s="188" t="s">
-        <v>1432</v>
-      </c>
     </row>
     <row r="87" spans="1:13" ht="15.75">
-      <c r="A87" s="281"/>
+      <c r="A87" s="283"/>
       <c r="B87" s="83"/>
       <c r="C87" s="205"/>
       <c r="D87" s="96"/>
@@ -21756,17 +21747,17 @@
       <c r="I87" s="85"/>
       <c r="J87" s="68"/>
       <c r="K87" s="127" t="s">
+        <v>1432</v>
+      </c>
+      <c r="L87" s="239" t="s">
         <v>1433</v>
       </c>
-      <c r="L87" s="239" t="s">
+      <c r="M87" s="68" t="s">
         <v>1434</v>
       </c>
-      <c r="M87" s="68" t="s">
-        <v>1435</v>
-      </c>
     </row>
     <row r="88" spans="1:13" ht="15.75">
-      <c r="A88" s="281"/>
+      <c r="A88" s="283"/>
       <c r="B88" s="83"/>
       <c r="C88" s="205"/>
       <c r="D88" s="96"/>
@@ -21777,17 +21768,17 @@
       <c r="I88" s="85"/>
       <c r="J88" s="68"/>
       <c r="K88" s="127" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L88" s="239" t="s">
         <v>1436</v>
       </c>
-      <c r="L88" s="239" t="s">
+      <c r="M88" s="68" t="s">
         <v>1437</v>
       </c>
-      <c r="M88" s="68" t="s">
-        <v>1438</v>
-      </c>
     </row>
     <row r="89" spans="1:13" ht="15.75">
-      <c r="A89" s="281"/>
+      <c r="A89" s="283"/>
       <c r="B89" s="83"/>
       <c r="C89" s="205"/>
       <c r="D89" s="96"/>
@@ -21798,17 +21789,17 @@
       <c r="I89" s="85"/>
       <c r="J89" s="68"/>
       <c r="K89" s="127" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L89" s="239" t="s">
         <v>1439</v>
       </c>
-      <c r="L89" s="239" t="s">
+      <c r="M89" s="68" t="s">
         <v>1440</v>
       </c>
-      <c r="M89" s="68" t="s">
-        <v>1441</v>
-      </c>
     </row>
     <row r="90" spans="1:13" ht="15.75">
-      <c r="A90" s="281"/>
+      <c r="A90" s="283"/>
       <c r="B90" s="83"/>
       <c r="C90" s="205"/>
       <c r="D90" s="96"/>
@@ -21819,17 +21810,17 @@
       <c r="I90" s="85"/>
       <c r="J90" s="68"/>
       <c r="K90" s="127" t="s">
+        <v>1441</v>
+      </c>
+      <c r="L90" s="239" t="s">
         <v>1442</v>
       </c>
-      <c r="L90" s="239" t="s">
+      <c r="M90" s="68" t="s">
         <v>1443</v>
       </c>
-      <c r="M90" s="68" t="s">
-        <v>1444</v>
-      </c>
     </row>
     <row r="91" spans="1:13" ht="15.75">
-      <c r="A91" s="281"/>
+      <c r="A91" s="283"/>
       <c r="B91" s="83"/>
       <c r="C91" s="205"/>
       <c r="D91" s="96"/>
@@ -21840,22 +21831,22 @@
       <c r="I91" s="85"/>
       <c r="J91" s="68"/>
       <c r="K91" s="127" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L91" s="239" t="s">
         <v>1445</v>
       </c>
-      <c r="L91" s="239" t="s">
+      <c r="M91" s="68" t="s">
         <v>1446</v>
       </c>
-      <c r="M91" s="68" t="s">
-        <v>1447</v>
-      </c>
     </row>
     <row r="92" spans="1:13" ht="90">
-      <c r="A92" s="281"/>
+      <c r="A92" s="283"/>
       <c r="B92" s="83" t="s">
         <v>641</v>
       </c>
       <c r="C92" s="205" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D92" s="96" t="s">
         <v>644</v>
@@ -21864,32 +21855,32 @@
         <v>654</v>
       </c>
       <c r="F92" s="86" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G92" s="85" t="s">
         <v>1449</v>
       </c>
-      <c r="G92" s="85" t="s">
+      <c r="H92" s="240" t="s">
         <v>1450</v>
       </c>
-      <c r="H92" s="240" t="s">
-        <v>1451</v>
-      </c>
       <c r="I92" s="85" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J92" s="86" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K92" s="68" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L92" s="125" t="s">
         <v>958</v>
       </c>
       <c r="M92" s="125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="281"/>
+      <c r="A93" s="283"/>
       <c r="B93" s="68"/>
       <c r="C93" s="68"/>
       <c r="D93" s="67"/>
@@ -21900,7 +21891,7 @@
       <c r="I93" s="85"/>
       <c r="J93" s="68"/>
       <c r="K93" s="68" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="L93" s="125" t="s">
         <v>961</v>
@@ -21910,12 +21901,12 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="158.25" customHeight="1">
-      <c r="A94" s="281"/>
+      <c r="A94" s="283"/>
       <c r="B94" s="83" t="s">
         <v>649</v>
       </c>
       <c r="C94" s="205" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D94" s="96" t="s">
         <v>652</v>
@@ -21924,16 +21915,16 @@
         <v>663</v>
       </c>
       <c r="F94" s="94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G94" s="94" t="s">
         <v>1454</v>
       </c>
-      <c r="G94" s="94" t="s">
+      <c r="H94" s="94" t="s">
         <v>1455</v>
       </c>
-      <c r="H94" s="94" t="s">
-        <v>1456</v>
-      </c>
       <c r="I94" s="94" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J94" s="66"/>
       <c r="K94" s="132" t="s">
@@ -21947,7 +21938,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.75">
-      <c r="A95" s="281"/>
+      <c r="A95" s="283"/>
       <c r="B95" s="83"/>
       <c r="C95" s="205"/>
       <c r="D95" s="96"/>
@@ -21958,17 +21949,17 @@
       <c r="I95" s="85"/>
       <c r="J95" s="68"/>
       <c r="K95" s="132" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L95" s="66" t="s">
         <v>1457</v>
       </c>
-      <c r="L95" s="66" t="s">
+      <c r="M95" s="66" t="s">
         <v>1458</v>
       </c>
-      <c r="M95" s="66" t="s">
-        <v>1459</v>
-      </c>
     </row>
     <row r="96" spans="1:13" ht="15.75">
-      <c r="A96" s="281"/>
+      <c r="A96" s="283"/>
       <c r="B96" s="83"/>
       <c r="C96" s="205"/>
       <c r="D96" s="96"/>
@@ -21979,17 +21970,17 @@
       <c r="I96" s="85"/>
       <c r="J96" s="68"/>
       <c r="K96" s="132" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L96" s="66" t="s">
         <v>1460</v>
       </c>
-      <c r="L96" s="66" t="s">
+      <c r="M96" s="66" t="s">
         <v>1461</v>
       </c>
-      <c r="M96" s="66" t="s">
-        <v>1462</v>
-      </c>
     </row>
     <row r="97" spans="1:13" ht="15.75">
-      <c r="A97" s="281"/>
+      <c r="A97" s="283"/>
       <c r="B97" s="83"/>
       <c r="C97" s="205"/>
       <c r="D97" s="96"/>
@@ -22000,17 +21991,17 @@
       <c r="I97" s="85"/>
       <c r="J97" s="68"/>
       <c r="K97" s="132" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L97" s="66" t="s">
         <v>1463</v>
       </c>
-      <c r="L97" s="66" t="s">
+      <c r="M97" s="66" t="s">
         <v>1464</v>
       </c>
-      <c r="M97" s="66" t="s">
-        <v>1465</v>
-      </c>
     </row>
     <row r="98" spans="1:13" ht="15.75">
-      <c r="A98" s="281"/>
+      <c r="A98" s="283"/>
       <c r="B98" s="83"/>
       <c r="C98" s="205"/>
       <c r="D98" s="96"/>
@@ -22021,7 +22012,7 @@
       <c r="I98" s="85"/>
       <c r="J98" s="68"/>
       <c r="K98" s="132" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="L98" s="159" t="s">
         <v>1107</v>
@@ -22031,7 +22022,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="15.75">
-      <c r="A99" s="281"/>
+      <c r="A99" s="283"/>
       <c r="B99" s="83"/>
       <c r="C99" s="205"/>
       <c r="D99" s="96"/>
@@ -22042,17 +22033,17 @@
       <c r="I99" s="85"/>
       <c r="J99" s="68"/>
       <c r="K99" s="132" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L99" s="66" t="s">
         <v>1467</v>
       </c>
-      <c r="L99" s="66" t="s">
+      <c r="M99" s="159" t="s">
         <v>1468</v>
       </c>
-      <c r="M99" s="159" t="s">
-        <v>1469</v>
-      </c>
     </row>
     <row r="100" spans="1:13" ht="125.25" customHeight="1">
-      <c r="A100" s="281"/>
+      <c r="A100" s="283"/>
       <c r="B100" s="83" t="s">
         <v>658</v>
       </c>
@@ -22063,33 +22054,33 @@
         <v>661</v>
       </c>
       <c r="E100" s="206" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F100" s="94" t="s">
         <v>1470</v>
       </c>
-      <c r="F100" s="94" t="s">
+      <c r="G100" s="94" t="s">
         <v>1471</v>
       </c>
-      <c r="G100" s="94" t="s">
+      <c r="H100" s="94" t="s">
         <v>1472</v>
       </c>
-      <c r="H100" s="94" t="s">
+      <c r="I100" s="94" t="s">
         <v>1473</v>
-      </c>
-      <c r="I100" s="94" t="s">
-        <v>1474</v>
       </c>
       <c r="J100" s="66"/>
       <c r="K100" s="132" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L100" s="159" t="s">
         <v>1475</v>
       </c>
-      <c r="L100" s="159" t="s">
+      <c r="M100" s="66" t="s">
         <v>1476</v>
       </c>
-      <c r="M100" s="66" t="s">
-        <v>1477</v>
-      </c>
     </row>
     <row r="101" spans="1:13" ht="15.75">
-      <c r="A101" s="281"/>
+      <c r="A101" s="283"/>
       <c r="B101" s="83"/>
       <c r="C101" s="205"/>
       <c r="D101" s="96"/>
@@ -22100,17 +22091,17 @@
       <c r="I101" s="85"/>
       <c r="J101" s="68"/>
       <c r="K101" s="132" t="s">
+        <v>1477</v>
+      </c>
+      <c r="L101" s="159" t="s">
         <v>1478</v>
       </c>
-      <c r="L101" s="159" t="s">
+      <c r="M101" s="66" t="s">
         <v>1479</v>
       </c>
-      <c r="M101" s="66" t="s">
-        <v>1480</v>
-      </c>
     </row>
     <row r="102" spans="1:13" ht="15.75">
-      <c r="A102" s="281"/>
+      <c r="A102" s="283"/>
       <c r="B102" s="83"/>
       <c r="C102" s="205"/>
       <c r="D102" s="96"/>
@@ -22121,17 +22112,17 @@
       <c r="I102" s="85"/>
       <c r="J102" s="68"/>
       <c r="K102" s="132" t="s">
+        <v>1480</v>
+      </c>
+      <c r="L102" s="159" t="s">
         <v>1481</v>
       </c>
-      <c r="L102" s="159" t="s">
+      <c r="M102" s="66" t="s">
         <v>1482</v>
       </c>
-      <c r="M102" s="66" t="s">
-        <v>1483</v>
-      </c>
     </row>
     <row r="103" spans="1:13" ht="15.75">
-      <c r="A103" s="281"/>
+      <c r="A103" s="283"/>
       <c r="B103" s="83"/>
       <c r="C103" s="205"/>
       <c r="D103" s="96"/>
@@ -22142,17 +22133,17 @@
       <c r="I103" s="85"/>
       <c r="J103" s="68"/>
       <c r="K103" s="132" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L103" s="159" t="s">
         <v>1484</v>
       </c>
-      <c r="L103" s="159" t="s">
+      <c r="M103" s="66" t="s">
         <v>1485</v>
       </c>
-      <c r="M103" s="66" t="s">
-        <v>1486</v>
-      </c>
     </row>
     <row r="104" spans="1:13" ht="15.75">
-      <c r="A104" s="281"/>
+      <c r="A104" s="283"/>
       <c r="B104" s="83"/>
       <c r="C104" s="205"/>
       <c r="D104" s="96"/>
@@ -22163,17 +22154,17 @@
       <c r="I104" s="85"/>
       <c r="J104" s="68"/>
       <c r="K104" s="132" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L104" s="159" t="s">
         <v>1487</v>
       </c>
-      <c r="L104" s="159" t="s">
+      <c r="M104" s="66" t="s">
         <v>1488</v>
       </c>
-      <c r="M104" s="66" t="s">
-        <v>1489</v>
-      </c>
     </row>
     <row r="105" spans="1:13" ht="15.75">
-      <c r="A105" s="281"/>
+      <c r="A105" s="283"/>
       <c r="B105" s="83"/>
       <c r="C105" s="205"/>
       <c r="D105" s="96"/>
@@ -22184,17 +22175,17 @@
       <c r="I105" s="85"/>
       <c r="J105" s="68"/>
       <c r="K105" s="132" t="s">
+        <v>1489</v>
+      </c>
+      <c r="L105" s="159" t="s">
         <v>1490</v>
       </c>
-      <c r="L105" s="159" t="s">
+      <c r="M105" s="66" t="s">
         <v>1491</v>
       </c>
-      <c r="M105" s="66" t="s">
-        <v>1492</v>
-      </c>
     </row>
     <row r="106" spans="1:13" ht="15.75">
-      <c r="A106" s="281"/>
+      <c r="A106" s="283"/>
       <c r="B106" s="83"/>
       <c r="C106" s="205"/>
       <c r="D106" s="96"/>
@@ -22205,17 +22196,17 @@
       <c r="I106" s="85"/>
       <c r="J106" s="68"/>
       <c r="K106" s="132" t="s">
+        <v>1492</v>
+      </c>
+      <c r="L106" s="159" t="s">
         <v>1493</v>
       </c>
-      <c r="L106" s="159" t="s">
+      <c r="M106" s="66" t="s">
         <v>1494</v>
       </c>
-      <c r="M106" s="66" t="s">
-        <v>1495</v>
-      </c>
     </row>
     <row r="107" spans="1:13" ht="15.75">
-      <c r="A107" s="281"/>
+      <c r="A107" s="283"/>
       <c r="B107" s="83"/>
       <c r="C107" s="205"/>
       <c r="D107" s="96"/>
@@ -22226,17 +22217,17 @@
       <c r="I107" s="85"/>
       <c r="J107" s="68"/>
       <c r="K107" s="132" t="s">
+        <v>1495</v>
+      </c>
+      <c r="L107" s="159" t="s">
         <v>1496</v>
       </c>
-      <c r="L107" s="159" t="s">
+      <c r="M107" s="66" t="s">
         <v>1497</v>
       </c>
-      <c r="M107" s="66" t="s">
-        <v>1498</v>
-      </c>
     </row>
     <row r="108" spans="1:13" ht="15.75">
-      <c r="A108" s="281"/>
+      <c r="A108" s="283"/>
       <c r="B108" s="83"/>
       <c r="C108" s="205"/>
       <c r="D108" s="96"/>
@@ -22247,17 +22238,17 @@
       <c r="I108" s="85"/>
       <c r="J108" s="68"/>
       <c r="K108" s="132" t="s">
+        <v>1498</v>
+      </c>
+      <c r="L108" s="159" t="s">
         <v>1499</v>
       </c>
-      <c r="L108" s="159" t="s">
+      <c r="M108" s="66" t="s">
         <v>1500</v>
       </c>
-      <c r="M108" s="66" t="s">
-        <v>1501</v>
-      </c>
     </row>
     <row r="109" spans="1:13" ht="15.75">
-      <c r="A109" s="281"/>
+      <c r="A109" s="283"/>
       <c r="B109" s="83"/>
       <c r="C109" s="205"/>
       <c r="D109" s="96"/>
@@ -22268,17 +22259,17 @@
       <c r="I109" s="85"/>
       <c r="J109" s="68"/>
       <c r="K109" s="132" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L109" s="159" t="s">
         <v>1502</v>
       </c>
-      <c r="L109" s="159" t="s">
+      <c r="M109" s="66" t="s">
         <v>1503</v>
       </c>
-      <c r="M109" s="66" t="s">
-        <v>1504</v>
-      </c>
     </row>
     <row r="110" spans="1:13" ht="15.75">
-      <c r="A110" s="281"/>
+      <c r="A110" s="283"/>
       <c r="B110" s="83"/>
       <c r="C110" s="205"/>
       <c r="D110" s="96"/>
@@ -22289,17 +22280,17 @@
       <c r="I110" s="85"/>
       <c r="J110" s="68"/>
       <c r="K110" s="132" t="s">
+        <v>1504</v>
+      </c>
+      <c r="L110" s="159" t="s">
         <v>1505</v>
       </c>
-      <c r="L110" s="159" t="s">
+      <c r="M110" s="66" t="s">
         <v>1506</v>
       </c>
-      <c r="M110" s="66" t="s">
-        <v>1507</v>
-      </c>
     </row>
     <row r="111" spans="1:13" ht="15.75">
-      <c r="A111" s="281"/>
+      <c r="A111" s="283"/>
       <c r="B111" s="83"/>
       <c r="C111" s="205"/>
       <c r="D111" s="96"/>
@@ -22310,17 +22301,17 @@
       <c r="I111" s="85"/>
       <c r="J111" s="68"/>
       <c r="K111" s="132" t="s">
+        <v>1507</v>
+      </c>
+      <c r="L111" s="159" t="s">
         <v>1508</v>
       </c>
-      <c r="L111" s="159" t="s">
+      <c r="M111" s="66" t="s">
         <v>1509</v>
       </c>
-      <c r="M111" s="66" t="s">
-        <v>1510</v>
-      </c>
     </row>
     <row r="112" spans="1:13" ht="15.75">
-      <c r="A112" s="281"/>
+      <c r="A112" s="283"/>
       <c r="B112" s="83"/>
       <c r="C112" s="205"/>
       <c r="D112" s="96"/>
@@ -22331,17 +22322,17 @@
       <c r="I112" s="85"/>
       <c r="J112" s="68"/>
       <c r="K112" s="132" t="s">
+        <v>1510</v>
+      </c>
+      <c r="L112" s="159" t="s">
         <v>1511</v>
       </c>
-      <c r="L112" s="159" t="s">
+      <c r="M112" s="66" t="s">
         <v>1512</v>
       </c>
-      <c r="M112" s="66" t="s">
-        <v>1513</v>
-      </c>
     </row>
     <row r="113" spans="1:13" ht="90.75" customHeight="1">
-      <c r="A113" s="281"/>
+      <c r="A113" s="283"/>
       <c r="B113" s="83" t="s">
         <v>668</v>
       </c>
@@ -22355,30 +22346,30 @@
         <v>683</v>
       </c>
       <c r="F113" s="94" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G113" s="94" t="s">
         <v>1514</v>
       </c>
-      <c r="G113" s="94" t="s">
+      <c r="H113" s="94" t="s">
         <v>1515</v>
       </c>
-      <c r="H113" s="94" t="s">
-        <v>1516</v>
-      </c>
       <c r="I113" s="94" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J113" s="66"/>
       <c r="K113" s="132" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L113" s="159" t="s">
         <v>1517</v>
       </c>
-      <c r="L113" s="159" t="s">
+      <c r="M113" s="66" t="s">
         <v>1518</v>
       </c>
-      <c r="M113" s="66" t="s">
-        <v>1519</v>
-      </c>
     </row>
     <row r="114" spans="1:13" ht="15.75">
-      <c r="A114" s="281"/>
+      <c r="A114" s="283"/>
       <c r="B114" s="83"/>
       <c r="C114" s="205"/>
       <c r="D114" s="96"/>
@@ -22389,17 +22380,17 @@
       <c r="I114" s="85"/>
       <c r="J114" s="68"/>
       <c r="K114" s="132" t="s">
+        <v>1519</v>
+      </c>
+      <c r="L114" s="159" t="s">
         <v>1520</v>
       </c>
-      <c r="L114" s="159" t="s">
+      <c r="M114" s="66" t="s">
         <v>1521</v>
       </c>
-      <c r="M114" s="66" t="s">
-        <v>1522</v>
-      </c>
     </row>
     <row r="115" spans="1:13" ht="15.75">
-      <c r="A115" s="281"/>
+      <c r="A115" s="283"/>
       <c r="B115" s="83"/>
       <c r="C115" s="205"/>
       <c r="D115" s="96"/>
@@ -22410,17 +22401,17 @@
       <c r="I115" s="85"/>
       <c r="J115" s="68"/>
       <c r="K115" s="132" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L115" s="159" t="s">
         <v>1523</v>
       </c>
-      <c r="L115" s="159" t="s">
+      <c r="M115" s="66" t="s">
         <v>1524</v>
       </c>
-      <c r="M115" s="66" t="s">
-        <v>1525</v>
-      </c>
     </row>
     <row r="116" spans="1:13" ht="15.75">
-      <c r="A116" s="281"/>
+      <c r="A116" s="283"/>
       <c r="B116" s="83"/>
       <c r="C116" s="205"/>
       <c r="D116" s="96"/>
@@ -22431,17 +22422,17 @@
       <c r="I116" s="85"/>
       <c r="J116" s="68"/>
       <c r="K116" s="132" t="s">
+        <v>1525</v>
+      </c>
+      <c r="L116" s="235" t="s">
         <v>1526</v>
       </c>
-      <c r="L116" s="235" t="s">
+      <c r="M116" s="66" t="s">
         <v>1527</v>
       </c>
-      <c r="M116" s="66" t="s">
-        <v>1528</v>
-      </c>
     </row>
     <row r="117" spans="1:13" ht="15.75">
-      <c r="A117" s="281"/>
+      <c r="A117" s="283"/>
       <c r="B117" s="83"/>
       <c r="C117" s="205"/>
       <c r="D117" s="96"/>
@@ -22452,17 +22443,17 @@
       <c r="I117" s="85"/>
       <c r="J117" s="68"/>
       <c r="K117" s="132" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L117" s="159" t="s">
         <v>1529</v>
       </c>
-      <c r="L117" s="159" t="s">
+      <c r="M117" s="66" t="s">
         <v>1530</v>
       </c>
-      <c r="M117" s="66" t="s">
-        <v>1531</v>
-      </c>
     </row>
     <row r="118" spans="1:13" ht="88.5" customHeight="1">
-      <c r="A118" s="281"/>
+      <c r="A118" s="283"/>
       <c r="B118" s="83" t="s">
         <v>678</v>
       </c>
@@ -22476,30 +22467,30 @@
         <v>692</v>
       </c>
       <c r="F118" s="94" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G118" s="94" t="s">
         <v>1532</v>
       </c>
-      <c r="G118" s="94" t="s">
-        <v>1533</v>
-      </c>
       <c r="H118" s="94" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="I118" s="94" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J118" s="66"/>
       <c r="K118" s="132" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L118" s="159" t="s">
         <v>1534</v>
       </c>
-      <c r="L118" s="159" t="s">
+      <c r="M118" s="159" t="s">
         <v>1535</v>
       </c>
-      <c r="M118" s="159" t="s">
-        <v>1536</v>
-      </c>
     </row>
     <row r="119" spans="1:13" ht="15.75">
-      <c r="A119" s="281"/>
+      <c r="A119" s="283"/>
       <c r="B119" s="83"/>
       <c r="C119" s="205"/>
       <c r="D119" s="96"/>
@@ -22510,17 +22501,17 @@
       <c r="I119" s="85"/>
       <c r="J119" s="68"/>
       <c r="K119" s="132" t="s">
+        <v>1536</v>
+      </c>
+      <c r="L119" s="159" t="s">
         <v>1537</v>
       </c>
-      <c r="L119" s="159" t="s">
+      <c r="M119" s="159" t="s">
         <v>1538</v>
       </c>
-      <c r="M119" s="159" t="s">
-        <v>1539</v>
-      </c>
     </row>
     <row r="120" spans="1:13" ht="15.75">
-      <c r="A120" s="281"/>
+      <c r="A120" s="283"/>
       <c r="B120" s="83"/>
       <c r="C120" s="205"/>
       <c r="D120" s="96"/>
@@ -22531,17 +22522,17 @@
       <c r="I120" s="85"/>
       <c r="J120" s="68"/>
       <c r="K120" s="132" t="s">
+        <v>1539</v>
+      </c>
+      <c r="L120" s="159" t="s">
         <v>1540</v>
       </c>
-      <c r="L120" s="159" t="s">
+      <c r="M120" s="66" t="s">
         <v>1541</v>
       </c>
-      <c r="M120" s="66" t="s">
-        <v>1542</v>
-      </c>
     </row>
     <row r="121" spans="1:13" ht="15.75">
-      <c r="A121" s="281"/>
+      <c r="A121" s="283"/>
       <c r="B121" s="83"/>
       <c r="C121" s="205"/>
       <c r="D121" s="96"/>
@@ -22552,17 +22543,17 @@
       <c r="I121" s="85"/>
       <c r="J121" s="68"/>
       <c r="K121" s="132" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L121" s="159" t="s">
         <v>1543</v>
       </c>
-      <c r="L121" s="159" t="s">
+      <c r="M121" s="159" t="s">
         <v>1544</v>
       </c>
-      <c r="M121" s="159" t="s">
-        <v>1545</v>
-      </c>
     </row>
     <row r="122" spans="1:13" ht="15.75">
-      <c r="A122" s="281"/>
+      <c r="A122" s="283"/>
       <c r="B122" s="83"/>
       <c r="C122" s="205"/>
       <c r="D122" s="96"/>
@@ -22573,17 +22564,17 @@
       <c r="I122" s="85"/>
       <c r="J122" s="68"/>
       <c r="K122" s="132" t="s">
+        <v>1545</v>
+      </c>
+      <c r="L122" s="159" t="s">
         <v>1546</v>
       </c>
-      <c r="L122" s="159" t="s">
+      <c r="M122" s="159" t="s">
         <v>1547</v>
       </c>
-      <c r="M122" s="159" t="s">
-        <v>1548</v>
-      </c>
     </row>
     <row r="123" spans="1:13" ht="15.75">
-      <c r="A123" s="281"/>
+      <c r="A123" s="283"/>
       <c r="B123" s="83"/>
       <c r="C123" s="205"/>
       <c r="D123" s="96"/>
@@ -22594,17 +22585,17 @@
       <c r="I123" s="85"/>
       <c r="J123" s="68"/>
       <c r="K123" s="132" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L123" s="159" t="s">
         <v>1549</v>
       </c>
-      <c r="L123" s="159" t="s">
+      <c r="M123" s="159" t="s">
         <v>1550</v>
       </c>
-      <c r="M123" s="159" t="s">
-        <v>1551</v>
-      </c>
     </row>
     <row r="124" spans="1:13" ht="15.75">
-      <c r="A124" s="281"/>
+      <c r="A124" s="283"/>
       <c r="B124" s="83"/>
       <c r="C124" s="205"/>
       <c r="D124" s="96"/>
@@ -22615,17 +22606,17 @@
       <c r="I124" s="85"/>
       <c r="J124" s="68"/>
       <c r="K124" s="132" t="s">
+        <v>1551</v>
+      </c>
+      <c r="L124" s="159" t="s">
         <v>1552</v>
       </c>
-      <c r="L124" s="159" t="s">
+      <c r="M124" s="66" t="s">
         <v>1553</v>
       </c>
-      <c r="M124" s="66" t="s">
-        <v>1554</v>
-      </c>
     </row>
     <row r="125" spans="1:13" ht="15.75">
-      <c r="A125" s="281"/>
+      <c r="A125" s="283"/>
       <c r="B125" s="83"/>
       <c r="C125" s="205"/>
       <c r="D125" s="96"/>
@@ -22636,54 +22627,54 @@
       <c r="I125" s="85"/>
       <c r="J125" s="68"/>
       <c r="K125" s="132" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L125" s="159" t="s">
         <v>1555</v>
       </c>
-      <c r="L125" s="159" t="s">
+      <c r="M125" t="s">
         <v>1556</v>
       </c>
-      <c r="M125" t="s">
-        <v>1557</v>
-      </c>
     </row>
     <row r="126" spans="1:13" ht="69.75" customHeight="1">
-      <c r="A126" s="281"/>
+      <c r="A126" s="283"/>
       <c r="B126" s="83" t="s">
         <v>687</v>
       </c>
       <c r="C126" s="205" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D126" s="96" t="s">
         <v>690</v>
       </c>
       <c r="E126" s="206" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F126" s="85" t="s">
         <v>1559</v>
       </c>
-      <c r="F126" s="85" t="s">
+      <c r="G126" s="85" t="s">
         <v>1560</v>
       </c>
-      <c r="G126" s="85" t="s">
+      <c r="H126" s="213" t="s">
         <v>1561</v>
-      </c>
-      <c r="H126" s="213" t="s">
-        <v>1562</v>
       </c>
       <c r="I126" s="85" t="s">
         <v>894</v>
       </c>
       <c r="J126" s="68"/>
       <c r="K126" s="132" t="s">
+        <v>1562</v>
+      </c>
+      <c r="L126" s="159" t="s">
         <v>1563</v>
       </c>
-      <c r="L126" s="159" t="s">
+      <c r="M126" s="159" t="s">
         <v>1564</v>
       </c>
-      <c r="M126" s="159" t="s">
-        <v>1565</v>
-      </c>
     </row>
     <row r="127" spans="1:13" ht="15.75">
-      <c r="A127" s="281"/>
+      <c r="A127" s="283"/>
       <c r="B127" s="83"/>
       <c r="C127" s="205"/>
       <c r="D127" s="96"/>
@@ -22694,17 +22685,17 @@
       <c r="I127" s="85"/>
       <c r="J127" s="68"/>
       <c r="K127" s="132" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L127" s="159" t="s">
         <v>1566</v>
       </c>
-      <c r="L127" s="159" t="s">
+      <c r="M127" s="159" t="s">
         <v>1567</v>
       </c>
-      <c r="M127" s="159" t="s">
-        <v>1568</v>
-      </c>
     </row>
     <row r="128" spans="1:13" ht="15.75">
-      <c r="A128" s="281"/>
+      <c r="A128" s="283"/>
       <c r="B128" s="83"/>
       <c r="C128" s="205"/>
       <c r="D128" s="96"/>
@@ -22715,17 +22706,17 @@
       <c r="I128" s="85"/>
       <c r="J128" s="68"/>
       <c r="K128" s="132" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L128" s="159" t="s">
         <v>1569</v>
       </c>
-      <c r="L128" s="159" t="s">
+      <c r="M128" s="159" t="s">
         <v>1570</v>
       </c>
-      <c r="M128" s="159" t="s">
-        <v>1571</v>
-      </c>
     </row>
     <row r="129" spans="1:13" ht="15.75">
-      <c r="A129" s="281"/>
+      <c r="A129" s="283"/>
       <c r="B129" s="83"/>
       <c r="C129" s="205"/>
       <c r="D129" s="96"/>
@@ -22736,17 +22727,17 @@
       <c r="I129" s="85"/>
       <c r="J129" s="68"/>
       <c r="K129" s="132" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L129" s="159" t="s">
         <v>1572</v>
       </c>
-      <c r="L129" s="159" t="s">
+      <c r="M129" s="159" t="s">
         <v>1573</v>
       </c>
-      <c r="M129" s="159" t="s">
-        <v>1574</v>
-      </c>
     </row>
     <row r="130" spans="1:13" ht="15.75">
-      <c r="A130" s="281"/>
+      <c r="A130" s="283"/>
       <c r="B130" s="83"/>
       <c r="C130" s="205"/>
       <c r="D130" s="96"/>
@@ -22757,17 +22748,17 @@
       <c r="I130" s="85"/>
       <c r="J130" s="68"/>
       <c r="K130" s="132" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L130" s="159" t="s">
         <v>1575</v>
       </c>
-      <c r="L130" s="159" t="s">
+      <c r="M130" s="66" t="s">
         <v>1576</v>
       </c>
-      <c r="M130" s="66" t="s">
-        <v>1577</v>
-      </c>
     </row>
     <row r="131" spans="1:13" ht="15.75">
-      <c r="A131" s="281"/>
+      <c r="A131" s="283"/>
       <c r="B131" s="83"/>
       <c r="C131" s="205"/>
       <c r="D131" s="96"/>
@@ -22778,17 +22769,17 @@
       <c r="I131" s="85"/>
       <c r="J131" s="68"/>
       <c r="K131" s="132" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L131" s="159" t="s">
         <v>1578</v>
       </c>
-      <c r="L131" s="159" t="s">
+      <c r="M131" s="159" t="s">
         <v>1579</v>
       </c>
-      <c r="M131" s="159" t="s">
-        <v>1580</v>
-      </c>
     </row>
     <row r="132" spans="1:13" ht="15.75">
-      <c r="A132" s="281"/>
+      <c r="A132" s="283"/>
       <c r="B132" s="83"/>
       <c r="C132" s="205"/>
       <c r="D132" s="96"/>
@@ -22799,17 +22790,17 @@
       <c r="I132" s="85"/>
       <c r="J132" s="68"/>
       <c r="K132" s="132" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L132" s="159" t="s">
         <v>1581</v>
       </c>
-      <c r="L132" s="159" t="s">
+      <c r="M132" s="159" t="s">
         <v>1582</v>
       </c>
-      <c r="M132" s="159" t="s">
-        <v>1583</v>
-      </c>
     </row>
     <row r="133" spans="1:13" ht="15.75">
-      <c r="A133" s="281"/>
+      <c r="A133" s="283"/>
       <c r="B133" s="83"/>
       <c r="C133" s="205"/>
       <c r="D133" s="96"/>
@@ -22820,17 +22811,17 @@
       <c r="I133" s="85"/>
       <c r="J133" s="68"/>
       <c r="K133" s="132" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L133" s="159" t="s">
         <v>1584</v>
       </c>
-      <c r="L133" s="159" t="s">
+      <c r="M133" s="159" t="s">
         <v>1585</v>
       </c>
-      <c r="M133" s="159" t="s">
-        <v>1586</v>
-      </c>
     </row>
     <row r="134" spans="1:13" ht="15.75">
-      <c r="A134" s="281"/>
+      <c r="A134" s="283"/>
       <c r="B134" s="83"/>
       <c r="C134" s="205"/>
       <c r="D134" s="96"/>
@@ -22841,17 +22832,17 @@
       <c r="I134" s="85"/>
       <c r="J134" s="68"/>
       <c r="K134" s="132" t="s">
+        <v>1586</v>
+      </c>
+      <c r="L134" s="159" t="s">
         <v>1587</v>
       </c>
-      <c r="L134" s="159" t="s">
+      <c r="M134" s="159" t="s">
         <v>1588</v>
       </c>
-      <c r="M134" s="159" t="s">
-        <v>1589</v>
-      </c>
     </row>
     <row r="135" spans="1:13" ht="15.75">
-      <c r="A135" s="281"/>
+      <c r="A135" s="283"/>
       <c r="B135" s="83"/>
       <c r="C135" s="205"/>
       <c r="D135" s="96"/>
@@ -22868,11 +22859,11 @@
         <v>945</v>
       </c>
       <c r="M135" s="182" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="15.75">
-      <c r="A136" s="281"/>
+      <c r="A136" s="283"/>
       <c r="B136" s="83"/>
       <c r="C136" s="205"/>
       <c r="D136" s="96"/>
@@ -22883,17 +22874,17 @@
       <c r="I136" s="85"/>
       <c r="J136" s="68"/>
       <c r="K136" s="132" t="s">
+        <v>1590</v>
+      </c>
+      <c r="L136" s="159" t="s">
         <v>1591</v>
       </c>
-      <c r="L136" s="159" t="s">
+      <c r="M136" s="66" t="s">
         <v>1592</v>
       </c>
-      <c r="M136" s="66" t="s">
-        <v>1593</v>
-      </c>
     </row>
     <row r="137" spans="1:13" ht="15.75">
-      <c r="A137" s="281"/>
+      <c r="A137" s="283"/>
       <c r="B137" s="83"/>
       <c r="C137" s="205"/>
       <c r="D137" s="96"/>
@@ -22903,40 +22894,40 @@
       <c r="I137" s="85"/>
       <c r="J137" s="68"/>
       <c r="K137" s="132" t="s">
+        <v>1593</v>
+      </c>
+      <c r="L137" s="159" t="s">
         <v>1594</v>
       </c>
-      <c r="L137" s="159" t="s">
+      <c r="M137" s="66" t="s">
         <v>1595</v>
       </c>
-      <c r="M137" s="66" t="s">
-        <v>1596</v>
-      </c>
     </row>
     <row r="138" spans="1:13" ht="92.25" customHeight="1">
-      <c r="A138" s="281"/>
+      <c r="A138" s="283"/>
       <c r="B138" s="83" t="s">
         <v>741</v>
       </c>
       <c r="C138" s="205" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D138" s="98" t="s">
         <v>744</v>
       </c>
       <c r="E138" s="206" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F138" s="85" t="s">
         <v>742</v>
       </c>
       <c r="G138" s="213" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H138" s="240" t="s">
         <v>1599</v>
       </c>
-      <c r="H138" s="240" t="s">
-        <v>1600</v>
-      </c>
       <c r="I138" s="85" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J138" s="68"/>
       <c r="K138" s="68"/>
@@ -22944,16 +22935,16 @@
       <c r="M138" s="68"/>
     </row>
     <row r="139" spans="1:13" ht="25.5">
-      <c r="A139" s="281"/>
+      <c r="A139" s="283"/>
       <c r="B139" s="83" t="s">
         <v>741</v>
       </c>
       <c r="C139" s="205" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D139" s="98"/>
       <c r="E139" s="84" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F139" s="85"/>
       <c r="G139" s="85"/>
@@ -22965,30 +22956,30 @@
       <c r="M139" s="68"/>
     </row>
     <row r="140" spans="1:13" ht="318" customHeight="1">
-      <c r="A140" s="281"/>
+      <c r="A140" s="283"/>
       <c r="B140" s="83" t="s">
         <v>749</v>
       </c>
       <c r="C140" s="205" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D140" s="96" t="s">
         <v>752</v>
       </c>
       <c r="E140" s="206" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F140" s="85" t="s">
         <v>1603</v>
       </c>
-      <c r="F140" s="85" t="s">
+      <c r="G140" s="85" t="s">
         <v>1604</v>
       </c>
-      <c r="G140" s="85" t="s">
+      <c r="H140" s="85" t="s">
         <v>1605</v>
       </c>
-      <c r="H140" s="85" t="s">
+      <c r="I140" s="85" t="s">
         <v>1606</v>
-      </c>
-      <c r="I140" s="85" t="s">
-        <v>1607</v>
       </c>
       <c r="J140" s="68"/>
       <c r="K140" s="68"/>
@@ -22996,32 +22987,32 @@
       <c r="M140" s="68"/>
     </row>
     <row r="141" spans="1:13" ht="271.5" customHeight="1">
-      <c r="A141" s="277" t="s">
-        <v>1608</v>
+      <c r="A141" s="279" t="s">
+        <v>1607</v>
       </c>
       <c r="B141" s="89" t="s">
         <v>722</v>
       </c>
       <c r="C141" s="241" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D141" s="131" t="s">
         <v>1609</v>
       </c>
-      <c r="D141" s="131" t="s">
+      <c r="E141" s="242" t="s">
         <v>1610</v>
       </c>
-      <c r="E141" s="242" t="s">
+      <c r="F141" s="89" t="s">
         <v>1611</v>
       </c>
-      <c r="F141" s="89" t="s">
+      <c r="G141" s="94" t="s">
         <v>1612</v>
       </c>
-      <c r="G141" s="94" t="s">
+      <c r="H141" s="94" t="s">
         <v>1613</v>
       </c>
-      <c r="H141" s="94" t="s">
-        <v>1614</v>
-      </c>
       <c r="I141" s="94" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J141" s="66"/>
       <c r="K141" s="66"/>
@@ -23029,24 +23020,24 @@
       <c r="M141" s="66"/>
     </row>
     <row r="142" spans="1:13" ht="15.75">
-      <c r="A142" s="277"/>
+      <c r="A142" s="279"/>
       <c r="B142" s="93" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C142" s="241" t="s">
         <v>1615</v>
       </c>
-      <c r="C142" s="241" t="s">
+      <c r="D142" s="243" t="s">
         <v>1616</v>
       </c>
-      <c r="D142" s="243" t="s">
+      <c r="E142" s="131" t="s">
         <v>1617</v>
-      </c>
-      <c r="E142" s="131" t="s">
-        <v>1618</v>
       </c>
       <c r="F142" s="85"/>
       <c r="G142" s="85"/>
       <c r="H142" s="85"/>
       <c r="I142" s="85" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J142" s="68"/>
       <c r="K142" s="68"/>
@@ -23054,24 +23045,24 @@
       <c r="M142" s="68"/>
     </row>
     <row r="143" spans="1:13" ht="15.75">
-      <c r="A143" s="277"/>
+      <c r="A143" s="279"/>
       <c r="B143" s="89" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C143" s="241" t="s">
         <v>1619</v>
       </c>
-      <c r="C143" s="241" t="s">
+      <c r="D143" s="131" t="s">
         <v>1620</v>
       </c>
-      <c r="D143" s="131" t="s">
+      <c r="E143" s="131" t="s">
         <v>1621</v>
-      </c>
-      <c r="E143" s="131" t="s">
-        <v>1622</v>
       </c>
       <c r="F143" s="85"/>
       <c r="G143" s="85"/>
       <c r="H143" s="85"/>
       <c r="I143" s="85" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J143" s="68"/>
       <c r="K143" s="68"/>
@@ -23079,38 +23070,38 @@
       <c r="M143" s="68"/>
     </row>
     <row r="144" spans="1:13" ht="15.75">
-      <c r="A144" s="277"/>
+      <c r="A144" s="279"/>
       <c r="B144" s="89" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C144" s="241" t="s">
         <v>1623</v>
       </c>
-      <c r="C144" s="241" t="s">
+      <c r="D144" s="131" t="s">
         <v>1624</v>
       </c>
-      <c r="D144" s="131" t="s">
+      <c r="E144" s="131" t="s">
         <v>1625</v>
-      </c>
-      <c r="E144" s="131" t="s">
-        <v>1626</v>
       </c>
       <c r="F144" s="85"/>
       <c r="G144" s="85"/>
       <c r="H144" s="85"/>
       <c r="I144" s="85" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J144" s="68"/>
       <c r="K144" s="132" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L144" s="244" t="s">
         <v>1627</v>
       </c>
-      <c r="L144" s="244" t="s">
+      <c r="M144" s="130" t="s">
         <v>1628</v>
       </c>
-      <c r="M144" s="130" t="s">
-        <v>1629</v>
-      </c>
     </row>
     <row r="145" spans="1:13" ht="15.75">
-      <c r="A145" s="277"/>
+      <c r="A145" s="279"/>
       <c r="B145" s="89"/>
       <c r="C145" s="205"/>
       <c r="D145" s="67"/>
@@ -23121,17 +23112,17 @@
       <c r="I145" s="85"/>
       <c r="J145" s="68"/>
       <c r="K145" s="132" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L145" s="245" t="s">
         <v>1630</v>
       </c>
-      <c r="L145" s="245" t="s">
+      <c r="M145" s="131" t="s">
         <v>1631</v>
       </c>
-      <c r="M145" s="131" t="s">
-        <v>1632</v>
-      </c>
     </row>
     <row r="146" spans="1:13" ht="15.75">
-      <c r="A146" s="277"/>
+      <c r="A146" s="279"/>
       <c r="B146" s="89"/>
       <c r="C146" s="205"/>
       <c r="D146" s="67"/>
@@ -23142,17 +23133,17 @@
       <c r="I146" s="85"/>
       <c r="J146" s="68"/>
       <c r="K146" s="132" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L146" s="245" t="s">
         <v>1633</v>
       </c>
-      <c r="L146" s="245" t="s">
+      <c r="M146" s="131" t="s">
         <v>1634</v>
       </c>
-      <c r="M146" s="131" t="s">
-        <v>1635</v>
-      </c>
     </row>
     <row r="147" spans="1:13" ht="15.75">
-      <c r="A147" s="277"/>
+      <c r="A147" s="279"/>
       <c r="B147" s="89"/>
       <c r="C147" s="205"/>
       <c r="D147" s="67"/>
@@ -23163,17 +23154,17 @@
       <c r="I147" s="85"/>
       <c r="J147" s="68"/>
       <c r="K147" s="132" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L147" s="245" t="s">
         <v>1636</v>
       </c>
-      <c r="L147" s="245" t="s">
+      <c r="M147" s="131" t="s">
         <v>1637</v>
       </c>
-      <c r="M147" s="131" t="s">
-        <v>1638</v>
-      </c>
     </row>
     <row r="148" spans="1:13" ht="15.75">
-      <c r="A148" s="277"/>
+      <c r="A148" s="279"/>
       <c r="B148" s="89"/>
       <c r="C148" s="205"/>
       <c r="D148" s="67"/>
@@ -23184,17 +23175,17 @@
       <c r="I148" s="85"/>
       <c r="J148" s="68"/>
       <c r="K148" s="132" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L148" s="245" t="s">
         <v>1639</v>
       </c>
-      <c r="L148" s="245" t="s">
+      <c r="M148" s="131" t="s">
         <v>1640</v>
       </c>
-      <c r="M148" s="131" t="s">
-        <v>1641</v>
-      </c>
     </row>
     <row r="149" spans="1:13" ht="15.75">
-      <c r="A149" s="277"/>
+      <c r="A149" s="279"/>
       <c r="B149" s="89"/>
       <c r="C149" s="205"/>
       <c r="D149" s="67"/>
@@ -23205,17 +23196,17 @@
       <c r="I149" s="85"/>
       <c r="J149" s="68"/>
       <c r="K149" s="132" t="s">
+        <v>1641</v>
+      </c>
+      <c r="L149" s="245" t="s">
         <v>1642</v>
       </c>
-      <c r="L149" s="245" t="s">
+      <c r="M149" s="131" t="s">
         <v>1643</v>
       </c>
-      <c r="M149" s="131" t="s">
-        <v>1644</v>
-      </c>
     </row>
     <row r="150" spans="1:13" ht="15.75">
-      <c r="A150" s="277"/>
+      <c r="A150" s="279"/>
       <c r="B150" s="89"/>
       <c r="C150" s="205"/>
       <c r="D150" s="67"/>
@@ -23226,17 +23217,17 @@
       <c r="I150" s="85"/>
       <c r="J150" s="68"/>
       <c r="K150" s="132" t="s">
+        <v>1644</v>
+      </c>
+      <c r="L150" s="245" t="s">
         <v>1645</v>
       </c>
-      <c r="L150" s="245" t="s">
+      <c r="M150" s="131" t="s">
         <v>1646</v>
       </c>
-      <c r="M150" s="131" t="s">
-        <v>1647</v>
-      </c>
     </row>
     <row r="151" spans="1:13" ht="15.75">
-      <c r="A151" s="277"/>
+      <c r="A151" s="279"/>
       <c r="B151" s="89"/>
       <c r="C151" s="205"/>
       <c r="D151" s="67"/>
@@ -23247,17 +23238,17 @@
       <c r="I151" s="85"/>
       <c r="J151" s="68"/>
       <c r="K151" s="132" t="s">
+        <v>1647</v>
+      </c>
+      <c r="L151" s="245" t="s">
         <v>1648</v>
       </c>
-      <c r="L151" s="245" t="s">
+      <c r="M151" s="131" t="s">
         <v>1649</v>
       </c>
-      <c r="M151" s="131" t="s">
-        <v>1650</v>
-      </c>
     </row>
     <row r="152" spans="1:13" ht="15.75">
-      <c r="A152" s="277"/>
+      <c r="A152" s="279"/>
       <c r="B152" s="89"/>
       <c r="C152" s="205"/>
       <c r="D152" s="67"/>
@@ -23268,17 +23259,17 @@
       <c r="I152" s="85"/>
       <c r="J152" s="68"/>
       <c r="K152" s="132" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L152" s="245" t="s">
         <v>1651</v>
       </c>
-      <c r="L152" s="245" t="s">
+      <c r="M152" s="131" t="s">
         <v>1652</v>
       </c>
-      <c r="M152" s="131" t="s">
-        <v>1653</v>
-      </c>
     </row>
     <row r="153" spans="1:13" ht="15.75">
-      <c r="A153" s="277"/>
+      <c r="A153" s="279"/>
       <c r="B153" s="89"/>
       <c r="C153" s="205"/>
       <c r="D153" s="67"/>
@@ -23289,17 +23280,17 @@
       <c r="I153" s="85"/>
       <c r="J153" s="68"/>
       <c r="K153" s="132" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L153" s="245" t="s">
         <v>1654</v>
       </c>
-      <c r="L153" s="245" t="s">
+      <c r="M153" s="131" t="s">
         <v>1655</v>
       </c>
-      <c r="M153" s="131" t="s">
-        <v>1656</v>
-      </c>
     </row>
     <row r="154" spans="1:13" ht="15.75">
-      <c r="A154" s="277"/>
+      <c r="A154" s="279"/>
       <c r="B154" s="89"/>
       <c r="C154" s="205"/>
       <c r="D154" s="67"/>
@@ -23310,17 +23301,17 @@
       <c r="I154" s="85"/>
       <c r="J154" s="68"/>
       <c r="K154" s="132" t="s">
+        <v>1656</v>
+      </c>
+      <c r="L154" s="245" t="s">
         <v>1657</v>
       </c>
-      <c r="L154" s="245" t="s">
+      <c r="M154" s="131" t="s">
         <v>1658</v>
       </c>
-      <c r="M154" s="131" t="s">
-        <v>1659</v>
-      </c>
     </row>
     <row r="155" spans="1:13" ht="15.75">
-      <c r="A155" s="277"/>
+      <c r="A155" s="279"/>
       <c r="B155" s="68"/>
       <c r="C155" s="68"/>
       <c r="D155" s="67"/>
@@ -23331,17 +23322,17 @@
       <c r="I155" s="85"/>
       <c r="J155" s="68"/>
       <c r="K155" s="132" t="s">
+        <v>1659</v>
+      </c>
+      <c r="L155" s="245" t="s">
         <v>1660</v>
       </c>
-      <c r="L155" s="245" t="s">
+      <c r="M155" s="131" t="s">
         <v>1661</v>
       </c>
-      <c r="M155" s="131" t="s">
-        <v>1662</v>
-      </c>
     </row>
     <row r="156" spans="1:13" ht="15.75">
-      <c r="A156" s="277"/>
+      <c r="A156" s="279"/>
       <c r="B156" s="68"/>
       <c r="C156" s="68"/>
       <c r="D156" s="67"/>
@@ -23352,17 +23343,17 @@
       <c r="I156" s="85"/>
       <c r="J156" s="68"/>
       <c r="K156" s="132" t="s">
+        <v>1662</v>
+      </c>
+      <c r="L156" s="245" t="s">
         <v>1663</v>
       </c>
-      <c r="L156" s="245" t="s">
+      <c r="M156" s="131" t="s">
         <v>1664</v>
       </c>
-      <c r="M156" s="131" t="s">
-        <v>1665</v>
-      </c>
     </row>
     <row r="157" spans="1:13" ht="15.75">
-      <c r="A157" s="277"/>
+      <c r="A157" s="279"/>
       <c r="B157" s="68"/>
       <c r="C157" s="68"/>
       <c r="D157" s="67"/>
@@ -23373,17 +23364,17 @@
       <c r="I157" s="85"/>
       <c r="J157" s="68"/>
       <c r="K157" s="132" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L157" s="245" t="s">
         <v>1666</v>
       </c>
-      <c r="L157" s="245" t="s">
+      <c r="M157" s="131" t="s">
         <v>1667</v>
       </c>
-      <c r="M157" s="131" t="s">
-        <v>1668</v>
-      </c>
     </row>
     <row r="158" spans="1:13" ht="15.75">
-      <c r="A158" s="277"/>
+      <c r="A158" s="279"/>
       <c r="B158" s="68"/>
       <c r="C158" s="68"/>
       <c r="D158" s="67"/>
@@ -23394,34 +23385,34 @@
       <c r="I158" s="85"/>
       <c r="J158" s="68"/>
       <c r="K158" s="132" t="s">
+        <v>1668</v>
+      </c>
+      <c r="L158" s="245" t="s">
         <v>1669</v>
       </c>
-      <c r="L158" s="245" t="s">
+      <c r="M158" s="131" t="s">
         <v>1670</v>
       </c>
-      <c r="M158" s="131" t="s">
+    </row>
+    <row r="159" spans="1:13" ht="15.75">
+      <c r="A159" s="279"/>
+      <c r="B159" s="89" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="15.75">
-      <c r="A159" s="277"/>
-      <c r="B159" s="89" t="s">
+      <c r="C159" s="241" t="s">
         <v>1672</v>
       </c>
-      <c r="C159" s="241" t="s">
+      <c r="D159" s="131" t="s">
         <v>1673</v>
       </c>
-      <c r="D159" s="131" t="s">
+      <c r="E159" s="244" t="s">
         <v>1674</v>
-      </c>
-      <c r="E159" s="244" t="s">
-        <v>1675</v>
       </c>
       <c r="F159" s="85"/>
       <c r="G159" s="85"/>
       <c r="H159" s="85"/>
       <c r="I159" s="85" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J159" s="68"/>
       <c r="K159" s="68"/>
@@ -23429,24 +23420,24 @@
       <c r="M159" s="68"/>
     </row>
     <row r="160" spans="1:13" ht="15.75">
-      <c r="A160" s="277"/>
+      <c r="A160" s="279"/>
       <c r="B160" s="89" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C160" s="241" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D160" s="131" t="s">
         <v>1676</v>
       </c>
-      <c r="C160" s="241" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D160" s="131" t="s">
+      <c r="E160" s="246" t="s">
         <v>1677</v>
-      </c>
-      <c r="E160" s="246" t="s">
-        <v>1678</v>
       </c>
       <c r="F160" s="85"/>
       <c r="G160" s="85"/>
       <c r="H160" s="85"/>
       <c r="I160" s="85" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J160" s="68"/>
       <c r="K160" s="68"/>
@@ -23507,19 +23498,19 @@
         <v>8</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G1" s="79" t="s">
         <v>817</v>
       </c>
       <c r="H1" s="79" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J1" s="80" t="s">
         <v>1114</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>1680</v>
-      </c>
-      <c r="J1" s="80" t="s">
-        <v>1115</v>
       </c>
       <c r="K1" s="80" t="s">
         <v>821</v>
@@ -23532,32 +23523,32 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="101.25" customHeight="1">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="284" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B2" s="267" t="s">
         <v>1681</v>
       </c>
-      <c r="B2" s="267" t="s">
+      <c r="C2" s="67" t="s">
         <v>1682</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>1683</v>
       </c>
       <c r="D2" s="268" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="78" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F2" s="148" t="s">
         <v>1684</v>
       </c>
-      <c r="F2" s="148" t="s">
+      <c r="G2" s="247" t="s">
         <v>1685</v>
       </c>
-      <c r="G2" s="247" t="s">
+      <c r="H2" s="148" t="s">
         <v>1686</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="I2" s="78" t="s">
         <v>1687</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>1688</v>
       </c>
       <c r="J2" s="78"/>
       <c r="K2" s="78"/>
@@ -23565,7 +23556,7 @@
       <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:13" ht="75" customHeight="1">
-      <c r="A3" s="283"/>
+      <c r="A3" s="285"/>
       <c r="B3" s="267" t="s">
         <v>130</v>
       </c>
@@ -23576,31 +23567,31 @@
         <v>133</v>
       </c>
       <c r="E3" s="78" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F3" s="78" t="s">
         <v>1689</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="G3" s="78" t="s">
         <v>1690</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="H3" s="78" t="s">
         <v>1691</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>1692</v>
       </c>
       <c r="I3" s="78"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L3" s="248" t="s">
         <v>1693</v>
       </c>
-      <c r="L3" s="248" t="s">
+      <c r="M3" s="248" t="s">
         <v>1694</v>
       </c>
-      <c r="M3" s="248" t="s">
-        <v>1695</v>
-      </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="283"/>
+      <c r="A4" s="285"/>
       <c r="B4" s="267" t="s">
         <v>139</v>
       </c>
@@ -23611,19 +23602,19 @@
         <v>142</v>
       </c>
       <c r="E4" s="78" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F4" s="78" t="s">
         <v>1696</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="G4" s="248" t="s">
         <v>1697</v>
       </c>
-      <c r="G4" s="248" t="s">
+      <c r="H4" s="78" t="s">
         <v>1698</v>
       </c>
-      <c r="H4" s="78" t="s">
-        <v>1699</v>
-      </c>
       <c r="I4" s="78" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J4" s="78"/>
       <c r="K4" s="78"/>
@@ -23631,7 +23622,7 @@
       <c r="M4" s="78"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="283"/>
+      <c r="A5" s="285"/>
       <c r="B5" s="267" t="s">
         <v>148</v>
       </c>
@@ -23642,19 +23633,19 @@
         <v>151</v>
       </c>
       <c r="E5" s="78" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F5" s="78" t="s">
         <v>1700</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="G5" s="78" t="s">
         <v>1701</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="H5" s="78" t="s">
         <v>1702</v>
       </c>
-      <c r="H5" s="78" t="s">
-        <v>1703</v>
-      </c>
       <c r="I5" s="78" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J5" s="78"/>
       <c r="K5" s="78"/>
@@ -23662,7 +23653,7 @@
       <c r="M5" s="78"/>
     </row>
     <row r="6" spans="1:13" ht="30">
-      <c r="A6" s="283"/>
+      <c r="A6" s="285"/>
       <c r="B6" s="267" t="s">
         <v>157</v>
       </c>
@@ -23676,23 +23667,23 @@
         <v>162</v>
       </c>
       <c r="F6" s="78" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G6" s="78" t="s">
         <v>1704</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="H6" s="78" t="s">
         <v>1705</v>
       </c>
-      <c r="H6" s="78" t="s">
-        <v>1706</v>
-      </c>
       <c r="I6" s="78" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J6" s="78"/>
       <c r="L6" s="78"/>
       <c r="M6" s="78"/>
     </row>
     <row r="7" spans="1:13" ht="144" customHeight="1">
-      <c r="A7" s="283"/>
+      <c r="A7" s="285"/>
       <c r="B7" s="267" t="s">
         <v>731</v>
       </c>
@@ -23706,30 +23697,30 @@
         <v>746</v>
       </c>
       <c r="F7" s="148" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G7" s="247" t="s">
         <v>1707</v>
       </c>
-      <c r="G7" s="247" t="s">
+      <c r="H7" s="247" t="s">
         <v>1708</v>
       </c>
-      <c r="H7" s="247" t="s">
-        <v>1709</v>
-      </c>
       <c r="I7" s="78" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="78" t="s">
+        <v>1709</v>
+      </c>
+      <c r="L7" s="248" t="s">
         <v>1710</v>
       </c>
-      <c r="L7" s="248" t="s">
+      <c r="M7" s="248" t="s">
         <v>1711</v>
       </c>
-      <c r="M7" s="248" t="s">
-        <v>1712</v>
-      </c>
     </row>
     <row r="8" spans="1:13" ht="75">
-      <c r="A8" s="283"/>
+      <c r="A8" s="285"/>
       <c r="B8" s="267"/>
       <c r="C8" s="68"/>
       <c r="D8" s="268"/>
@@ -23740,17 +23731,17 @@
       <c r="I8" s="78"/>
       <c r="J8" s="78"/>
       <c r="K8" s="78" t="s">
+        <v>1712</v>
+      </c>
+      <c r="L8" s="248" t="s">
         <v>1713</v>
       </c>
-      <c r="L8" s="248" t="s">
+      <c r="M8" s="248" t="s">
         <v>1714</v>
       </c>
-      <c r="M8" s="248" t="s">
-        <v>1715</v>
-      </c>
     </row>
     <row r="9" spans="1:13" ht="105">
-      <c r="A9" s="283"/>
+      <c r="A9" s="285"/>
       <c r="B9" s="267"/>
       <c r="C9" s="68"/>
       <c r="D9" s="268"/>
@@ -23761,17 +23752,17 @@
       <c r="I9" s="78"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78" t="s">
+        <v>1715</v>
+      </c>
+      <c r="L9" s="248" t="s">
         <v>1716</v>
       </c>
-      <c r="L9" s="248" t="s">
+      <c r="M9" s="248" t="s">
         <v>1717</v>
       </c>
-      <c r="M9" s="248" t="s">
-        <v>1718</v>
-      </c>
     </row>
     <row r="10" spans="1:13" ht="105">
-      <c r="A10" s="283"/>
+      <c r="A10" s="285"/>
       <c r="B10" s="267"/>
       <c r="C10" s="68"/>
       <c r="D10" s="268"/>
@@ -23782,17 +23773,17 @@
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78" t="s">
+        <v>1718</v>
+      </c>
+      <c r="L10" s="248" t="s">
         <v>1719</v>
       </c>
-      <c r="L10" s="248" t="s">
+      <c r="M10" s="248" t="s">
         <v>1720</v>
       </c>
-      <c r="M10" s="248" t="s">
-        <v>1721</v>
-      </c>
     </row>
     <row r="11" spans="1:13" ht="84.75" customHeight="1">
-      <c r="A11" s="283"/>
+      <c r="A11" s="285"/>
       <c r="B11" s="267"/>
       <c r="C11" s="68"/>
       <c r="D11" s="268"/>
@@ -23803,17 +23794,17 @@
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78" t="s">
+        <v>1721</v>
+      </c>
+      <c r="L11" s="78" t="s">
         <v>1722</v>
       </c>
-      <c r="L11" s="78" t="s">
+      <c r="M11" s="248" t="s">
         <v>1723</v>
       </c>
-      <c r="M11" s="248" t="s">
-        <v>1724</v>
-      </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="283"/>
+      <c r="A12" s="285"/>
       <c r="B12" s="267"/>
       <c r="C12" s="68"/>
       <c r="D12" s="268"/>
@@ -23824,17 +23815,17 @@
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
       <c r="K12" s="78" t="s">
+        <v>1724</v>
+      </c>
+      <c r="L12" s="78" t="s">
         <v>1725</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="M12" s="248" t="s">
         <v>1726</v>
       </c>
-      <c r="M12" s="248" t="s">
-        <v>1727</v>
-      </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="284"/>
+      <c r="A13" s="286"/>
       <c r="B13" s="267"/>
       <c r="C13" s="68"/>
       <c r="D13" s="268"/>
@@ -23845,18 +23836,18 @@
       <c r="I13" s="78"/>
       <c r="J13" s="78"/>
       <c r="K13" s="78" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L13" s="78" t="s">
         <v>1728</v>
       </c>
-      <c r="L13" s="78" t="s">
+      <c r="M13" s="248" t="s">
         <v>1729</v>
       </c>
-      <c r="M13" s="248" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="30">
+      <c r="A14" s="284" t="s">
         <v>1730</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30">
-      <c r="A14" s="282" t="s">
-        <v>1731</v>
       </c>
       <c r="B14" s="267" t="s">
         <v>165</v>
@@ -23871,30 +23862,30 @@
         <v>170</v>
       </c>
       <c r="F14" s="78" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G14" s="78" t="s">
         <v>1732</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="H14" s="250" t="s">
         <v>1733</v>
       </c>
-      <c r="H14" s="250" t="s">
-        <v>1734</v>
-      </c>
       <c r="I14" s="78" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J14" s="78"/>
       <c r="K14" s="78" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L14" s="248" t="s">
         <v>1735</v>
       </c>
-      <c r="L14" s="248" t="s">
+      <c r="M14" s="248" t="s">
         <v>1736</v>
       </c>
-      <c r="M14" s="248" t="s">
-        <v>1737</v>
-      </c>
     </row>
     <row r="15" spans="1:13" ht="62.25" customHeight="1">
-      <c r="A15" s="283"/>
+      <c r="A15" s="285"/>
       <c r="B15" s="267" t="s">
         <v>174</v>
       </c>
@@ -23908,30 +23899,30 @@
         <v>179</v>
       </c>
       <c r="F15" s="148" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G15" s="247" t="s">
         <v>1738</v>
       </c>
-      <c r="G15" s="247" t="s">
+      <c r="H15" s="247" t="s">
         <v>1739</v>
       </c>
-      <c r="H15" s="247" t="s">
-        <v>1740</v>
-      </c>
       <c r="I15" s="78" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J15" s="78"/>
       <c r="K15" s="78" t="s">
+        <v>1740</v>
+      </c>
+      <c r="L15" s="248" t="s">
         <v>1741</v>
       </c>
-      <c r="L15" s="248" t="s">
+      <c r="M15" s="248" t="s">
         <v>1742</v>
       </c>
-      <c r="M15" s="248" t="s">
-        <v>1743</v>
-      </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="283"/>
+      <c r="A16" s="285"/>
       <c r="B16" s="267"/>
       <c r="C16" s="68"/>
       <c r="D16" s="268"/>
@@ -23942,17 +23933,17 @@
       <c r="I16" s="78"/>
       <c r="J16" s="78"/>
       <c r="K16" s="78" t="s">
+        <v>1743</v>
+      </c>
+      <c r="L16" s="248" t="s">
         <v>1744</v>
       </c>
-      <c r="L16" s="248" t="s">
+      <c r="M16" s="248" t="s">
         <v>1745</v>
       </c>
-      <c r="M16" s="248" t="s">
-        <v>1746</v>
-      </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="283"/>
+      <c r="A17" s="285"/>
       <c r="B17" s="267"/>
       <c r="C17" s="68"/>
       <c r="D17" s="268"/>
@@ -23969,11 +23960,11 @@
         <v>945</v>
       </c>
       <c r="M17" s="248" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="77.25" customHeight="1">
-      <c r="A18" s="283"/>
+      <c r="A18" s="285"/>
       <c r="B18" s="267" t="s">
         <v>183</v>
       </c>
@@ -23987,30 +23978,30 @@
         <v>188</v>
       </c>
       <c r="F18" s="148" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G18" s="148" t="s">
         <v>1748</v>
       </c>
-      <c r="G18" s="148" t="s">
+      <c r="H18" s="148" t="s">
         <v>1749</v>
       </c>
-      <c r="H18" s="148" t="s">
-        <v>1750</v>
-      </c>
       <c r="I18" s="78" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J18" s="78"/>
       <c r="K18" s="78" t="s">
+        <v>1750</v>
+      </c>
+      <c r="L18" s="78" t="s">
         <v>1751</v>
       </c>
-      <c r="L18" s="78" t="s">
+      <c r="M18" s="78" t="s">
         <v>1752</v>
       </c>
-      <c r="M18" s="78" t="s">
-        <v>1753</v>
-      </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
-      <c r="A19" s="283"/>
+      <c r="A19" s="285"/>
       <c r="B19" s="267"/>
       <c r="C19" s="68"/>
       <c r="D19" s="268"/>
@@ -24021,17 +24012,17 @@
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="78" t="s">
+        <v>1753</v>
+      </c>
+      <c r="L19" s="78" t="s">
         <v>1754</v>
       </c>
-      <c r="L19" s="78" t="s">
+      <c r="M19" s="78" t="s">
         <v>1755</v>
       </c>
-      <c r="M19" s="78" t="s">
-        <v>1756</v>
-      </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="283"/>
+      <c r="A20" s="285"/>
       <c r="B20" s="267"/>
       <c r="C20" s="68"/>
       <c r="D20" s="268"/>
@@ -24042,17 +24033,17 @@
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="78" t="s">
+        <v>1756</v>
+      </c>
+      <c r="L20" s="78" t="s">
         <v>1757</v>
       </c>
-      <c r="L20" s="78" t="s">
+      <c r="M20" s="78" t="s">
         <v>1758</v>
       </c>
-      <c r="M20" s="78" t="s">
-        <v>1759</v>
-      </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
-      <c r="A21" s="283"/>
+      <c r="A21" s="285"/>
       <c r="B21" s="267"/>
       <c r="C21" s="68"/>
       <c r="D21" s="268"/>
@@ -24063,17 +24054,17 @@
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
       <c r="K21" s="78" t="s">
+        <v>1759</v>
+      </c>
+      <c r="L21" s="78" t="s">
         <v>1760</v>
       </c>
-      <c r="L21" s="78" t="s">
+      <c r="M21" s="78" t="s">
         <v>1761</v>
       </c>
-      <c r="M21" s="78" t="s">
-        <v>1762</v>
-      </c>
     </row>
     <row r="22" spans="1:13" ht="45" customHeight="1">
-      <c r="A22" s="283"/>
+      <c r="A22" s="285"/>
       <c r="B22" s="267"/>
       <c r="C22" s="68"/>
       <c r="D22" s="268"/>
@@ -24084,17 +24075,17 @@
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78" t="s">
+        <v>1762</v>
+      </c>
+      <c r="L22" s="78" t="s">
         <v>1763</v>
       </c>
-      <c r="L22" s="78" t="s">
+      <c r="M22" s="78" t="s">
         <v>1764</v>
       </c>
-      <c r="M22" s="78" t="s">
-        <v>1765</v>
-      </c>
     </row>
     <row r="23" spans="1:13" ht="63" customHeight="1">
-      <c r="A23" s="283"/>
+      <c r="A23" s="285"/>
       <c r="B23" s="267" t="s">
         <v>192</v>
       </c>
@@ -24102,36 +24093,36 @@
         <v>194</v>
       </c>
       <c r="D23" s="268" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E23" s="78" t="s">
         <v>197</v>
       </c>
       <c r="F23" s="78" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G23" s="248" t="s">
         <v>1767</v>
       </c>
-      <c r="G23" s="248" t="s">
+      <c r="H23" s="251" t="s">
         <v>1768</v>
       </c>
-      <c r="H23" s="251" t="s">
+      <c r="I23" s="78" t="s">
         <v>1769</v>
-      </c>
-      <c r="I23" s="78" t="s">
-        <v>1770</v>
       </c>
       <c r="J23" s="78"/>
       <c r="K23" s="78" t="s">
+        <v>1770</v>
+      </c>
+      <c r="L23" s="248" t="s">
         <v>1771</v>
       </c>
-      <c r="L23" s="248" t="s">
+      <c r="M23" s="248" t="s">
         <v>1772</v>
       </c>
-      <c r="M23" s="248" t="s">
-        <v>1773</v>
-      </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="283"/>
+      <c r="A24" s="285"/>
       <c r="B24" s="267"/>
       <c r="C24" s="68"/>
       <c r="D24" s="268"/>
@@ -24140,21 +24131,21 @@
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
       <c r="I24" s="78" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="J24" s="78"/>
       <c r="K24" s="78" t="s">
+        <v>1773</v>
+      </c>
+      <c r="L24" s="248" t="s">
         <v>1774</v>
       </c>
-      <c r="L24" s="248" t="s">
+      <c r="M24" s="248" t="s">
         <v>1775</v>
       </c>
-      <c r="M24" s="248" t="s">
-        <v>1776</v>
-      </c>
     </row>
     <row r="25" spans="1:13" ht="59.25" customHeight="1">
-      <c r="A25" s="283"/>
+      <c r="A25" s="285"/>
       <c r="B25" s="267" t="s">
         <v>201</v>
       </c>
@@ -24168,16 +24159,16 @@
         <v>206</v>
       </c>
       <c r="F25" s="78" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G25" s="248" t="s">
         <v>1777</v>
       </c>
-      <c r="G25" s="248" t="s">
+      <c r="H25" s="78" t="s">
         <v>1778</v>
       </c>
-      <c r="H25" s="78" t="s">
-        <v>1779</v>
-      </c>
       <c r="I25" s="78" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J25" s="78"/>
       <c r="K25" s="78"/>
@@ -24185,7 +24176,7 @@
       <c r="M25" s="78"/>
     </row>
     <row r="26" spans="1:13" ht="141.75" customHeight="1">
-      <c r="A26" s="283"/>
+      <c r="A26" s="285"/>
       <c r="B26" s="267" t="s">
         <v>209</v>
       </c>
@@ -24199,30 +24190,30 @@
         <v>214</v>
       </c>
       <c r="F26" s="78" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G26" s="78" t="s">
         <v>1780</v>
       </c>
-      <c r="G26" s="78" t="s">
+      <c r="H26" s="78" t="s">
         <v>1781</v>
       </c>
-      <c r="H26" s="78" t="s">
-        <v>1782</v>
-      </c>
       <c r="I26" s="78" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J26" s="78"/>
       <c r="K26" s="78" t="s">
+        <v>1782</v>
+      </c>
+      <c r="L26" s="248" t="s">
         <v>1783</v>
       </c>
-      <c r="L26" s="248" t="s">
+      <c r="M26" s="248" t="s">
         <v>1784</v>
       </c>
-      <c r="M26" s="248" t="s">
-        <v>1785</v>
-      </c>
     </row>
     <row r="27" spans="1:13" ht="52.5" customHeight="1">
-      <c r="A27" s="283"/>
+      <c r="A27" s="285"/>
       <c r="B27" s="267" t="s">
         <v>218</v>
       </c>
@@ -24236,53 +24227,53 @@
         <v>223</v>
       </c>
       <c r="F27" s="78" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G27" s="78" t="s">
         <v>1786</v>
       </c>
-      <c r="G27" s="78" t="s">
+      <c r="H27" s="78" t="s">
         <v>1787</v>
       </c>
-      <c r="H27" s="78" t="s">
-        <v>1788</v>
-      </c>
       <c r="I27" s="78" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J27" s="78"/>
       <c r="K27" s="78" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L27" s="248" t="s">
         <v>1789</v>
       </c>
-      <c r="L27" s="248" t="s">
+      <c r="M27" s="248" t="s">
         <v>1790</v>
       </c>
-      <c r="M27" s="248" t="s">
+    </row>
+    <row r="28" spans="1:13" ht="65.25" customHeight="1">
+      <c r="A28" s="285"/>
+      <c r="B28" s="267" t="s">
         <v>1791</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A28" s="283"/>
-      <c r="B28" s="267" t="s">
-        <v>1792</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="268" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E28" s="78" t="s">
         <v>232</v>
       </c>
       <c r="F28" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G28" s="78" t="s">
         <v>1794</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="H28" t="s">
         <v>1795</v>
       </c>
-      <c r="H28" t="s">
-        <v>1796</v>
-      </c>
       <c r="I28" s="78" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J28" s="78"/>
       <c r="K28" s="78"/>
@@ -24290,7 +24281,7 @@
       <c r="M28" s="78"/>
     </row>
     <row r="29" spans="1:13" ht="45" customHeight="1">
-      <c r="A29" s="283"/>
+      <c r="A29" s="285"/>
       <c r="B29" s="267" t="s">
         <v>235</v>
       </c>
@@ -24298,22 +24289,22 @@
         <v>237</v>
       </c>
       <c r="D29" s="268" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E29" s="78" t="s">
         <v>240</v>
       </c>
       <c r="F29" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G29" s="78" t="s">
         <v>1794</v>
       </c>
-      <c r="G29" s="78" t="s">
+      <c r="H29" t="s">
         <v>1795</v>
       </c>
-      <c r="H29" t="s">
-        <v>1796</v>
-      </c>
       <c r="I29" s="248" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J29" s="78"/>
       <c r="K29" s="78"/>
@@ -24321,9 +24312,9 @@
       <c r="M29" s="78"/>
     </row>
     <row r="30" spans="1:13" ht="62.25" customHeight="1">
-      <c r="A30" s="284"/>
+      <c r="A30" s="286"/>
       <c r="B30" s="267" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C30" s="68" t="s">
         <v>386</v>
@@ -24332,19 +24323,19 @@
         <v>387</v>
       </c>
       <c r="E30" s="248" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F30" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G30" s="78" t="s">
         <v>1794</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="H30" s="252" t="s">
         <v>1795</v>
       </c>
-      <c r="H30" s="252" t="s">
-        <v>1796</v>
-      </c>
       <c r="I30" s="78" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
@@ -24400,19 +24391,19 @@
         <v>8</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>817</v>
       </c>
       <c r="H1" s="70" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I1" s="70" t="s">
         <v>819</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K1" s="67" t="s">
         <v>821</v>
@@ -24425,11 +24416,11 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="180">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="281" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>1800</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>1801</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>308</v>
@@ -24438,35 +24429,35 @@
         <v>309</v>
       </c>
       <c r="E2" s="65" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F2" s="99" t="s">
         <v>1802</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="G2" s="100" t="s">
         <v>1803</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="H2" s="253" t="s">
         <v>1804</v>
       </c>
-      <c r="H2" s="253" t="s">
+      <c r="I2" s="101" t="s">
         <v>1805</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="J2" s="94" t="s">
         <v>1806</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="K2" s="254" t="s">
         <v>1807</v>
       </c>
-      <c r="K2" s="254" t="s">
+      <c r="L2" s="245" t="s">
         <v>1808</v>
       </c>
-      <c r="L2" s="245" t="s">
+      <c r="M2" s="131" t="s">
         <v>1809</v>
       </c>
-      <c r="M2" s="131" t="s">
-        <v>1810</v>
-      </c>
     </row>
     <row r="3" spans="1:13" ht="59.25" customHeight="1">
-      <c r="A3" s="279"/>
+      <c r="A3" s="281"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
       <c r="D3" s="96"/>
@@ -24477,17 +24468,17 @@
       <c r="I3" s="103"/>
       <c r="J3" s="85"/>
       <c r="K3" s="254" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L3" s="245" t="s">
         <v>1811</v>
       </c>
-      <c r="L3" s="245" t="s">
+      <c r="M3" s="131" t="s">
         <v>1812</v>
       </c>
-      <c r="M3" s="131" t="s">
-        <v>1813</v>
-      </c>
     </row>
     <row r="4" spans="1:13" ht="59.25" customHeight="1">
-      <c r="A4" s="279"/>
+      <c r="A4" s="281"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="96"/>
@@ -24498,17 +24489,17 @@
       <c r="I4" s="103"/>
       <c r="J4" s="85"/>
       <c r="K4" s="254" t="s">
+        <v>1813</v>
+      </c>
+      <c r="L4" s="245" t="s">
         <v>1814</v>
       </c>
-      <c r="L4" s="245" t="s">
+      <c r="M4" s="131" t="s">
         <v>1815</v>
       </c>
-      <c r="M4" s="131" t="s">
-        <v>1816</v>
-      </c>
     </row>
     <row r="5" spans="1:13" ht="69" customHeight="1">
-      <c r="A5" s="279"/>
+      <c r="A5" s="281"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="96"/>
@@ -24519,17 +24510,17 @@
       <c r="I5" s="103"/>
       <c r="J5" s="85"/>
       <c r="K5" s="254" t="s">
+        <v>1816</v>
+      </c>
+      <c r="L5" s="245" t="s">
         <v>1817</v>
       </c>
-      <c r="L5" s="245" t="s">
+      <c r="M5" s="131" t="s">
         <v>1818</v>
       </c>
-      <c r="M5" s="131" t="s">
-        <v>1819</v>
-      </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A6" s="279"/>
+      <c r="A6" s="281"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
       <c r="D6" s="96"/>
@@ -24540,17 +24531,17 @@
       <c r="I6" s="103"/>
       <c r="J6" s="85"/>
       <c r="K6" s="254" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L6" s="245" t="s">
         <v>1820</v>
       </c>
-      <c r="L6" s="245" t="s">
+      <c r="M6" s="131" t="s">
         <v>1821</v>
       </c>
-      <c r="M6" s="131" t="s">
-        <v>1822</v>
-      </c>
     </row>
     <row r="7" spans="1:13" ht="66.75" customHeight="1">
-      <c r="A7" s="279"/>
+      <c r="A7" s="281"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
       <c r="D7" s="96"/>
@@ -24561,17 +24552,17 @@
       <c r="I7" s="103"/>
       <c r="J7" s="85"/>
       <c r="K7" s="254" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L7" s="245" t="s">
         <v>1823</v>
       </c>
-      <c r="L7" s="245" t="s">
+      <c r="M7" s="131" t="s">
         <v>1824</v>
       </c>
-      <c r="M7" s="131" t="s">
-        <v>1825</v>
-      </c>
     </row>
     <row r="8" spans="1:13" ht="20.25">
-      <c r="A8" s="279"/>
+      <c r="A8" s="281"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
       <c r="D8" s="96"/>
@@ -24582,17 +24573,17 @@
       <c r="I8" s="103"/>
       <c r="J8" s="85"/>
       <c r="K8" s="254" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L8" s="131" t="s">
         <v>1826</v>
       </c>
-      <c r="L8" s="131" t="s">
+      <c r="M8" s="131" t="s">
         <v>1827</v>
       </c>
-      <c r="M8" s="131" t="s">
-        <v>1828</v>
-      </c>
     </row>
     <row r="9" spans="1:13" ht="126">
-      <c r="A9" s="279"/>
+      <c r="A9" s="281"/>
       <c r="B9" s="67" t="s">
         <v>315</v>
       </c>
@@ -24606,19 +24597,19 @@
         <v>320</v>
       </c>
       <c r="F9" s="67" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G9" s="102" t="s">
         <v>1829</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="H9" s="256" t="s">
         <v>1830</v>
       </c>
-      <c r="H9" s="256" t="s">
-        <v>1831</v>
-      </c>
       <c r="I9" s="103" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="K9" s="67" t="s">
         <v>957</v>
@@ -24627,11 +24618,11 @@
         <v>958</v>
       </c>
       <c r="M9" s="67" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.25">
-      <c r="A10" s="279"/>
+      <c r="A10" s="281"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67"/>
@@ -24652,12 +24643,12 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="324" customHeight="1">
-      <c r="A11" s="279"/>
+      <c r="A11" s="281"/>
       <c r="B11" s="67" t="s">
         <v>325</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>327</v>
@@ -24666,26 +24657,26 @@
         <v>329</v>
       </c>
       <c r="F11" s="67" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G11" s="102" t="s">
         <v>1833</v>
       </c>
-      <c r="G11" s="102" t="s">
+      <c r="H11" s="257" t="s">
         <v>1834</v>
       </c>
-      <c r="H11" s="257" t="s">
-        <v>1835</v>
-      </c>
       <c r="I11" s="102" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="J11" s="67"/>
       <c r="K11" s="67" t="s">
+        <v>1835</v>
+      </c>
+      <c r="L11" s="104" t="s">
         <v>1836</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="M11" s="218" t="s">
         <v>1837</v>
-      </c>
-      <c r="M11" s="218" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.25">
@@ -24700,13 +24691,13 @@
       <c r="I12" s="103"/>
       <c r="J12" s="67"/>
       <c r="K12" s="104" t="s">
+        <v>1838</v>
+      </c>
+      <c r="L12" s="67" t="s">
         <v>1839</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="M12" s="67" t="s">
         <v>1840</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -24721,13 +24712,13 @@
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="104" t="s">
+        <v>1841</v>
+      </c>
+      <c r="L13" s="67" t="s">
         <v>1842</v>
       </c>
-      <c r="L13" s="67" t="s">
+      <c r="M13" s="67" t="s">
         <v>1843</v>
-      </c>
-      <c r="M13" s="67" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30">
@@ -24742,13 +24733,13 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="104" t="s">
+        <v>1844</v>
+      </c>
+      <c r="L14" s="67" t="s">
         <v>1845</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="M14" s="67" t="s">
         <v>1846</v>
-      </c>
-      <c r="M14" s="67" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -24763,13 +24754,13 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
       <c r="K15" s="104" t="s">
+        <v>1847</v>
+      </c>
+      <c r="L15" s="67" t="s">
         <v>1848</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="M15" s="67" t="s">
         <v>1849</v>
-      </c>
-      <c r="M15" s="67" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -24784,13 +24775,13 @@
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
       <c r="K16" s="104" t="s">
+        <v>1850</v>
+      </c>
+      <c r="L16" s="67" t="s">
         <v>1851</v>
       </c>
-      <c r="L16" s="67" t="s">
+      <c r="M16" s="67" t="s">
         <v>1852</v>
-      </c>
-      <c r="M16" s="67" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45">
@@ -24805,13 +24796,13 @@
       <c r="I17" s="67"/>
       <c r="J17" s="67"/>
       <c r="K17" s="104" t="s">
+        <v>1853</v>
+      </c>
+      <c r="L17" s="67" t="s">
         <v>1854</v>
       </c>
-      <c r="L17" s="67" t="s">
+      <c r="M17" s="67" t="s">
         <v>1855</v>
-      </c>
-      <c r="M17" s="67" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="45">
@@ -24826,13 +24817,13 @@
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
       <c r="K18" s="104" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L18" s="67" t="s">
         <v>1857</v>
       </c>
-      <c r="L18" s="67" t="s">
+      <c r="M18" s="67" t="s">
         <v>1858</v>
-      </c>
-      <c r="M18" s="67" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30">
@@ -24847,13 +24838,13 @@
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
       <c r="K19" s="104" t="s">
+        <v>1859</v>
+      </c>
+      <c r="L19" s="67" t="s">
         <v>1860</v>
       </c>
-      <c r="L19" s="67" t="s">
+      <c r="M19" s="67" t="s">
         <v>1861</v>
-      </c>
-      <c r="M19" s="67" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -24868,13 +24859,13 @@
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="104" t="s">
+        <v>1862</v>
+      </c>
+      <c r="L20" s="67" t="s">
         <v>1863</v>
       </c>
-      <c r="L20" s="67" t="s">
+      <c r="M20" s="67" t="s">
         <v>1864</v>
-      </c>
-      <c r="M20" s="67" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -24889,18 +24880,18 @@
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
       <c r="K21" s="67" t="s">
+        <v>1865</v>
+      </c>
+      <c r="L21" s="67" t="s">
         <v>1866</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="M21" s="67" t="s">
         <v>1867</v>
       </c>
-      <c r="M21" s="67" t="s">
+    </row>
+    <row r="22" spans="1:13" ht="65.25" customHeight="1">
+      <c r="A22" s="281" t="s">
         <v>1868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A22" s="279" t="s">
-        <v>1869</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>334</v>
@@ -24915,16 +24906,16 @@
         <v>339</v>
       </c>
       <c r="F22" s="65" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G22" s="258" t="s">
         <v>1870</v>
       </c>
-      <c r="G22" s="258" t="s">
+      <c r="H22" s="65" t="s">
         <v>1871</v>
       </c>
-      <c r="H22" s="65" t="s">
-        <v>1872</v>
-      </c>
       <c r="I22" s="65" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
@@ -24932,12 +24923,12 @@
       <c r="M22" s="65"/>
     </row>
     <row r="23" spans="1:13" ht="128.25" customHeight="1">
-      <c r="A23" s="279"/>
+      <c r="A23" s="281"/>
       <c r="B23" s="65" t="s">
         <v>344</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>347</v>
@@ -24946,32 +24937,32 @@
         <v>349</v>
       </c>
       <c r="F23" s="65" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G23" s="179" t="s">
         <v>1874</v>
       </c>
-      <c r="G23" s="179" t="s">
+      <c r="H23" s="65" t="s">
         <v>1875</v>
       </c>
-      <c r="H23" s="65" t="s">
+      <c r="I23" s="65" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J23" s="65" t="s">
         <v>1876</v>
       </c>
-      <c r="I23" s="65" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J23" s="65" t="s">
+      <c r="K23" s="129" t="s">
         <v>1877</v>
       </c>
-      <c r="K23" s="129" t="s">
+      <c r="L23" s="259" t="s">
         <v>1878</v>
       </c>
-      <c r="L23" s="259" t="s">
+      <c r="M23" s="130" t="s">
         <v>1879</v>
       </c>
-      <c r="M23" s="130" t="s">
-        <v>1880</v>
-      </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
-      <c r="A24" s="279"/>
+      <c r="A24" s="281"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
@@ -24982,17 +24973,17 @@
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
       <c r="K24" s="129" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L24" s="259" t="s">
         <v>1881</v>
       </c>
-      <c r="L24" s="259" t="s">
+      <c r="M24" s="131" t="s">
         <v>1882</v>
       </c>
-      <c r="M24" s="131" t="s">
-        <v>1883</v>
-      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75">
-      <c r="A25" s="279"/>
+      <c r="A25" s="281"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
@@ -25003,17 +24994,17 @@
       <c r="I25" s="67"/>
       <c r="J25" s="67"/>
       <c r="K25" s="129" t="s">
+        <v>1883</v>
+      </c>
+      <c r="L25" s="259" t="s">
         <v>1884</v>
       </c>
-      <c r="L25" s="259" t="s">
+      <c r="M25" s="131" t="s">
         <v>1885</v>
       </c>
-      <c r="M25" s="131" t="s">
-        <v>1886</v>
-      </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="279"/>
+      <c r="A26" s="281"/>
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
@@ -25024,17 +25015,17 @@
       <c r="I26" s="67"/>
       <c r="J26" s="67"/>
       <c r="K26" s="129" t="s">
+        <v>1886</v>
+      </c>
+      <c r="L26" s="259" t="s">
         <v>1887</v>
       </c>
-      <c r="L26" s="259" t="s">
+      <c r="M26" s="131" t="s">
         <v>1888</v>
       </c>
-      <c r="M26" s="131" t="s">
-        <v>1889</v>
-      </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
-      <c r="A27" s="279"/>
+      <c r="A27" s="281"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -25045,17 +25036,17 @@
       <c r="I27" s="67"/>
       <c r="J27" s="67"/>
       <c r="K27" s="129" t="s">
+        <v>1889</v>
+      </c>
+      <c r="L27" s="259" t="s">
         <v>1890</v>
       </c>
-      <c r="L27" s="259" t="s">
+      <c r="M27" s="131" t="s">
         <v>1891</v>
       </c>
-      <c r="M27" s="131" t="s">
-        <v>1892</v>
-      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75">
-      <c r="A28" s="279"/>
+      <c r="A28" s="281"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -25066,17 +25057,17 @@
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
       <c r="K28" s="129" t="s">
+        <v>1892</v>
+      </c>
+      <c r="L28" s="259" t="s">
         <v>1893</v>
       </c>
-      <c r="L28" s="259" t="s">
+      <c r="M28" s="131" t="s">
         <v>1894</v>
       </c>
-      <c r="M28" s="131" t="s">
-        <v>1895</v>
-      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75">
-      <c r="A29" s="279"/>
+      <c r="A29" s="281"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
@@ -25097,24 +25088,24 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="113.25" customHeight="1">
-      <c r="A30" s="279"/>
+      <c r="A30" s="281"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
       <c r="F30" s="67" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G30" s="67" t="s">
         <v>1897</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="H30" s="260" t="s">
         <v>1898</v>
       </c>
-      <c r="H30" s="260" t="s">
-        <v>1899</v>
-      </c>
       <c r="I30" s="67" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="J30" s="67"/>
       <c r="K30" s="104" t="s">
@@ -25124,11 +25115,11 @@
         <v>958</v>
       </c>
       <c r="M30" s="67" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="279"/>
+      <c r="A31" s="281"/>
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
@@ -25149,12 +25140,12 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="132" customHeight="1">
-      <c r="A32" s="279"/>
+      <c r="A32" s="281"/>
       <c r="B32" s="67" t="s">
         <v>362</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>365</v>
@@ -25163,19 +25154,19 @@
         <v>367</v>
       </c>
       <c r="F32" s="67" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G32" s="67" t="s">
         <v>1901</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="H32" s="67" t="s">
         <v>1902</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="I32" s="67" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J32" s="67" t="s">
         <v>1903</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>1688</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>1904</v>
       </c>
       <c r="K32" s="104" t="s">
         <v>957</v>
@@ -25184,11 +25175,11 @@
         <v>958</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="279"/>
+      <c r="A33" s="281"/>
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
       <c r="D33" s="67"/>
@@ -25209,12 +25200,12 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="125.25" customHeight="1">
-      <c r="A34" s="279"/>
+      <c r="A34" s="281"/>
       <c r="B34" s="67" t="s">
         <v>370</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>373</v>
@@ -25223,16 +25214,16 @@
         <v>375</v>
       </c>
       <c r="F34" s="67" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G34" s="67" t="s">
         <v>1906</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="H34" s="67" t="s">
         <v>1907</v>
       </c>
-      <c r="H34" s="67" t="s">
-        <v>1908</v>
-      </c>
       <c r="I34" s="67" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J34" s="67"/>
       <c r="K34" s="67"/>
@@ -25240,12 +25231,12 @@
       <c r="M34" s="67"/>
     </row>
     <row r="35" spans="1:13" ht="176.25" customHeight="1">
-      <c r="A35" s="279"/>
+      <c r="A35" s="281"/>
       <c r="B35" s="67" t="s">
         <v>378</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D35" s="67" t="s">
         <v>381</v>
@@ -25254,19 +25245,19 @@
         <v>389</v>
       </c>
       <c r="F35" s="67" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G35" s="67" t="s">
         <v>1910</v>
       </c>
-      <c r="G35" s="67" t="s">
+      <c r="H35" s="218" t="s">
         <v>1911</v>
       </c>
-      <c r="H35" s="218" t="s">
+      <c r="I35" s="67" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J35" s="67" t="s">
         <v>1912</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>1688</v>
-      </c>
-      <c r="J35" s="67" t="s">
-        <v>1913</v>
       </c>
       <c r="K35" s="104" t="s">
         <v>957</v>
@@ -25275,11 +25266,11 @@
         <v>958</v>
       </c>
       <c r="M35" s="67" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="279"/>
+      <c r="A36" s="281"/>
       <c r="B36" s="67"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
@@ -25300,24 +25291,24 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="123" customHeight="1">
-      <c r="A37" s="279"/>
+      <c r="A37" s="281"/>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G37" s="218" t="s">
         <v>1915</v>
       </c>
-      <c r="G37" s="218" t="s">
+      <c r="H37" s="218" t="s">
         <v>1916</v>
       </c>
-      <c r="H37" s="218" t="s">
-        <v>1917</v>
-      </c>
       <c r="I37" s="67" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J37" s="67"/>
       <c r="K37" s="67"/>
@@ -25370,19 +25361,19 @@
         <v>8</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>817</v>
       </c>
       <c r="H1" s="58" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J1" t="s">
         <v>1114</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>1918</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1115</v>
       </c>
       <c r="K1" t="s">
         <v>821</v>
@@ -25400,7 +25391,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="262" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>248</v>
@@ -25409,26 +25400,26 @@
         <v>250</v>
       </c>
       <c r="F2" s="255" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G2" s="218" t="s">
         <v>1920</v>
       </c>
-      <c r="G2" s="218" t="s">
+      <c r="H2" s="67" t="s">
         <v>1921</v>
       </c>
-      <c r="H2" s="67" t="s">
-        <v>1922</v>
-      </c>
       <c r="I2" s="67" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J2" s="67"/>
       <c r="K2" s="66" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L2" s="151" t="s">
         <v>1923</v>
       </c>
-      <c r="L2" s="151" t="s">
+      <c r="M2" s="150" t="s">
         <v>1924</v>
-      </c>
-      <c r="M2" s="150" t="s">
-        <v>1925</v>
       </c>
       <c r="N2" s="67"/>
     </row>
@@ -25444,13 +25435,13 @@
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
       <c r="K3" s="66" t="s">
+        <v>1925</v>
+      </c>
+      <c r="L3" s="151" t="s">
         <v>1926</v>
       </c>
-      <c r="L3" s="151" t="s">
+      <c r="M3" s="150" t="s">
         <v>1927</v>
-      </c>
-      <c r="M3" s="150" t="s">
-        <v>1928</v>
       </c>
       <c r="N3" s="67"/>
     </row>
@@ -25466,13 +25457,13 @@
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
       <c r="K4" s="66" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L4" s="151" t="s">
         <v>1929</v>
       </c>
-      <c r="L4" s="151" t="s">
+      <c r="M4" s="150" t="s">
         <v>1930</v>
-      </c>
-      <c r="M4" s="150" t="s">
-        <v>1931</v>
       </c>
       <c r="N4" s="67"/>
     </row>
@@ -25488,13 +25479,13 @@
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
+        <v>1931</v>
+      </c>
+      <c r="L5" s="151" t="s">
         <v>1932</v>
       </c>
-      <c r="L5" s="151" t="s">
+      <c r="M5" s="263" t="s">
         <v>1933</v>
-      </c>
-      <c r="M5" s="263" t="s">
-        <v>1934</v>
       </c>
       <c r="N5" s="67"/>
     </row>
@@ -25510,13 +25501,13 @@
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
       <c r="K6" s="66" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L6" s="151" t="s">
         <v>1935</v>
       </c>
-      <c r="L6" s="151" t="s">
+      <c r="M6" s="150" t="s">
         <v>1936</v>
-      </c>
-      <c r="M6" s="150" t="s">
-        <v>1937</v>
       </c>
       <c r="N6" s="67"/>
     </row>
@@ -25532,13 +25523,13 @@
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="66" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L7" s="151" t="s">
         <v>1938</v>
       </c>
-      <c r="L7" s="151" t="s">
+      <c r="M7" s="150" t="s">
         <v>1939</v>
-      </c>
-      <c r="M7" s="150" t="s">
-        <v>1940</v>
       </c>
       <c r="N7" s="67"/>
     </row>
@@ -25554,13 +25545,13 @@
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="66" t="s">
+        <v>1940</v>
+      </c>
+      <c r="L8" s="151" t="s">
         <v>1941</v>
       </c>
-      <c r="L8" s="151" t="s">
+      <c r="M8" s="150" t="s">
         <v>1942</v>
-      </c>
-      <c r="M8" s="150" t="s">
-        <v>1943</v>
       </c>
       <c r="N8" s="67"/>
     </row>
@@ -25576,13 +25567,13 @@
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="264" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L9" s="149" t="s">
         <v>1944</v>
       </c>
-      <c r="L9" s="149" t="s">
+      <c r="M9" s="150" t="s">
         <v>1945</v>
-      </c>
-      <c r="M9" s="150" t="s">
-        <v>1946</v>
       </c>
       <c r="N9" s="68"/>
     </row>
@@ -25592,35 +25583,35 @@
         <v>253</v>
       </c>
       <c r="C10" s="105" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D10" s="218" t="s">
         <v>1947</v>
       </c>
-      <c r="D10" s="218" t="s">
+      <c r="E10" s="67" t="s">
         <v>1948</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="F10" s="67" t="s">
         <v>1949</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="G10" s="67" t="s">
         <v>1950</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="H10" s="67" t="s">
         <v>1951</v>
       </c>
-      <c r="H10" s="67" t="s">
-        <v>1952</v>
-      </c>
       <c r="I10" s="67" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="264" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L10" s="265" t="s">
         <v>1953</v>
       </c>
-      <c r="L10" s="265" t="s">
+      <c r="M10" s="150" t="s">
         <v>1954</v>
-      </c>
-      <c r="M10" s="150" t="s">
-        <v>1955</v>
       </c>
       <c r="N10" s="68"/>
     </row>
@@ -25636,13 +25627,13 @@
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="264" t="s">
+        <v>1955</v>
+      </c>
+      <c r="L11" s="265" t="s">
         <v>1956</v>
       </c>
-      <c r="L11" s="265" t="s">
+      <c r="M11" s="150" t="s">
         <v>1957</v>
-      </c>
-      <c r="M11" s="150" t="s">
-        <v>1958</v>
       </c>
       <c r="N11" s="68"/>
     </row>
@@ -25658,13 +25649,13 @@
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="264" t="s">
+        <v>1958</v>
+      </c>
+      <c r="L12" s="265" t="s">
         <v>1959</v>
       </c>
-      <c r="L12" s="265" t="s">
+      <c r="M12" s="150" t="s">
         <v>1960</v>
-      </c>
-      <c r="M12" s="150" t="s">
-        <v>1961</v>
       </c>
       <c r="N12" s="68"/>
     </row>
@@ -25680,13 +25671,13 @@
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
       <c r="K13" s="264" t="s">
+        <v>1961</v>
+      </c>
+      <c r="L13" s="265" t="s">
         <v>1962</v>
       </c>
-      <c r="L13" s="265" t="s">
+      <c r="M13" s="150" t="s">
         <v>1963</v>
-      </c>
-      <c r="M13" s="150" t="s">
-        <v>1964</v>
       </c>
       <c r="N13" s="68"/>
     </row>
@@ -25702,13 +25693,13 @@
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
       <c r="K14" s="264" t="s">
+        <v>1964</v>
+      </c>
+      <c r="L14" s="149" t="s">
         <v>1965</v>
       </c>
-      <c r="L14" s="149" t="s">
+      <c r="M14" s="150" t="s">
         <v>1966</v>
-      </c>
-      <c r="M14" s="150" t="s">
-        <v>1967</v>
       </c>
       <c r="N14" s="68"/>
     </row>
@@ -25724,13 +25715,13 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="264" t="s">
+        <v>1967</v>
+      </c>
+      <c r="L15" s="149" t="s">
         <v>1968</v>
       </c>
-      <c r="L15" s="149" t="s">
+      <c r="M15" s="150" t="s">
         <v>1969</v>
-      </c>
-      <c r="M15" s="150" t="s">
-        <v>1970</v>
       </c>
       <c r="N15" s="68"/>
     </row>
@@ -25746,13 +25737,13 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="264" t="s">
+        <v>1970</v>
+      </c>
+      <c r="L16" s="266" t="s">
         <v>1971</v>
       </c>
-      <c r="L16" s="266" t="s">
+      <c r="M16" s="150" t="s">
         <v>1972</v>
-      </c>
-      <c r="M16" s="150" t="s">
-        <v>1973</v>
       </c>
       <c r="N16" s="68"/>
     </row>
@@ -25768,13 +25759,13 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="264" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L17" s="266" t="s">
         <v>1974</v>
       </c>
-      <c r="L17" s="266" t="s">
+      <c r="M17" s="150" t="s">
         <v>1975</v>
-      </c>
-      <c r="M17" s="150" t="s">
-        <v>1976</v>
       </c>
       <c r="N17" s="68"/>
     </row>
@@ -25790,13 +25781,13 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="264" t="s">
+        <v>1976</v>
+      </c>
+      <c r="L18" s="149" t="s">
         <v>1977</v>
       </c>
-      <c r="L18" s="149" t="s">
+      <c r="M18" s="150" t="s">
         <v>1978</v>
-      </c>
-      <c r="M18" s="150" t="s">
-        <v>1979</v>
       </c>
       <c r="N18" s="68"/>
     </row>
@@ -25806,26 +25797,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A595C2436754DD4192B3BEE0FFE1ED0A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ba19257e65125414350f132367e985">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00591925-1995-4bf8-8d28-1f7cbeda4924" xmlns:ns3="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a6491f746e84da8ae5f2642b9bcf21" ns2:_="" ns3:_="">
     <xsd:import namespace="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
@@ -26054,26 +26025,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
-    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26090,4 +26062,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/atique.xlsx
+++ b/atique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Desktop\New folder\excel_mapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ur_sensei\Desktop\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE5AAE-BE91-4DAF-949C-5D54B89C5F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C25139-9E3C-4299-B1ED-A71D6A095FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
@@ -17375,7 +17375,7 @@
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="59" customFormat="1" ht="15.75">
+    <row r="1" spans="1:13" s="59" customFormat="1">
       <c r="A1" s="59" t="s">
         <v>813</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" ht="57.75">
+    <row r="2" spans="1:13" customFormat="1" ht="59.25">
       <c r="A2" s="273" t="s">
         <v>824</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" ht="15">
+    <row r="3" spans="1:13" customFormat="1" ht="16.5">
       <c r="A3" s="274"/>
       <c r="B3" s="115"/>
       <c r="C3" s="116"/>
@@ -17476,7 +17476,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="15">
+    <row r="4" spans="1:13" customFormat="1" ht="16.5">
       <c r="A4" s="274"/>
       <c r="B4" s="115"/>
       <c r="C4" s="116"/>
@@ -17497,7 +17497,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" ht="15">
+    <row r="5" spans="1:13" customFormat="1" ht="16.5">
       <c r="A5" s="274"/>
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
@@ -17518,7 +17518,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" ht="15">
+    <row r="6" spans="1:13" customFormat="1" ht="16.5">
       <c r="A6" s="274"/>
       <c r="B6" s="115"/>
       <c r="C6" s="116"/>
@@ -17539,7 +17539,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="15">
+    <row r="7" spans="1:13" customFormat="1" ht="16.5">
       <c r="A7" s="274"/>
       <c r="B7" s="115"/>
       <c r="C7" s="116"/>
@@ -17560,7 +17560,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" ht="15">
+    <row r="8" spans="1:13" customFormat="1" ht="16.5">
       <c r="A8" s="274"/>
       <c r="B8" s="115"/>
       <c r="C8" s="116"/>
@@ -17581,7 +17581,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="45">
+    <row r="9" spans="1:13" customFormat="1" ht="49.5">
       <c r="A9" s="274"/>
       <c r="B9" s="117" t="s">
         <v>270</v>
@@ -17830,7 +17830,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="20" spans="1:13" customFormat="1" ht="45">
+    <row r="20" spans="1:13" customFormat="1" ht="46.5">
       <c r="A20" s="274"/>
       <c r="B20" s="115" t="s">
         <v>280</v>
@@ -17867,7 +17867,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="21" spans="1:13" customFormat="1" ht="15.75">
+    <row r="21" spans="1:13" customFormat="1" ht="17.25">
       <c r="A21" s="274"/>
       <c r="B21" s="115"/>
       <c r="C21" s="116"/>
@@ -17888,7 +17888,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:13" customFormat="1" ht="15.75">
+    <row r="22" spans="1:13" customFormat="1" ht="17.25">
       <c r="A22" s="274"/>
       <c r="B22" s="115"/>
       <c r="C22" s="116"/>
@@ -17909,7 +17909,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="23" spans="1:13" customFormat="1" ht="15.75">
+    <row r="23" spans="1:13" customFormat="1" ht="17.25">
       <c r="A23" s="274"/>
       <c r="B23" s="115"/>
       <c r="C23" s="116"/>
@@ -17930,7 +17930,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:13" customFormat="1" ht="15.75">
+    <row r="24" spans="1:13" customFormat="1" ht="17.25">
       <c r="A24" s="274"/>
       <c r="B24" s="115"/>
       <c r="C24" s="116"/>
@@ -17951,7 +17951,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="25" spans="1:13" customFormat="1" ht="15.75">
+    <row r="25" spans="1:13" customFormat="1" ht="17.25">
       <c r="A25" s="274"/>
       <c r="B25" s="115"/>
       <c r="C25" s="116"/>
@@ -17972,7 +17972,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="26" spans="1:13" customFormat="1" ht="15.75">
+    <row r="26" spans="1:13" customFormat="1" ht="17.25">
       <c r="A26" s="274"/>
       <c r="B26" s="115"/>
       <c r="C26" s="116"/>
@@ -17993,7 +17993,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="27" spans="1:13" customFormat="1" ht="15.75">
+    <row r="27" spans="1:13" customFormat="1" ht="17.25">
       <c r="A27" s="274"/>
       <c r="B27" s="115"/>
       <c r="C27" s="116"/>
@@ -18014,7 +18014,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="28" spans="1:13" customFormat="1" ht="15.75">
+    <row r="28" spans="1:13" customFormat="1" ht="17.25">
       <c r="A28" s="274"/>
       <c r="B28" s="115"/>
       <c r="C28" s="116"/>
@@ -18035,7 +18035,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="29" spans="1:13" customFormat="1" ht="15.75">
+    <row r="29" spans="1:13" customFormat="1" ht="17.25">
       <c r="A29" s="274"/>
       <c r="B29" s="115"/>
       <c r="C29" s="116"/>
@@ -18056,7 +18056,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="30" spans="1:13" customFormat="1" ht="15.75">
+    <row r="30" spans="1:13" customFormat="1" ht="17.25">
       <c r="A30" s="274"/>
       <c r="B30" s="115"/>
       <c r="C30" s="116"/>
@@ -18077,7 +18077,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:13" customFormat="1" ht="15.75">
+    <row r="31" spans="1:13" customFormat="1" ht="17.25">
       <c r="A31" s="274"/>
       <c r="B31" s="115"/>
       <c r="C31" s="116"/>
@@ -18098,7 +18098,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="1:13" customFormat="1" ht="15.75">
+    <row r="32" spans="1:13" customFormat="1" ht="17.25">
       <c r="A32" s="274"/>
       <c r="B32" s="115"/>
       <c r="C32" s="116"/>
@@ -18119,7 +18119,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="15.75">
+    <row r="33" spans="1:16" customFormat="1" ht="17.25">
       <c r="A33" s="274"/>
       <c r="B33" s="115"/>
       <c r="C33" s="116"/>
@@ -18140,7 +18140,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="15.75">
+    <row r="34" spans="1:16" customFormat="1" ht="17.25">
       <c r="A34" s="274"/>
       <c r="B34" s="115"/>
       <c r="C34" s="116"/>
@@ -18161,7 +18161,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="15.75">
+    <row r="35" spans="1:16" customFormat="1" ht="17.25">
       <c r="A35" s="274"/>
       <c r="B35" s="115"/>
       <c r="C35" s="116"/>
@@ -18182,7 +18182,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="15.75">
+    <row r="36" spans="1:16" customFormat="1" ht="17.25">
       <c r="A36" s="274"/>
       <c r="B36" s="115"/>
       <c r="C36" s="116"/>
@@ -18203,7 +18203,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="15.75">
+    <row r="37" spans="1:16" customFormat="1" ht="17.25">
       <c r="A37" s="274"/>
       <c r="B37" s="115"/>
       <c r="C37" s="116"/>
@@ -18224,7 +18224,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1" ht="15.75">
+    <row r="38" spans="1:16" customFormat="1" ht="17.25">
       <c r="A38" s="275"/>
       <c r="B38" s="115"/>
       <c r="C38" s="116"/>
@@ -18738,7 +18738,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="59" spans="1:16" customFormat="1" ht="105">
+    <row r="59" spans="1:16" customFormat="1" ht="106.5">
       <c r="A59" s="277"/>
       <c r="B59" s="115" t="s">
         <v>393</v>
@@ -18777,7 +18777,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:16" customFormat="1" ht="15.75">
+    <row r="60" spans="1:16" customFormat="1">
       <c r="A60" s="277"/>
       <c r="B60" s="70"/>
       <c r="C60" s="67"/>
@@ -18840,7 +18840,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="45.75">
+    <row r="63" spans="1:16" ht="58.5">
       <c r="A63" s="274"/>
       <c r="B63" s="122" t="s">
         <v>524</v>
@@ -18877,7 +18877,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15.75">
+    <row r="64" spans="1:16">
       <c r="A64" s="274"/>
       <c r="B64" s="122"/>
       <c r="C64" s="115"/>
@@ -18898,7 +18898,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75">
+    <row r="65" spans="1:13">
       <c r="A65" s="274"/>
       <c r="B65" s="122"/>
       <c r="C65" s="115"/>
@@ -18919,7 +18919,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75">
+    <row r="66" spans="1:13">
       <c r="A66" s="274"/>
       <c r="B66" s="122"/>
       <c r="C66" s="115"/>
@@ -18940,7 +18940,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75">
+    <row r="67" spans="1:13">
       <c r="A67" s="274"/>
       <c r="B67" s="122"/>
       <c r="C67" s="115"/>
@@ -18961,7 +18961,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75">
+    <row r="68" spans="1:13">
       <c r="A68" s="274"/>
       <c r="B68" s="122"/>
       <c r="C68" s="115"/>
@@ -18982,7 +18982,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75">
+    <row r="69" spans="1:13">
       <c r="A69" s="274"/>
       <c r="B69" s="122"/>
       <c r="C69" s="115"/>
@@ -19003,7 +19003,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75">
+    <row r="70" spans="1:13">
       <c r="A70" s="274"/>
       <c r="B70" s="122"/>
       <c r="C70" s="115"/>
@@ -19024,7 +19024,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75">
+    <row r="71" spans="1:13">
       <c r="A71" s="274"/>
       <c r="B71" s="122"/>
       <c r="C71" s="115"/>
@@ -19045,7 +19045,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30">
+    <row r="72" spans="1:13" ht="32.25">
       <c r="A72" s="274"/>
       <c r="B72" s="122"/>
       <c r="C72" s="115"/>
@@ -19066,7 +19066,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75">
+    <row r="73" spans="1:13">
       <c r="A73" s="274"/>
       <c r="B73" s="122"/>
       <c r="C73" s="115"/>
@@ -19087,7 +19087,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30">
+    <row r="74" spans="1:13" ht="32.25">
       <c r="A74" s="274"/>
       <c r="B74" s="122"/>
       <c r="C74" s="115"/>
@@ -19108,7 +19108,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="45">
+    <row r="75" spans="1:13" ht="47.25">
       <c r="A75" s="274"/>
       <c r="B75" s="122"/>
       <c r="C75" s="115"/>
@@ -19129,7 +19129,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="210">
+    <row r="76" spans="1:13" ht="212.25">
       <c r="A76" s="274"/>
       <c r="B76" s="122" t="s">
         <v>542</v>
@@ -19189,7 +19189,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="210">
+    <row r="78" spans="1:13" ht="212.25">
       <c r="A78" s="274"/>
       <c r="B78" s="122" t="s">
         <v>552</v>
@@ -19222,7 +19222,7 @@
       <c r="L78" s="115"/>
       <c r="M78" s="115"/>
     </row>
-    <row r="79" spans="1:13" ht="210">
+    <row r="79" spans="1:13" ht="212.25">
       <c r="A79" s="275"/>
       <c r="B79" s="122" t="s">
         <v>561</v>
@@ -19255,7 +19255,7 @@
       <c r="L79" s="115"/>
       <c r="M79" s="115"/>
     </row>
-    <row r="80" spans="1:13" ht="150">
+    <row r="80" spans="1:13" ht="152.25">
       <c r="A80" s="278" t="s">
         <v>1078</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15.75">
+    <row r="81" spans="1:16">
       <c r="A81" s="278"/>
       <c r="B81" s="122"/>
       <c r="C81" s="115"/>
@@ -19317,7 +19317,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="45">
+    <row r="82" spans="1:16" ht="47.25">
       <c r="A82" s="278"/>
       <c r="B82" s="146"/>
       <c r="C82" s="145" t="s">
@@ -19374,7 +19374,7 @@
       <c r="O83" s="112"/>
       <c r="P83" s="112"/>
     </row>
-    <row r="84" spans="1:16" s="64" customFormat="1" ht="45.75">
+    <row r="84" spans="1:16" s="64" customFormat="1" ht="58.5">
       <c r="A84" s="271"/>
       <c r="B84" s="71" t="s">
         <v>704</v>
@@ -19476,7 +19476,7 @@
       <c r="O86" s="109"/>
       <c r="P86" s="109"/>
     </row>
-    <row r="87" spans="1:16" ht="15.75">
+    <row r="87" spans="1:16">
       <c r="A87" s="145"/>
       <c r="B87" s="146"/>
       <c r="C87" s="145"/>
@@ -19555,9 +19555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284FCB9-3FD4-49BA-8155-9FD865B384A9}">
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -19567,7 +19567,7 @@
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
     <col min="4" max="4" width="39.42578125" style="60" customWidth="1"/>
     <col min="5" max="5" width="52.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="66.140625" style="42" customWidth="1"/>
     <col min="7" max="7" width="38.28515625" style="42" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="42" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="42" customWidth="1"/>
@@ -19577,7 +19577,7 @@
     <col min="13" max="13" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
+    <row r="1" spans="1:13" ht="19.5">
       <c r="A1" s="81" t="s">
         <v>813</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="280"/>
       <c r="B7" s="83"/>
       <c r="C7" s="205"/>
@@ -19792,7 +19792,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="280"/>
       <c r="B8" s="83"/>
       <c r="C8" s="205"/>
@@ -19813,7 +19813,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="280"/>
       <c r="B9" s="83"/>
       <c r="C9" s="205"/>
@@ -19834,7 +19834,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="280"/>
       <c r="B10" s="83"/>
       <c r="C10" s="205"/>
@@ -19855,7 +19855,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="280"/>
       <c r="B11" s="83"/>
       <c r="C11" s="205"/>
@@ -19876,7 +19876,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="280"/>
       <c r="B12" s="83"/>
       <c r="C12" s="205"/>
@@ -19897,7 +19897,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="67.5">
+    <row r="13" spans="1:13" ht="66">
       <c r="A13" s="280"/>
       <c r="B13" s="83" t="s">
         <v>457</v>
@@ -19978,7 +19978,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.5">
+    <row r="16" spans="1:13" ht="33">
       <c r="A16" s="280"/>
       <c r="B16" s="83" t="s">
         <v>465</v>
@@ -20001,7 +20001,7 @@
       <c r="L16" s="68"/>
       <c r="M16" s="68"/>
     </row>
-    <row r="17" spans="1:13" ht="51">
+    <row r="17" spans="1:13" ht="66">
       <c r="A17" s="281" t="s">
         <v>1178</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.5">
+    <row r="20" spans="1:13" ht="16.5">
       <c r="A20" s="281"/>
       <c r="B20" s="83"/>
       <c r="C20" s="205"/>
@@ -20123,7 +20123,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.5">
+    <row r="21" spans="1:13" ht="16.5">
       <c r="A21" s="281"/>
       <c r="B21" s="83"/>
       <c r="C21" s="205"/>
@@ -20144,7 +20144,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19.5">
+    <row r="22" spans="1:13" ht="16.5">
       <c r="A22" s="281"/>
       <c r="B22" s="83"/>
       <c r="C22" s="205"/>
@@ -20165,7 +20165,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.5">
+    <row r="23" spans="1:13" ht="16.5">
       <c r="A23" s="281"/>
       <c r="B23" s="83"/>
       <c r="C23" s="205"/>
@@ -20186,7 +20186,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.5">
+    <row r="24" spans="1:13" ht="16.5">
       <c r="A24" s="281"/>
       <c r="B24" s="83"/>
       <c r="C24" s="205"/>
@@ -20207,7 +20207,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="58.5">
+    <row r="25" spans="1:13" ht="42.75">
       <c r="A25" s="281"/>
       <c r="B25" s="83"/>
       <c r="C25" s="205"/>
@@ -20232,7 +20232,7 @@
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
     </row>
-    <row r="26" spans="1:13" ht="90">
+    <row r="26" spans="1:13" ht="115.5">
       <c r="A26" s="282" t="s">
         <v>1214</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="102">
+    <row r="28" spans="1:13" ht="132">
       <c r="A28" s="281"/>
       <c r="B28" s="83" t="s">
         <v>499</v>
@@ -20331,7 +20331,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75">
+    <row r="29" spans="1:13" ht="16.5">
       <c r="A29" s="281"/>
       <c r="B29" s="83"/>
       <c r="C29" s="205"/>
@@ -20352,7 +20352,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75">
+    <row r="30" spans="1:13" ht="16.5">
       <c r="A30" s="281"/>
       <c r="B30" s="83"/>
       <c r="C30" s="205"/>
@@ -20373,7 +20373,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75">
+    <row r="31" spans="1:13" ht="16.5">
       <c r="A31" s="281"/>
       <c r="B31" s="83"/>
       <c r="C31" s="205"/>
@@ -20500,7 +20500,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="51">
+    <row r="36" spans="1:13" ht="66">
       <c r="A36" s="283"/>
       <c r="B36" s="83" t="s">
         <v>516</v>
@@ -20539,7 +20539,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75">
+    <row r="37" spans="1:13" ht="16.5">
       <c r="A37" s="283"/>
       <c r="B37" s="83"/>
       <c r="C37" s="205"/>
@@ -20560,7 +20560,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75">
+    <row r="38" spans="1:13" ht="16.5">
       <c r="A38" s="283"/>
       <c r="B38" s="83"/>
       <c r="C38" s="205"/>
@@ -20581,7 +20581,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75">
+    <row r="39" spans="1:13" ht="16.5">
       <c r="A39" s="283"/>
       <c r="B39" s="83"/>
       <c r="C39" s="205"/>
@@ -20602,7 +20602,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75">
+    <row r="40" spans="1:13" ht="16.5">
       <c r="A40" s="283"/>
       <c r="B40" s="83"/>
       <c r="C40" s="205"/>
@@ -20623,7 +20623,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75">
+    <row r="41" spans="1:13" ht="16.5">
       <c r="A41" s="283"/>
       <c r="B41" s="83"/>
       <c r="C41" s="205"/>
@@ -20644,7 +20644,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="56.25">
+    <row r="42" spans="1:13" ht="66">
       <c r="A42" s="283" t="s">
         <v>1271</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75">
+    <row r="43" spans="1:13" ht="16.5">
       <c r="A43" s="283"/>
       <c r="B43" s="83"/>
       <c r="C43" s="205"/>
@@ -20704,7 +20704,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75">
+    <row r="44" spans="1:13" ht="16.5">
       <c r="A44" s="283"/>
       <c r="B44" s="83"/>
       <c r="C44" s="205"/>
@@ -20725,7 +20725,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75">
+    <row r="45" spans="1:13" ht="16.5">
       <c r="A45" s="283"/>
       <c r="B45" s="83"/>
       <c r="C45" s="205"/>
@@ -20746,7 +20746,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75">
+    <row r="46" spans="1:13" ht="16.5">
       <c r="A46" s="283"/>
       <c r="B46" s="83"/>
       <c r="C46" s="205"/>
@@ -20767,7 +20767,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75">
+    <row r="47" spans="1:13" ht="16.5">
       <c r="A47" s="283"/>
       <c r="B47" s="83"/>
       <c r="C47" s="205"/>
@@ -20788,7 +20788,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75">
+    <row r="48" spans="1:13" ht="16.5">
       <c r="A48" s="283"/>
       <c r="B48" s="83"/>
       <c r="C48" s="205"/>
@@ -20809,7 +20809,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75">
+    <row r="49" spans="1:13" ht="16.5">
       <c r="A49" s="283"/>
       <c r="B49" s="83"/>
       <c r="C49" s="205"/>
@@ -20830,7 +20830,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75">
+    <row r="50" spans="1:13" ht="16.5">
       <c r="A50" s="283"/>
       <c r="B50" s="83"/>
       <c r="C50" s="205"/>
@@ -20851,7 +20851,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75">
+    <row r="51" spans="1:13" ht="16.5">
       <c r="A51" s="283"/>
       <c r="B51" s="83"/>
       <c r="C51" s="205"/>
@@ -20909,7 +20909,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75">
+    <row r="53" spans="1:13" ht="16.5">
       <c r="A53" s="283"/>
       <c r="B53" s="83"/>
       <c r="C53" s="205"/>
@@ -20930,7 +20930,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75">
+    <row r="54" spans="1:13" ht="16.5">
       <c r="A54" s="283"/>
       <c r="B54" s="83"/>
       <c r="C54" s="205"/>
@@ -20951,7 +20951,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75">
+    <row r="55" spans="1:13" ht="16.5">
       <c r="A55" s="283"/>
       <c r="B55" s="83"/>
       <c r="C55" s="205"/>
@@ -20972,7 +20972,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75">
+    <row r="56" spans="1:13" ht="16.5">
       <c r="A56" s="283"/>
       <c r="B56" s="83"/>
       <c r="C56" s="205"/>
@@ -20993,7 +20993,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75">
+    <row r="57" spans="1:13" ht="16.5">
       <c r="A57" s="283"/>
       <c r="B57" s="83"/>
       <c r="C57" s="205"/>
@@ -21014,7 +21014,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75">
+    <row r="58" spans="1:13" ht="16.5">
       <c r="A58" s="283"/>
       <c r="B58" s="83"/>
       <c r="C58" s="205"/>
@@ -21035,7 +21035,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75">
+    <row r="59" spans="1:13" ht="16.5">
       <c r="A59" s="283"/>
       <c r="B59" s="68"/>
       <c r="C59" s="66" t="s">
@@ -21124,7 +21124,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75">
+    <row r="62" spans="1:13" ht="16.5">
       <c r="A62" s="283"/>
       <c r="B62" s="83"/>
       <c r="C62" s="205"/>
@@ -21145,7 +21145,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75">
+    <row r="63" spans="1:13" ht="16.5">
       <c r="A63" s="283"/>
       <c r="B63" s="83"/>
       <c r="C63" s="205"/>
@@ -21166,7 +21166,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75">
+    <row r="64" spans="1:13" ht="16.5">
       <c r="A64" s="283"/>
       <c r="B64" s="83"/>
       <c r="C64" s="205"/>
@@ -21187,7 +21187,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75">
+    <row r="65" spans="1:13" ht="16.5">
       <c r="A65" s="283"/>
       <c r="B65" s="83"/>
       <c r="C65" s="205"/>
@@ -21208,7 +21208,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75">
+    <row r="66" spans="1:13" ht="16.5">
       <c r="A66" s="283"/>
       <c r="B66" s="83"/>
       <c r="C66" s="205"/>
@@ -21266,7 +21266,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75">
+    <row r="68" spans="1:13" ht="16.5">
       <c r="A68" s="283"/>
       <c r="B68" s="83"/>
       <c r="C68" s="205"/>
@@ -21287,7 +21287,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75">
+    <row r="69" spans="1:13" ht="16.5">
       <c r="A69" s="283"/>
       <c r="B69" s="83"/>
       <c r="C69" s="205"/>
@@ -21308,7 +21308,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75">
+    <row r="70" spans="1:13" ht="16.5">
       <c r="A70" s="283"/>
       <c r="B70" s="83"/>
       <c r="C70" s="205"/>
@@ -21329,7 +21329,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75">
+    <row r="71" spans="1:13" ht="16.5">
       <c r="A71" s="283"/>
       <c r="B71" s="83"/>
       <c r="C71" s="205"/>
@@ -21350,7 +21350,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75">
+    <row r="72" spans="1:13" ht="16.5">
       <c r="A72" s="283"/>
       <c r="B72" s="83"/>
       <c r="C72" s="205"/>
@@ -21371,7 +21371,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75">
+    <row r="73" spans="1:13" ht="16.5">
       <c r="A73" s="283"/>
       <c r="B73" s="83"/>
       <c r="C73" s="205"/>
@@ -21392,7 +21392,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75">
+    <row r="74" spans="1:13" ht="16.5">
       <c r="A74" s="283"/>
       <c r="B74" s="83"/>
       <c r="C74" s="205"/>
@@ -21413,7 +21413,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="25.5">
+    <row r="75" spans="1:13" ht="33">
       <c r="A75" s="283"/>
       <c r="B75" s="83"/>
       <c r="C75" s="205" t="s">
@@ -21475,7 +21475,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75">
+    <row r="77" spans="1:13" ht="16.5">
       <c r="A77" s="283"/>
       <c r="B77" s="83"/>
       <c r="C77" s="205"/>
@@ -21535,7 +21535,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" ht="16.5">
       <c r="A79" s="283"/>
       <c r="B79" s="83"/>
       <c r="C79" s="83"/>
@@ -21630,7 +21630,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.75">
+    <row r="82" spans="1:13" ht="16.5">
       <c r="A82" s="283"/>
       <c r="B82" s="83"/>
       <c r="C82" s="205"/>
@@ -21651,7 +21651,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75">
+    <row r="83" spans="1:13" ht="16.5">
       <c r="A83" s="283"/>
       <c r="B83" s="83"/>
       <c r="C83" s="205"/>
@@ -21672,7 +21672,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75">
+    <row r="84" spans="1:13" ht="16.5">
       <c r="A84" s="283"/>
       <c r="B84" s="83"/>
       <c r="C84" s="205"/>
@@ -21693,7 +21693,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75">
+    <row r="85" spans="1:13" ht="16.5">
       <c r="A85" s="283"/>
       <c r="B85" s="83"/>
       <c r="C85" s="205"/>
@@ -21714,7 +21714,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75">
+    <row r="86" spans="1:13" ht="16.5">
       <c r="A86" s="283"/>
       <c r="B86" s="83"/>
       <c r="C86" s="205"/>
@@ -21735,7 +21735,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75">
+    <row r="87" spans="1:13" ht="16.5">
       <c r="A87" s="283"/>
       <c r="B87" s="83"/>
       <c r="C87" s="205"/>
@@ -21756,7 +21756,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75">
+    <row r="88" spans="1:13" ht="16.5">
       <c r="A88" s="283"/>
       <c r="B88" s="83"/>
       <c r="C88" s="205"/>
@@ -21777,7 +21777,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75">
+    <row r="89" spans="1:13" ht="16.5">
       <c r="A89" s="283"/>
       <c r="B89" s="83"/>
       <c r="C89" s="205"/>
@@ -21798,7 +21798,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75">
+    <row r="90" spans="1:13" ht="16.5">
       <c r="A90" s="283"/>
       <c r="B90" s="83"/>
       <c r="C90" s="205"/>
@@ -21819,7 +21819,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.75">
+    <row r="91" spans="1:13" ht="16.5">
       <c r="A91" s="283"/>
       <c r="B91" s="83"/>
       <c r="C91" s="205"/>
@@ -21937,7 +21937,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.75">
+    <row r="95" spans="1:13" ht="16.5">
       <c r="A95" s="283"/>
       <c r="B95" s="83"/>
       <c r="C95" s="205"/>
@@ -21958,7 +21958,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75">
+    <row r="96" spans="1:13" ht="16.5">
       <c r="A96" s="283"/>
       <c r="B96" s="83"/>
       <c r="C96" s="205"/>
@@ -21979,7 +21979,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75">
+    <row r="97" spans="1:13" ht="16.5">
       <c r="A97" s="283"/>
       <c r="B97" s="83"/>
       <c r="C97" s="205"/>
@@ -22000,7 +22000,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75">
+    <row r="98" spans="1:13" ht="16.5">
       <c r="A98" s="283"/>
       <c r="B98" s="83"/>
       <c r="C98" s="205"/>
@@ -22021,7 +22021,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75">
+    <row r="99" spans="1:13" ht="16.5">
       <c r="A99" s="283"/>
       <c r="B99" s="83"/>
       <c r="C99" s="205"/>
@@ -22079,7 +22079,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.75">
+    <row r="101" spans="1:13" ht="16.5">
       <c r="A101" s="283"/>
       <c r="B101" s="83"/>
       <c r="C101" s="205"/>
@@ -22100,7 +22100,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.75">
+    <row r="102" spans="1:13" ht="16.5">
       <c r="A102" s="283"/>
       <c r="B102" s="83"/>
       <c r="C102" s="205"/>
@@ -22121,7 +22121,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75">
+    <row r="103" spans="1:13" ht="16.5">
       <c r="A103" s="283"/>
       <c r="B103" s="83"/>
       <c r="C103" s="205"/>
@@ -22142,7 +22142,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.75">
+    <row r="104" spans="1:13" ht="16.5">
       <c r="A104" s="283"/>
       <c r="B104" s="83"/>
       <c r="C104" s="205"/>
@@ -22163,7 +22163,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.75">
+    <row r="105" spans="1:13" ht="16.5">
       <c r="A105" s="283"/>
       <c r="B105" s="83"/>
       <c r="C105" s="205"/>
@@ -22184,7 +22184,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.75">
+    <row r="106" spans="1:13" ht="16.5">
       <c r="A106" s="283"/>
       <c r="B106" s="83"/>
       <c r="C106" s="205"/>
@@ -22205,7 +22205,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.75">
+    <row r="107" spans="1:13" ht="16.5">
       <c r="A107" s="283"/>
       <c r="B107" s="83"/>
       <c r="C107" s="205"/>
@@ -22226,7 +22226,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.75">
+    <row r="108" spans="1:13" ht="16.5">
       <c r="A108" s="283"/>
       <c r="B108" s="83"/>
       <c r="C108" s="205"/>
@@ -22247,7 +22247,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75">
+    <row r="109" spans="1:13" ht="16.5">
       <c r="A109" s="283"/>
       <c r="B109" s="83"/>
       <c r="C109" s="205"/>
@@ -22268,7 +22268,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75">
+    <row r="110" spans="1:13" ht="16.5">
       <c r="A110" s="283"/>
       <c r="B110" s="83"/>
       <c r="C110" s="205"/>
@@ -22289,7 +22289,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75">
+    <row r="111" spans="1:13" ht="16.5">
       <c r="A111" s="283"/>
       <c r="B111" s="83"/>
       <c r="C111" s="205"/>
@@ -22310,7 +22310,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.75">
+    <row r="112" spans="1:13" ht="16.5">
       <c r="A112" s="283"/>
       <c r="B112" s="83"/>
       <c r="C112" s="205"/>
@@ -22368,7 +22368,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75">
+    <row r="114" spans="1:13" ht="16.5">
       <c r="A114" s="283"/>
       <c r="B114" s="83"/>
       <c r="C114" s="205"/>
@@ -22389,7 +22389,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75">
+    <row r="115" spans="1:13" ht="16.5">
       <c r="A115" s="283"/>
       <c r="B115" s="83"/>
       <c r="C115" s="205"/>
@@ -22410,7 +22410,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75">
+    <row r="116" spans="1:13" ht="16.5">
       <c r="A116" s="283"/>
       <c r="B116" s="83"/>
       <c r="C116" s="205"/>
@@ -22431,7 +22431,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75">
+    <row r="117" spans="1:13" ht="16.5">
       <c r="A117" s="283"/>
       <c r="B117" s="83"/>
       <c r="C117" s="205"/>
@@ -22489,7 +22489,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.75">
+    <row r="119" spans="1:13" ht="16.5">
       <c r="A119" s="283"/>
       <c r="B119" s="83"/>
       <c r="C119" s="205"/>
@@ -22510,7 +22510,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75">
+    <row r="120" spans="1:13" ht="16.5">
       <c r="A120" s="283"/>
       <c r="B120" s="83"/>
       <c r="C120" s="205"/>
@@ -22531,7 +22531,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.75">
+    <row r="121" spans="1:13" ht="16.5">
       <c r="A121" s="283"/>
       <c r="B121" s="83"/>
       <c r="C121" s="205"/>
@@ -22552,7 +22552,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75">
+    <row r="122" spans="1:13" ht="16.5">
       <c r="A122" s="283"/>
       <c r="B122" s="83"/>
       <c r="C122" s="205"/>
@@ -22573,7 +22573,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75">
+    <row r="123" spans="1:13" ht="16.5">
       <c r="A123" s="283"/>
       <c r="B123" s="83"/>
       <c r="C123" s="205"/>
@@ -22594,7 +22594,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75">
+    <row r="124" spans="1:13" ht="16.5">
       <c r="A124" s="283"/>
       <c r="B124" s="83"/>
       <c r="C124" s="205"/>
@@ -22615,7 +22615,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75">
+    <row r="125" spans="1:13" ht="16.5">
       <c r="A125" s="283"/>
       <c r="B125" s="83"/>
       <c r="C125" s="205"/>
@@ -22673,7 +22673,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75">
+    <row r="127" spans="1:13" ht="16.5">
       <c r="A127" s="283"/>
       <c r="B127" s="83"/>
       <c r="C127" s="205"/>
@@ -22694,7 +22694,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75">
+    <row r="128" spans="1:13" ht="16.5">
       <c r="A128" s="283"/>
       <c r="B128" s="83"/>
       <c r="C128" s="205"/>
@@ -22715,7 +22715,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.75">
+    <row r="129" spans="1:13" ht="16.5">
       <c r="A129" s="283"/>
       <c r="B129" s="83"/>
       <c r="C129" s="205"/>
@@ -22736,7 +22736,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.75">
+    <row r="130" spans="1:13" ht="16.5">
       <c r="A130" s="283"/>
       <c r="B130" s="83"/>
       <c r="C130" s="205"/>
@@ -22757,7 +22757,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.75">
+    <row r="131" spans="1:13" ht="16.5">
       <c r="A131" s="283"/>
       <c r="B131" s="83"/>
       <c r="C131" s="205"/>
@@ -22778,7 +22778,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.75">
+    <row r="132" spans="1:13" ht="16.5">
       <c r="A132" s="283"/>
       <c r="B132" s="83"/>
       <c r="C132" s="205"/>
@@ -22799,7 +22799,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.75">
+    <row r="133" spans="1:13" ht="16.5">
       <c r="A133" s="283"/>
       <c r="B133" s="83"/>
       <c r="C133" s="205"/>
@@ -22820,7 +22820,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.75">
+    <row r="134" spans="1:13" ht="16.5">
       <c r="A134" s="283"/>
       <c r="B134" s="83"/>
       <c r="C134" s="205"/>
@@ -22841,7 +22841,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.75">
+    <row r="135" spans="1:13" ht="16.5">
       <c r="A135" s="283"/>
       <c r="B135" s="83"/>
       <c r="C135" s="205"/>
@@ -22862,7 +22862,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.75">
+    <row r="136" spans="1:13" ht="16.5">
       <c r="A136" s="283"/>
       <c r="B136" s="83"/>
       <c r="C136" s="205"/>
@@ -22883,7 +22883,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.75">
+    <row r="137" spans="1:13" ht="16.5">
       <c r="A137" s="283"/>
       <c r="B137" s="83"/>
       <c r="C137" s="205"/>
@@ -22934,7 +22934,7 @@
       <c r="L138" s="68"/>
       <c r="M138" s="68"/>
     </row>
-    <row r="139" spans="1:13" ht="25.5">
+    <row r="139" spans="1:13" ht="33">
       <c r="A139" s="283"/>
       <c r="B139" s="83" t="s">
         <v>741</v>
@@ -23019,7 +23019,7 @@
       <c r="L141" s="66"/>
       <c r="M141" s="66"/>
     </row>
-    <row r="142" spans="1:13" ht="15.75">
+    <row r="142" spans="1:13" ht="16.5">
       <c r="A142" s="279"/>
       <c r="B142" s="93" t="s">
         <v>1614</v>
@@ -23044,7 +23044,7 @@
       <c r="L142" s="68"/>
       <c r="M142" s="68"/>
     </row>
-    <row r="143" spans="1:13" ht="15.75">
+    <row r="143" spans="1:13" ht="16.5">
       <c r="A143" s="279"/>
       <c r="B143" s="89" t="s">
         <v>1618</v>
@@ -23069,7 +23069,7 @@
       <c r="L143" s="68"/>
       <c r="M143" s="68"/>
     </row>
-    <row r="144" spans="1:13" ht="15.75">
+    <row r="144" spans="1:13" ht="16.5">
       <c r="A144" s="279"/>
       <c r="B144" s="89" t="s">
         <v>1622</v>
@@ -23100,7 +23100,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.75">
+    <row r="145" spans="1:13" ht="16.5">
       <c r="A145" s="279"/>
       <c r="B145" s="89"/>
       <c r="C145" s="205"/>
@@ -23121,7 +23121,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.75">
+    <row r="146" spans="1:13" ht="16.5">
       <c r="A146" s="279"/>
       <c r="B146" s="89"/>
       <c r="C146" s="205"/>
@@ -23142,7 +23142,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.75">
+    <row r="147" spans="1:13" ht="16.5">
       <c r="A147" s="279"/>
       <c r="B147" s="89"/>
       <c r="C147" s="205"/>
@@ -23163,7 +23163,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.75">
+    <row r="148" spans="1:13" ht="16.5">
       <c r="A148" s="279"/>
       <c r="B148" s="89"/>
       <c r="C148" s="205"/>
@@ -23184,7 +23184,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.75">
+    <row r="149" spans="1:13" ht="16.5">
       <c r="A149" s="279"/>
       <c r="B149" s="89"/>
       <c r="C149" s="205"/>
@@ -23205,7 +23205,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.75">
+    <row r="150" spans="1:13" ht="16.5">
       <c r="A150" s="279"/>
       <c r="B150" s="89"/>
       <c r="C150" s="205"/>
@@ -23226,7 +23226,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.75">
+    <row r="151" spans="1:13" ht="16.5">
       <c r="A151" s="279"/>
       <c r="B151" s="89"/>
       <c r="C151" s="205"/>
@@ -23247,7 +23247,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.75">
+    <row r="152" spans="1:13" ht="16.5">
       <c r="A152" s="279"/>
       <c r="B152" s="89"/>
       <c r="C152" s="205"/>
@@ -23268,7 +23268,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.75">
+    <row r="153" spans="1:13" ht="16.5">
       <c r="A153" s="279"/>
       <c r="B153" s="89"/>
       <c r="C153" s="205"/>
@@ -23289,7 +23289,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.75">
+    <row r="154" spans="1:13" ht="16.5">
       <c r="A154" s="279"/>
       <c r="B154" s="89"/>
       <c r="C154" s="205"/>
@@ -23394,7 +23394,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.75">
+    <row r="159" spans="1:13" ht="16.5">
       <c r="A159" s="279"/>
       <c r="B159" s="89" t="s">
         <v>1671</v>
@@ -23419,7 +23419,7 @@
       <c r="L159" s="68"/>
       <c r="M159" s="68"/>
     </row>
-    <row r="160" spans="1:13" ht="15.75">
+    <row r="160" spans="1:13" ht="16.5">
       <c r="A160" s="279"/>
       <c r="B160" s="89" t="s">
         <v>1675</v>
@@ -23462,7 +23462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176E780C-1D59-4D93-8860-2965D1028317}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
@@ -23481,7 +23481,7 @@
     <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.25">
+    <row r="1" spans="1:13" ht="36">
       <c r="A1" s="79" t="s">
         <v>813</v>
       </c>
@@ -24374,7 +24374,7 @@
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
+    <row r="1" spans="1:13" ht="19.5">
       <c r="A1" s="152" t="s">
         <v>813</v>
       </c>
@@ -25328,7 +25328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BD3001-F5DF-466F-AB7B-8D1390F4A287}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -25344,7 +25346,7 @@
     <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" ht="19.5">
       <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
@@ -25385,7 +25387,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="135.75">
+    <row r="2" spans="1:14" ht="136.5">
       <c r="A2" s="68"/>
       <c r="B2" s="262" t="s">
         <v>245</v>
@@ -25797,6 +25799,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A595C2436754DD4192B3BEE0FFE1ED0A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ba19257e65125414350f132367e985">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00591925-1995-4bf8-8d28-1f7cbeda4924" xmlns:ns3="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a6491f746e84da8ae5f2642b9bcf21" ns2:_="" ns3:_="">
     <xsd:import namespace="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
@@ -26025,27 +26047,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26062,23 +26083,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
-    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/atique.xlsx
+++ b/atique.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ur_sensei\Desktop\translation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Desktop\New folder\excel_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C25139-9E3C-4299-B1ED-A71D6A095FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B712E0F-C6DF-4543-9F7D-1C4EF2FA24D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
     <sheet name="IncomeInfo" sheetId="2" r:id="rId2"/>
     <sheet name="AssetInfo" sheetId="3" r:id="rId3"/>
     <sheet name="FamilyInfo" sheetId="4" r:id="rId4"/>
-    <sheet name="Medical&amp;Accessibility" sheetId="5" r:id="rId5"/>
+    <sheet name="Medical" sheetId="5" r:id="rId5"/>
     <sheet name="EducationInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="1976">
   <si>
     <t>#</t>
   </si>
@@ -7968,15 +7968,6 @@
   </si>
   <si>
     <t>கூரை ஓடு</t>
-  </si>
-  <si>
-    <t>Within this criterion, applicants who select thatch and other items under poor conditions are determined to be at risk of poverty</t>
-  </si>
-  <si>
-    <t>මෙම නිර්ණායකය තුළ දුප්පත්වීමේ අවධානමට ලක් විය හැකි යැයි තීරණය කරනු ලබන්නේ ටකරන් හා වෙනත් දිළිදු තත්වයේ අයිතමයන් තෝරාගන්නා අයදුම්කරුවන්ය.</t>
-  </si>
-  <si>
-    <t>இந்த அளவுகோலில், வறுமையின் அபாயத்தில் இருப்பதாக தீர்மானிக்க தகரம் காணப்படுகிறது மேலும் அதன் கீழே உள்ள தெரிவுகளை தேர்ந்தெடுக்கும் விண்ணப்பதாரர்களும் இதில் அடங்கும்.</t>
   </si>
   <si>
     <t>Asbestos Sheet</t>
@@ -17375,7 +17366,7 @@
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="59" customFormat="1">
+    <row r="1" spans="1:13" s="59" customFormat="1" ht="15.75">
       <c r="A1" s="59" t="s">
         <v>813</v>
       </c>
@@ -17416,7 +17407,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" ht="59.25">
+    <row r="2" spans="1:13" customFormat="1" ht="57.75">
       <c r="A2" s="273" t="s">
         <v>824</v>
       </c>
@@ -17455,7 +17446,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" customFormat="1" ht="15">
       <c r="A3" s="274"/>
       <c r="B3" s="115"/>
       <c r="C3" s="116"/>
@@ -17476,7 +17467,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" customFormat="1" ht="15">
       <c r="A4" s="274"/>
       <c r="B4" s="115"/>
       <c r="C4" s="116"/>
@@ -17497,7 +17488,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" customFormat="1" ht="15">
       <c r="A5" s="274"/>
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
@@ -17518,7 +17509,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" customFormat="1" ht="15">
       <c r="A6" s="274"/>
       <c r="B6" s="115"/>
       <c r="C6" s="116"/>
@@ -17539,7 +17530,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" customFormat="1" ht="15">
       <c r="A7" s="274"/>
       <c r="B7" s="115"/>
       <c r="C7" s="116"/>
@@ -17560,7 +17551,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" customFormat="1" ht="15">
       <c r="A8" s="274"/>
       <c r="B8" s="115"/>
       <c r="C8" s="116"/>
@@ -17581,7 +17572,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="49.5">
+    <row r="9" spans="1:13" customFormat="1" ht="45">
       <c r="A9" s="274"/>
       <c r="B9" s="117" t="s">
         <v>270</v>
@@ -17830,7 +17821,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="20" spans="1:13" customFormat="1" ht="46.5">
+    <row r="20" spans="1:13" customFormat="1" ht="45">
       <c r="A20" s="274"/>
       <c r="B20" s="115" t="s">
         <v>280</v>
@@ -17867,7 +17858,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="21" spans="1:13" customFormat="1" ht="17.25">
+    <row r="21" spans="1:13" customFormat="1" ht="15.75">
       <c r="A21" s="274"/>
       <c r="B21" s="115"/>
       <c r="C21" s="116"/>
@@ -17888,7 +17879,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:13" customFormat="1" ht="17.25">
+    <row r="22" spans="1:13" customFormat="1" ht="15.75">
       <c r="A22" s="274"/>
       <c r="B22" s="115"/>
       <c r="C22" s="116"/>
@@ -17909,7 +17900,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="23" spans="1:13" customFormat="1" ht="17.25">
+    <row r="23" spans="1:13" customFormat="1" ht="15.75">
       <c r="A23" s="274"/>
       <c r="B23" s="115"/>
       <c r="C23" s="116"/>
@@ -17930,7 +17921,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:13" customFormat="1" ht="17.25">
+    <row r="24" spans="1:13" customFormat="1" ht="15.75">
       <c r="A24" s="274"/>
       <c r="B24" s="115"/>
       <c r="C24" s="116"/>
@@ -17951,7 +17942,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="25" spans="1:13" customFormat="1" ht="17.25">
+    <row r="25" spans="1:13" customFormat="1" ht="15.75">
       <c r="A25" s="274"/>
       <c r="B25" s="115"/>
       <c r="C25" s="116"/>
@@ -17972,7 +17963,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="26" spans="1:13" customFormat="1" ht="17.25">
+    <row r="26" spans="1:13" customFormat="1" ht="15.75">
       <c r="A26" s="274"/>
       <c r="B26" s="115"/>
       <c r="C26" s="116"/>
@@ -17993,7 +17984,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="27" spans="1:13" customFormat="1" ht="17.25">
+    <row r="27" spans="1:13" customFormat="1" ht="15.75">
       <c r="A27" s="274"/>
       <c r="B27" s="115"/>
       <c r="C27" s="116"/>
@@ -18014,7 +18005,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="28" spans="1:13" customFormat="1" ht="17.25">
+    <row r="28" spans="1:13" customFormat="1" ht="15.75">
       <c r="A28" s="274"/>
       <c r="B28" s="115"/>
       <c r="C28" s="116"/>
@@ -18035,7 +18026,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="29" spans="1:13" customFormat="1" ht="17.25">
+    <row r="29" spans="1:13" customFormat="1" ht="15.75">
       <c r="A29" s="274"/>
       <c r="B29" s="115"/>
       <c r="C29" s="116"/>
@@ -18056,7 +18047,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="30" spans="1:13" customFormat="1" ht="17.25">
+    <row r="30" spans="1:13" customFormat="1" ht="15.75">
       <c r="A30" s="274"/>
       <c r="B30" s="115"/>
       <c r="C30" s="116"/>
@@ -18077,7 +18068,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:13" customFormat="1" ht="17.25">
+    <row r="31" spans="1:13" customFormat="1" ht="15.75">
       <c r="A31" s="274"/>
       <c r="B31" s="115"/>
       <c r="C31" s="116"/>
@@ -18098,7 +18089,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="1:13" customFormat="1" ht="17.25">
+    <row r="32" spans="1:13" customFormat="1" ht="15.75">
       <c r="A32" s="274"/>
       <c r="B32" s="115"/>
       <c r="C32" s="116"/>
@@ -18119,7 +18110,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="17.25">
+    <row r="33" spans="1:16" customFormat="1" ht="15.75">
       <c r="A33" s="274"/>
       <c r="B33" s="115"/>
       <c r="C33" s="116"/>
@@ -18140,7 +18131,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="17.25">
+    <row r="34" spans="1:16" customFormat="1" ht="15.75">
       <c r="A34" s="274"/>
       <c r="B34" s="115"/>
       <c r="C34" s="116"/>
@@ -18161,7 +18152,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="17.25">
+    <row r="35" spans="1:16" customFormat="1" ht="15.75">
       <c r="A35" s="274"/>
       <c r="B35" s="115"/>
       <c r="C35" s="116"/>
@@ -18182,7 +18173,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="17.25">
+    <row r="36" spans="1:16" customFormat="1" ht="15.75">
       <c r="A36" s="274"/>
       <c r="B36" s="115"/>
       <c r="C36" s="116"/>
@@ -18203,7 +18194,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="17.25">
+    <row r="37" spans="1:16" customFormat="1" ht="15.75">
       <c r="A37" s="274"/>
       <c r="B37" s="115"/>
       <c r="C37" s="116"/>
@@ -18224,7 +18215,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1" ht="17.25">
+    <row r="38" spans="1:16" customFormat="1" ht="15.75">
       <c r="A38" s="275"/>
       <c r="B38" s="115"/>
       <c r="C38" s="116"/>
@@ -18738,7 +18729,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="59" spans="1:16" customFormat="1" ht="106.5">
+    <row r="59" spans="1:16" customFormat="1" ht="105">
       <c r="A59" s="277"/>
       <c r="B59" s="115" t="s">
         <v>393</v>
@@ -18777,7 +18768,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:16" customFormat="1">
+    <row r="60" spans="1:16" customFormat="1" ht="15.75">
       <c r="A60" s="277"/>
       <c r="B60" s="70"/>
       <c r="C60" s="67"/>
@@ -18840,7 +18831,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="58.5">
+    <row r="63" spans="1:16" ht="45.75">
       <c r="A63" s="274"/>
       <c r="B63" s="122" t="s">
         <v>524</v>
@@ -18877,7 +18868,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="274"/>
       <c r="B64" s="122"/>
       <c r="C64" s="115"/>
@@ -18898,7 +18889,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="274"/>
       <c r="B65" s="122"/>
       <c r="C65" s="115"/>
@@ -18919,7 +18910,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="274"/>
       <c r="B66" s="122"/>
       <c r="C66" s="115"/>
@@ -18940,7 +18931,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="15.75">
       <c r="A67" s="274"/>
       <c r="B67" s="122"/>
       <c r="C67" s="115"/>
@@ -18961,7 +18952,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" ht="15.75">
       <c r="A68" s="274"/>
       <c r="B68" s="122"/>
       <c r="C68" s="115"/>
@@ -18982,7 +18973,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" ht="15.75">
       <c r="A69" s="274"/>
       <c r="B69" s="122"/>
       <c r="C69" s="115"/>
@@ -19003,7 +18994,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" ht="15.75">
       <c r="A70" s="274"/>
       <c r="B70" s="122"/>
       <c r="C70" s="115"/>
@@ -19024,7 +19015,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" ht="15.75">
       <c r="A71" s="274"/>
       <c r="B71" s="122"/>
       <c r="C71" s="115"/>
@@ -19045,7 +19036,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="32.25">
+    <row r="72" spans="1:13" ht="30">
       <c r="A72" s="274"/>
       <c r="B72" s="122"/>
       <c r="C72" s="115"/>
@@ -19066,7 +19057,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" ht="15.75">
       <c r="A73" s="274"/>
       <c r="B73" s="122"/>
       <c r="C73" s="115"/>
@@ -19087,7 +19078,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="32.25">
+    <row r="74" spans="1:13" ht="30">
       <c r="A74" s="274"/>
       <c r="B74" s="122"/>
       <c r="C74" s="115"/>
@@ -19108,7 +19099,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="47.25">
+    <row r="75" spans="1:13" ht="45">
       <c r="A75" s="274"/>
       <c r="B75" s="122"/>
       <c r="C75" s="115"/>
@@ -19129,7 +19120,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="212.25">
+    <row r="76" spans="1:13" ht="210">
       <c r="A76" s="274"/>
       <c r="B76" s="122" t="s">
         <v>542</v>
@@ -19189,7 +19180,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="212.25">
+    <row r="78" spans="1:13" ht="210">
       <c r="A78" s="274"/>
       <c r="B78" s="122" t="s">
         <v>552</v>
@@ -19222,7 +19213,7 @@
       <c r="L78" s="115"/>
       <c r="M78" s="115"/>
     </row>
-    <row r="79" spans="1:13" ht="212.25">
+    <row r="79" spans="1:13" ht="210">
       <c r="A79" s="275"/>
       <c r="B79" s="122" t="s">
         <v>561</v>
@@ -19255,7 +19246,7 @@
       <c r="L79" s="115"/>
       <c r="M79" s="115"/>
     </row>
-    <row r="80" spans="1:13" ht="152.25">
+    <row r="80" spans="1:13" ht="150">
       <c r="A80" s="278" t="s">
         <v>1078</v>
       </c>
@@ -19296,7 +19287,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="278"/>
       <c r="B81" s="122"/>
       <c r="C81" s="115"/>
@@ -19317,7 +19308,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="47.25">
+    <row r="82" spans="1:16" ht="45">
       <c r="A82" s="278"/>
       <c r="B82" s="146"/>
       <c r="C82" s="145" t="s">
@@ -19374,7 +19365,7 @@
       <c r="O83" s="112"/>
       <c r="P83" s="112"/>
     </row>
-    <row r="84" spans="1:16" s="64" customFormat="1" ht="58.5">
+    <row r="84" spans="1:16" s="64" customFormat="1" ht="45.75">
       <c r="A84" s="271"/>
       <c r="B84" s="71" t="s">
         <v>704</v>
@@ -19476,7 +19467,7 @@
       <c r="O86" s="109"/>
       <c r="P86" s="109"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="145"/>
       <c r="B87" s="146"/>
       <c r="C87" s="145"/>
@@ -19555,9 +19546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284FCB9-3FD4-49BA-8155-9FD865B384A9}">
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J61" sqref="C61:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -19577,7 +19568,7 @@
     <col min="13" max="13" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="81" t="s">
         <v>813</v>
       </c>
@@ -19771,7 +19762,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="280"/>
       <c r="B7" s="83"/>
       <c r="C7" s="205"/>
@@ -19792,7 +19783,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="280"/>
       <c r="B8" s="83"/>
       <c r="C8" s="205"/>
@@ -19813,7 +19804,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="280"/>
       <c r="B9" s="83"/>
       <c r="C9" s="205"/>
@@ -19834,7 +19825,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="280"/>
       <c r="B10" s="83"/>
       <c r="C10" s="205"/>
@@ -19855,7 +19846,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="280"/>
       <c r="B11" s="83"/>
       <c r="C11" s="205"/>
@@ -19876,7 +19867,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="280"/>
       <c r="B12" s="83"/>
       <c r="C12" s="205"/>
@@ -19897,7 +19888,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="66">
+    <row r="13" spans="1:13" ht="67.5">
       <c r="A13" s="280"/>
       <c r="B13" s="83" t="s">
         <v>457</v>
@@ -19978,7 +19969,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="33">
+    <row r="16" spans="1:13" ht="28.5">
       <c r="A16" s="280"/>
       <c r="B16" s="83" t="s">
         <v>465</v>
@@ -20001,7 +19992,7 @@
       <c r="L16" s="68"/>
       <c r="M16" s="68"/>
     </row>
-    <row r="17" spans="1:13" ht="66">
+    <row r="17" spans="1:13" ht="51">
       <c r="A17" s="281" t="s">
         <v>1178</v>
       </c>
@@ -20102,7 +20093,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5">
+    <row r="20" spans="1:13" ht="19.5">
       <c r="A20" s="281"/>
       <c r="B20" s="83"/>
       <c r="C20" s="205"/>
@@ -20123,7 +20114,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5">
+    <row r="21" spans="1:13" ht="19.5">
       <c r="A21" s="281"/>
       <c r="B21" s="83"/>
       <c r="C21" s="205"/>
@@ -20144,7 +20135,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5">
+    <row r="22" spans="1:13" ht="19.5">
       <c r="A22" s="281"/>
       <c r="B22" s="83"/>
       <c r="C22" s="205"/>
@@ -20165,7 +20156,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
+    <row r="23" spans="1:13" ht="19.5">
       <c r="A23" s="281"/>
       <c r="B23" s="83"/>
       <c r="C23" s="205"/>
@@ -20186,7 +20177,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5">
+    <row r="24" spans="1:13" ht="19.5">
       <c r="A24" s="281"/>
       <c r="B24" s="83"/>
       <c r="C24" s="205"/>
@@ -20207,7 +20198,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="42.75">
+    <row r="25" spans="1:13" ht="58.5">
       <c r="A25" s="281"/>
       <c r="B25" s="83"/>
       <c r="C25" s="205"/>
@@ -20232,7 +20223,7 @@
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
     </row>
-    <row r="26" spans="1:13" ht="115.5">
+    <row r="26" spans="1:13" ht="90">
       <c r="A26" s="282" t="s">
         <v>1214</v>
       </c>
@@ -20294,7 +20285,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="132">
+    <row r="28" spans="1:13" ht="102">
       <c r="A28" s="281"/>
       <c r="B28" s="83" t="s">
         <v>499</v>
@@ -20331,7 +20322,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5">
+    <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="281"/>
       <c r="B29" s="83"/>
       <c r="C29" s="205"/>
@@ -20352,7 +20343,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5">
+    <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="281"/>
       <c r="B30" s="83"/>
       <c r="C30" s="205"/>
@@ -20373,7 +20364,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5">
+    <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="281"/>
       <c r="B31" s="83"/>
       <c r="C31" s="205"/>
@@ -20500,7 +20491,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="66">
+    <row r="36" spans="1:13" ht="51">
       <c r="A36" s="283"/>
       <c r="B36" s="83" t="s">
         <v>516</v>
@@ -20539,7 +20530,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5">
+    <row r="37" spans="1:13" ht="15.75">
       <c r="A37" s="283"/>
       <c r="B37" s="83"/>
       <c r="C37" s="205"/>
@@ -20560,7 +20551,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5">
+    <row r="38" spans="1:13" ht="15.75">
       <c r="A38" s="283"/>
       <c r="B38" s="83"/>
       <c r="C38" s="205"/>
@@ -20581,7 +20572,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5">
+    <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="283"/>
       <c r="B39" s="83"/>
       <c r="C39" s="205"/>
@@ -20602,7 +20593,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5">
+    <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="283"/>
       <c r="B40" s="83"/>
       <c r="C40" s="205"/>
@@ -20623,7 +20614,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5">
+    <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="283"/>
       <c r="B41" s="83"/>
       <c r="C41" s="205"/>
@@ -20644,7 +20635,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="66">
+    <row r="42" spans="1:13" ht="56.25">
       <c r="A42" s="283" t="s">
         <v>1271</v>
       </c>
@@ -20683,7 +20674,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5">
+    <row r="43" spans="1:13" ht="15.75">
       <c r="A43" s="283"/>
       <c r="B43" s="83"/>
       <c r="C43" s="205"/>
@@ -20704,7 +20695,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5">
+    <row r="44" spans="1:13" ht="15.75">
       <c r="A44" s="283"/>
       <c r="B44" s="83"/>
       <c r="C44" s="205"/>
@@ -20725,7 +20716,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5">
+    <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="283"/>
       <c r="B45" s="83"/>
       <c r="C45" s="205"/>
@@ -20746,7 +20737,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5">
+    <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="283"/>
       <c r="B46" s="83"/>
       <c r="C46" s="205"/>
@@ -20767,7 +20758,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="283"/>
       <c r="B47" s="83"/>
       <c r="C47" s="205"/>
@@ -20788,7 +20779,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5">
+    <row r="48" spans="1:13" ht="15.75">
       <c r="A48" s="283"/>
       <c r="B48" s="83"/>
       <c r="C48" s="205"/>
@@ -20809,7 +20800,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5">
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="283"/>
       <c r="B49" s="83"/>
       <c r="C49" s="205"/>
@@ -20830,7 +20821,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="283"/>
       <c r="B50" s="83"/>
       <c r="C50" s="205"/>
@@ -20851,7 +20842,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="283"/>
       <c r="B51" s="83"/>
       <c r="C51" s="205"/>
@@ -20909,7 +20900,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.5">
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="283"/>
       <c r="B53" s="83"/>
       <c r="C53" s="205"/>
@@ -20930,7 +20921,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5">
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="283"/>
       <c r="B54" s="83"/>
       <c r="C54" s="205"/>
@@ -20951,7 +20942,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5">
+    <row r="55" spans="1:13" ht="15.75">
       <c r="A55" s="283"/>
       <c r="B55" s="83"/>
       <c r="C55" s="205"/>
@@ -20972,7 +20963,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.5">
+    <row r="56" spans="1:13" ht="15.75">
       <c r="A56" s="283"/>
       <c r="B56" s="83"/>
       <c r="C56" s="205"/>
@@ -20993,7 +20984,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5">
+    <row r="57" spans="1:13" ht="15.75">
       <c r="A57" s="283"/>
       <c r="B57" s="83"/>
       <c r="C57" s="205"/>
@@ -21014,7 +21005,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5">
+    <row r="58" spans="1:13" ht="15.75">
       <c r="A58" s="283"/>
       <c r="B58" s="83"/>
       <c r="C58" s="205"/>
@@ -21035,7 +21026,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.5">
+    <row r="59" spans="1:13" ht="15.75">
       <c r="A59" s="283"/>
       <c r="B59" s="68"/>
       <c r="C59" s="66" t="s">
@@ -21103,28 +21094,22 @@
       <c r="C61" s="205"/>
       <c r="D61" s="96"/>
       <c r="E61" s="84"/>
-      <c r="F61" s="231" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G61" s="232" t="s">
-        <v>1345</v>
-      </c>
-      <c r="H61" s="230" t="s">
-        <v>1346</v>
-      </c>
+      <c r="F61" s="231"/>
+      <c r="G61" s="232"/>
+      <c r="H61" s="230"/>
       <c r="I61" s="133"/>
       <c r="J61" s="68"/>
       <c r="K61" s="132" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="L61" s="159" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="M61" s="159" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="16.5">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" s="283"/>
       <c r="B62" s="83"/>
       <c r="C62" s="205"/>
@@ -21145,7 +21130,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5">
+    <row r="63" spans="1:13" ht="15.75">
       <c r="A63" s="283"/>
       <c r="B63" s="83"/>
       <c r="C63" s="205"/>
@@ -21157,16 +21142,16 @@
       <c r="I63" s="133"/>
       <c r="J63" s="68"/>
       <c r="K63" s="132" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="L63" s="159" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="M63" s="66" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="16.5">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" s="283"/>
       <c r="B64" s="83"/>
       <c r="C64" s="205"/>
@@ -21178,16 +21163,16 @@
       <c r="I64" s="133"/>
       <c r="J64" s="68"/>
       <c r="K64" s="132" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="L64" s="159" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="M64" s="159" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="16.5">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="283"/>
       <c r="B65" s="83"/>
       <c r="C65" s="205"/>
@@ -21199,16 +21184,16 @@
       <c r="I65" s="133"/>
       <c r="J65" s="68"/>
       <c r="K65" s="132" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="L65" s="159" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="M65" s="159" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="16.5">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="283"/>
       <c r="B66" s="83"/>
       <c r="C66" s="205"/>
@@ -21220,13 +21205,13 @@
       <c r="I66" s="133"/>
       <c r="J66" s="68"/>
       <c r="K66" s="233" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="L66" s="159" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="M66" s="159" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="91.5" customHeight="1">
@@ -21235,7 +21220,7 @@
         <v>597</v>
       </c>
       <c r="C67" s="205" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D67" s="96" t="s">
         <v>600</v>
@@ -21244,29 +21229,29 @@
         <v>611</v>
       </c>
       <c r="F67" s="94" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="G67" s="94" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="H67" s="234" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="I67" s="94" t="s">
         <v>1142</v>
       </c>
       <c r="J67" s="66"/>
       <c r="K67" s="132" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="L67" s="159" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="M67" s="159" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="16.5">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75">
       <c r="A68" s="283"/>
       <c r="B68" s="83"/>
       <c r="C68" s="205"/>
@@ -21278,16 +21263,16 @@
       <c r="I68" s="85"/>
       <c r="J68" s="68"/>
       <c r="K68" s="132" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="L68" s="159" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="M68" s="66" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="16.5">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75">
       <c r="A69" s="283"/>
       <c r="B69" s="83"/>
       <c r="C69" s="205"/>
@@ -21299,16 +21284,16 @@
       <c r="I69" s="85"/>
       <c r="J69" s="68"/>
       <c r="K69" s="132" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="L69" s="159" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="M69" s="66" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="16.5">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75">
       <c r="A70" s="283"/>
       <c r="B70" s="83"/>
       <c r="C70" s="205"/>
@@ -21320,16 +21305,16 @@
       <c r="I70" s="85"/>
       <c r="J70" s="68"/>
       <c r="K70" s="132" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="L70" s="159" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="M70" s="159" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="16.5">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75">
       <c r="A71" s="283"/>
       <c r="B71" s="83"/>
       <c r="C71" s="205"/>
@@ -21350,7 +21335,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5">
+    <row r="72" spans="1:13" ht="15.75">
       <c r="A72" s="283"/>
       <c r="B72" s="83"/>
       <c r="C72" s="205"/>
@@ -21362,16 +21347,16 @@
       <c r="I72" s="85"/>
       <c r="J72" s="68"/>
       <c r="K72" s="132" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="L72" s="159" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="M72" s="159" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="16.5">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75">
       <c r="A73" s="283"/>
       <c r="B73" s="83"/>
       <c r="C73" s="205"/>
@@ -21383,16 +21368,16 @@
       <c r="I73" s="85"/>
       <c r="J73" s="68"/>
       <c r="K73" s="132" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="L73" s="159" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="M73" s="159" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="16.5">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75">
       <c r="A74" s="283"/>
       <c r="B74" s="83"/>
       <c r="C74" s="205"/>
@@ -21407,28 +21392,28 @@
         <v>1329</v>
       </c>
       <c r="L74" s="235" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="M74" s="159" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="33">
+    <row r="75" spans="1:13" ht="25.5">
       <c r="A75" s="283"/>
       <c r="B75" s="83"/>
       <c r="C75" s="205" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="D75" s="96"/>
       <c r="E75" s="84"/>
       <c r="F75" s="93" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="G75" s="94" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="H75" s="229" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I75" s="95" t="s">
         <v>1244</v>
@@ -21453,29 +21438,29 @@
         <v>619</v>
       </c>
       <c r="F76" s="85" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="G76" s="213" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="H76" s="85" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I76" s="85" t="s">
         <v>1142</v>
       </c>
       <c r="J76" s="68"/>
       <c r="K76" s="132" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="L76" s="159" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="M76" s="66" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="16.5">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75">
       <c r="A77" s="283"/>
       <c r="B77" s="83"/>
       <c r="C77" s="205"/>
@@ -21487,13 +21472,13 @@
       <c r="I77" s="85"/>
       <c r="J77" s="68"/>
       <c r="K77" s="132" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="L77" s="159" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="M77" s="66" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="96.75" customHeight="1">
@@ -21502,7 +21487,7 @@
         <v>614</v>
       </c>
       <c r="C78" s="205" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D78" s="96" t="s">
         <v>617</v>
@@ -21511,19 +21496,19 @@
         <v>628</v>
       </c>
       <c r="F78" s="85" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G78" s="85" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H78" s="236" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I78" s="85" t="s">
         <v>1399</v>
       </c>
-      <c r="G78" s="85" t="s">
-        <v>1400</v>
-      </c>
-      <c r="H78" s="236" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I78" s="85" t="s">
-        <v>1402</v>
-      </c>
       <c r="J78" s="85" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="K78" s="68" t="s">
         <v>1183</v>
@@ -21535,7 +21520,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5">
+    <row r="79" spans="1:13">
       <c r="A79" s="283"/>
       <c r="B79" s="83"/>
       <c r="C79" s="83"/>
@@ -21562,7 +21547,7 @@
         <v>623</v>
       </c>
       <c r="C80" s="205" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D80" s="96" t="s">
         <v>626</v>
@@ -21571,26 +21556,26 @@
         <v>584</v>
       </c>
       <c r="F80" s="85" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G80" s="85" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="H80" s="85" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I80" s="85" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J80" s="68"/>
       <c r="K80" s="67" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="L80" s="237" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="M80" s="238" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="153.75" customHeight="1">
@@ -21599,7 +21584,7 @@
         <v>632</v>
       </c>
       <c r="C81" s="205" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D81" s="96" t="s">
         <v>635</v>
@@ -21608,29 +21593,29 @@
         <v>637</v>
       </c>
       <c r="F81" s="85" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="G81" s="213" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="H81" s="85" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I81" s="85" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J81" s="68"/>
       <c r="K81" s="127" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="L81" s="239" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="M81" s="68" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="16.5">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75">
       <c r="A82" s="283"/>
       <c r="B82" s="83"/>
       <c r="C82" s="205"/>
@@ -21642,16 +21627,16 @@
       <c r="I82" s="85"/>
       <c r="J82" s="68"/>
       <c r="K82" s="127" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="L82" s="239" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="M82" s="68" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="16.5">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75">
       <c r="A83" s="283"/>
       <c r="B83" s="83"/>
       <c r="C83" s="205"/>
@@ -21663,16 +21648,16 @@
       <c r="I83" s="85"/>
       <c r="J83" s="68"/>
       <c r="K83" s="127" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="L83" s="239" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="M83" s="68" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="16.5">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75">
       <c r="A84" s="283"/>
       <c r="B84" s="83"/>
       <c r="C84" s="205"/>
@@ -21684,16 +21669,16 @@
       <c r="I84" s="85"/>
       <c r="J84" s="68"/>
       <c r="K84" s="127" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="L84" s="239" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="M84" s="68" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="16.5">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75">
       <c r="A85" s="283"/>
       <c r="B85" s="83"/>
       <c r="C85" s="205"/>
@@ -21705,16 +21690,16 @@
       <c r="I85" s="85"/>
       <c r="J85" s="68"/>
       <c r="K85" s="127" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="L85" s="239" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="M85" s="68" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="16.5">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75">
       <c r="A86" s="283"/>
       <c r="B86" s="83"/>
       <c r="C86" s="205"/>
@@ -21726,16 +21711,16 @@
       <c r="I86" s="85"/>
       <c r="J86" s="68"/>
       <c r="K86" s="127" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="L86" s="239" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="M86" s="188" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="16.5">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75">
       <c r="A87" s="283"/>
       <c r="B87" s="83"/>
       <c r="C87" s="205"/>
@@ -21747,16 +21732,16 @@
       <c r="I87" s="85"/>
       <c r="J87" s="68"/>
       <c r="K87" s="127" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="L87" s="239" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="M87" s="68" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="16.5">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75">
       <c r="A88" s="283"/>
       <c r="B88" s="83"/>
       <c r="C88" s="205"/>
@@ -21768,16 +21753,16 @@
       <c r="I88" s="85"/>
       <c r="J88" s="68"/>
       <c r="K88" s="127" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="L88" s="239" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="M88" s="68" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="16.5">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75">
       <c r="A89" s="283"/>
       <c r="B89" s="83"/>
       <c r="C89" s="205"/>
@@ -21789,16 +21774,16 @@
       <c r="I89" s="85"/>
       <c r="J89" s="68"/>
       <c r="K89" s="127" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="L89" s="239" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="M89" s="68" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="16.5">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75">
       <c r="A90" s="283"/>
       <c r="B90" s="83"/>
       <c r="C90" s="205"/>
@@ -21810,16 +21795,16 @@
       <c r="I90" s="85"/>
       <c r="J90" s="68"/>
       <c r="K90" s="127" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="L90" s="239" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="M90" s="68" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="16.5">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75">
       <c r="A91" s="283"/>
       <c r="B91" s="83"/>
       <c r="C91" s="205"/>
@@ -21831,13 +21816,13 @@
       <c r="I91" s="85"/>
       <c r="J91" s="68"/>
       <c r="K91" s="127" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="L91" s="239" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="M91" s="68" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="90">
@@ -21846,7 +21831,7 @@
         <v>641</v>
       </c>
       <c r="C92" s="205" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D92" s="96" t="s">
         <v>644</v>
@@ -21855,19 +21840,19 @@
         <v>654</v>
       </c>
       <c r="F92" s="86" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="G92" s="85" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="H92" s="240" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="I92" s="85" t="s">
         <v>1121</v>
       </c>
       <c r="J92" s="86" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="K92" s="68" t="s">
         <v>1183</v>
@@ -21891,7 +21876,7 @@
       <c r="I93" s="85"/>
       <c r="J93" s="68"/>
       <c r="K93" s="68" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="L93" s="125" t="s">
         <v>961</v>
@@ -21906,7 +21891,7 @@
         <v>649</v>
       </c>
       <c r="C94" s="205" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D94" s="96" t="s">
         <v>652</v>
@@ -21915,13 +21900,13 @@
         <v>663</v>
       </c>
       <c r="F94" s="94" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="G94" s="94" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="H94" s="94" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="I94" s="94" t="s">
         <v>1142</v>
@@ -21937,7 +21922,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="16.5">
+    <row r="95" spans="1:13" ht="15.75">
       <c r="A95" s="283"/>
       <c r="B95" s="83"/>
       <c r="C95" s="205"/>
@@ -21949,16 +21934,16 @@
       <c r="I95" s="85"/>
       <c r="J95" s="68"/>
       <c r="K95" s="132" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="L95" s="66" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="M95" s="66" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="16.5">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75">
       <c r="A96" s="283"/>
       <c r="B96" s="83"/>
       <c r="C96" s="205"/>
@@ -21970,16 +21955,16 @@
       <c r="I96" s="85"/>
       <c r="J96" s="68"/>
       <c r="K96" s="132" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="L96" s="66" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="M96" s="66" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="16.5">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75">
       <c r="A97" s="283"/>
       <c r="B97" s="83"/>
       <c r="C97" s="205"/>
@@ -21991,16 +21976,16 @@
       <c r="I97" s="85"/>
       <c r="J97" s="68"/>
       <c r="K97" s="132" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="L97" s="66" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="M97" s="66" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="16.5">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75">
       <c r="A98" s="283"/>
       <c r="B98" s="83"/>
       <c r="C98" s="205"/>
@@ -22012,7 +21997,7 @@
       <c r="I98" s="85"/>
       <c r="J98" s="68"/>
       <c r="K98" s="132" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="L98" s="159" t="s">
         <v>1107</v>
@@ -22021,7 +22006,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5">
+    <row r="99" spans="1:13" ht="15.75">
       <c r="A99" s="283"/>
       <c r="B99" s="83"/>
       <c r="C99" s="205"/>
@@ -22033,13 +22018,13 @@
       <c r="I99" s="85"/>
       <c r="J99" s="68"/>
       <c r="K99" s="132" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="L99" s="66" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="M99" s="159" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="125.25" customHeight="1">
@@ -22054,32 +22039,32 @@
         <v>661</v>
       </c>
       <c r="E100" s="206" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F100" s="94" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G100" s="94" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H100" s="94" t="s">
         <v>1469</v>
       </c>
-      <c r="F100" s="94" t="s">
+      <c r="I100" s="94" t="s">
         <v>1470</v>
-      </c>
-      <c r="G100" s="94" t="s">
-        <v>1471</v>
-      </c>
-      <c r="H100" s="94" t="s">
-        <v>1472</v>
-      </c>
-      <c r="I100" s="94" t="s">
-        <v>1473</v>
       </c>
       <c r="J100" s="66"/>
       <c r="K100" s="132" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="L100" s="159" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="M100" s="66" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="16.5">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75">
       <c r="A101" s="283"/>
       <c r="B101" s="83"/>
       <c r="C101" s="205"/>
@@ -22091,16 +22076,16 @@
       <c r="I101" s="85"/>
       <c r="J101" s="68"/>
       <c r="K101" s="132" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="L101" s="159" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="M101" s="66" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="16.5">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75">
       <c r="A102" s="283"/>
       <c r="B102" s="83"/>
       <c r="C102" s="205"/>
@@ -22112,16 +22097,16 @@
       <c r="I102" s="85"/>
       <c r="J102" s="68"/>
       <c r="K102" s="132" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="L102" s="159" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="M102" s="66" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="16.5">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75">
       <c r="A103" s="283"/>
       <c r="B103" s="83"/>
       <c r="C103" s="205"/>
@@ -22133,16 +22118,16 @@
       <c r="I103" s="85"/>
       <c r="J103" s="68"/>
       <c r="K103" s="132" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="L103" s="159" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="M103" s="66" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="16.5">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75">
       <c r="A104" s="283"/>
       <c r="B104" s="83"/>
       <c r="C104" s="205"/>
@@ -22154,16 +22139,16 @@
       <c r="I104" s="85"/>
       <c r="J104" s="68"/>
       <c r="K104" s="132" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="L104" s="159" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="M104" s="66" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="16.5">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75">
       <c r="A105" s="283"/>
       <c r="B105" s="83"/>
       <c r="C105" s="205"/>
@@ -22175,16 +22160,16 @@
       <c r="I105" s="85"/>
       <c r="J105" s="68"/>
       <c r="K105" s="132" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="L105" s="159" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="M105" s="66" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="16.5">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75">
       <c r="A106" s="283"/>
       <c r="B106" s="83"/>
       <c r="C106" s="205"/>
@@ -22196,16 +22181,16 @@
       <c r="I106" s="85"/>
       <c r="J106" s="68"/>
       <c r="K106" s="132" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="L106" s="159" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="M106" s="66" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="16.5">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75">
       <c r="A107" s="283"/>
       <c r="B107" s="83"/>
       <c r="C107" s="205"/>
@@ -22217,16 +22202,16 @@
       <c r="I107" s="85"/>
       <c r="J107" s="68"/>
       <c r="K107" s="132" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="L107" s="159" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="M107" s="66" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="16.5">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75">
       <c r="A108" s="283"/>
       <c r="B108" s="83"/>
       <c r="C108" s="205"/>
@@ -22238,16 +22223,16 @@
       <c r="I108" s="85"/>
       <c r="J108" s="68"/>
       <c r="K108" s="132" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="L108" s="159" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="M108" s="66" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="16.5">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75">
       <c r="A109" s="283"/>
       <c r="B109" s="83"/>
       <c r="C109" s="205"/>
@@ -22259,16 +22244,16 @@
       <c r="I109" s="85"/>
       <c r="J109" s="68"/>
       <c r="K109" s="132" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="L109" s="159" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="M109" s="66" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="16.5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75">
       <c r="A110" s="283"/>
       <c r="B110" s="83"/>
       <c r="C110" s="205"/>
@@ -22280,16 +22265,16 @@
       <c r="I110" s="85"/>
       <c r="J110" s="68"/>
       <c r="K110" s="132" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="L110" s="159" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="M110" s="66" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="16.5">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75">
       <c r="A111" s="283"/>
       <c r="B111" s="83"/>
       <c r="C111" s="205"/>
@@ -22301,16 +22286,16 @@
       <c r="I111" s="85"/>
       <c r="J111" s="68"/>
       <c r="K111" s="132" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="L111" s="159" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="M111" s="66" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="16.5">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75">
       <c r="A112" s="283"/>
       <c r="B112" s="83"/>
       <c r="C112" s="205"/>
@@ -22322,13 +22307,13 @@
       <c r="I112" s="85"/>
       <c r="J112" s="68"/>
       <c r="K112" s="132" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="L112" s="159" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="M112" s="66" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="90.75" customHeight="1">
@@ -22346,29 +22331,29 @@
         <v>683</v>
       </c>
       <c r="F113" s="94" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="G113" s="94" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="H113" s="94" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="I113" s="94" t="s">
         <v>1142</v>
       </c>
       <c r="J113" s="66"/>
       <c r="K113" s="132" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="L113" s="159" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="M113" s="66" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="16.5">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75">
       <c r="A114" s="283"/>
       <c r="B114" s="83"/>
       <c r="C114" s="205"/>
@@ -22380,16 +22365,16 @@
       <c r="I114" s="85"/>
       <c r="J114" s="68"/>
       <c r="K114" s="132" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="L114" s="159" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="M114" s="66" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="16.5">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.75">
       <c r="A115" s="283"/>
       <c r="B115" s="83"/>
       <c r="C115" s="205"/>
@@ -22401,16 +22386,16 @@
       <c r="I115" s="85"/>
       <c r="J115" s="68"/>
       <c r="K115" s="132" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="L115" s="159" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="M115" s="66" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="16.5">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75">
       <c r="A116" s="283"/>
       <c r="B116" s="83"/>
       <c r="C116" s="205"/>
@@ -22422,16 +22407,16 @@
       <c r="I116" s="85"/>
       <c r="J116" s="68"/>
       <c r="K116" s="132" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="L116" s="235" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="M116" s="66" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="16.5">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75">
       <c r="A117" s="283"/>
       <c r="B117" s="83"/>
       <c r="C117" s="205"/>
@@ -22443,13 +22428,13 @@
       <c r="I117" s="85"/>
       <c r="J117" s="68"/>
       <c r="K117" s="132" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="L117" s="159" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="M117" s="66" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="88.5" customHeight="1">
@@ -22467,29 +22452,29 @@
         <v>692</v>
       </c>
       <c r="F118" s="94" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="G118" s="94" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="H118" s="94" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="I118" s="94" t="s">
         <v>1142</v>
       </c>
       <c r="J118" s="66"/>
       <c r="K118" s="132" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="L118" s="159" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="M118" s="159" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="16.5">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75">
       <c r="A119" s="283"/>
       <c r="B119" s="83"/>
       <c r="C119" s="205"/>
@@ -22501,16 +22486,16 @@
       <c r="I119" s="85"/>
       <c r="J119" s="68"/>
       <c r="K119" s="132" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="L119" s="159" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="M119" s="159" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="16.5">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75">
       <c r="A120" s="283"/>
       <c r="B120" s="83"/>
       <c r="C120" s="205"/>
@@ -22522,16 +22507,16 @@
       <c r="I120" s="85"/>
       <c r="J120" s="68"/>
       <c r="K120" s="132" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="L120" s="159" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="M120" s="66" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="16.5">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75">
       <c r="A121" s="283"/>
       <c r="B121" s="83"/>
       <c r="C121" s="205"/>
@@ -22543,16 +22528,16 @@
       <c r="I121" s="85"/>
       <c r="J121" s="68"/>
       <c r="K121" s="132" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="L121" s="159" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="M121" s="159" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="16.5">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.75">
       <c r="A122" s="283"/>
       <c r="B122" s="83"/>
       <c r="C122" s="205"/>
@@ -22564,16 +22549,16 @@
       <c r="I122" s="85"/>
       <c r="J122" s="68"/>
       <c r="K122" s="132" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="L122" s="159" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="M122" s="159" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="16.5">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.75">
       <c r="A123" s="283"/>
       <c r="B123" s="83"/>
       <c r="C123" s="205"/>
@@ -22585,16 +22570,16 @@
       <c r="I123" s="85"/>
       <c r="J123" s="68"/>
       <c r="K123" s="132" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="L123" s="159" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="M123" s="159" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="16.5">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.75">
       <c r="A124" s="283"/>
       <c r="B124" s="83"/>
       <c r="C124" s="205"/>
@@ -22606,16 +22591,16 @@
       <c r="I124" s="85"/>
       <c r="J124" s="68"/>
       <c r="K124" s="132" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="L124" s="159" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="M124" s="66" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="16.5">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75">
       <c r="A125" s="283"/>
       <c r="B125" s="83"/>
       <c r="C125" s="205"/>
@@ -22627,13 +22612,13 @@
       <c r="I125" s="85"/>
       <c r="J125" s="68"/>
       <c r="K125" s="132" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="L125" s="159" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="M125" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="69.75" customHeight="1">
@@ -22642,38 +22627,38 @@
         <v>687</v>
       </c>
       <c r="C126" s="205" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="D126" s="96" t="s">
         <v>690</v>
       </c>
       <c r="E126" s="206" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F126" s="85" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G126" s="85" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H126" s="213" t="s">
         <v>1558</v>
-      </c>
-      <c r="F126" s="85" t="s">
-        <v>1559</v>
-      </c>
-      <c r="G126" s="85" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H126" s="213" t="s">
-        <v>1561</v>
       </c>
       <c r="I126" s="85" t="s">
         <v>894</v>
       </c>
       <c r="J126" s="68"/>
       <c r="K126" s="132" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="L126" s="159" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="M126" s="159" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="16.5">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75">
       <c r="A127" s="283"/>
       <c r="B127" s="83"/>
       <c r="C127" s="205"/>
@@ -22685,16 +22670,16 @@
       <c r="I127" s="85"/>
       <c r="J127" s="68"/>
       <c r="K127" s="132" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="L127" s="159" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="M127" s="159" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="16.5">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.75">
       <c r="A128" s="283"/>
       <c r="B128" s="83"/>
       <c r="C128" s="205"/>
@@ -22706,16 +22691,16 @@
       <c r="I128" s="85"/>
       <c r="J128" s="68"/>
       <c r="K128" s="132" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="L128" s="159" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="M128" s="159" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="16.5">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.75">
       <c r="A129" s="283"/>
       <c r="B129" s="83"/>
       <c r="C129" s="205"/>
@@ -22727,16 +22712,16 @@
       <c r="I129" s="85"/>
       <c r="J129" s="68"/>
       <c r="K129" s="132" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="L129" s="159" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="M129" s="159" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="16.5">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.75">
       <c r="A130" s="283"/>
       <c r="B130" s="83"/>
       <c r="C130" s="205"/>
@@ -22748,16 +22733,16 @@
       <c r="I130" s="85"/>
       <c r="J130" s="68"/>
       <c r="K130" s="132" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="L130" s="159" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="M130" s="66" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="16.5">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75">
       <c r="A131" s="283"/>
       <c r="B131" s="83"/>
       <c r="C131" s="205"/>
@@ -22769,16 +22754,16 @@
       <c r="I131" s="85"/>
       <c r="J131" s="68"/>
       <c r="K131" s="132" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="L131" s="159" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="M131" s="159" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="16.5">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.75">
       <c r="A132" s="283"/>
       <c r="B132" s="83"/>
       <c r="C132" s="205"/>
@@ -22790,16 +22775,16 @@
       <c r="I132" s="85"/>
       <c r="J132" s="68"/>
       <c r="K132" s="132" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="L132" s="159" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="M132" s="159" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="16.5">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.75">
       <c r="A133" s="283"/>
       <c r="B133" s="83"/>
       <c r="C133" s="205"/>
@@ -22811,16 +22796,16 @@
       <c r="I133" s="85"/>
       <c r="J133" s="68"/>
       <c r="K133" s="132" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="L133" s="159" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="M133" s="159" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="16.5">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.75">
       <c r="A134" s="283"/>
       <c r="B134" s="83"/>
       <c r="C134" s="205"/>
@@ -22832,16 +22817,16 @@
       <c r="I134" s="85"/>
       <c r="J134" s="68"/>
       <c r="K134" s="132" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="L134" s="159" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="M134" s="159" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="16.5">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.75">
       <c r="A135" s="283"/>
       <c r="B135" s="83"/>
       <c r="C135" s="205"/>
@@ -22859,10 +22844,10 @@
         <v>945</v>
       </c>
       <c r="M135" s="182" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="16.5">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.75">
       <c r="A136" s="283"/>
       <c r="B136" s="83"/>
       <c r="C136" s="205"/>
@@ -22874,16 +22859,16 @@
       <c r="I136" s="85"/>
       <c r="J136" s="68"/>
       <c r="K136" s="132" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="L136" s="159" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="M136" s="66" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="16.5">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75">
       <c r="A137" s="283"/>
       <c r="B137" s="83"/>
       <c r="C137" s="205"/>
@@ -22894,13 +22879,13 @@
       <c r="I137" s="85"/>
       <c r="J137" s="68"/>
       <c r="K137" s="132" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="L137" s="159" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="M137" s="66" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="92.25" customHeight="1">
@@ -22909,42 +22894,42 @@
         <v>741</v>
       </c>
       <c r="C138" s="205" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D138" s="98" t="s">
         <v>744</v>
       </c>
       <c r="E138" s="206" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="F138" s="85" t="s">
         <v>742</v>
       </c>
       <c r="G138" s="213" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="H138" s="240" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="I138" s="85" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J138" s="68"/>
       <c r="K138" s="68"/>
       <c r="L138" s="68"/>
       <c r="M138" s="68"/>
     </row>
-    <row r="139" spans="1:13" ht="33">
+    <row r="139" spans="1:13" ht="25.5">
       <c r="A139" s="283"/>
       <c r="B139" s="83" t="s">
         <v>741</v>
       </c>
       <c r="C139" s="205" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="D139" s="98"/>
       <c r="E139" s="84" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="F139" s="85"/>
       <c r="G139" s="85"/>
@@ -22961,25 +22946,25 @@
         <v>749</v>
       </c>
       <c r="C140" s="205" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="D140" s="96" t="s">
         <v>752</v>
       </c>
       <c r="E140" s="206" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F140" s="85" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G140" s="85" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H140" s="85" t="s">
         <v>1602</v>
       </c>
-      <c r="F140" s="85" t="s">
+      <c r="I140" s="85" t="s">
         <v>1603</v>
-      </c>
-      <c r="G140" s="85" t="s">
-        <v>1604</v>
-      </c>
-      <c r="H140" s="85" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I140" s="85" t="s">
-        <v>1606</v>
       </c>
       <c r="J140" s="68"/>
       <c r="K140" s="68"/>
@@ -22988,100 +22973,100 @@
     </row>
     <row r="141" spans="1:13" ht="271.5" customHeight="1">
       <c r="A141" s="279" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B141" s="89" t="s">
         <v>722</v>
       </c>
       <c r="C141" s="241" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D141" s="131" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E141" s="242" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F141" s="89" t="s">
         <v>1608</v>
       </c>
-      <c r="D141" s="131" t="s">
+      <c r="G141" s="94" t="s">
         <v>1609</v>
       </c>
-      <c r="E141" s="242" t="s">
+      <c r="H141" s="94" t="s">
         <v>1610</v>
       </c>
-      <c r="F141" s="89" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G141" s="94" t="s">
-        <v>1612</v>
-      </c>
-      <c r="H141" s="94" t="s">
-        <v>1613</v>
-      </c>
       <c r="I141" s="94" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J141" s="66"/>
       <c r="K141" s="66"/>
       <c r="L141" s="66"/>
       <c r="M141" s="66"/>
     </row>
-    <row r="142" spans="1:13" ht="16.5">
+    <row r="142" spans="1:13" ht="15.75">
       <c r="A142" s="279"/>
       <c r="B142" s="93" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C142" s="241" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D142" s="243" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E142" s="131" t="s">
         <v>1614</v>
-      </c>
-      <c r="C142" s="241" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D142" s="243" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E142" s="131" t="s">
-        <v>1617</v>
       </c>
       <c r="F142" s="85"/>
       <c r="G142" s="85"/>
       <c r="H142" s="85"/>
       <c r="I142" s="85" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J142" s="68"/>
       <c r="K142" s="68"/>
       <c r="L142" s="68"/>
       <c r="M142" s="68"/>
     </row>
-    <row r="143" spans="1:13" ht="16.5">
+    <row r="143" spans="1:13" ht="15.75">
       <c r="A143" s="279"/>
       <c r="B143" s="89" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C143" s="241" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D143" s="131" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E143" s="131" t="s">
         <v>1618</v>
-      </c>
-      <c r="C143" s="241" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D143" s="131" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E143" s="131" t="s">
-        <v>1621</v>
       </c>
       <c r="F143" s="85"/>
       <c r="G143" s="85"/>
       <c r="H143" s="85"/>
       <c r="I143" s="85" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J143" s="68"/>
       <c r="K143" s="68"/>
       <c r="L143" s="68"/>
       <c r="M143" s="68"/>
     </row>
-    <row r="144" spans="1:13" ht="16.5">
+    <row r="144" spans="1:13" ht="15.75">
       <c r="A144" s="279"/>
       <c r="B144" s="89" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C144" s="241" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D144" s="131" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E144" s="131" t="s">
         <v>1622</v>
-      </c>
-      <c r="C144" s="241" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D144" s="131" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E144" s="131" t="s">
-        <v>1625</v>
       </c>
       <c r="F144" s="85"/>
       <c r="G144" s="85"/>
@@ -23091,16 +23076,16 @@
       </c>
       <c r="J144" s="68"/>
       <c r="K144" s="132" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="L144" s="244" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="M144" s="130" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="16.5">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15.75">
       <c r="A145" s="279"/>
       <c r="B145" s="89"/>
       <c r="C145" s="205"/>
@@ -23112,16 +23097,16 @@
       <c r="I145" s="85"/>
       <c r="J145" s="68"/>
       <c r="K145" s="132" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="L145" s="245" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="M145" s="131" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="16.5">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15.75">
       <c r="A146" s="279"/>
       <c r="B146" s="89"/>
       <c r="C146" s="205"/>
@@ -23133,16 +23118,16 @@
       <c r="I146" s="85"/>
       <c r="J146" s="68"/>
       <c r="K146" s="132" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="L146" s="245" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="M146" s="131" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="16.5">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15.75">
       <c r="A147" s="279"/>
       <c r="B147" s="89"/>
       <c r="C147" s="205"/>
@@ -23154,16 +23139,16 @@
       <c r="I147" s="85"/>
       <c r="J147" s="68"/>
       <c r="K147" s="132" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="L147" s="245" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="M147" s="131" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="16.5">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15.75">
       <c r="A148" s="279"/>
       <c r="B148" s="89"/>
       <c r="C148" s="205"/>
@@ -23175,16 +23160,16 @@
       <c r="I148" s="85"/>
       <c r="J148" s="68"/>
       <c r="K148" s="132" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="L148" s="245" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="M148" s="131" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="16.5">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15.75">
       <c r="A149" s="279"/>
       <c r="B149" s="89"/>
       <c r="C149" s="205"/>
@@ -23196,16 +23181,16 @@
       <c r="I149" s="85"/>
       <c r="J149" s="68"/>
       <c r="K149" s="132" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="L149" s="245" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="M149" s="131" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="16.5">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15.75">
       <c r="A150" s="279"/>
       <c r="B150" s="89"/>
       <c r="C150" s="205"/>
@@ -23217,16 +23202,16 @@
       <c r="I150" s="85"/>
       <c r="J150" s="68"/>
       <c r="K150" s="132" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="L150" s="245" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="M150" s="131" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="16.5">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15.75">
       <c r="A151" s="279"/>
       <c r="B151" s="89"/>
       <c r="C151" s="205"/>
@@ -23238,16 +23223,16 @@
       <c r="I151" s="85"/>
       <c r="J151" s="68"/>
       <c r="K151" s="132" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="L151" s="245" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="M151" s="131" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="16.5">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15.75">
       <c r="A152" s="279"/>
       <c r="B152" s="89"/>
       <c r="C152" s="205"/>
@@ -23259,16 +23244,16 @@
       <c r="I152" s="85"/>
       <c r="J152" s="68"/>
       <c r="K152" s="132" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="L152" s="245" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="M152" s="131" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="16.5">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15.75">
       <c r="A153" s="279"/>
       <c r="B153" s="89"/>
       <c r="C153" s="205"/>
@@ -23280,16 +23265,16 @@
       <c r="I153" s="85"/>
       <c r="J153" s="68"/>
       <c r="K153" s="132" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="L153" s="245" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="M153" s="131" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="16.5">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15.75">
       <c r="A154" s="279"/>
       <c r="B154" s="89"/>
       <c r="C154" s="205"/>
@@ -23301,13 +23286,13 @@
       <c r="I154" s="85"/>
       <c r="J154" s="68"/>
       <c r="K154" s="132" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="L154" s="245" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="M154" s="131" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="15.75">
@@ -23322,13 +23307,13 @@
       <c r="I155" s="85"/>
       <c r="J155" s="68"/>
       <c r="K155" s="132" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="L155" s="245" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="M155" s="131" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="15.75">
@@ -23343,13 +23328,13 @@
       <c r="I156" s="85"/>
       <c r="J156" s="68"/>
       <c r="K156" s="132" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="L156" s="245" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="M156" s="131" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="15.75">
@@ -23364,13 +23349,13 @@
       <c r="I157" s="85"/>
       <c r="J157" s="68"/>
       <c r="K157" s="132" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="L157" s="245" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="M157" s="131" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="15.75">
@@ -23385,59 +23370,59 @@
       <c r="I158" s="85"/>
       <c r="J158" s="68"/>
       <c r="K158" s="132" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="L158" s="245" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="M158" s="131" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="16.5">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15.75">
       <c r="A159" s="279"/>
       <c r="B159" s="89" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C159" s="241" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D159" s="131" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E159" s="244" t="s">
         <v>1671</v>
-      </c>
-      <c r="C159" s="241" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D159" s="131" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E159" s="244" t="s">
-        <v>1674</v>
       </c>
       <c r="F159" s="85"/>
       <c r="G159" s="85"/>
       <c r="H159" s="85"/>
       <c r="I159" s="85" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J159" s="68"/>
       <c r="K159" s="68"/>
       <c r="L159" s="68"/>
       <c r="M159" s="68"/>
     </row>
-    <row r="160" spans="1:13" ht="16.5">
+    <row r="160" spans="1:13" ht="15.75">
       <c r="A160" s="279"/>
       <c r="B160" s="89" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C160" s="241" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="D160" s="131" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="E160" s="246" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="F160" s="85"/>
       <c r="G160" s="85"/>
       <c r="H160" s="85"/>
       <c r="I160" s="85" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J160" s="68"/>
       <c r="K160" s="68"/>
@@ -23462,7 +23447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176E780C-1D59-4D93-8860-2965D1028317}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
@@ -23481,7 +23466,7 @@
     <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36">
+    <row r="1" spans="1:13" ht="29.25">
       <c r="A1" s="79" t="s">
         <v>813</v>
       </c>
@@ -23498,7 +23483,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="G1" s="79" t="s">
         <v>817</v>
@@ -23507,7 +23492,7 @@
         <v>1113</v>
       </c>
       <c r="I1" s="79" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="J1" s="80" t="s">
         <v>1114</v>
@@ -23524,31 +23509,31 @@
     </row>
     <row r="2" spans="1:13" ht="101.25" customHeight="1">
       <c r="A2" s="284" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="B2" s="267" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="D2" s="268" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="78" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F2" s="148" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G2" s="247" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H2" s="148" t="s">
         <v>1683</v>
       </c>
-      <c r="F2" s="148" t="s">
+      <c r="I2" s="78" t="s">
         <v>1684</v>
-      </c>
-      <c r="G2" s="247" t="s">
-        <v>1685</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>1686</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>1687</v>
       </c>
       <c r="J2" s="78"/>
       <c r="K2" s="78"/>
@@ -23567,27 +23552,27 @@
         <v>133</v>
       </c>
       <c r="E3" s="78" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H3" s="78" t="s">
         <v>1688</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>1690</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>1691</v>
       </c>
       <c r="I3" s="78"/>
       <c r="J3" s="78"/>
       <c r="K3" s="78" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="L3" s="248" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="M3" s="248" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
@@ -23602,16 +23587,16 @@
         <v>142</v>
       </c>
       <c r="E4" s="78" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>1693</v>
+      </c>
+      <c r="G4" s="248" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H4" s="78" t="s">
         <v>1695</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>1696</v>
-      </c>
-      <c r="G4" s="248" t="s">
-        <v>1697</v>
-      </c>
-      <c r="H4" s="78" t="s">
-        <v>1698</v>
       </c>
       <c r="I4" s="78" t="s">
         <v>1135</v>
@@ -23633,16 +23618,16 @@
         <v>151</v>
       </c>
       <c r="E5" s="78" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H5" s="78" t="s">
         <v>1699</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>1701</v>
-      </c>
-      <c r="H5" s="78" t="s">
-        <v>1702</v>
       </c>
       <c r="I5" s="78" t="s">
         <v>1135</v>
@@ -23667,16 +23652,16 @@
         <v>162</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="H6" s="78" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J6" s="78"/>
       <c r="L6" s="78"/>
@@ -23697,26 +23682,26 @@
         <v>746</v>
       </c>
       <c r="F7" s="148" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="G7" s="247" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="H7" s="247" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="I7" s="78" t="s">
         <v>1142</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="78" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="L7" s="248" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="M7" s="248" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="75">
@@ -23731,13 +23716,13 @@
       <c r="I8" s="78"/>
       <c r="J8" s="78"/>
       <c r="K8" s="78" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="L8" s="248" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="M8" s="248" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="105">
@@ -23752,13 +23737,13 @@
       <c r="I9" s="78"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="L9" s="248" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="M9" s="248" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="105">
@@ -23773,13 +23758,13 @@
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="L10" s="248" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="M10" s="248" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="84.75" customHeight="1">
@@ -23794,13 +23779,13 @@
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="M11" s="248" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -23815,13 +23800,13 @@
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
       <c r="K12" s="78" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="M12" s="248" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -23836,18 +23821,18 @@
       <c r="I13" s="78"/>
       <c r="J13" s="78"/>
       <c r="K13" s="78" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="L13" s="78" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="M13" s="248" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30">
       <c r="A14" s="284" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B14" s="267" t="s">
         <v>165</v>
@@ -23862,26 +23847,26 @@
         <v>170</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="H14" s="250" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="I14" s="78" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J14" s="78"/>
       <c r="K14" s="78" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="L14" s="248" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="M14" s="248" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="62.25" customHeight="1">
@@ -23899,26 +23884,26 @@
         <v>179</v>
       </c>
       <c r="F15" s="148" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="G15" s="247" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="H15" s="247" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="I15" s="78" t="s">
         <v>1142</v>
       </c>
       <c r="J15" s="78"/>
       <c r="K15" s="78" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="L15" s="248" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="M15" s="248" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -23933,13 +23918,13 @@
       <c r="I16" s="78"/>
       <c r="J16" s="78"/>
       <c r="K16" s="78" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="L16" s="248" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="M16" s="248" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -23960,7 +23945,7 @@
         <v>945</v>
       </c>
       <c r="M17" s="248" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="77.25" customHeight="1">
@@ -23978,26 +23963,26 @@
         <v>188</v>
       </c>
       <c r="F18" s="148" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="G18" s="148" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="H18" s="148" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="I18" s="78" t="s">
         <v>1142</v>
       </c>
       <c r="J18" s="78"/>
       <c r="K18" s="78" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="L18" s="78" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="M18" s="78" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
@@ -24012,13 +23997,13 @@
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="78" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="L19" s="78" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="M19" s="78" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
@@ -24033,13 +24018,13 @@
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="78" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="L20" s="78" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="M20" s="78" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
@@ -24054,13 +24039,13 @@
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
       <c r="K21" s="78" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="L21" s="78" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="M21" s="78" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="45" customHeight="1">
@@ -24075,13 +24060,13 @@
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="L22" s="78" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="M22" s="78" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="63" customHeight="1">
@@ -24093,32 +24078,32 @@
         <v>194</v>
       </c>
       <c r="D23" s="268" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="E23" s="78" t="s">
         <v>197</v>
       </c>
       <c r="F23" s="78" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G23" s="248" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H23" s="251" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I23" s="78" t="s">
         <v>1766</v>
-      </c>
-      <c r="G23" s="248" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H23" s="251" t="s">
-        <v>1768</v>
-      </c>
-      <c r="I23" s="78" t="s">
-        <v>1769</v>
       </c>
       <c r="J23" s="78"/>
       <c r="K23" s="78" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="L23" s="248" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="M23" s="248" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -24131,17 +24116,17 @@
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
       <c r="I24" s="78" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="J24" s="78"/>
       <c r="K24" s="78" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="L24" s="248" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="M24" s="248" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="59.25" customHeight="1">
@@ -24159,13 +24144,13 @@
         <v>206</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="G25" s="248" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="H25" s="78" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="I25" s="78" t="s">
         <v>1142</v>
@@ -24190,26 +24175,26 @@
         <v>214</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="H26" s="78" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="I26" s="78" t="s">
         <v>1135</v>
       </c>
       <c r="J26" s="78"/>
       <c r="K26" s="78" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="L26" s="248" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="M26" s="248" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="52.5" customHeight="1">
@@ -24227,50 +24212,50 @@
         <v>223</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="G27" s="78" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="H27" s="78" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="I27" s="78" t="s">
         <v>1135</v>
       </c>
       <c r="J27" s="78"/>
       <c r="K27" s="78" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="L27" s="248" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="M27" s="248" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="65.25" customHeight="1">
       <c r="A28" s="285"/>
       <c r="B28" s="267" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="268" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="E28" s="78" t="s">
         <v>232</v>
       </c>
       <c r="F28" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="G28" s="78" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="H28" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="I28" s="78" t="s">
         <v>1244</v>
@@ -24289,19 +24274,19 @@
         <v>237</v>
       </c>
       <c r="D29" s="268" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="E29" s="78" t="s">
         <v>240</v>
       </c>
       <c r="F29" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="H29" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="I29" s="248" t="s">
         <v>1244</v>
@@ -24314,7 +24299,7 @@
     <row r="30" spans="1:13" ht="62.25" customHeight="1">
       <c r="A30" s="286"/>
       <c r="B30" s="267" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="C30" s="68" t="s">
         <v>386</v>
@@ -24323,16 +24308,16 @@
         <v>387</v>
       </c>
       <c r="E30" s="248" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="F30" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="H30" s="252" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="I30" s="78" t="s">
         <v>1244</v>
@@ -24356,7 +24341,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -24374,7 +24359,7 @@
     <col min="14" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="152" t="s">
         <v>813</v>
       </c>
@@ -24391,7 +24376,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>817</v>
@@ -24417,10 +24402,10 @@
     </row>
     <row r="2" spans="1:13" ht="180">
       <c r="A2" s="281" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>308</v>
@@ -24429,31 +24414,31 @@
         <v>309</v>
       </c>
       <c r="E2" s="65" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H2" s="253" t="s">
         <v>1801</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="I2" s="101" t="s">
         <v>1802</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="J2" s="94" t="s">
         <v>1803</v>
       </c>
-      <c r="H2" s="253" t="s">
+      <c r="K2" s="254" t="s">
         <v>1804</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="L2" s="245" t="s">
         <v>1805</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="M2" s="131" t="s">
         <v>1806</v>
-      </c>
-      <c r="K2" s="254" t="s">
-        <v>1807</v>
-      </c>
-      <c r="L2" s="245" t="s">
-        <v>1808</v>
-      </c>
-      <c r="M2" s="131" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="59.25" customHeight="1">
@@ -24468,13 +24453,13 @@
       <c r="I3" s="103"/>
       <c r="J3" s="85"/>
       <c r="K3" s="254" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="L3" s="245" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="M3" s="131" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="59.25" customHeight="1">
@@ -24489,13 +24474,13 @@
       <c r="I4" s="103"/>
       <c r="J4" s="85"/>
       <c r="K4" s="254" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="L4" s="245" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="M4" s="131" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="69" customHeight="1">
@@ -24510,13 +24495,13 @@
       <c r="I5" s="103"/>
       <c r="J5" s="85"/>
       <c r="K5" s="254" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="L5" s="245" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="M5" s="131" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1">
@@ -24531,13 +24516,13 @@
       <c r="I6" s="103"/>
       <c r="J6" s="85"/>
       <c r="K6" s="254" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="L6" s="245" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="M6" s="131" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="66.75" customHeight="1">
@@ -24552,13 +24537,13 @@
       <c r="I7" s="103"/>
       <c r="J7" s="85"/>
       <c r="K7" s="254" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="L7" s="245" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="M7" s="131" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.25">
@@ -24573,13 +24558,13 @@
       <c r="I8" s="103"/>
       <c r="J8" s="85"/>
       <c r="K8" s="254" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="L8" s="131" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="M8" s="131" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="126">
@@ -24597,19 +24582,19 @@
         <v>320</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="G9" s="102" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="H9" s="256" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="I9" s="103" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="K9" s="67" t="s">
         <v>957</v>
@@ -24648,7 +24633,7 @@
         <v>325</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>327</v>
@@ -24657,26 +24642,26 @@
         <v>329</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="G11" s="102" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="H11" s="257" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="I11" s="102" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="J11" s="67"/>
       <c r="K11" s="67" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="L11" s="104" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="M11" s="218" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.25">
@@ -24691,13 +24676,13 @@
       <c r="I12" s="103"/>
       <c r="J12" s="67"/>
       <c r="K12" s="104" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="M12" s="67" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -24712,13 +24697,13 @@
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="104" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="M13" s="67" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30">
@@ -24733,13 +24718,13 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="104" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="M14" s="67" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -24754,13 +24739,13 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
       <c r="K15" s="104" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="L15" s="67" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="M15" s="67" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -24775,13 +24760,13 @@
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
       <c r="K16" s="104" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="L16" s="67" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="M16" s="67" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45">
@@ -24796,13 +24781,13 @@
       <c r="I17" s="67"/>
       <c r="J17" s="67"/>
       <c r="K17" s="104" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="L17" s="67" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="M17" s="67" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="45">
@@ -24817,13 +24802,13 @@
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
       <c r="K18" s="104" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="L18" s="67" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="M18" s="67" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30">
@@ -24838,13 +24823,13 @@
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
       <c r="K19" s="104" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="L19" s="67" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="M19" s="67" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -24859,13 +24844,13 @@
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="104" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="L20" s="67" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="M20" s="67" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -24880,18 +24865,18 @@
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
       <c r="K21" s="67" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="L21" s="67" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="M21" s="67" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="65.25" customHeight="1">
       <c r="A22" s="281" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>334</v>
@@ -24906,13 +24891,13 @@
         <v>339</v>
       </c>
       <c r="F22" s="65" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="G22" s="258" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="I22" s="65" t="s">
         <v>1244</v>
@@ -24928,7 +24913,7 @@
         <v>344</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>347</v>
@@ -24937,28 +24922,28 @@
         <v>349</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="G23" s="179" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="I23" s="65" t="s">
         <v>1142</v>
       </c>
       <c r="J23" s="65" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K23" s="129" t="s">
+        <v>1874</v>
+      </c>
+      <c r="L23" s="259" t="s">
+        <v>1875</v>
+      </c>
+      <c r="M23" s="130" t="s">
         <v>1876</v>
-      </c>
-      <c r="K23" s="129" t="s">
-        <v>1877</v>
-      </c>
-      <c r="L23" s="259" t="s">
-        <v>1878</v>
-      </c>
-      <c r="M23" s="130" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -24973,13 +24958,13 @@
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
       <c r="K24" s="129" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="L24" s="259" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="M24" s="131" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75">
@@ -24994,13 +24979,13 @@
       <c r="I25" s="67"/>
       <c r="J25" s="67"/>
       <c r="K25" s="129" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="L25" s="259" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="M25" s="131" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
@@ -25015,13 +25000,13 @@
       <c r="I26" s="67"/>
       <c r="J26" s="67"/>
       <c r="K26" s="129" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="L26" s="259" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="M26" s="131" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
@@ -25036,13 +25021,13 @@
       <c r="I27" s="67"/>
       <c r="J27" s="67"/>
       <c r="K27" s="129" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="L27" s="259" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="M27" s="131" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75">
@@ -25057,13 +25042,13 @@
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
       <c r="K28" s="129" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="L28" s="259" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="M28" s="131" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75">
@@ -25091,21 +25076,21 @@
       <c r="A30" s="281"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
       <c r="F30" s="67" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="H30" s="260" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="I30" s="67" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="J30" s="67"/>
       <c r="K30" s="104" t="s">
@@ -25145,7 +25130,7 @@
         <v>362</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>365</v>
@@ -25154,19 +25139,19 @@
         <v>367</v>
       </c>
       <c r="F32" s="67" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G32" s="67" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H32" s="67" t="s">
+        <v>1899</v>
+      </c>
+      <c r="I32" s="67" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J32" s="67" t="s">
         <v>1900</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>1901</v>
-      </c>
-      <c r="H32" s="67" t="s">
-        <v>1902</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>1687</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>1903</v>
       </c>
       <c r="K32" s="104" t="s">
         <v>957</v>
@@ -25205,7 +25190,7 @@
         <v>370</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>373</v>
@@ -25214,16 +25199,16 @@
         <v>375</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="H34" s="67" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="I34" s="67" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="J34" s="67"/>
       <c r="K34" s="67"/>
@@ -25236,7 +25221,7 @@
         <v>378</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="D35" s="67" t="s">
         <v>381</v>
@@ -25245,19 +25230,19 @@
         <v>389</v>
       </c>
       <c r="F35" s="67" t="s">
+        <v>1906</v>
+      </c>
+      <c r="G35" s="67" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H35" s="218" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J35" s="67" t="s">
         <v>1909</v>
-      </c>
-      <c r="G35" s="67" t="s">
-        <v>1910</v>
-      </c>
-      <c r="H35" s="218" t="s">
-        <v>1911</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>1687</v>
-      </c>
-      <c r="J35" s="67" t="s">
-        <v>1912</v>
       </c>
       <c r="K35" s="104" t="s">
         <v>957</v>
@@ -25294,18 +25279,18 @@
       <c r="A37" s="281"/>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="G37" s="218" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="H37" s="218" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="I37" s="67" t="s">
         <v>1244</v>
@@ -25346,7 +25331,7 @@
     <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
@@ -25363,7 +25348,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>817</v>
@@ -25372,7 +25357,7 @@
         <v>1113</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="J1" t="s">
         <v>1114</v>
@@ -25387,13 +25372,13 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="136.5">
+    <row r="2" spans="1:14" ht="135.75">
       <c r="A2" s="68"/>
       <c r="B2" s="262" t="s">
         <v>245</v>
       </c>
       <c r="C2" s="262" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>248</v>
@@ -25402,26 +25387,26 @@
         <v>250</v>
       </c>
       <c r="F2" s="255" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="G2" s="218" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="I2" s="67" t="s">
         <v>1142</v>
       </c>
       <c r="J2" s="67"/>
       <c r="K2" s="66" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="L2" s="151" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="M2" s="150" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="N2" s="67"/>
     </row>
@@ -25437,13 +25422,13 @@
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
       <c r="K3" s="66" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="L3" s="151" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="M3" s="150" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="N3" s="67"/>
     </row>
@@ -25459,13 +25444,13 @@
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
       <c r="K4" s="66" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="L4" s="151" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="M4" s="150" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="N4" s="67"/>
     </row>
@@ -25481,13 +25466,13 @@
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="L5" s="151" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="M5" s="263" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="N5" s="67"/>
     </row>
@@ -25503,13 +25488,13 @@
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
       <c r="K6" s="66" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="L6" s="151" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="M6" s="150" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="N6" s="67"/>
     </row>
@@ -25525,13 +25510,13 @@
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="66" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="L7" s="151" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="M7" s="150" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="N7" s="67"/>
     </row>
@@ -25547,13 +25532,13 @@
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="66" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="L8" s="151" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="M8" s="150" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="N8" s="67"/>
     </row>
@@ -25569,13 +25554,13 @@
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="264" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="L9" s="149" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="M9" s="150" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="N9" s="68"/>
     </row>
@@ -25585,35 +25570,35 @@
         <v>253</v>
       </c>
       <c r="C10" s="105" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D10" s="218" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F10" s="67" t="s">
         <v>1946</v>
       </c>
-      <c r="D10" s="218" t="s">
+      <c r="G10" s="67" t="s">
         <v>1947</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="H10" s="67" t="s">
         <v>1948</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>1949</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>1950</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>1951</v>
       </c>
       <c r="I10" s="67" t="s">
         <v>1142</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="264" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="L10" s="265" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="M10" s="150" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="N10" s="68"/>
     </row>
@@ -25629,13 +25614,13 @@
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="264" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="L11" s="265" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="M11" s="150" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="N11" s="68"/>
     </row>
@@ -25651,13 +25636,13 @@
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="264" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="L12" s="265" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="M12" s="150" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="N12" s="68"/>
     </row>
@@ -25673,13 +25658,13 @@
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
       <c r="K13" s="264" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="L13" s="265" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="M13" s="150" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="N13" s="68"/>
     </row>
@@ -25695,13 +25680,13 @@
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
       <c r="K14" s="264" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="L14" s="149" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="M14" s="150" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="N14" s="68"/>
     </row>
@@ -25717,13 +25702,13 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="264" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="L15" s="149" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="M15" s="150" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="N15" s="68"/>
     </row>
@@ -25739,13 +25724,13 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="264" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="L16" s="266" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="M16" s="150" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="N16" s="68"/>
     </row>
@@ -25761,13 +25746,13 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="264" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="L17" s="266" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="M17" s="150" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="N17" s="68"/>
     </row>
@@ -25783,13 +25768,13 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="264" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="L18" s="149" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="M18" s="150" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="N18" s="68"/>
     </row>

--- a/atique.xlsx
+++ b/atique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Desktop\New folder\excel_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45396828-88C4-47FD-A247-3B7690B848D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADA635D-2184-4EA0-91F3-603EED90A4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
@@ -17456,9 +17456,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1"/>
@@ -19857,9 +19857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284FCB9-3FD4-49BA-8155-9FD865B384A9}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B75" sqref="A75:XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K145" sqref="K145:K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -26106,26 +26106,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A595C2436754DD4192B3BEE0FFE1ED0A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ba19257e65125414350f132367e985">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00591925-1995-4bf8-8d28-1f7cbeda4924" xmlns:ns3="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a6491f746e84da8ae5f2642b9bcf21" ns2:_="" ns3:_="">
     <xsd:import namespace="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
@@ -26354,10 +26334,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26374,20 +26385,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/atique.xlsx
+++ b/atique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Desktop\New folder\excel_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADA635D-2184-4EA0-91F3-603EED90A4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2023EC-E51A-4776-B038-1F7369927CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1999">
   <si>
     <t>#</t>
   </si>
@@ -6744,9 +6744,6 @@
   </si>
   <si>
     <t>විදුලිය</t>
-  </si>
-  <si>
-    <t>Questions</t>
   </si>
   <si>
     <t>Questions in Tamil</t>
@@ -17458,7 +17455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1"/>
@@ -19857,9 +19854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284FCB9-3FD4-49BA-8155-9FD865B384A9}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K145" sqref="K145:K159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -19896,19 +19893,19 @@
         <v>8</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>1146</v>
+        <v>816</v>
       </c>
       <c r="G1" s="82" t="s">
         <v>817</v>
       </c>
       <c r="H1" s="82" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I1" s="82" t="s">
         <v>819</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>821</v>
@@ -19922,34 +19919,34 @@
     </row>
     <row r="2" spans="1:13" ht="60">
       <c r="A2" s="284" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B2" s="83" t="s">
         <v>430</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>433</v>
       </c>
       <c r="E2" s="196" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>1151</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>1152</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="197" t="s">
         <v>1153</v>
       </c>
-      <c r="H2" s="197" t="s">
+      <c r="I2" s="83" t="s">
         <v>1154</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="134" t="s">
         <v>1155</v>
-      </c>
-      <c r="J2" s="134" t="s">
-        <v>1156</v>
       </c>
       <c r="K2" s="125" t="s">
         <v>961</v>
@@ -19973,13 +19970,13 @@
       <c r="I3" s="85"/>
       <c r="J3" s="68"/>
       <c r="K3" s="130" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L3" s="156" t="s">
         <v>1157</v>
       </c>
-      <c r="L3" s="156" t="s">
+      <c r="M3" s="66" t="s">
         <v>1158</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
@@ -19994,43 +19991,43 @@
       <c r="I4" s="85"/>
       <c r="J4" s="68"/>
       <c r="K4" s="130" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L4" s="156" t="s">
         <v>1160</v>
       </c>
-      <c r="L4" s="156" t="s">
+      <c r="M4" s="66" t="s">
         <v>1161</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="55.5" customHeight="1">
       <c r="A5" s="284"/>
       <c r="B5" s="83" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C5" s="195" t="s">
         <v>1163</v>
       </c>
-      <c r="C5" s="195" t="s">
+      <c r="D5" s="96" t="s">
         <v>1164</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>1165</v>
       </c>
       <c r="E5" s="84" t="s">
         <v>445</v>
       </c>
       <c r="F5" s="86" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G5" s="87" t="s">
         <v>1166</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="H5" s="198" t="s">
         <v>1167</v>
       </c>
-      <c r="H5" s="198" t="s">
+      <c r="I5" s="83" t="s">
         <v>1168</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="J5" s="132" t="s">
         <v>1169</v>
-      </c>
-      <c r="J5" s="132" t="s">
-        <v>1170</v>
       </c>
       <c r="K5" s="68"/>
       <c r="L5" s="68"/>
@@ -20042,35 +20039,35 @@
         <v>449</v>
       </c>
       <c r="C6" s="195" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D6" s="96" t="s">
         <v>452</v>
       </c>
       <c r="E6" s="196" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F6" s="83" t="s">
         <v>1172</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="G6" s="198" t="s">
         <v>1173</v>
       </c>
-      <c r="G6" s="198" t="s">
+      <c r="H6" s="199" t="s">
         <v>1174</v>
-      </c>
-      <c r="H6" s="199" t="s">
-        <v>1175</v>
       </c>
       <c r="I6" s="83" t="s">
         <v>1086</v>
       </c>
       <c r="J6" s="84"/>
       <c r="K6" s="130" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L6" s="156" t="s">
         <v>1176</v>
       </c>
-      <c r="L6" s="156" t="s">
+      <c r="M6" s="156" t="s">
         <v>1177</v>
-      </c>
-      <c r="M6" s="156" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
@@ -20085,13 +20082,13 @@
       <c r="I7" s="83"/>
       <c r="J7" s="84"/>
       <c r="K7" s="130" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L7" s="156" t="s">
         <v>1179</v>
       </c>
-      <c r="L7" s="156" t="s">
+      <c r="M7" s="156" t="s">
         <v>1180</v>
-      </c>
-      <c r="M7" s="156" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75">
@@ -20106,13 +20103,13 @@
       <c r="I8" s="83"/>
       <c r="J8" s="84"/>
       <c r="K8" s="130" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L8" s="156" t="s">
         <v>1182</v>
       </c>
-      <c r="L8" s="156" t="s">
+      <c r="M8" s="66" t="s">
         <v>1183</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
@@ -20127,13 +20124,13 @@
       <c r="I9" s="83"/>
       <c r="J9" s="84"/>
       <c r="K9" s="130" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L9" s="156" t="s">
         <v>1185</v>
       </c>
-      <c r="L9" s="156" t="s">
+      <c r="M9" s="66" t="s">
         <v>1186</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75">
@@ -20148,13 +20145,13 @@
       <c r="I10" s="83"/>
       <c r="J10" s="84"/>
       <c r="K10" s="130" t="s">
+        <v>1187</v>
+      </c>
+      <c r="L10" s="156" t="s">
         <v>1188</v>
       </c>
-      <c r="L10" s="156" t="s">
+      <c r="M10" s="66" t="s">
         <v>1189</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
@@ -20169,13 +20166,13 @@
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
       <c r="K11" s="130" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L11" s="66" t="s">
         <v>1191</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="M11" s="66" t="s">
         <v>1192</v>
-      </c>
-      <c r="M11" s="66" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
@@ -20190,13 +20187,13 @@
       <c r="I12" s="83"/>
       <c r="J12" s="84"/>
       <c r="K12" s="130" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L12" s="66" t="s">
         <v>1194</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="M12" s="66" t="s">
         <v>1195</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="67.5">
@@ -20205,28 +20202,28 @@
         <v>457</v>
       </c>
       <c r="C13" s="195" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D13" s="96" t="s">
         <v>460</v>
       </c>
       <c r="E13" s="196" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F13" s="86" t="s">
         <v>1198</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="G13" s="83" t="s">
         <v>1199</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="H13" s="200" t="s">
         <v>1200</v>
-      </c>
-      <c r="H13" s="200" t="s">
-        <v>1201</v>
       </c>
       <c r="I13" s="88" t="s">
         <v>1086</v>
       </c>
       <c r="J13" s="135" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="K13" s="125" t="s">
         <v>961</v>
@@ -20250,13 +20247,13 @@
       <c r="I14" s="85"/>
       <c r="J14" s="68"/>
       <c r="K14" s="130" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L14" s="156" t="s">
         <v>1202</v>
       </c>
-      <c r="L14" s="156" t="s">
+      <c r="M14" s="66" t="s">
         <v>1203</v>
-      </c>
-      <c r="M14" s="66" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
@@ -20271,13 +20268,13 @@
       <c r="I15" s="85"/>
       <c r="J15" s="68"/>
       <c r="K15" s="130" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L15" s="156" t="s">
         <v>1205</v>
       </c>
-      <c r="L15" s="156" t="s">
+      <c r="M15" s="66" t="s">
         <v>1206</v>
-      </c>
-      <c r="M15" s="66" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="28.5">
@@ -20286,19 +20283,19 @@
         <v>465</v>
       </c>
       <c r="C16" s="195" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D16" s="201" t="s">
         <v>1208</v>
       </c>
-      <c r="D16" s="201" t="s">
+      <c r="E16" s="196" t="s">
         <v>1209</v>
-      </c>
-      <c r="E16" s="196" t="s">
-        <v>1210</v>
       </c>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
       <c r="H16" s="83"/>
       <c r="I16" s="83" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J16" s="84"/>
       <c r="K16" s="68"/>
@@ -20307,13 +20304,13 @@
     </row>
     <row r="17" spans="1:13" ht="51">
       <c r="A17" s="285" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B17" s="83" t="s">
         <v>473</v>
       </c>
       <c r="C17" s="195" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D17" s="96" t="s">
         <v>476</v>
@@ -20322,19 +20319,19 @@
         <v>487</v>
       </c>
       <c r="F17" s="86" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G17" s="83" t="s">
         <v>1214</v>
       </c>
-      <c r="G17" s="83" t="s">
+      <c r="H17" s="198" t="s">
         <v>1215</v>
       </c>
-      <c r="H17" s="198" t="s">
-        <v>1216</v>
-      </c>
       <c r="I17" s="83" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J17" s="86" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K17" s="116" t="s">
         <v>958</v>
@@ -20373,37 +20370,37 @@
         <v>482</v>
       </c>
       <c r="C19" s="195" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>485</v>
       </c>
       <c r="E19" s="202" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F19" s="83" t="s">
         <v>1218</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="G19" s="203" t="s">
         <v>1219</v>
       </c>
-      <c r="G19" s="203" t="s">
+      <c r="H19" s="83" t="s">
         <v>1220</v>
-      </c>
-      <c r="H19" s="83" t="s">
-        <v>1221</v>
       </c>
       <c r="I19" s="83" t="s">
         <v>1086</v>
       </c>
       <c r="J19" s="136" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K19" s="130" t="s">
         <v>1222</v>
       </c>
-      <c r="K19" s="130" t="s">
+      <c r="L19" s="156" t="s">
         <v>1223</v>
       </c>
-      <c r="L19" s="156" t="s">
+      <c r="M19" s="66" t="s">
         <v>1224</v>
-      </c>
-      <c r="M19" s="66" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19.5">
@@ -20418,13 +20415,13 @@
       <c r="I20" s="83"/>
       <c r="J20" s="136"/>
       <c r="K20" s="130" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L20" s="156" t="s">
         <v>1226</v>
       </c>
-      <c r="L20" s="156" t="s">
+      <c r="M20" s="156" t="s">
         <v>1227</v>
-      </c>
-      <c r="M20" s="156" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5">
@@ -20439,13 +20436,13 @@
       <c r="I21" s="83"/>
       <c r="J21" s="136"/>
       <c r="K21" s="130" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L21" s="66" t="s">
         <v>1229</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="M21" s="66" t="s">
         <v>1230</v>
-      </c>
-      <c r="M21" s="66" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="19.5">
@@ -20460,13 +20457,13 @@
       <c r="I22" s="83"/>
       <c r="J22" s="136"/>
       <c r="K22" s="130" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L22" s="66" t="s">
         <v>1232</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="M22" s="66" t="s">
         <v>1233</v>
-      </c>
-      <c r="M22" s="66" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="19.5">
@@ -20481,13 +20478,13 @@
       <c r="I23" s="83"/>
       <c r="J23" s="136"/>
       <c r="K23" s="130" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L23" s="66" t="s">
         <v>1235</v>
       </c>
-      <c r="L23" s="66" t="s">
+      <c r="M23" s="66" t="s">
         <v>1236</v>
-      </c>
-      <c r="M23" s="66" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19.5">
@@ -20502,13 +20499,13 @@
       <c r="I24" s="83"/>
       <c r="J24" s="136"/>
       <c r="K24" s="130" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L24" s="66" t="s">
         <v>1238</v>
       </c>
-      <c r="L24" s="66" t="s">
+      <c r="M24" s="66" t="s">
         <v>1239</v>
-      </c>
-      <c r="M24" s="66" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="58.5">
@@ -20518,19 +20515,19 @@
       <c r="D25" s="96"/>
       <c r="E25" s="84"/>
       <c r="F25" s="83" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G25" s="203" t="s">
         <v>1241</v>
       </c>
-      <c r="G25" s="203" t="s">
+      <c r="H25" s="204" t="s">
         <v>1242</v>
       </c>
-      <c r="H25" s="204" t="s">
+      <c r="I25" s="83" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J25" s="136" t="s">
         <v>1243</v>
-      </c>
-      <c r="I25" s="83" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J25" s="136" t="s">
-        <v>1244</v>
       </c>
       <c r="K25" s="125"/>
       <c r="L25" s="68"/>
@@ -20538,34 +20535,34 @@
     </row>
     <row r="26" spans="1:13" ht="90">
       <c r="A26" s="286" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B26" s="205" t="s">
         <v>490</v>
       </c>
       <c r="C26" s="206" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D26" s="207" t="s">
         <v>493</v>
       </c>
       <c r="E26" s="208" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F26" s="205" t="s">
         <v>1247</v>
       </c>
-      <c r="F26" s="205" t="s">
+      <c r="G26" s="209" t="s">
         <v>1248</v>
       </c>
-      <c r="G26" s="209" t="s">
+      <c r="H26" s="204" t="s">
         <v>1249</v>
       </c>
-      <c r="H26" s="204" t="s">
-        <v>1250</v>
-      </c>
       <c r="I26" s="210" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J26" s="205" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K26" s="116" t="s">
         <v>958</v>
@@ -20604,35 +20601,35 @@
         <v>499</v>
       </c>
       <c r="C28" s="195" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D28" s="67" t="s">
         <v>1251</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="E28" s="196" t="s">
         <v>1252</v>
       </c>
-      <c r="E28" s="196" t="s">
+      <c r="F28" s="96" t="s">
         <v>1253</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="G28" s="84" t="s">
         <v>1254</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="H28" s="83" t="s">
         <v>1255</v>
-      </c>
-      <c r="H28" s="83" t="s">
-        <v>1256</v>
       </c>
       <c r="I28" s="88" t="s">
         <v>1086</v>
       </c>
       <c r="J28" s="83"/>
       <c r="K28" s="130" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L28" s="156" t="s">
         <v>1257</v>
       </c>
-      <c r="L28" s="156" t="s">
+      <c r="M28" s="211" t="s">
         <v>1258</v>
-      </c>
-      <c r="M28" s="211" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75">
@@ -20647,13 +20644,13 @@
       <c r="I29" s="88"/>
       <c r="J29" s="83"/>
       <c r="K29" s="130" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L29" s="156" t="s">
         <v>1260</v>
       </c>
-      <c r="L29" s="156" t="s">
+      <c r="M29" s="212" t="s">
         <v>1261</v>
-      </c>
-      <c r="M29" s="212" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75">
@@ -20668,13 +20665,13 @@
       <c r="I30" s="88"/>
       <c r="J30" s="83"/>
       <c r="K30" s="130" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L30" s="156" t="s">
         <v>1263</v>
       </c>
-      <c r="L30" s="156" t="s">
+      <c r="M30" s="66" t="s">
         <v>1264</v>
-      </c>
-      <c r="M30" s="66" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75">
@@ -20689,13 +20686,13 @@
       <c r="I31" s="88"/>
       <c r="J31" s="83"/>
       <c r="K31" s="130" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L31" s="156" t="s">
         <v>1266</v>
       </c>
-      <c r="L31" s="156" t="s">
+      <c r="M31" s="66" t="s">
         <v>1267</v>
-      </c>
-      <c r="M31" s="66" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75">
@@ -20710,13 +20707,13 @@
       <c r="I32" s="85"/>
       <c r="J32" s="68"/>
       <c r="K32" s="130" t="s">
+        <v>1268</v>
+      </c>
+      <c r="L32" s="156" t="s">
         <v>1269</v>
       </c>
-      <c r="L32" s="156" t="s">
+      <c r="M32" s="66" t="s">
         <v>1270</v>
-      </c>
-      <c r="M32" s="66" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="44.25" customHeight="1">
@@ -20726,16 +20723,16 @@
       <c r="D33" s="67"/>
       <c r="E33" s="68"/>
       <c r="F33" s="85" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G33" s="203" t="s">
         <v>1272</v>
       </c>
-      <c r="G33" s="203" t="s">
+      <c r="H33" s="85" t="s">
         <v>1273</v>
       </c>
-      <c r="H33" s="85" t="s">
+      <c r="I33" s="85" t="s">
         <v>1274</v>
-      </c>
-      <c r="I33" s="85" t="s">
-        <v>1275</v>
       </c>
       <c r="J33" s="68"/>
       <c r="K33" s="68"/>
@@ -20750,7 +20747,7 @@
         <v>508</v>
       </c>
       <c r="C34" s="195" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D34" s="96" t="s">
         <v>511</v>
@@ -20759,19 +20756,19 @@
         <v>521</v>
       </c>
       <c r="F34" s="86" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G34" s="87" t="s">
         <v>1277</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="H34" s="198" t="s">
         <v>1278</v>
       </c>
-      <c r="H34" s="198" t="s">
-        <v>1279</v>
-      </c>
       <c r="I34" s="83" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J34" s="86" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K34" s="116" t="s">
         <v>958</v>
@@ -20810,37 +20807,37 @@
         <v>516</v>
       </c>
       <c r="C36" s="195" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D36" s="96" t="s">
         <v>519</v>
       </c>
       <c r="E36" s="196" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F36" s="83" t="s">
         <v>1281</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="G36" s="198" t="s">
         <v>1282</v>
       </c>
-      <c r="G36" s="198" t="s">
+      <c r="H36" s="83" t="s">
         <v>1283</v>
-      </c>
-      <c r="H36" s="83" t="s">
-        <v>1284</v>
       </c>
       <c r="I36" s="83" t="s">
         <v>1086</v>
       </c>
       <c r="J36" s="86" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K36" s="130" t="s">
         <v>1285</v>
       </c>
-      <c r="K36" s="130" t="s">
+      <c r="L36" s="156" t="s">
         <v>1286</v>
       </c>
-      <c r="L36" s="156" t="s">
+      <c r="M36" s="66" t="s">
         <v>1287</v>
-      </c>
-      <c r="M36" s="66" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75">
@@ -20855,13 +20852,13 @@
       <c r="I37" s="83"/>
       <c r="J37" s="86"/>
       <c r="K37" s="130" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L37" s="156" t="s">
         <v>1289</v>
       </c>
-      <c r="L37" s="156" t="s">
+      <c r="M37" s="66" t="s">
         <v>1290</v>
-      </c>
-      <c r="M37" s="66" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75">
@@ -20876,13 +20873,13 @@
       <c r="I38" s="83"/>
       <c r="J38" s="86"/>
       <c r="K38" s="130" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L38" s="156" t="s">
         <v>1292</v>
       </c>
-      <c r="L38" s="156" t="s">
+      <c r="M38" s="66" t="s">
         <v>1293</v>
-      </c>
-      <c r="M38" s="66" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75">
@@ -20897,13 +20894,13 @@
       <c r="I39" s="83"/>
       <c r="J39" s="86"/>
       <c r="K39" s="130" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L39" s="156" t="s">
         <v>1295</v>
       </c>
-      <c r="L39" s="156" t="s">
+      <c r="M39" s="66" t="s">
         <v>1296</v>
-      </c>
-      <c r="M39" s="66" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75">
@@ -20918,13 +20915,13 @@
       <c r="I40" s="83"/>
       <c r="J40" s="86"/>
       <c r="K40" s="130" t="s">
+        <v>1297</v>
+      </c>
+      <c r="L40" s="213" t="s">
         <v>1298</v>
       </c>
-      <c r="L40" s="213" t="s">
+      <c r="M40" s="156" t="s">
         <v>1299</v>
-      </c>
-      <c r="M40" s="156" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75">
@@ -20945,18 +20942,18 @@
         <v>946</v>
       </c>
       <c r="M41" s="165" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="56.25">
       <c r="A42" s="287" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B42" s="83" t="s">
         <v>1302</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="C42" s="195" t="s">
         <v>1303</v>
-      </c>
-      <c r="C42" s="195" t="s">
-        <v>1304</v>
       </c>
       <c r="D42" s="96" t="s">
         <v>574</v>
@@ -20965,26 +20962,26 @@
         <v>584</v>
       </c>
       <c r="F42" s="89" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G42" s="197" t="s">
         <v>1305</v>
       </c>
-      <c r="G42" s="197" t="s">
+      <c r="H42" s="214" t="s">
         <v>1306</v>
-      </c>
-      <c r="H42" s="214" t="s">
-        <v>1307</v>
       </c>
       <c r="I42" s="90" t="s">
         <v>1086</v>
       </c>
       <c r="J42" s="215"/>
       <c r="K42" s="130" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L42" s="156" t="s">
         <v>1308</v>
       </c>
-      <c r="L42" s="156" t="s">
+      <c r="M42" s="66" t="s">
         <v>1309</v>
-      </c>
-      <c r="M42" s="66" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75">
@@ -20999,13 +20996,13 @@
       <c r="I43" s="133"/>
       <c r="J43" s="216"/>
       <c r="K43" s="130" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L43" s="156" t="s">
         <v>1311</v>
       </c>
-      <c r="L43" s="156" t="s">
+      <c r="M43" s="66" t="s">
         <v>1312</v>
-      </c>
-      <c r="M43" s="66" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75">
@@ -21020,13 +21017,13 @@
       <c r="I44" s="133"/>
       <c r="J44" s="216"/>
       <c r="K44" s="130" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L44" s="156" t="s">
         <v>1314</v>
       </c>
-      <c r="L44" s="156" t="s">
+      <c r="M44" s="66" t="s">
         <v>1315</v>
-      </c>
-      <c r="M44" s="66" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75">
@@ -21041,13 +21038,13 @@
       <c r="I45" s="133"/>
       <c r="J45" s="216"/>
       <c r="K45" s="130" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L45" s="156" t="s">
         <v>1317</v>
       </c>
-      <c r="L45" s="156" t="s">
+      <c r="M45" s="156" t="s">
         <v>1318</v>
-      </c>
-      <c r="M45" s="156" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75">
@@ -21062,13 +21059,13 @@
       <c r="I46" s="133"/>
       <c r="J46" s="216"/>
       <c r="K46" s="130" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L46" s="156" t="s">
         <v>1320</v>
       </c>
-      <c r="L46" s="156" t="s">
+      <c r="M46" s="156" t="s">
         <v>1321</v>
-      </c>
-      <c r="M46" s="156" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75">
@@ -21083,13 +21080,13 @@
       <c r="I47" s="133"/>
       <c r="J47" s="216"/>
       <c r="K47" s="130" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L47" s="156" t="s">
         <v>1323</v>
       </c>
-      <c r="L47" s="156" t="s">
+      <c r="M47" s="66" t="s">
         <v>1324</v>
-      </c>
-      <c r="M47" s="66" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75">
@@ -21104,13 +21101,13 @@
       <c r="I48" s="133"/>
       <c r="J48" s="216"/>
       <c r="K48" s="130" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L48" s="156" t="s">
         <v>1326</v>
       </c>
-      <c r="L48" s="156" t="s">
+      <c r="M48" s="66" t="s">
         <v>1327</v>
-      </c>
-      <c r="M48" s="66" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75">
@@ -21125,13 +21122,13 @@
       <c r="I49" s="133"/>
       <c r="J49" s="216"/>
       <c r="K49" s="130" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L49" s="156" t="s">
         <v>1329</v>
       </c>
-      <c r="L49" s="156" t="s">
+      <c r="M49" s="156" t="s">
         <v>1330</v>
-      </c>
-      <c r="M49" s="156" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75">
@@ -21146,13 +21143,13 @@
       <c r="I50" s="133"/>
       <c r="J50" s="216"/>
       <c r="K50" s="130" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L50" s="156" t="s">
         <v>1332</v>
       </c>
-      <c r="L50" s="156" t="s">
+      <c r="M50" s="156" t="s">
         <v>1333</v>
-      </c>
-      <c r="M50" s="156" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75">
@@ -21167,13 +21164,13 @@
       <c r="I51" s="90"/>
       <c r="J51" s="215"/>
       <c r="K51" s="130" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L51" s="156" t="s">
         <v>1335</v>
       </c>
-      <c r="L51" s="156" t="s">
+      <c r="M51" s="156" t="s">
         <v>1336</v>
-      </c>
-      <c r="M51" s="156" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="57">
@@ -21182,7 +21179,7 @@
         <v>579</v>
       </c>
       <c r="C52" s="195" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D52" s="96" t="s">
         <v>582</v>
@@ -21191,26 +21188,26 @@
         <v>593</v>
       </c>
       <c r="F52" s="91" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G52" s="92" t="s">
         <v>1339</v>
       </c>
-      <c r="G52" s="92" t="s">
+      <c r="H52" s="217" t="s">
         <v>1340</v>
-      </c>
-      <c r="H52" s="217" t="s">
-        <v>1341</v>
       </c>
       <c r="I52" s="90" t="s">
         <v>1086</v>
       </c>
       <c r="J52" s="66"/>
       <c r="K52" s="130" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L52" s="156" t="s">
         <v>1342</v>
       </c>
-      <c r="L52" s="156" t="s">
+      <c r="M52" s="66" t="s">
         <v>1343</v>
-      </c>
-      <c r="M52" s="66" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75">
@@ -21225,13 +21222,13 @@
       <c r="I53" s="133"/>
       <c r="J53" s="68"/>
       <c r="K53" s="130" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L53" s="156" t="s">
         <v>1345</v>
       </c>
-      <c r="L53" s="156" t="s">
+      <c r="M53" s="66" t="s">
         <v>1346</v>
-      </c>
-      <c r="M53" s="66" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75">
@@ -21246,13 +21243,13 @@
       <c r="I54" s="133"/>
       <c r="J54" s="68"/>
       <c r="K54" s="130" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L54" s="156" t="s">
         <v>1348</v>
       </c>
-      <c r="L54" s="156" t="s">
+      <c r="M54" s="156" t="s">
         <v>1349</v>
-      </c>
-      <c r="M54" s="156" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75">
@@ -21267,13 +21264,13 @@
       <c r="I55" s="133"/>
       <c r="J55" s="68"/>
       <c r="K55" s="130" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L55" s="156" t="s">
         <v>1351</v>
       </c>
-      <c r="L55" s="156" t="s">
+      <c r="M55" s="66" t="s">
         <v>1352</v>
-      </c>
-      <c r="M55" s="66" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75">
@@ -21288,13 +21285,13 @@
       <c r="I56" s="133"/>
       <c r="J56" s="68"/>
       <c r="K56" s="130" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L56" s="156" t="s">
         <v>1354</v>
       </c>
-      <c r="L56" s="156" t="s">
+      <c r="M56" s="156" t="s">
         <v>1355</v>
-      </c>
-      <c r="M56" s="156" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75">
@@ -21309,13 +21306,13 @@
       <c r="I57" s="133"/>
       <c r="J57" s="68"/>
       <c r="K57" s="130" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L57" s="156" t="s">
         <v>1357</v>
       </c>
-      <c r="L57" s="156" t="s">
+      <c r="M57" s="156" t="s">
         <v>1358</v>
-      </c>
-      <c r="M57" s="156" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75">
@@ -21330,34 +21327,34 @@
       <c r="I58" s="133"/>
       <c r="J58" s="68"/>
       <c r="K58" s="130" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L58" s="156" t="s">
         <v>1360</v>
       </c>
-      <c r="L58" s="156" t="s">
+      <c r="M58" s="156" t="s">
         <v>1361</v>
-      </c>
-      <c r="M58" s="156" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75">
       <c r="A59" s="287"/>
       <c r="B59" s="68"/>
       <c r="C59" s="66" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D59" s="67"/>
       <c r="E59" s="197" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F59" s="97"/>
       <c r="G59" s="214" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H59" s="214" t="s">
         <v>1365</v>
       </c>
-      <c r="H59" s="214" t="s">
-        <v>1366</v>
-      </c>
       <c r="I59" s="90" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J59" s="66"/>
       <c r="K59" s="130"/>
@@ -21370,35 +21367,35 @@
         <v>588</v>
       </c>
       <c r="C60" s="195" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D60" s="96" t="s">
         <v>591</v>
       </c>
       <c r="E60" s="196" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F60" s="93" t="s">
         <v>1368</v>
       </c>
-      <c r="F60" s="93" t="s">
+      <c r="G60" s="94" t="s">
         <v>1369</v>
       </c>
-      <c r="G60" s="94" t="s">
+      <c r="H60" s="218" t="s">
         <v>1370</v>
-      </c>
-      <c r="H60" s="218" t="s">
-        <v>1371</v>
       </c>
       <c r="I60" s="95" t="s">
         <v>1086</v>
       </c>
       <c r="J60" s="66"/>
       <c r="K60" s="130" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L60" s="156" t="s">
         <v>1372</v>
       </c>
-      <c r="L60" s="156" t="s">
+      <c r="M60" s="156" t="s">
         <v>1373</v>
-      </c>
-      <c r="M60" s="156" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="84" customHeight="1">
@@ -21413,13 +21410,13 @@
       <c r="I61" s="131"/>
       <c r="J61" s="68"/>
       <c r="K61" s="130" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L61" s="156" t="s">
         <v>1375</v>
       </c>
-      <c r="L61" s="156" t="s">
+      <c r="M61" s="156" t="s">
         <v>1376</v>
-      </c>
-      <c r="M61" s="156" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75">
@@ -21434,13 +21431,13 @@
       <c r="I62" s="131"/>
       <c r="J62" s="68"/>
       <c r="K62" s="130" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L62" s="156" t="s">
         <v>1348</v>
       </c>
-      <c r="L62" s="156" t="s">
+      <c r="M62" s="156" t="s">
         <v>1349</v>
-      </c>
-      <c r="M62" s="156" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75">
@@ -21455,13 +21452,13 @@
       <c r="I63" s="131"/>
       <c r="J63" s="68"/>
       <c r="K63" s="130" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L63" s="156" t="s">
         <v>1378</v>
       </c>
-      <c r="L63" s="156" t="s">
+      <c r="M63" s="66" t="s">
         <v>1379</v>
-      </c>
-      <c r="M63" s="66" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75">
@@ -21476,13 +21473,13 @@
       <c r="I64" s="131"/>
       <c r="J64" s="68"/>
       <c r="K64" s="130" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L64" s="156" t="s">
         <v>1381</v>
       </c>
-      <c r="L64" s="156" t="s">
+      <c r="M64" s="156" t="s">
         <v>1382</v>
-      </c>
-      <c r="M64" s="156" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75">
@@ -21497,34 +21494,34 @@
       <c r="I65" s="131"/>
       <c r="J65" s="68"/>
       <c r="K65" s="130" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L65" s="156" t="s">
         <v>1384</v>
       </c>
-      <c r="L65" s="156" t="s">
+      <c r="M65" s="156" t="s">
         <v>1385</v>
-      </c>
-      <c r="M65" s="156" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="25.5">
       <c r="A66" s="287"/>
       <c r="B66" s="83"/>
       <c r="C66" s="195" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D66" s="96"/>
       <c r="E66" s="84"/>
       <c r="F66" s="93" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G66" s="94" t="s">
         <v>1388</v>
       </c>
-      <c r="G66" s="94" t="s">
+      <c r="H66" s="217" t="s">
         <v>1389</v>
       </c>
-      <c r="H66" s="217" t="s">
-        <v>1390</v>
-      </c>
       <c r="I66" s="95" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J66" s="66"/>
       <c r="K66" s="125"/>
@@ -21537,7 +21534,7 @@
         <v>597</v>
       </c>
       <c r="C67" s="195" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D67" s="96" t="s">
         <v>600</v>
@@ -21546,26 +21543,26 @@
         <v>611</v>
       </c>
       <c r="F67" s="94" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G67" s="94" t="s">
         <v>1392</v>
       </c>
-      <c r="G67" s="94" t="s">
+      <c r="H67" s="219" t="s">
         <v>1393</v>
-      </c>
-      <c r="H67" s="219" t="s">
-        <v>1394</v>
       </c>
       <c r="I67" s="94" t="s">
         <v>1086</v>
       </c>
       <c r="J67" s="66"/>
       <c r="K67" s="130" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L67" s="156" t="s">
         <v>1395</v>
       </c>
-      <c r="L67" s="156" t="s">
+      <c r="M67" s="156" t="s">
         <v>1396</v>
-      </c>
-      <c r="M67" s="156" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75">
@@ -21580,13 +21577,13 @@
       <c r="I68" s="85"/>
       <c r="J68" s="68"/>
       <c r="K68" s="130" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L68" s="156" t="s">
         <v>1398</v>
       </c>
-      <c r="L68" s="156" t="s">
+      <c r="M68" s="66" t="s">
         <v>1399</v>
-      </c>
-      <c r="M68" s="66" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75">
@@ -21601,13 +21598,13 @@
       <c r="I69" s="85"/>
       <c r="J69" s="68"/>
       <c r="K69" s="130" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L69" s="156" t="s">
         <v>1401</v>
       </c>
-      <c r="L69" s="156" t="s">
+      <c r="M69" s="66" t="s">
         <v>1402</v>
-      </c>
-      <c r="M69" s="66" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15.75">
@@ -21622,13 +21619,13 @@
       <c r="I70" s="85"/>
       <c r="J70" s="68"/>
       <c r="K70" s="130" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L70" s="156" t="s">
         <v>1404</v>
       </c>
-      <c r="L70" s="156" t="s">
+      <c r="M70" s="156" t="s">
         <v>1405</v>
-      </c>
-      <c r="M70" s="156" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75">
@@ -21643,13 +21640,13 @@
       <c r="I71" s="85"/>
       <c r="J71" s="68"/>
       <c r="K71" s="130" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L71" s="156" t="s">
         <v>1351</v>
       </c>
-      <c r="L71" s="156" t="s">
+      <c r="M71" s="66" t="s">
         <v>1352</v>
-      </c>
-      <c r="M71" s="66" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15.75">
@@ -21664,13 +21661,13 @@
       <c r="I72" s="85"/>
       <c r="J72" s="68"/>
       <c r="K72" s="130" t="s">
+        <v>1406</v>
+      </c>
+      <c r="L72" s="156" t="s">
         <v>1407</v>
       </c>
-      <c r="L72" s="156" t="s">
+      <c r="M72" s="156" t="s">
         <v>1408</v>
-      </c>
-      <c r="M72" s="156" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75">
@@ -21685,13 +21682,13 @@
       <c r="I73" s="85"/>
       <c r="J73" s="68"/>
       <c r="K73" s="130" t="s">
+        <v>1409</v>
+      </c>
+      <c r="L73" s="156" t="s">
         <v>1410</v>
       </c>
-      <c r="L73" s="156" t="s">
+      <c r="M73" s="156" t="s">
         <v>1411</v>
-      </c>
-      <c r="M73" s="156" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75">
@@ -21706,13 +21703,13 @@
       <c r="I74" s="85"/>
       <c r="J74" s="68"/>
       <c r="K74" s="130" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="L74" s="220" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M74" s="156" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="37.5" customHeight="1">
@@ -21730,26 +21727,26 @@
         <v>619</v>
       </c>
       <c r="F75" s="85" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G75" s="203" t="s">
         <v>1414</v>
       </c>
-      <c r="G75" s="203" t="s">
+      <c r="H75" s="85" t="s">
         <v>1415</v>
-      </c>
-      <c r="H75" s="85" t="s">
-        <v>1416</v>
       </c>
       <c r="I75" s="85" t="s">
         <v>1086</v>
       </c>
       <c r="J75" s="68"/>
       <c r="K75" s="130" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L75" s="156" t="s">
         <v>1417</v>
       </c>
-      <c r="L75" s="156" t="s">
+      <c r="M75" s="66" t="s">
         <v>1418</v>
-      </c>
-      <c r="M75" s="66" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75">
@@ -21764,13 +21761,13 @@
       <c r="I76" s="85"/>
       <c r="J76" s="68"/>
       <c r="K76" s="130" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L76" s="156" t="s">
         <v>1420</v>
       </c>
-      <c r="L76" s="156" t="s">
+      <c r="M76" s="66" t="s">
         <v>1421</v>
-      </c>
-      <c r="M76" s="66" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="96.75" customHeight="1">
@@ -21779,7 +21776,7 @@
         <v>614</v>
       </c>
       <c r="C77" s="195" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D77" s="96" t="s">
         <v>617</v>
@@ -21788,19 +21785,19 @@
         <v>628</v>
       </c>
       <c r="F77" s="85" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G77" s="85" t="s">
         <v>1424</v>
       </c>
-      <c r="G77" s="85" t="s">
+      <c r="H77" s="221" t="s">
         <v>1425</v>
       </c>
-      <c r="H77" s="221" t="s">
+      <c r="I77" s="85" t="s">
         <v>1426</v>
       </c>
-      <c r="I77" s="85" t="s">
-        <v>1427</v>
-      </c>
       <c r="J77" s="85" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K77" s="116" t="s">
         <v>958</v>
@@ -21839,7 +21836,7 @@
         <v>623</v>
       </c>
       <c r="C79" s="195" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D79" s="96" t="s">
         <v>626</v>
@@ -21848,26 +21845,26 @@
         <v>584</v>
       </c>
       <c r="F79" s="85" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G79" s="85" t="s">
         <v>1429</v>
       </c>
-      <c r="G79" s="85" t="s">
+      <c r="H79" s="85" t="s">
         <v>1430</v>
-      </c>
-      <c r="H79" s="85" t="s">
-        <v>1431</v>
       </c>
       <c r="I79" s="258" t="s">
         <v>1086</v>
       </c>
       <c r="J79" s="68"/>
       <c r="K79" s="259" t="s">
+        <v>1431</v>
+      </c>
+      <c r="L79" s="260" t="s">
         <v>1432</v>
       </c>
-      <c r="L79" s="260" t="s">
+      <c r="M79" s="261" t="s">
         <v>1433</v>
-      </c>
-      <c r="M79" s="261" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -21882,13 +21879,13 @@
       <c r="I80" s="258"/>
       <c r="J80" s="68"/>
       <c r="K80" s="262" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L80" s="263" t="s">
         <v>1435</v>
       </c>
-      <c r="L80" s="263" t="s">
+      <c r="M80" s="264" t="s">
         <v>1436</v>
-      </c>
-      <c r="M80" s="264" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -21903,13 +21900,13 @@
       <c r="I81" s="258"/>
       <c r="J81" s="68"/>
       <c r="K81" s="262" t="s">
+        <v>1437</v>
+      </c>
+      <c r="L81" s="263" t="s">
         <v>1438</v>
       </c>
-      <c r="L81" s="263" t="s">
+      <c r="M81" s="264" t="s">
         <v>1439</v>
-      </c>
-      <c r="M81" s="264" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="153.75" customHeight="1">
@@ -21918,7 +21915,7 @@
         <v>632</v>
       </c>
       <c r="C82" s="195" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D82" s="96" t="s">
         <v>635</v>
@@ -21927,26 +21924,26 @@
         <v>637</v>
       </c>
       <c r="F82" s="85" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G82" s="203" t="s">
         <v>1442</v>
       </c>
-      <c r="G82" s="203" t="s">
+      <c r="H82" s="85" t="s">
         <v>1443</v>
-      </c>
-      <c r="H82" s="85" t="s">
-        <v>1444</v>
       </c>
       <c r="I82" s="265" t="s">
         <v>1086</v>
       </c>
       <c r="J82" s="68"/>
       <c r="K82" s="125" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L82" s="222" t="s">
         <v>1445</v>
       </c>
-      <c r="L82" s="222" t="s">
+      <c r="M82" s="68" t="s">
         <v>1446</v>
-      </c>
-      <c r="M82" s="68" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15.75">
@@ -21961,13 +21958,13 @@
       <c r="I83" s="85"/>
       <c r="J83" s="68"/>
       <c r="K83" s="125" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L83" s="222" t="s">
         <v>1448</v>
       </c>
-      <c r="L83" s="222" t="s">
+      <c r="M83" s="68" t="s">
         <v>1449</v>
-      </c>
-      <c r="M83" s="68" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15.75">
@@ -21982,13 +21979,13 @@
       <c r="I84" s="85"/>
       <c r="J84" s="68"/>
       <c r="K84" s="125" t="s">
+        <v>1450</v>
+      </c>
+      <c r="L84" s="222" t="s">
         <v>1451</v>
       </c>
-      <c r="L84" s="222" t="s">
+      <c r="M84" s="68" t="s">
         <v>1452</v>
-      </c>
-      <c r="M84" s="68" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15.75">
@@ -22003,13 +22000,13 @@
       <c r="I85" s="85"/>
       <c r="J85" s="68"/>
       <c r="K85" s="125" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L85" s="222" t="s">
         <v>1454</v>
       </c>
-      <c r="L85" s="222" t="s">
+      <c r="M85" s="68" t="s">
         <v>1455</v>
-      </c>
-      <c r="M85" s="68" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15.75">
@@ -22024,13 +22021,13 @@
       <c r="I86" s="85"/>
       <c r="J86" s="68"/>
       <c r="K86" s="125" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L86" s="222" t="s">
         <v>1457</v>
       </c>
-      <c r="L86" s="222" t="s">
+      <c r="M86" s="68" t="s">
         <v>1458</v>
-      </c>
-      <c r="M86" s="68" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15.75">
@@ -22045,13 +22042,13 @@
       <c r="I87" s="85"/>
       <c r="J87" s="68"/>
       <c r="K87" s="125" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L87" s="222" t="s">
         <v>1460</v>
       </c>
-      <c r="L87" s="222" t="s">
+      <c r="M87" s="178" t="s">
         <v>1461</v>
-      </c>
-      <c r="M87" s="178" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15.75">
@@ -22066,13 +22063,13 @@
       <c r="I88" s="85"/>
       <c r="J88" s="68"/>
       <c r="K88" s="125" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L88" s="222" t="s">
         <v>1463</v>
       </c>
-      <c r="L88" s="222" t="s">
+      <c r="M88" s="68" t="s">
         <v>1464</v>
-      </c>
-      <c r="M88" s="68" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15.75">
@@ -22087,13 +22084,13 @@
       <c r="I89" s="85"/>
       <c r="J89" s="68"/>
       <c r="K89" s="125" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L89" s="222" t="s">
         <v>1466</v>
       </c>
-      <c r="L89" s="222" t="s">
+      <c r="M89" s="68" t="s">
         <v>1467</v>
-      </c>
-      <c r="M89" s="68" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15.75">
@@ -22108,13 +22105,13 @@
       <c r="I90" s="85"/>
       <c r="J90" s="68"/>
       <c r="K90" s="125" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L90" s="222" t="s">
         <v>1469</v>
       </c>
-      <c r="L90" s="222" t="s">
+      <c r="M90" s="68" t="s">
         <v>1470</v>
-      </c>
-      <c r="M90" s="68" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="15.75">
@@ -22129,13 +22126,13 @@
       <c r="I91" s="85"/>
       <c r="J91" s="68"/>
       <c r="K91" s="125" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L91" s="222" t="s">
         <v>1472</v>
       </c>
-      <c r="L91" s="222" t="s">
+      <c r="M91" s="68" t="s">
         <v>1473</v>
-      </c>
-      <c r="M91" s="68" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75">
@@ -22150,13 +22147,13 @@
       <c r="I92" s="85"/>
       <c r="J92" s="68"/>
       <c r="K92" s="125" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L92" s="222" t="s">
         <v>1475</v>
       </c>
-      <c r="L92" s="222" t="s">
+      <c r="M92" s="68" t="s">
         <v>1476</v>
-      </c>
-      <c r="M92" s="68" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="90">
@@ -22165,7 +22162,7 @@
         <v>641</v>
       </c>
       <c r="C93" s="195" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D93" s="96" t="s">
         <v>644</v>
@@ -22174,19 +22171,19 @@
         <v>654</v>
       </c>
       <c r="F93" s="86" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G93" s="85" t="s">
         <v>1479</v>
       </c>
-      <c r="G93" s="85" t="s">
+      <c r="H93" s="223" t="s">
         <v>1480</v>
       </c>
-      <c r="H93" s="223" t="s">
-        <v>1481</v>
-      </c>
       <c r="I93" s="85" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J93" s="86" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="K93" s="116" t="s">
         <v>958</v>
@@ -22225,7 +22222,7 @@
         <v>649</v>
       </c>
       <c r="C95" s="195" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D95" s="96" t="s">
         <v>652</v>
@@ -22234,13 +22231,13 @@
         <v>663</v>
       </c>
       <c r="F95" s="94" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G95" s="94" t="s">
         <v>1483</v>
       </c>
-      <c r="G95" s="94" t="s">
+      <c r="H95" s="94" t="s">
         <v>1484</v>
-      </c>
-      <c r="H95" s="94" t="s">
-        <v>1485</v>
       </c>
       <c r="I95" s="94" t="s">
         <v>1086</v>
@@ -22268,13 +22265,13 @@
       <c r="I96" s="85"/>
       <c r="J96" s="68"/>
       <c r="K96" s="130" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L96" s="66" t="s">
         <v>1486</v>
       </c>
-      <c r="L96" s="66" t="s">
+      <c r="M96" s="66" t="s">
         <v>1487</v>
-      </c>
-      <c r="M96" s="66" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15.75">
@@ -22289,13 +22286,13 @@
       <c r="I97" s="85"/>
       <c r="J97" s="68"/>
       <c r="K97" s="130" t="s">
+        <v>1488</v>
+      </c>
+      <c r="L97" s="66" t="s">
         <v>1489</v>
       </c>
-      <c r="L97" s="66" t="s">
+      <c r="M97" s="66" t="s">
         <v>1490</v>
-      </c>
-      <c r="M97" s="66" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75">
@@ -22310,13 +22307,13 @@
       <c r="I98" s="85"/>
       <c r="J98" s="68"/>
       <c r="K98" s="130" t="s">
+        <v>1491</v>
+      </c>
+      <c r="L98" s="66" t="s">
         <v>1492</v>
       </c>
-      <c r="L98" s="66" t="s">
+      <c r="M98" s="66" t="s">
         <v>1493</v>
-      </c>
-      <c r="M98" s="66" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15.75">
@@ -22331,7 +22328,7 @@
       <c r="I99" s="85"/>
       <c r="J99" s="68"/>
       <c r="K99" s="130" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="L99" s="156" t="s">
         <v>1140</v>
@@ -22352,13 +22349,13 @@
       <c r="I100" s="85"/>
       <c r="J100" s="68"/>
       <c r="K100" s="130" t="s">
+        <v>1495</v>
+      </c>
+      <c r="L100" s="66" t="s">
         <v>1496</v>
       </c>
-      <c r="L100" s="66" t="s">
+      <c r="M100" s="156" t="s">
         <v>1497</v>
-      </c>
-      <c r="M100" s="156" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="125.25" customHeight="1">
@@ -22373,29 +22370,29 @@
         <v>661</v>
       </c>
       <c r="E101" s="196" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F101" s="94" t="s">
         <v>1499</v>
       </c>
-      <c r="F101" s="94" t="s">
+      <c r="G101" s="94" t="s">
         <v>1500</v>
       </c>
-      <c r="G101" s="94" t="s">
+      <c r="H101" s="94" t="s">
         <v>1501</v>
       </c>
-      <c r="H101" s="94" t="s">
+      <c r="I101" s="94" t="s">
         <v>1502</v>
-      </c>
-      <c r="I101" s="94" t="s">
-        <v>1503</v>
       </c>
       <c r="J101" s="66"/>
       <c r="K101" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L101" s="156" t="s">
         <v>1504</v>
       </c>
-      <c r="L101" s="156" t="s">
+      <c r="M101" s="66" t="s">
         <v>1505</v>
-      </c>
-      <c r="M101" s="66" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15.75">
@@ -22410,13 +22407,13 @@
       <c r="I102" s="85"/>
       <c r="J102" s="68"/>
       <c r="K102" s="130" t="s">
+        <v>1506</v>
+      </c>
+      <c r="L102" s="156" t="s">
         <v>1507</v>
       </c>
-      <c r="L102" s="156" t="s">
+      <c r="M102" s="66" t="s">
         <v>1508</v>
-      </c>
-      <c r="M102" s="66" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="15.75">
@@ -22431,13 +22428,13 @@
       <c r="I103" s="85"/>
       <c r="J103" s="68"/>
       <c r="K103" s="130" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L103" s="156" t="s">
         <v>1510</v>
       </c>
-      <c r="L103" s="156" t="s">
+      <c r="M103" s="66" t="s">
         <v>1511</v>
-      </c>
-      <c r="M103" s="66" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15.75">
@@ -22452,13 +22449,13 @@
       <c r="I104" s="85"/>
       <c r="J104" s="68"/>
       <c r="K104" s="130" t="s">
+        <v>1512</v>
+      </c>
+      <c r="L104" s="156" t="s">
         <v>1513</v>
       </c>
-      <c r="L104" s="156" t="s">
+      <c r="M104" s="66" t="s">
         <v>1514</v>
-      </c>
-      <c r="M104" s="66" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15.75">
@@ -22473,13 +22470,13 @@
       <c r="I105" s="85"/>
       <c r="J105" s="68"/>
       <c r="K105" s="130" t="s">
+        <v>1515</v>
+      </c>
+      <c r="L105" s="156" t="s">
         <v>1516</v>
       </c>
-      <c r="L105" s="156" t="s">
+      <c r="M105" s="66" t="s">
         <v>1517</v>
-      </c>
-      <c r="M105" s="66" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="15.75">
@@ -22494,13 +22491,13 @@
       <c r="I106" s="85"/>
       <c r="J106" s="68"/>
       <c r="K106" s="130" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L106" s="156" t="s">
         <v>1519</v>
       </c>
-      <c r="L106" s="156" t="s">
+      <c r="M106" s="66" t="s">
         <v>1520</v>
-      </c>
-      <c r="M106" s="66" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.75">
@@ -22515,13 +22512,13 @@
       <c r="I107" s="85"/>
       <c r="J107" s="68"/>
       <c r="K107" s="130" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L107" s="156" t="s">
         <v>1522</v>
       </c>
-      <c r="L107" s="156" t="s">
+      <c r="M107" s="66" t="s">
         <v>1523</v>
-      </c>
-      <c r="M107" s="66" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15.75">
@@ -22536,13 +22533,13 @@
       <c r="I108" s="85"/>
       <c r="J108" s="68"/>
       <c r="K108" s="130" t="s">
+        <v>1524</v>
+      </c>
+      <c r="L108" s="156" t="s">
         <v>1525</v>
       </c>
-      <c r="L108" s="156" t="s">
+      <c r="M108" s="66" t="s">
         <v>1526</v>
-      </c>
-      <c r="M108" s="66" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="15.75">
@@ -22557,13 +22554,13 @@
       <c r="I109" s="85"/>
       <c r="J109" s="68"/>
       <c r="K109" s="130" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L109" s="156" t="s">
         <v>1528</v>
       </c>
-      <c r="L109" s="156" t="s">
+      <c r="M109" s="66" t="s">
         <v>1529</v>
-      </c>
-      <c r="M109" s="66" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="15.75">
@@ -22578,13 +22575,13 @@
       <c r="I110" s="85"/>
       <c r="J110" s="68"/>
       <c r="K110" s="130" t="s">
+        <v>1530</v>
+      </c>
+      <c r="L110" s="156" t="s">
         <v>1531</v>
       </c>
-      <c r="L110" s="156" t="s">
+      <c r="M110" s="66" t="s">
         <v>1532</v>
-      </c>
-      <c r="M110" s="66" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="15.75">
@@ -22599,13 +22596,13 @@
       <c r="I111" s="85"/>
       <c r="J111" s="68"/>
       <c r="K111" s="130" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L111" s="156" t="s">
         <v>1534</v>
       </c>
-      <c r="L111" s="156" t="s">
+      <c r="M111" s="66" t="s">
         <v>1535</v>
-      </c>
-      <c r="M111" s="66" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="15.75">
@@ -22620,13 +22617,13 @@
       <c r="I112" s="85"/>
       <c r="J112" s="68"/>
       <c r="K112" s="130" t="s">
+        <v>1536</v>
+      </c>
+      <c r="L112" s="156" t="s">
         <v>1537</v>
       </c>
-      <c r="L112" s="156" t="s">
+      <c r="M112" s="66" t="s">
         <v>1538</v>
-      </c>
-      <c r="M112" s="66" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75">
@@ -22641,13 +22638,13 @@
       <c r="I113" s="85"/>
       <c r="J113" s="68"/>
       <c r="K113" s="130" t="s">
+        <v>1539</v>
+      </c>
+      <c r="L113" s="156" t="s">
         <v>1540</v>
       </c>
-      <c r="L113" s="156" t="s">
+      <c r="M113" s="66" t="s">
         <v>1541</v>
-      </c>
-      <c r="M113" s="66" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="90.75" customHeight="1">
@@ -22665,26 +22662,26 @@
         <v>683</v>
       </c>
       <c r="F114" s="94" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G114" s="94" t="s">
         <v>1543</v>
       </c>
-      <c r="G114" s="94" t="s">
+      <c r="H114" s="94" t="s">
         <v>1544</v>
-      </c>
-      <c r="H114" s="94" t="s">
-        <v>1545</v>
       </c>
       <c r="I114" s="94" t="s">
         <v>1086</v>
       </c>
       <c r="J114" s="66"/>
       <c r="K114" s="130" t="s">
+        <v>1545</v>
+      </c>
+      <c r="L114" s="156" t="s">
         <v>1546</v>
       </c>
-      <c r="L114" s="156" t="s">
+      <c r="M114" s="66" t="s">
         <v>1547</v>
-      </c>
-      <c r="M114" s="66" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="15.75">
@@ -22699,13 +22696,13 @@
       <c r="I115" s="85"/>
       <c r="J115" s="68"/>
       <c r="K115" s="130" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L115" s="156" t="s">
         <v>1549</v>
       </c>
-      <c r="L115" s="156" t="s">
+      <c r="M115" s="66" t="s">
         <v>1550</v>
-      </c>
-      <c r="M115" s="66" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="15.75">
@@ -22720,13 +22717,13 @@
       <c r="I116" s="85"/>
       <c r="J116" s="68"/>
       <c r="K116" s="130" t="s">
+        <v>1551</v>
+      </c>
+      <c r="L116" s="156" t="s">
         <v>1552</v>
       </c>
-      <c r="L116" s="156" t="s">
+      <c r="M116" s="66" t="s">
         <v>1553</v>
-      </c>
-      <c r="M116" s="66" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="15.75">
@@ -22741,13 +22738,13 @@
       <c r="I117" s="85"/>
       <c r="J117" s="68"/>
       <c r="K117" s="130" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L117" s="220" t="s">
         <v>1555</v>
       </c>
-      <c r="L117" s="220" t="s">
+      <c r="M117" s="66" t="s">
         <v>1556</v>
-      </c>
-      <c r="M117" s="66" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="15.75">
@@ -22762,13 +22759,13 @@
       <c r="I118" s="85"/>
       <c r="J118" s="68"/>
       <c r="K118" s="130" t="s">
+        <v>1557</v>
+      </c>
+      <c r="L118" s="156" t="s">
         <v>1558</v>
       </c>
-      <c r="L118" s="156" t="s">
+      <c r="M118" s="66" t="s">
         <v>1559</v>
-      </c>
-      <c r="M118" s="66" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="88.5" customHeight="1">
@@ -22786,26 +22783,26 @@
         <v>692</v>
       </c>
       <c r="F119" s="94" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G119" s="94" t="s">
         <v>1561</v>
       </c>
-      <c r="G119" s="94" t="s">
-        <v>1562</v>
-      </c>
       <c r="H119" s="94" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="I119" s="94" t="s">
         <v>1086</v>
       </c>
       <c r="J119" s="66"/>
       <c r="K119" s="130" t="s">
+        <v>1562</v>
+      </c>
+      <c r="L119" s="156" t="s">
         <v>1563</v>
       </c>
-      <c r="L119" s="156" t="s">
+      <c r="M119" s="156" t="s">
         <v>1564</v>
-      </c>
-      <c r="M119" s="156" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="15.75">
@@ -22820,13 +22817,13 @@
       <c r="I120" s="85"/>
       <c r="J120" s="68"/>
       <c r="K120" s="130" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L120" s="156" t="s">
         <v>1566</v>
       </c>
-      <c r="L120" s="156" t="s">
+      <c r="M120" s="156" t="s">
         <v>1567</v>
-      </c>
-      <c r="M120" s="156" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="15.75">
@@ -22841,13 +22838,13 @@
       <c r="I121" s="85"/>
       <c r="J121" s="68"/>
       <c r="K121" s="130" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L121" s="156" t="s">
         <v>1569</v>
       </c>
-      <c r="L121" s="156" t="s">
+      <c r="M121" s="66" t="s">
         <v>1570</v>
-      </c>
-      <c r="M121" s="66" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="15.75">
@@ -22862,13 +22859,13 @@
       <c r="I122" s="85"/>
       <c r="J122" s="68"/>
       <c r="K122" s="130" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L122" s="156" t="s">
         <v>1572</v>
       </c>
-      <c r="L122" s="156" t="s">
+      <c r="M122" s="156" t="s">
         <v>1573</v>
-      </c>
-      <c r="M122" s="156" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="15.75">
@@ -22883,13 +22880,13 @@
       <c r="I123" s="85"/>
       <c r="J123" s="68"/>
       <c r="K123" s="130" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L123" s="156" t="s">
         <v>1575</v>
       </c>
-      <c r="L123" s="156" t="s">
+      <c r="M123" s="156" t="s">
         <v>1576</v>
-      </c>
-      <c r="M123" s="156" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="15.75">
@@ -22904,13 +22901,13 @@
       <c r="I124" s="85"/>
       <c r="J124" s="68"/>
       <c r="K124" s="130" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L124" s="156" t="s">
         <v>1578</v>
       </c>
-      <c r="L124" s="156" t="s">
+      <c r="M124" s="156" t="s">
         <v>1579</v>
-      </c>
-      <c r="M124" s="156" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="15.75">
@@ -22925,13 +22922,13 @@
       <c r="I125" s="85"/>
       <c r="J125" s="68"/>
       <c r="K125" s="130" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L125" s="156" t="s">
         <v>1581</v>
       </c>
-      <c r="L125" s="156" t="s">
+      <c r="M125" s="66" t="s">
         <v>1582</v>
-      </c>
-      <c r="M125" s="66" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="15.75">
@@ -22946,13 +22943,13 @@
       <c r="I126" s="85"/>
       <c r="J126" s="68"/>
       <c r="K126" s="130" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L126" s="156" t="s">
         <v>1584</v>
       </c>
-      <c r="L126" s="156" t="s">
+      <c r="M126" t="s">
         <v>1585</v>
-      </c>
-      <c r="M126" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="69.75" customHeight="1">
@@ -22961,35 +22958,35 @@
         <v>687</v>
       </c>
       <c r="C127" s="195" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D127" s="96" t="s">
         <v>690</v>
       </c>
       <c r="E127" s="196" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F127" s="85" t="s">
         <v>1588</v>
       </c>
-      <c r="F127" s="85" t="s">
+      <c r="G127" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="G127" s="85" t="s">
+      <c r="H127" s="203" t="s">
         <v>1590</v>
-      </c>
-      <c r="H127" s="203" t="s">
-        <v>1591</v>
       </c>
       <c r="I127" s="85" t="s">
         <v>895</v>
       </c>
       <c r="J127" s="68"/>
       <c r="K127" s="130" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L127" s="156" t="s">
         <v>1592</v>
       </c>
-      <c r="L127" s="156" t="s">
+      <c r="M127" s="156" t="s">
         <v>1593</v>
-      </c>
-      <c r="M127" s="156" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="15.75">
@@ -23004,13 +23001,13 @@
       <c r="I128" s="85"/>
       <c r="J128" s="68"/>
       <c r="K128" s="130" t="s">
+        <v>1594</v>
+      </c>
+      <c r="L128" s="156" t="s">
         <v>1595</v>
       </c>
-      <c r="L128" s="156" t="s">
+      <c r="M128" s="156" t="s">
         <v>1596</v>
-      </c>
-      <c r="M128" s="156" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="15.75">
@@ -23025,13 +23022,13 @@
       <c r="I129" s="85"/>
       <c r="J129" s="68"/>
       <c r="K129" s="130" t="s">
+        <v>1597</v>
+      </c>
+      <c r="L129" s="156" t="s">
         <v>1598</v>
       </c>
-      <c r="L129" s="156" t="s">
+      <c r="M129" s="156" t="s">
         <v>1599</v>
-      </c>
-      <c r="M129" s="156" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="15.75">
@@ -23046,13 +23043,13 @@
       <c r="I130" s="85"/>
       <c r="J130" s="68"/>
       <c r="K130" s="130" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L130" s="156" t="s">
         <v>1601</v>
       </c>
-      <c r="L130" s="156" t="s">
+      <c r="M130" s="156" t="s">
         <v>1602</v>
-      </c>
-      <c r="M130" s="156" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="15.75">
@@ -23067,13 +23064,13 @@
       <c r="I131" s="85"/>
       <c r="J131" s="68"/>
       <c r="K131" s="130" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L131" s="156" t="s">
         <v>1604</v>
       </c>
-      <c r="L131" s="156" t="s">
+      <c r="M131" s="66" t="s">
         <v>1605</v>
-      </c>
-      <c r="M131" s="66" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="15.75">
@@ -23088,13 +23085,13 @@
       <c r="I132" s="85"/>
       <c r="J132" s="68"/>
       <c r="K132" s="130" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L132" s="156" t="s">
         <v>1607</v>
       </c>
-      <c r="L132" s="156" t="s">
+      <c r="M132" s="156" t="s">
         <v>1608</v>
-      </c>
-      <c r="M132" s="156" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="15.75">
@@ -23109,13 +23106,13 @@
       <c r="I133" s="85"/>
       <c r="J133" s="68"/>
       <c r="K133" s="130" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L133" s="156" t="s">
         <v>1610</v>
       </c>
-      <c r="L133" s="156" t="s">
+      <c r="M133" s="156" t="s">
         <v>1611</v>
-      </c>
-      <c r="M133" s="156" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="15.75">
@@ -23130,13 +23127,13 @@
       <c r="I134" s="85"/>
       <c r="J134" s="68"/>
       <c r="K134" s="130" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L134" s="156" t="s">
         <v>1613</v>
       </c>
-      <c r="L134" s="156" t="s">
+      <c r="M134" s="156" t="s">
         <v>1614</v>
-      </c>
-      <c r="M134" s="156" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="15.75">
@@ -23151,13 +23148,13 @@
       <c r="I135" s="85"/>
       <c r="J135" s="68"/>
       <c r="K135" s="130" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L135" s="156" t="s">
         <v>1616</v>
       </c>
-      <c r="L135" s="156" t="s">
+      <c r="M135" s="156" t="s">
         <v>1617</v>
-      </c>
-      <c r="M135" s="156" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="15.75">
@@ -23178,7 +23175,7 @@
         <v>946</v>
       </c>
       <c r="M136" s="175" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="15.75">
@@ -23193,13 +23190,13 @@
       <c r="I137" s="85"/>
       <c r="J137" s="68"/>
       <c r="K137" s="130" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L137" s="156" t="s">
         <v>1620</v>
       </c>
-      <c r="L137" s="156" t="s">
+      <c r="M137" s="66" t="s">
         <v>1621</v>
-      </c>
-      <c r="M137" s="66" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="15.75">
@@ -23213,13 +23210,13 @@
       <c r="I138" s="85"/>
       <c r="J138" s="68"/>
       <c r="K138" s="130" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L138" s="156" t="s">
         <v>1623</v>
       </c>
-      <c r="L138" s="156" t="s">
+      <c r="M138" s="66" t="s">
         <v>1624</v>
-      </c>
-      <c r="M138" s="66" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="92.25" customHeight="1">
@@ -23228,25 +23225,25 @@
         <v>741</v>
       </c>
       <c r="C139" s="195" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D139" s="98" t="s">
         <v>744</v>
       </c>
       <c r="E139" s="196" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F139" s="85" t="s">
         <v>742</v>
       </c>
       <c r="G139" s="203" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H139" s="223" t="s">
         <v>1628</v>
       </c>
-      <c r="H139" s="223" t="s">
-        <v>1629</v>
-      </c>
       <c r="I139" s="85" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J139" s="68"/>
       <c r="K139" s="68"/>
@@ -23257,11 +23254,11 @@
       <c r="A140" s="287"/>
       <c r="B140" s="83"/>
       <c r="C140" s="195" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D140" s="98"/>
       <c r="E140" s="84" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F140" s="85"/>
       <c r="G140" s="85"/>
@@ -23278,25 +23275,25 @@
         <v>749</v>
       </c>
       <c r="C141" s="195" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D141" s="96" t="s">
         <v>752</v>
       </c>
       <c r="E141" s="196" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F141" s="85" t="s">
         <v>1632</v>
       </c>
-      <c r="F141" s="85" t="s">
+      <c r="G141" s="85" t="s">
         <v>1633</v>
       </c>
-      <c r="G141" s="85" t="s">
+      <c r="H141" s="85" t="s">
         <v>1634</v>
       </c>
-      <c r="H141" s="85" t="s">
-        <v>1635</v>
-      </c>
       <c r="I141" s="85" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J141" s="68"/>
       <c r="K141" s="68"/>
@@ -23305,31 +23302,31 @@
     </row>
     <row r="142" spans="1:13" ht="271.5" customHeight="1">
       <c r="A142" s="283" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B142" s="89" t="s">
         <v>722</v>
       </c>
       <c r="C142" s="224" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D142" s="129" t="s">
         <v>1637</v>
       </c>
-      <c r="D142" s="129" t="s">
+      <c r="E142" s="225" t="s">
         <v>1638</v>
       </c>
-      <c r="E142" s="225" t="s">
+      <c r="F142" s="89" t="s">
         <v>1639</v>
       </c>
-      <c r="F142" s="89" t="s">
+      <c r="G142" s="94" t="s">
         <v>1640</v>
       </c>
-      <c r="G142" s="94" t="s">
+      <c r="H142" s="94" t="s">
         <v>1641</v>
       </c>
-      <c r="H142" s="94" t="s">
-        <v>1642</v>
-      </c>
       <c r="I142" s="94" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J142" s="66"/>
       <c r="K142" s="66"/>
@@ -23339,22 +23336,22 @@
     <row r="143" spans="1:13" ht="15.75">
       <c r="A143" s="283"/>
       <c r="B143" s="93" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C143" s="224" t="s">
         <v>1643</v>
       </c>
-      <c r="C143" s="224" t="s">
+      <c r="D143" s="226" t="s">
         <v>1644</v>
       </c>
-      <c r="D143" s="226" t="s">
+      <c r="E143" s="129" t="s">
         <v>1645</v>
-      </c>
-      <c r="E143" s="129" t="s">
-        <v>1646</v>
       </c>
       <c r="F143" s="85"/>
       <c r="G143" s="85"/>
       <c r="H143" s="85"/>
       <c r="I143" s="85" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J143" s="68"/>
       <c r="K143" s="68"/>
@@ -23364,22 +23361,22 @@
     <row r="144" spans="1:13" ht="15.75">
       <c r="A144" s="283"/>
       <c r="B144" s="89" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C144" s="224" t="s">
         <v>1647</v>
       </c>
-      <c r="C144" s="224" t="s">
+      <c r="D144" s="129" t="s">
         <v>1648</v>
       </c>
-      <c r="D144" s="129" t="s">
+      <c r="E144" s="129" t="s">
         <v>1649</v>
-      </c>
-      <c r="E144" s="129" t="s">
-        <v>1650</v>
       </c>
       <c r="F144" s="85"/>
       <c r="G144" s="85"/>
       <c r="H144" s="85"/>
       <c r="I144" s="85" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J144" s="68"/>
       <c r="K144" s="68"/>
@@ -23389,16 +23386,16 @@
     <row r="145" spans="1:13" ht="15.75">
       <c r="A145" s="283"/>
       <c r="B145" s="89" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C145" s="224" t="s">
         <v>1651</v>
       </c>
-      <c r="C145" s="224" t="s">
+      <c r="D145" s="129" t="s">
         <v>1652</v>
       </c>
-      <c r="D145" s="129" t="s">
+      <c r="E145" s="129" t="s">
         <v>1653</v>
-      </c>
-      <c r="E145" s="129" t="s">
-        <v>1654</v>
       </c>
       <c r="F145" s="85"/>
       <c r="G145" s="85"/>
@@ -23408,13 +23405,13 @@
       </c>
       <c r="J145" s="68"/>
       <c r="K145" s="130" t="s">
+        <v>1654</v>
+      </c>
+      <c r="L145" s="227" t="s">
         <v>1655</v>
       </c>
-      <c r="L145" s="227" t="s">
+      <c r="M145" s="128" t="s">
         <v>1656</v>
-      </c>
-      <c r="M145" s="128" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="15.75">
@@ -23429,13 +23426,13 @@
       <c r="I146" s="85"/>
       <c r="J146" s="68"/>
       <c r="K146" s="130" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L146" s="228" t="s">
         <v>1658</v>
       </c>
-      <c r="L146" s="228" t="s">
+      <c r="M146" s="129" t="s">
         <v>1659</v>
-      </c>
-      <c r="M146" s="129" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="15.75">
@@ -23450,13 +23447,13 @@
       <c r="I147" s="85"/>
       <c r="J147" s="68"/>
       <c r="K147" s="130" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L147" s="228" t="s">
         <v>1661</v>
       </c>
-      <c r="L147" s="228" t="s">
+      <c r="M147" s="129" t="s">
         <v>1662</v>
-      </c>
-      <c r="M147" s="129" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="15.75">
@@ -23471,13 +23468,13 @@
       <c r="I148" s="85"/>
       <c r="J148" s="68"/>
       <c r="K148" s="130" t="s">
+        <v>1663</v>
+      </c>
+      <c r="L148" s="228" t="s">
         <v>1664</v>
       </c>
-      <c r="L148" s="228" t="s">
+      <c r="M148" s="129" t="s">
         <v>1665</v>
-      </c>
-      <c r="M148" s="129" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="15.75">
@@ -23492,13 +23489,13 @@
       <c r="I149" s="85"/>
       <c r="J149" s="68"/>
       <c r="K149" s="130" t="s">
+        <v>1666</v>
+      </c>
+      <c r="L149" s="228" t="s">
         <v>1667</v>
       </c>
-      <c r="L149" s="228" t="s">
+      <c r="M149" s="129" t="s">
         <v>1668</v>
-      </c>
-      <c r="M149" s="129" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="15.75">
@@ -23513,13 +23510,13 @@
       <c r="I150" s="85"/>
       <c r="J150" s="68"/>
       <c r="K150" s="130" t="s">
+        <v>1669</v>
+      </c>
+      <c r="L150" s="228" t="s">
         <v>1670</v>
       </c>
-      <c r="L150" s="228" t="s">
+      <c r="M150" s="129" t="s">
         <v>1671</v>
-      </c>
-      <c r="M150" s="129" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="15.75">
@@ -23534,13 +23531,13 @@
       <c r="I151" s="85"/>
       <c r="J151" s="68"/>
       <c r="K151" s="130" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L151" s="228" t="s">
         <v>1673</v>
       </c>
-      <c r="L151" s="228" t="s">
+      <c r="M151" s="129" t="s">
         <v>1674</v>
-      </c>
-      <c r="M151" s="129" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="15.75">
@@ -23555,13 +23552,13 @@
       <c r="I152" s="85"/>
       <c r="J152" s="68"/>
       <c r="K152" s="130" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L152" s="228" t="s">
         <v>1676</v>
       </c>
-      <c r="L152" s="228" t="s">
+      <c r="M152" s="129" t="s">
         <v>1677</v>
-      </c>
-      <c r="M152" s="129" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="15.75">
@@ -23576,13 +23573,13 @@
       <c r="I153" s="85"/>
       <c r="J153" s="68"/>
       <c r="K153" s="130" t="s">
+        <v>1678</v>
+      </c>
+      <c r="L153" s="228" t="s">
         <v>1679</v>
       </c>
-      <c r="L153" s="228" t="s">
+      <c r="M153" s="129" t="s">
         <v>1680</v>
-      </c>
-      <c r="M153" s="129" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="15.75">
@@ -23597,13 +23594,13 @@
       <c r="I154" s="85"/>
       <c r="J154" s="68"/>
       <c r="K154" s="130" t="s">
+        <v>1681</v>
+      </c>
+      <c r="L154" s="228" t="s">
         <v>1682</v>
       </c>
-      <c r="L154" s="228" t="s">
+      <c r="M154" s="129" t="s">
         <v>1683</v>
-      </c>
-      <c r="M154" s="129" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="15.75">
@@ -23618,13 +23615,13 @@
       <c r="I155" s="85"/>
       <c r="J155" s="68"/>
       <c r="K155" s="130" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L155" s="228" t="s">
         <v>1685</v>
       </c>
-      <c r="L155" s="228" t="s">
+      <c r="M155" s="129" t="s">
         <v>1686</v>
-      </c>
-      <c r="M155" s="129" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="15.75">
@@ -23639,13 +23636,13 @@
       <c r="I156" s="85"/>
       <c r="J156" s="68"/>
       <c r="K156" s="130" t="s">
+        <v>1687</v>
+      </c>
+      <c r="L156" s="228" t="s">
         <v>1688</v>
       </c>
-      <c r="L156" s="228" t="s">
+      <c r="M156" s="129" t="s">
         <v>1689</v>
-      </c>
-      <c r="M156" s="129" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="15.75">
@@ -23660,13 +23657,13 @@
       <c r="I157" s="85"/>
       <c r="J157" s="68"/>
       <c r="K157" s="130" t="s">
+        <v>1690</v>
+      </c>
+      <c r="L157" s="228" t="s">
         <v>1691</v>
       </c>
-      <c r="L157" s="228" t="s">
+      <c r="M157" s="129" t="s">
         <v>1692</v>
-      </c>
-      <c r="M157" s="129" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="15.75">
@@ -23681,13 +23678,13 @@
       <c r="I158" s="85"/>
       <c r="J158" s="68"/>
       <c r="K158" s="130" t="s">
+        <v>1693</v>
+      </c>
+      <c r="L158" s="228" t="s">
         <v>1694</v>
       </c>
-      <c r="L158" s="228" t="s">
+      <c r="M158" s="129" t="s">
         <v>1695</v>
-      </c>
-      <c r="M158" s="129" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="15.75">
@@ -23702,34 +23699,34 @@
       <c r="I159" s="85"/>
       <c r="J159" s="68"/>
       <c r="K159" s="130" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L159" s="228" t="s">
         <v>1697</v>
       </c>
-      <c r="L159" s="228" t="s">
+      <c r="M159" s="129" t="s">
         <v>1698</v>
-      </c>
-      <c r="M159" s="129" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="15.75">
       <c r="A160" s="283"/>
       <c r="B160" s="89" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C160" s="224" t="s">
         <v>1700</v>
       </c>
-      <c r="C160" s="224" t="s">
+      <c r="D160" s="129" t="s">
         <v>1701</v>
       </c>
-      <c r="D160" s="129" t="s">
+      <c r="E160" s="227" t="s">
         <v>1702</v>
-      </c>
-      <c r="E160" s="227" t="s">
-        <v>1703</v>
       </c>
       <c r="F160" s="85"/>
       <c r="G160" s="85"/>
       <c r="H160" s="85"/>
       <c r="I160" s="85" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J160" s="68"/>
       <c r="K160" s="68"/>
@@ -23739,22 +23736,22 @@
     <row r="161" spans="1:13" ht="15.75">
       <c r="A161" s="283"/>
       <c r="B161" s="89" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C161" s="224" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D161" s="129" t="s">
         <v>1704</v>
       </c>
-      <c r="C161" s="224" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D161" s="129" t="s">
+      <c r="E161" s="229" t="s">
         <v>1705</v>
-      </c>
-      <c r="E161" s="229" t="s">
-        <v>1706</v>
       </c>
       <c r="F161" s="85"/>
       <c r="G161" s="85"/>
       <c r="H161" s="85"/>
       <c r="I161" s="85" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J161" s="68"/>
       <c r="K161" s="68"/>
@@ -23815,19 +23812,19 @@
         <v>8</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G1" s="79" t="s">
         <v>817</v>
       </c>
       <c r="H1" s="79" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>1707</v>
+      </c>
+      <c r="J1" s="80" t="s">
         <v>1147</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>1708</v>
-      </c>
-      <c r="J1" s="80" t="s">
-        <v>1148</v>
       </c>
       <c r="K1" s="80" t="s">
         <v>821</v>
@@ -23841,31 +23838,31 @@
     </row>
     <row r="2" spans="1:13" ht="101.25" customHeight="1">
       <c r="A2" s="288" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B2" s="250" t="s">
         <v>1709</v>
       </c>
-      <c r="B2" s="250" t="s">
+      <c r="C2" s="67" t="s">
         <v>1710</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>1711</v>
       </c>
       <c r="D2" s="251" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="78" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F2" s="145" t="s">
         <v>1712</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="G2" s="230" t="s">
         <v>1713</v>
       </c>
-      <c r="G2" s="230" t="s">
+      <c r="H2" s="145" t="s">
         <v>1714</v>
       </c>
-      <c r="H2" s="145" t="s">
-        <v>1715</v>
-      </c>
       <c r="I2" s="78" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J2" s="78"/>
       <c r="K2" s="116" t="s">
@@ -23911,19 +23908,19 @@
         <v>142</v>
       </c>
       <c r="E4" s="78" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F4" s="78" t="s">
         <v>1716</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="G4" s="231" t="s">
         <v>1717</v>
       </c>
-      <c r="G4" s="231" t="s">
+      <c r="H4" s="78" t="s">
         <v>1718</v>
       </c>
-      <c r="H4" s="78" t="s">
-        <v>1719</v>
-      </c>
       <c r="I4" s="78" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J4" s="78"/>
       <c r="K4" s="78"/>
@@ -23942,19 +23939,19 @@
         <v>151</v>
       </c>
       <c r="E5" s="78" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F5" s="78" t="s">
         <v>1720</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="G5" s="78" t="s">
         <v>1721</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="H5" s="78" t="s">
         <v>1722</v>
       </c>
-      <c r="H5" s="78" t="s">
-        <v>1723</v>
-      </c>
       <c r="I5" s="78" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J5" s="78"/>
       <c r="K5" s="78"/>
@@ -23976,16 +23973,16 @@
         <v>162</v>
       </c>
       <c r="F6" s="78" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G6" s="78" t="s">
         <v>1724</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="H6" s="78" t="s">
         <v>1725</v>
       </c>
-      <c r="H6" s="78" t="s">
-        <v>1726</v>
-      </c>
       <c r="I6" s="78" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J6" s="78"/>
       <c r="L6" s="78"/>
@@ -24006,26 +24003,26 @@
         <v>746</v>
       </c>
       <c r="F7" s="145" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G7" s="230" t="s">
         <v>1727</v>
       </c>
-      <c r="G7" s="230" t="s">
+      <c r="H7" s="230" t="s">
         <v>1728</v>
-      </c>
-      <c r="H7" s="230" t="s">
-        <v>1729</v>
       </c>
       <c r="I7" s="78" t="s">
         <v>1086</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="78" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L7" s="231" t="s">
         <v>1730</v>
       </c>
-      <c r="L7" s="231" t="s">
+      <c r="M7" s="231" t="s">
         <v>1731</v>
-      </c>
-      <c r="M7" s="231" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="75">
@@ -24040,13 +24037,13 @@
       <c r="I8" s="78"/>
       <c r="J8" s="78"/>
       <c r="K8" s="78" t="s">
+        <v>1732</v>
+      </c>
+      <c r="L8" s="231" t="s">
         <v>1733</v>
       </c>
-      <c r="L8" s="231" t="s">
+      <c r="M8" s="231" t="s">
         <v>1734</v>
-      </c>
-      <c r="M8" s="231" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="105">
@@ -24061,13 +24058,13 @@
       <c r="I9" s="78"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L9" s="231" t="s">
         <v>1736</v>
       </c>
-      <c r="L9" s="231" t="s">
+      <c r="M9" s="231" t="s">
         <v>1737</v>
-      </c>
-      <c r="M9" s="231" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="105">
@@ -24082,13 +24079,13 @@
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L10" s="231" t="s">
         <v>1739</v>
       </c>
-      <c r="L10" s="231" t="s">
+      <c r="M10" s="231" t="s">
         <v>1740</v>
-      </c>
-      <c r="M10" s="231" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="84.75" customHeight="1">
@@ -24103,13 +24100,13 @@
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78" t="s">
+        <v>1741</v>
+      </c>
+      <c r="L11" s="78" t="s">
         <v>1742</v>
       </c>
-      <c r="L11" s="78" t="s">
+      <c r="M11" s="231" t="s">
         <v>1743</v>
-      </c>
-      <c r="M11" s="231" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -24124,13 +24121,13 @@
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
       <c r="K12" s="78" t="s">
+        <v>1744</v>
+      </c>
+      <c r="L12" s="78" t="s">
         <v>1745</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="M12" s="231" t="s">
         <v>1746</v>
-      </c>
-      <c r="M12" s="231" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -24145,18 +24142,18 @@
       <c r="I13" s="78"/>
       <c r="J13" s="78"/>
       <c r="K13" s="78" t="s">
+        <v>1747</v>
+      </c>
+      <c r="L13" s="78" t="s">
         <v>1748</v>
       </c>
-      <c r="L13" s="78" t="s">
+      <c r="M13" s="231" t="s">
         <v>1749</v>
-      </c>
-      <c r="M13" s="231" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30">
       <c r="A14" s="288" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B14" s="250" t="s">
         <v>165</v>
@@ -24171,26 +24168,26 @@
         <v>170</v>
       </c>
       <c r="F14" s="78" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G14" s="78" t="s">
         <v>1752</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="H14" s="233" t="s">
         <v>1753</v>
       </c>
-      <c r="H14" s="233" t="s">
-        <v>1754</v>
-      </c>
       <c r="I14" s="78" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J14" s="78"/>
       <c r="K14" s="78" t="s">
+        <v>1754</v>
+      </c>
+      <c r="L14" s="231" t="s">
         <v>1755</v>
       </c>
-      <c r="L14" s="231" t="s">
+      <c r="M14" s="231" t="s">
         <v>1756</v>
-      </c>
-      <c r="M14" s="231" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="62.25" customHeight="1">
@@ -24208,26 +24205,26 @@
         <v>179</v>
       </c>
       <c r="F15" s="145" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G15" s="230" t="s">
         <v>1758</v>
       </c>
-      <c r="G15" s="230" t="s">
+      <c r="H15" s="230" t="s">
         <v>1759</v>
-      </c>
-      <c r="H15" s="230" t="s">
-        <v>1760</v>
       </c>
       <c r="I15" s="78" t="s">
         <v>1086</v>
       </c>
       <c r="J15" s="78"/>
       <c r="K15" s="78" t="s">
+        <v>1760</v>
+      </c>
+      <c r="L15" s="231" t="s">
         <v>1761</v>
       </c>
-      <c r="L15" s="231" t="s">
+      <c r="M15" s="231" t="s">
         <v>1762</v>
-      </c>
-      <c r="M15" s="231" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -24242,13 +24239,13 @@
       <c r="I16" s="78"/>
       <c r="J16" s="78"/>
       <c r="K16" s="78" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L16" s="231" t="s">
         <v>1764</v>
       </c>
-      <c r="L16" s="231" t="s">
+      <c r="M16" s="231" t="s">
         <v>1765</v>
-      </c>
-      <c r="M16" s="231" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -24269,7 +24266,7 @@
         <v>946</v>
       </c>
       <c r="M17" s="231" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="77.25" customHeight="1">
@@ -24287,26 +24284,26 @@
         <v>188</v>
       </c>
       <c r="F18" s="145" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G18" s="145" t="s">
         <v>1768</v>
       </c>
-      <c r="G18" s="145" t="s">
+      <c r="H18" s="145" t="s">
         <v>1769</v>
-      </c>
-      <c r="H18" s="145" t="s">
-        <v>1770</v>
       </c>
       <c r="I18" s="78" t="s">
         <v>1086</v>
       </c>
       <c r="J18" s="78"/>
       <c r="K18" s="78" t="s">
+        <v>1770</v>
+      </c>
+      <c r="L18" s="78" t="s">
         <v>1771</v>
       </c>
-      <c r="L18" s="78" t="s">
+      <c r="M18" s="78" t="s">
         <v>1772</v>
-      </c>
-      <c r="M18" s="78" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
@@ -24321,13 +24318,13 @@
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="78" t="s">
+        <v>1773</v>
+      </c>
+      <c r="L19" s="78" t="s">
         <v>1774</v>
       </c>
-      <c r="L19" s="78" t="s">
+      <c r="M19" s="78" t="s">
         <v>1775</v>
-      </c>
-      <c r="M19" s="78" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
@@ -24342,13 +24339,13 @@
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="78" t="s">
+        <v>1776</v>
+      </c>
+      <c r="L20" s="78" t="s">
         <v>1777</v>
       </c>
-      <c r="L20" s="78" t="s">
+      <c r="M20" s="78" t="s">
         <v>1778</v>
-      </c>
-      <c r="M20" s="78" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
@@ -24363,13 +24360,13 @@
       <c r="I21" s="78"/>
       <c r="J21" s="78"/>
       <c r="K21" s="78" t="s">
+        <v>1779</v>
+      </c>
+      <c r="L21" s="78" t="s">
         <v>1780</v>
       </c>
-      <c r="L21" s="78" t="s">
+      <c r="M21" s="78" t="s">
         <v>1781</v>
-      </c>
-      <c r="M21" s="78" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="45" customHeight="1">
@@ -24384,13 +24381,13 @@
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78" t="s">
+        <v>1782</v>
+      </c>
+      <c r="L22" s="78" t="s">
         <v>1783</v>
       </c>
-      <c r="L22" s="78" t="s">
+      <c r="M22" s="78" t="s">
         <v>1784</v>
-      </c>
-      <c r="M22" s="78" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="63" customHeight="1">
@@ -24402,32 +24399,32 @@
         <v>194</v>
       </c>
       <c r="D23" s="251" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E23" s="78" t="s">
         <v>197</v>
       </c>
       <c r="F23" s="78" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G23" s="231" t="s">
         <v>1787</v>
       </c>
-      <c r="G23" s="231" t="s">
+      <c r="H23" s="234" t="s">
         <v>1788</v>
       </c>
-      <c r="H23" s="234" t="s">
+      <c r="I23" s="78" t="s">
         <v>1789</v>
-      </c>
-      <c r="I23" s="78" t="s">
-        <v>1790</v>
       </c>
       <c r="J23" s="78"/>
       <c r="K23" s="78" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L23" s="231" t="s">
         <v>1791</v>
       </c>
-      <c r="L23" s="231" t="s">
+      <c r="M23" s="231" t="s">
         <v>1792</v>
-      </c>
-      <c r="M23" s="231" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -24440,17 +24437,17 @@
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
       <c r="I24" s="78" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="J24" s="78"/>
       <c r="K24" s="78" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L24" s="231" t="s">
         <v>1794</v>
       </c>
-      <c r="L24" s="231" t="s">
+      <c r="M24" s="231" t="s">
         <v>1795</v>
-      </c>
-      <c r="M24" s="231" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="59.25" customHeight="1">
@@ -24468,16 +24465,16 @@
         <v>206</v>
       </c>
       <c r="F25" s="78" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G25" s="231" t="s">
         <v>1797</v>
       </c>
-      <c r="G25" s="231" t="s">
+      <c r="H25" s="78" t="s">
         <v>1798</v>
       </c>
-      <c r="H25" s="78" t="s">
-        <v>1799</v>
-      </c>
       <c r="I25" s="78" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J25" s="78"/>
       <c r="K25" s="78"/>
@@ -24499,26 +24496,26 @@
         <v>214</v>
       </c>
       <c r="F26" s="78" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G26" s="78" t="s">
         <v>1800</v>
       </c>
-      <c r="G26" s="78" t="s">
+      <c r="H26" s="78" t="s">
         <v>1801</v>
       </c>
-      <c r="H26" s="78" t="s">
-        <v>1802</v>
-      </c>
       <c r="I26" s="78" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J26" s="78"/>
       <c r="K26" s="78" t="s">
+        <v>1802</v>
+      </c>
+      <c r="L26" s="231" t="s">
         <v>1803</v>
       </c>
-      <c r="L26" s="231" t="s">
+      <c r="M26" s="231" t="s">
         <v>1804</v>
-      </c>
-      <c r="M26" s="231" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="52.5" customHeight="1">
@@ -24536,53 +24533,53 @@
         <v>223</v>
       </c>
       <c r="F27" s="78" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G27" s="78" t="s">
         <v>1806</v>
       </c>
-      <c r="G27" s="78" t="s">
+      <c r="H27" s="78" t="s">
         <v>1807</v>
       </c>
-      <c r="H27" s="78" t="s">
-        <v>1808</v>
-      </c>
       <c r="I27" s="78" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J27" s="78"/>
       <c r="K27" s="78" t="s">
+        <v>1808</v>
+      </c>
+      <c r="L27" s="231" t="s">
         <v>1809</v>
       </c>
-      <c r="L27" s="231" t="s">
+      <c r="M27" s="231" t="s">
         <v>1810</v>
-      </c>
-      <c r="M27" s="231" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="65.25" customHeight="1">
       <c r="A28" s="289"/>
       <c r="B28" s="250" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="251" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E28" s="78" t="s">
         <v>232</v>
       </c>
       <c r="F28" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G28" s="78" t="s">
         <v>1814</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="H28" t="s">
         <v>1815</v>
       </c>
-      <c r="H28" t="s">
-        <v>1816</v>
-      </c>
       <c r="I28" s="78" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J28" s="78"/>
       <c r="K28" s="78"/>
@@ -24598,22 +24595,22 @@
         <v>237</v>
       </c>
       <c r="D29" s="251" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E29" s="78" t="s">
         <v>240</v>
       </c>
       <c r="F29" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G29" s="78" t="s">
         <v>1814</v>
       </c>
-      <c r="G29" s="78" t="s">
+      <c r="H29" t="s">
         <v>1815</v>
       </c>
-      <c r="H29" t="s">
-        <v>1816</v>
-      </c>
       <c r="I29" s="231" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J29" s="78"/>
       <c r="K29" s="78"/>
@@ -24623,7 +24620,7 @@
     <row r="30" spans="1:13" ht="62.25" customHeight="1">
       <c r="A30" s="290"/>
       <c r="B30" s="250" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C30" s="68" t="s">
         <v>386</v>
@@ -24632,19 +24629,19 @@
         <v>387</v>
       </c>
       <c r="E30" s="231" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F30" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G30" s="78" t="s">
         <v>1814</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="H30" s="235" t="s">
         <v>1815</v>
       </c>
-      <c r="H30" s="235" t="s">
-        <v>1816</v>
-      </c>
       <c r="I30" s="78" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
@@ -24700,19 +24697,19 @@
         <v>8</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>817</v>
       </c>
       <c r="H1" s="70" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I1" s="70" t="s">
         <v>819</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K1" s="67" t="s">
         <v>821</v>
@@ -24726,10 +24723,10 @@
     </row>
     <row r="2" spans="1:13" ht="180">
       <c r="A2" s="285" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>1820</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>1821</v>
       </c>
       <c r="C2" s="65" t="s">
         <v>308</v>
@@ -24738,31 +24735,31 @@
         <v>309</v>
       </c>
       <c r="E2" s="65" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F2" s="99" t="s">
         <v>1822</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="G2" s="100" t="s">
         <v>1823</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="H2" s="236" t="s">
         <v>1824</v>
       </c>
-      <c r="H2" s="236" t="s">
+      <c r="I2" s="101" t="s">
         <v>1825</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="J2" s="94" t="s">
         <v>1826</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="K2" s="237" t="s">
         <v>1827</v>
       </c>
-      <c r="K2" s="237" t="s">
+      <c r="L2" s="228" t="s">
         <v>1828</v>
       </c>
-      <c r="L2" s="228" t="s">
+      <c r="M2" s="129" t="s">
         <v>1829</v>
-      </c>
-      <c r="M2" s="129" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="59.25" customHeight="1">
@@ -24777,13 +24774,13 @@
       <c r="I3" s="103"/>
       <c r="J3" s="85"/>
       <c r="K3" s="237" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L3" s="228" t="s">
         <v>1831</v>
       </c>
-      <c r="L3" s="228" t="s">
+      <c r="M3" s="129" t="s">
         <v>1832</v>
-      </c>
-      <c r="M3" s="129" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="59.25" customHeight="1">
@@ -24798,13 +24795,13 @@
       <c r="I4" s="103"/>
       <c r="J4" s="85"/>
       <c r="K4" s="237" t="s">
+        <v>1833</v>
+      </c>
+      <c r="L4" s="228" t="s">
         <v>1834</v>
       </c>
-      <c r="L4" s="228" t="s">
+      <c r="M4" s="129" t="s">
         <v>1835</v>
-      </c>
-      <c r="M4" s="129" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="69" customHeight="1">
@@ -24819,13 +24816,13 @@
       <c r="I5" s="103"/>
       <c r="J5" s="85"/>
       <c r="K5" s="237" t="s">
+        <v>1836</v>
+      </c>
+      <c r="L5" s="228" t="s">
         <v>1837</v>
       </c>
-      <c r="L5" s="228" t="s">
+      <c r="M5" s="129" t="s">
         <v>1838</v>
-      </c>
-      <c r="M5" s="129" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1">
@@ -24840,13 +24837,13 @@
       <c r="I6" s="103"/>
       <c r="J6" s="85"/>
       <c r="K6" s="237" t="s">
+        <v>1839</v>
+      </c>
+      <c r="L6" s="228" t="s">
         <v>1840</v>
       </c>
-      <c r="L6" s="228" t="s">
+      <c r="M6" s="129" t="s">
         <v>1841</v>
-      </c>
-      <c r="M6" s="129" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="66.75" customHeight="1">
@@ -24861,13 +24858,13 @@
       <c r="I7" s="103"/>
       <c r="J7" s="85"/>
       <c r="K7" s="237" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L7" s="228" t="s">
         <v>1843</v>
       </c>
-      <c r="L7" s="228" t="s">
+      <c r="M7" s="129" t="s">
         <v>1844</v>
-      </c>
-      <c r="M7" s="129" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.25">
@@ -24882,13 +24879,13 @@
       <c r="I8" s="103"/>
       <c r="J8" s="85"/>
       <c r="K8" s="237" t="s">
+        <v>1845</v>
+      </c>
+      <c r="L8" s="129" t="s">
         <v>1846</v>
       </c>
-      <c r="L8" s="129" t="s">
+      <c r="M8" s="129" t="s">
         <v>1847</v>
-      </c>
-      <c r="M8" s="129" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="126">
@@ -24906,19 +24903,19 @@
         <v>320</v>
       </c>
       <c r="F9" s="67" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G9" s="102" t="s">
         <v>1849</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="H9" s="239" t="s">
         <v>1850</v>
       </c>
-      <c r="H9" s="239" t="s">
-        <v>1851</v>
-      </c>
       <c r="I9" s="103" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K9" s="116" t="s">
         <v>958</v>
@@ -24957,7 +24954,7 @@
         <v>325</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>327</v>
@@ -24966,26 +24963,26 @@
         <v>329</v>
       </c>
       <c r="F11" s="67" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G11" s="102" t="s">
         <v>1853</v>
       </c>
-      <c r="G11" s="102" t="s">
+      <c r="H11" s="240" t="s">
         <v>1854</v>
       </c>
-      <c r="H11" s="240" t="s">
-        <v>1855</v>
-      </c>
       <c r="I11" s="102" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="J11" s="67"/>
       <c r="K11" s="67" t="s">
+        <v>1855</v>
+      </c>
+      <c r="L11" s="104" t="s">
         <v>1856</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="M11" s="208" t="s">
         <v>1857</v>
-      </c>
-      <c r="M11" s="208" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.25">
@@ -25000,13 +24997,13 @@
       <c r="I12" s="103"/>
       <c r="J12" s="67"/>
       <c r="K12" s="104" t="s">
+        <v>1858</v>
+      </c>
+      <c r="L12" s="67" t="s">
         <v>1859</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="M12" s="67" t="s">
         <v>1860</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -25021,13 +25018,13 @@
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="104" t="s">
+        <v>1861</v>
+      </c>
+      <c r="L13" s="67" t="s">
         <v>1862</v>
       </c>
-      <c r="L13" s="67" t="s">
+      <c r="M13" s="67" t="s">
         <v>1863</v>
-      </c>
-      <c r="M13" s="67" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30">
@@ -25042,13 +25039,13 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="104" t="s">
+        <v>1864</v>
+      </c>
+      <c r="L14" s="67" t="s">
         <v>1865</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="M14" s="67" t="s">
         <v>1866</v>
-      </c>
-      <c r="M14" s="67" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -25063,13 +25060,13 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
       <c r="K15" s="104" t="s">
+        <v>1867</v>
+      </c>
+      <c r="L15" s="67" t="s">
         <v>1868</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="M15" s="67" t="s">
         <v>1869</v>
-      </c>
-      <c r="M15" s="67" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -25084,13 +25081,13 @@
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
       <c r="K16" s="104" t="s">
+        <v>1870</v>
+      </c>
+      <c r="L16" s="67" t="s">
         <v>1871</v>
       </c>
-      <c r="L16" s="67" t="s">
+      <c r="M16" s="67" t="s">
         <v>1872</v>
-      </c>
-      <c r="M16" s="67" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45">
@@ -25105,13 +25102,13 @@
       <c r="I17" s="67"/>
       <c r="J17" s="67"/>
       <c r="K17" s="104" t="s">
+        <v>1873</v>
+      </c>
+      <c r="L17" s="67" t="s">
         <v>1874</v>
       </c>
-      <c r="L17" s="67" t="s">
+      <c r="M17" s="67" t="s">
         <v>1875</v>
-      </c>
-      <c r="M17" s="67" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="45">
@@ -25126,13 +25123,13 @@
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
       <c r="K18" s="104" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L18" s="67" t="s">
         <v>1877</v>
       </c>
-      <c r="L18" s="67" t="s">
+      <c r="M18" s="67" t="s">
         <v>1878</v>
-      </c>
-      <c r="M18" s="67" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30">
@@ -25147,13 +25144,13 @@
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
       <c r="K19" s="104" t="s">
+        <v>1879</v>
+      </c>
+      <c r="L19" s="67" t="s">
         <v>1880</v>
       </c>
-      <c r="L19" s="67" t="s">
+      <c r="M19" s="67" t="s">
         <v>1881</v>
-      </c>
-      <c r="M19" s="67" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -25168,13 +25165,13 @@
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="104" t="s">
+        <v>1882</v>
+      </c>
+      <c r="L20" s="67" t="s">
         <v>1883</v>
       </c>
-      <c r="L20" s="67" t="s">
+      <c r="M20" s="67" t="s">
         <v>1884</v>
-      </c>
-      <c r="M20" s="67" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -25189,18 +25186,18 @@
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
       <c r="K21" s="67" t="s">
+        <v>1885</v>
+      </c>
+      <c r="L21" s="67" t="s">
         <v>1886</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="M21" s="67" t="s">
         <v>1887</v>
-      </c>
-      <c r="M21" s="67" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="65.25" customHeight="1">
       <c r="A22" s="285" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>334</v>
@@ -25215,16 +25212,16 @@
         <v>339</v>
       </c>
       <c r="F22" s="65" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G22" s="241" t="s">
         <v>1890</v>
       </c>
-      <c r="G22" s="241" t="s">
+      <c r="H22" s="65" t="s">
         <v>1891</v>
       </c>
-      <c r="H22" s="65" t="s">
-        <v>1892</v>
-      </c>
       <c r="I22" s="65" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
@@ -25237,7 +25234,7 @@
         <v>344</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>347</v>
@@ -25246,28 +25243,28 @@
         <v>349</v>
       </c>
       <c r="F23" s="65" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G23" s="173" t="s">
         <v>1894</v>
       </c>
-      <c r="G23" s="173" t="s">
+      <c r="H23" s="65" t="s">
         <v>1895</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>1896</v>
       </c>
       <c r="I23" s="65" t="s">
         <v>1086</v>
       </c>
       <c r="J23" s="65" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K23" s="127" t="s">
         <v>1897</v>
       </c>
-      <c r="K23" s="127" t="s">
+      <c r="L23" s="242" t="s">
         <v>1898</v>
       </c>
-      <c r="L23" s="242" t="s">
+      <c r="M23" s="128" t="s">
         <v>1899</v>
-      </c>
-      <c r="M23" s="128" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -25282,13 +25279,13 @@
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
       <c r="K24" s="127" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L24" s="242" t="s">
         <v>1901</v>
       </c>
-      <c r="L24" s="242" t="s">
+      <c r="M24" s="129" t="s">
         <v>1902</v>
-      </c>
-      <c r="M24" s="129" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75">
@@ -25303,13 +25300,13 @@
       <c r="I25" s="67"/>
       <c r="J25" s="67"/>
       <c r="K25" s="127" t="s">
+        <v>1903</v>
+      </c>
+      <c r="L25" s="242" t="s">
         <v>1904</v>
       </c>
-      <c r="L25" s="242" t="s">
+      <c r="M25" s="129" t="s">
         <v>1905</v>
-      </c>
-      <c r="M25" s="129" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
@@ -25324,13 +25321,13 @@
       <c r="I26" s="67"/>
       <c r="J26" s="67"/>
       <c r="K26" s="127" t="s">
+        <v>1906</v>
+      </c>
+      <c r="L26" s="242" t="s">
         <v>1907</v>
       </c>
-      <c r="L26" s="242" t="s">
+      <c r="M26" s="129" t="s">
         <v>1908</v>
-      </c>
-      <c r="M26" s="129" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
@@ -25345,13 +25342,13 @@
       <c r="I27" s="67"/>
       <c r="J27" s="67"/>
       <c r="K27" s="127" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L27" s="242" t="s">
         <v>1910</v>
       </c>
-      <c r="L27" s="242" t="s">
+      <c r="M27" s="129" t="s">
         <v>1911</v>
-      </c>
-      <c r="M27" s="129" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75">
@@ -25366,13 +25363,13 @@
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
       <c r="K28" s="127" t="s">
+        <v>1912</v>
+      </c>
+      <c r="L28" s="242" t="s">
         <v>1913</v>
       </c>
-      <c r="L28" s="242" t="s">
+      <c r="M28" s="129" t="s">
         <v>1914</v>
-      </c>
-      <c r="M28" s="129" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75">
@@ -25400,21 +25397,21 @@
       <c r="A30" s="285"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
       <c r="F30" s="67" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G30" s="67" t="s">
         <v>1917</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="H30" s="243" t="s">
         <v>1918</v>
       </c>
-      <c r="H30" s="243" t="s">
-        <v>1919</v>
-      </c>
       <c r="I30" s="67" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J30" s="67"/>
       <c r="K30" s="116" t="s">
@@ -25454,7 +25451,7 @@
         <v>362</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>365</v>
@@ -25463,19 +25460,19 @@
         <v>367</v>
       </c>
       <c r="F32" s="67" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G32" s="67" t="s">
         <v>1921</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="H32" s="67" t="s">
         <v>1922</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="I32" s="67" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J32" s="67" t="s">
         <v>1923</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>1427</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>1924</v>
       </c>
       <c r="K32" s="116" t="s">
         <v>958</v>
@@ -25514,7 +25511,7 @@
         <v>370</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>373</v>
@@ -25523,16 +25520,16 @@
         <v>375</v>
       </c>
       <c r="F34" s="67" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G34" s="67" t="s">
         <v>1926</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="H34" s="67" t="s">
         <v>1927</v>
       </c>
-      <c r="H34" s="67" t="s">
-        <v>1928</v>
-      </c>
       <c r="I34" s="67" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J34" s="67"/>
       <c r="K34" s="67"/>
@@ -25545,7 +25542,7 @@
         <v>378</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D35" s="67" t="s">
         <v>381</v>
@@ -25554,19 +25551,19 @@
         <v>389</v>
       </c>
       <c r="F35" s="67" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G35" s="67" t="s">
         <v>1930</v>
       </c>
-      <c r="G35" s="67" t="s">
+      <c r="H35" s="208" t="s">
         <v>1931</v>
       </c>
-      <c r="H35" s="208" t="s">
+      <c r="I35" s="67" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J35" s="67" t="s">
         <v>1932</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>1427</v>
-      </c>
-      <c r="J35" s="67" t="s">
-        <v>1933</v>
       </c>
       <c r="K35" s="116" t="s">
         <v>958</v>
@@ -25603,21 +25600,21 @@
       <c r="A37" s="285"/>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G37" s="208" t="s">
         <v>1935</v>
       </c>
-      <c r="G37" s="208" t="s">
+      <c r="H37" s="208" t="s">
         <v>1936</v>
       </c>
-      <c r="H37" s="208" t="s">
-        <v>1937</v>
-      </c>
       <c r="I37" s="67" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J37" s="67"/>
       <c r="K37" s="67"/>
@@ -25670,19 +25667,19 @@
         <v>8</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>817</v>
       </c>
       <c r="H1" s="58" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J1" t="s">
         <v>1147</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>1938</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1148</v>
       </c>
       <c r="K1" t="s">
         <v>821</v>
@@ -25700,7 +25697,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="245" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>248</v>
@@ -25709,26 +25706,26 @@
         <v>250</v>
       </c>
       <c r="F2" s="238" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G2" s="208" t="s">
         <v>1940</v>
       </c>
-      <c r="G2" s="208" t="s">
+      <c r="H2" s="67" t="s">
         <v>1941</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>1942</v>
       </c>
       <c r="I2" s="67" t="s">
         <v>1086</v>
       </c>
       <c r="J2" s="67"/>
       <c r="K2" s="66" t="s">
+        <v>1942</v>
+      </c>
+      <c r="L2" s="148" t="s">
         <v>1943</v>
       </c>
-      <c r="L2" s="148" t="s">
+      <c r="M2" s="147" t="s">
         <v>1944</v>
-      </c>
-      <c r="M2" s="147" t="s">
-        <v>1945</v>
       </c>
       <c r="N2" s="67"/>
     </row>
@@ -25744,13 +25741,13 @@
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
       <c r="K3" s="66" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L3" s="148" t="s">
         <v>1946</v>
       </c>
-      <c r="L3" s="148" t="s">
+      <c r="M3" s="147" t="s">
         <v>1947</v>
-      </c>
-      <c r="M3" s="147" t="s">
-        <v>1948</v>
       </c>
       <c r="N3" s="67"/>
     </row>
@@ -25766,13 +25763,13 @@
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
       <c r="K4" s="66" t="s">
+        <v>1948</v>
+      </c>
+      <c r="L4" s="148" t="s">
         <v>1949</v>
       </c>
-      <c r="L4" s="148" t="s">
+      <c r="M4" s="147" t="s">
         <v>1950</v>
-      </c>
-      <c r="M4" s="147" t="s">
-        <v>1951</v>
       </c>
       <c r="N4" s="67"/>
     </row>
@@ -25788,13 +25785,13 @@
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
+        <v>1951</v>
+      </c>
+      <c r="L5" s="148" t="s">
         <v>1952</v>
       </c>
-      <c r="L5" s="148" t="s">
+      <c r="M5" s="246" t="s">
         <v>1953</v>
-      </c>
-      <c r="M5" s="246" t="s">
-        <v>1954</v>
       </c>
       <c r="N5" s="67"/>
     </row>
@@ -25810,13 +25807,13 @@
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
       <c r="K6" s="66" t="s">
+        <v>1954</v>
+      </c>
+      <c r="L6" s="148" t="s">
         <v>1955</v>
       </c>
-      <c r="L6" s="148" t="s">
+      <c r="M6" s="147" t="s">
         <v>1956</v>
-      </c>
-      <c r="M6" s="147" t="s">
-        <v>1957</v>
       </c>
       <c r="N6" s="67"/>
     </row>
@@ -25832,13 +25829,13 @@
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="66" t="s">
+        <v>1957</v>
+      </c>
+      <c r="L7" s="148" t="s">
         <v>1958</v>
       </c>
-      <c r="L7" s="148" t="s">
+      <c r="M7" s="147" t="s">
         <v>1959</v>
-      </c>
-      <c r="M7" s="147" t="s">
-        <v>1960</v>
       </c>
       <c r="N7" s="67"/>
     </row>
@@ -25854,13 +25851,13 @@
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="66" t="s">
+        <v>1960</v>
+      </c>
+      <c r="L8" s="148" t="s">
         <v>1961</v>
       </c>
-      <c r="L8" s="148" t="s">
+      <c r="M8" s="147" t="s">
         <v>1962</v>
-      </c>
-      <c r="M8" s="147" t="s">
-        <v>1963</v>
       </c>
       <c r="N8" s="67"/>
     </row>
@@ -25876,13 +25873,13 @@
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="247" t="s">
+        <v>1963</v>
+      </c>
+      <c r="L9" s="146" t="s">
         <v>1964</v>
       </c>
-      <c r="L9" s="146" t="s">
+      <c r="M9" s="147" t="s">
         <v>1965</v>
-      </c>
-      <c r="M9" s="147" t="s">
-        <v>1966</v>
       </c>
       <c r="N9" s="68"/>
     </row>
@@ -25892,35 +25889,35 @@
         <v>253</v>
       </c>
       <c r="C10" s="105" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D10" s="208" t="s">
         <v>1967</v>
       </c>
-      <c r="D10" s="208" t="s">
+      <c r="E10" s="67" t="s">
         <v>1968</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="F10" s="67" t="s">
         <v>1969</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="G10" s="67" t="s">
         <v>1970</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="H10" s="67" t="s">
         <v>1971</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>1972</v>
       </c>
       <c r="I10" s="67" t="s">
         <v>1086</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="247" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L10" s="248" t="s">
         <v>1973</v>
       </c>
-      <c r="L10" s="248" t="s">
+      <c r="M10" s="147" t="s">
         <v>1974</v>
-      </c>
-      <c r="M10" s="147" t="s">
-        <v>1975</v>
       </c>
       <c r="N10" s="68"/>
     </row>
@@ -25936,13 +25933,13 @@
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="247" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L11" s="248" t="s">
         <v>1976</v>
       </c>
-      <c r="L11" s="248" t="s">
+      <c r="M11" s="147" t="s">
         <v>1977</v>
-      </c>
-      <c r="M11" s="147" t="s">
-        <v>1978</v>
       </c>
       <c r="N11" s="68"/>
     </row>
@@ -25958,13 +25955,13 @@
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="247" t="s">
+        <v>1978</v>
+      </c>
+      <c r="L12" s="248" t="s">
         <v>1979</v>
       </c>
-      <c r="L12" s="248" t="s">
+      <c r="M12" s="147" t="s">
         <v>1980</v>
-      </c>
-      <c r="M12" s="147" t="s">
-        <v>1981</v>
       </c>
       <c r="N12" s="68"/>
     </row>
@@ -25980,13 +25977,13 @@
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
       <c r="K13" s="247" t="s">
+        <v>1981</v>
+      </c>
+      <c r="L13" s="248" t="s">
         <v>1982</v>
       </c>
-      <c r="L13" s="248" t="s">
+      <c r="M13" s="147" t="s">
         <v>1983</v>
-      </c>
-      <c r="M13" s="147" t="s">
-        <v>1984</v>
       </c>
       <c r="N13" s="68"/>
     </row>
@@ -26002,13 +25999,13 @@
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
       <c r="K14" s="247" t="s">
+        <v>1984</v>
+      </c>
+      <c r="L14" s="146" t="s">
         <v>1985</v>
       </c>
-      <c r="L14" s="146" t="s">
+      <c r="M14" s="147" t="s">
         <v>1986</v>
-      </c>
-      <c r="M14" s="147" t="s">
-        <v>1987</v>
       </c>
       <c r="N14" s="68"/>
     </row>
@@ -26024,13 +26021,13 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="247" t="s">
+        <v>1987</v>
+      </c>
+      <c r="L15" s="146" t="s">
         <v>1988</v>
       </c>
-      <c r="L15" s="146" t="s">
+      <c r="M15" s="147" t="s">
         <v>1989</v>
-      </c>
-      <c r="M15" s="147" t="s">
-        <v>1990</v>
       </c>
       <c r="N15" s="68"/>
     </row>
@@ -26046,13 +26043,13 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="247" t="s">
+        <v>1990</v>
+      </c>
+      <c r="L16" s="249" t="s">
         <v>1991</v>
       </c>
-      <c r="L16" s="249" t="s">
+      <c r="M16" s="147" t="s">
         <v>1992</v>
-      </c>
-      <c r="M16" s="147" t="s">
-        <v>1993</v>
       </c>
       <c r="N16" s="68"/>
     </row>
@@ -26068,13 +26065,13 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="247" t="s">
+        <v>1993</v>
+      </c>
+      <c r="L17" s="249" t="s">
         <v>1994</v>
       </c>
-      <c r="L17" s="249" t="s">
+      <c r="M17" s="147" t="s">
         <v>1995</v>
-      </c>
-      <c r="M17" s="147" t="s">
-        <v>1996</v>
       </c>
       <c r="N17" s="68"/>
     </row>
@@ -26090,13 +26087,13 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="247" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L18" s="146" t="s">
         <v>1997</v>
       </c>
-      <c r="L18" s="146" t="s">
+      <c r="M18" s="147" t="s">
         <v>1998</v>
-      </c>
-      <c r="M18" s="147" t="s">
-        <v>1999</v>
       </c>
       <c r="N18" s="68"/>
     </row>
@@ -26106,6 +26103,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A595C2436754DD4192B3BEE0FFE1ED0A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ba19257e65125414350f132367e985">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00591925-1995-4bf8-8d28-1f7cbeda4924" xmlns:ns3="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a6491f746e84da8ae5f2642b9bcf21" ns2:_="" ns3:_="">
     <xsd:import namespace="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
@@ -26334,27 +26351,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26371,23 +26387,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
-    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>